--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11C273C-2AD7-48B0-8878-50F8F825AE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3907E-635E-46E9-B48B-8C2580475551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="465" windowWidth="17280" windowHeight="15000" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="10800" yWindow="15" windowWidth="18060" windowHeight="15000" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>Price</t>
   </si>
@@ -87,14 +87,192 @@
   </si>
   <si>
     <t>FQ422</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>CoP</t>
+  </si>
+  <si>
+    <t>CoS</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Gains on Investment</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Debt Exchange</t>
+  </si>
+  <si>
+    <t>Repayment of Debt</t>
+  </si>
+  <si>
+    <t>Stock issuance</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Intelligent Cloud</t>
+  </si>
+  <si>
+    <t>Productivity/Business</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -121,9 +299,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +344,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B111A066-3CA7-17B5-FD95-08FD116C4F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="57150"/>
+          <a:ext cx="0" cy="12982575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,15 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -454,29 +717,55 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="6">
+        <v>7534</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="6">
+        <f>L2*L3</f>
+        <v>1898568</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="6">
+        <v>111600</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="6">
+        <v>49926</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <f>L4-L5+L6</f>
+        <v>1836894</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
@@ -491,51 +780,1573 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44196</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44286</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44377</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44469</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44561</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44742</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>13353</v>
+      </c>
+      <c r="E4" s="7">
+        <v>13552</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>15936</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15789</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>14601</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15118</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>18327</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19051</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>15122</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13036</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>17465</v>
+      </c>
+      <c r="I6" s="7">
+        <v>14520</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15803</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19460</v>
+      </c>
+      <c r="E8" s="7">
+        <v>16873</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>16631</v>
+      </c>
+      <c r="H8" s="7">
+        <v>20779</v>
+      </c>
+      <c r="I8" s="7">
+        <v>17366</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
+        <v>21351</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23616</v>
+      </c>
+      <c r="E9" s="7">
+        <v>24833</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>28686</v>
+      </c>
+      <c r="H9" s="7">
+        <v>30949</v>
+      </c>
+      <c r="I9" s="7">
+        <v>31994</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10" si="0">C8+C9</f>
+        <v>37154</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ref="D10:H10" si="1">D8+D9</f>
+        <v>43076</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>41706</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>45317</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>51728</v>
+      </c>
+      <c r="I10" s="9">
+        <f>I8+I9</f>
+        <v>49360</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" ref="J10" si="2">J8+J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3597</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6058</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4277</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>3792</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6331</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4584</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7405</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8136</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8768</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>9854</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10629</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11031</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:D13" si="3">C11+C12</f>
+        <v>11002</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="3"/>
+        <v>14194</v>
+      </c>
+      <c r="E13" s="7">
+        <f>E11+E12</f>
+        <v>13045</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" ref="F13:I13" si="4">F11+F12</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="4"/>
+        <v>13646</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>16960</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>15615</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13" si="5">J11+J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:D14" si="6">C10-C13</f>
+        <v>26152</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="6"/>
+        <v>28882</v>
+      </c>
+      <c r="E14" s="7">
+        <f>E10-E13</f>
+        <v>28661</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14:I14" si="7">F10-F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="7"/>
+        <v>31671</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="7"/>
+        <v>34768</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="7"/>
+        <v>33745</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14" si="8">J10-J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4926</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4899</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5204</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>5599</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5758</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6306</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4231</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4947</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5082</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>4547</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5379</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5595</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1119</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1139</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1327</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>1287</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1384</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1480</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:H18" si="9">SUM(C15:C17)</f>
+        <v>10276</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="9"/>
+        <v>10985</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="9"/>
+        <v>11613</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="9"/>
+        <v>11433</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="9"/>
+        <v>12521</v>
+      </c>
+      <c r="I18" s="7">
+        <f>SUM(I15:I17)</f>
+        <v>13381</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:H19" si="10">C14-C18</f>
+        <v>15876</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="10"/>
+        <v>17897</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="10"/>
+        <v>17048</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="10"/>
+        <v>20238</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="10"/>
+        <v>22247</v>
+      </c>
+      <c r="I19" s="7">
+        <f>I14-I18</f>
+        <v>20364</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>248</v>
+      </c>
+      <c r="D20" s="2">
+        <v>440</v>
+      </c>
+      <c r="E20" s="2">
+        <v>188</v>
+      </c>
+      <c r="G20" s="2">
+        <v>286</v>
+      </c>
+      <c r="H20" s="2">
+        <v>268</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7">
+        <f>C19+C20</f>
+        <v>16124</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" ref="D21:J21" si="11">D19+D20</f>
+        <v>18337</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="11"/>
+        <v>17236</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="11"/>
+        <v>20524</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="11"/>
+        <v>22515</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="11"/>
+        <v>20190</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2231</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2874</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1779</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3750</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3462</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7">
+        <f>C21-C22</f>
+        <v>13893</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" ref="D23:J23" si="12">D21-D22</f>
+        <v>15463</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="12"/>
+        <v>15457</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="12"/>
+        <v>20505</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="12"/>
+        <v>18765</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="12"/>
+        <v>16728</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:H24" si="13">C23/C25</f>
+        <v>1.8191698310855047</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0303308823529411</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0346189285244174</v>
+      </c>
+      <c r="F24" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="13"/>
+        <v>2.7097925201532971</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="13"/>
+        <v>2.4837855724685638</v>
+      </c>
+      <c r="I24" s="10">
+        <f>I23/I25</f>
+        <v>2.2203344836740113</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7637</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7616</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7597</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>7567</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7555</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7534</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
+        <f t="shared" ref="G27" si="14">G10/C10-1</f>
+        <v>0.21970716477364483</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" ref="H27" si="15">H10/D10-1</f>
+        <v>0.2008543040208004</v>
+      </c>
+      <c r="I27" s="12">
+        <f>I10/E10-1</f>
+        <v>0.18352275451973332</v>
+      </c>
+      <c r="J27" s="12" t="e">
+        <f t="shared" ref="J27" si="16">J10/F10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" ref="C28:E28" si="17">C14/C10</f>
+        <v>0.70388114334930285</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="17"/>
+        <v>0.67048936762930633</v>
+      </c>
+      <c r="E28" s="11">
+        <f>E14/E10</f>
+        <v>0.68721526878626582</v>
+      </c>
+      <c r="F28" s="11" t="e">
+        <f t="shared" ref="F28:J28" si="18">F14/F10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="18"/>
+        <v>0.6988768012004325</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="18"/>
+        <v>0.67213114754098358</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="18"/>
+        <v>0.68365072933549431</v>
+      </c>
+      <c r="J28" s="11" t="e">
+        <f t="shared" ref="J28" si="19">J14/J10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <f>130615+6393</f>
+        <v>137008</v>
+      </c>
+      <c r="H30" s="7">
+        <f>125369+6994</f>
+        <v>132363</v>
+      </c>
+      <c r="I30" s="7">
+        <f>104693+6907</f>
+        <v>111600</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <v>27349</v>
+      </c>
+      <c r="H31" s="7">
+        <v>33520</v>
+      </c>
+      <c r="I31" s="7">
+        <v>32613</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>3411</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3019</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3296</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>12951</v>
+      </c>
+      <c r="H33" s="7">
+        <v>12280</v>
+      </c>
+      <c r="I33" s="7">
+        <v>13320</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>63772</v>
+      </c>
+      <c r="H34" s="7">
+        <v>67214</v>
+      </c>
+      <c r="I34" s="7">
+        <v>70298</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>11575</v>
+      </c>
+      <c r="H35" s="7">
+        <v>12354</v>
+      </c>
+      <c r="I35" s="7">
+        <v>12916</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <f>50455+7794</f>
+        <v>58249</v>
+      </c>
+      <c r="H36" s="7">
+        <f>50921+7462</f>
+        <v>58383</v>
+      </c>
+      <c r="I36" s="7">
+        <f>67371+11348</f>
+        <v>78719</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <v>21103</v>
+      </c>
+      <c r="H37" s="7">
+        <v>21256</v>
+      </c>
+      <c r="I37" s="7">
+        <v>21845</v>
+      </c>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <f t="shared" ref="G38" si="20">SUM(G30:G37)</f>
+        <v>335418</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38" si="21">SUM(H30:H37)</f>
+        <v>340389</v>
+      </c>
+      <c r="I38" s="9">
+        <f>SUM(I30:I37)</f>
+        <v>344607</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="40" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7">
+        <v>14832</v>
+      </c>
+      <c r="H40" s="7">
+        <v>15314</v>
+      </c>
+      <c r="I40" s="7">
+        <v>16085</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <f>3249+50039</f>
+        <v>53288</v>
+      </c>
+      <c r="H41" s="7">
+        <f>4998+48260</f>
+        <v>53258</v>
+      </c>
+      <c r="I41" s="7">
+        <f>1749+48177</f>
+        <v>49926</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7">
+        <v>6894</v>
+      </c>
+      <c r="H42" s="7">
+        <v>7782</v>
+      </c>
+      <c r="I42" s="7">
+        <v>9067</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7">
+        <f>6272+25715+212</f>
+        <v>32199</v>
+      </c>
+      <c r="H43" s="7">
+        <f>3731+26121+199</f>
+        <v>30051</v>
+      </c>
+      <c r="I43" s="7">
+        <f>4646+26483+304</f>
+        <v>31433</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
+        <f>2550+38465</f>
+        <v>41015</v>
+      </c>
+      <c r="H44" s="7">
+        <f>2768+34001</f>
+        <v>36769</v>
+      </c>
+      <c r="I44" s="7">
+        <f>34027+2769</f>
+        <v>36796</v>
+      </c>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7">
+        <v>10816</v>
+      </c>
+      <c r="H45" s="7">
+        <v>11684</v>
+      </c>
+      <c r="I45" s="7">
+        <v>11865</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
+        <v>10050</v>
+      </c>
+      <c r="H46" s="7">
+        <v>10774</v>
+      </c>
+      <c r="I46" s="7">
+        <v>11357</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
+        <v>14346</v>
+      </c>
+      <c r="H47" s="7">
+        <v>14747</v>
+      </c>
+      <c r="I47" s="7">
+        <v>15154</v>
+      </c>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7">
+        <v>151978</v>
+      </c>
+      <c r="H48" s="7">
+        <v>160010</v>
+      </c>
+      <c r="I48" s="7">
+        <v>162924</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <f t="shared" ref="G49:H49" si="22">SUM(G40:G48)</f>
+        <v>335418</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="22"/>
+        <v>340389</v>
+      </c>
+      <c r="I49" s="9">
+        <f>SUM(I40:I48)</f>
+        <v>344607</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="51" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7">
+        <f t="shared" ref="G51:H51" si="23">G23</f>
+        <v>20505</v>
+      </c>
+      <c r="H51" s="7">
+        <f>H23</f>
+        <v>18765</v>
+      </c>
+      <c r="I51" s="7">
+        <f>I23</f>
+        <v>16728</v>
+      </c>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
+        <v>20505</v>
+      </c>
+      <c r="H52" s="7">
+        <v>18765</v>
+      </c>
+      <c r="I52" s="7">
+        <v>16728</v>
+      </c>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
+        <v>3212</v>
+      </c>
+      <c r="H53" s="7">
+        <v>3496</v>
+      </c>
+      <c r="I53" s="7">
+        <v>3773</v>
+      </c>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7">
+        <v>1702</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1897</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1906</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7">
+        <v>-364</v>
+      </c>
+      <c r="H55" s="7">
+        <v>-307</v>
+      </c>
+      <c r="I55" s="7">
+        <v>105</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7">
+        <v>-5970</v>
+      </c>
+      <c r="H56" s="7">
+        <v>183</v>
+      </c>
+      <c r="I56" s="7">
+        <v>-198</v>
+      </c>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7">
+        <f>10486-777+940-598-471-2885+2653-4143+250</f>
+        <v>5455</v>
+      </c>
+      <c r="H57" s="7">
+        <f>-5543+394+830-908+235-4343-2057+1745+93</f>
+        <v>-9554</v>
+      </c>
+      <c r="I57" s="7">
+        <f>857-279+91-724+520-209+1091+1287+438</f>
+        <v>3072</v>
+      </c>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7">
+        <f t="shared" ref="G58" si="24">SUM(G52:G57)</f>
+        <v>24540</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58" si="25">SUM(H52:H57)</f>
+        <v>14480</v>
+      </c>
+      <c r="I58" s="7">
+        <f>SUM(I52:I57)</f>
+        <v>25386</v>
+      </c>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7">
+        <v>-5810</v>
+      </c>
+      <c r="H60" s="7">
+        <v>-5865</v>
+      </c>
+      <c r="I60" s="7">
+        <v>-5340</v>
+      </c>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7">
+        <v>-1206</v>
+      </c>
+      <c r="H61" s="7">
+        <v>-850</v>
+      </c>
+      <c r="I61" s="7">
+        <v>-18719</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7">
+        <f>-10309+8862+5630</f>
+        <v>4183</v>
+      </c>
+      <c r="H62" s="7">
+        <f>-2505+5253+2895</f>
+        <v>5643</v>
+      </c>
+      <c r="I62" s="7">
+        <f>-8723+1099+16693</f>
+        <v>9069</v>
+      </c>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7">
+        <v>-417</v>
+      </c>
+      <c r="H63" s="7">
+        <v>-89</v>
+      </c>
+      <c r="I63" s="7">
+        <v>-1181</v>
+      </c>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7">
+        <f t="shared" ref="G64:H64" si="26">SUM(G60:G63)</f>
+        <v>-3250</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="26"/>
+        <v>-1161</v>
+      </c>
+      <c r="I64" s="7">
+        <f>SUM(I60:I63)</f>
+        <v>-16171</v>
+      </c>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="66" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7">
+        <v>-4826</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>-4197</v>
+      </c>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7">
+        <f>612-7684</f>
+        <v>-7072</v>
+      </c>
+      <c r="H68" s="7">
+        <f>291-7433</f>
+        <v>-7142</v>
+      </c>
+      <c r="I68" s="7">
+        <f>477-8822</f>
+        <v>-8345</v>
+      </c>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7">
+        <v>-4206</v>
+      </c>
+      <c r="H69" s="7">
+        <v>-4652</v>
+      </c>
+      <c r="I69" s="7">
+        <v>-4645</v>
+      </c>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7">
+        <v>-172</v>
+      </c>
+      <c r="H70" s="7">
+        <v>-192</v>
+      </c>
+      <c r="I70" s="7">
+        <v>-158</v>
+      </c>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7">
+        <f t="shared" ref="G71" si="27">SUM(G66:G70)</f>
+        <v>-16276</v>
+      </c>
+      <c r="H71" s="7">
+        <f>SUM(H66:H70)</f>
+        <v>-11986</v>
+      </c>
+      <c r="I71" s="7">
+        <f>SUM(I66:I70)</f>
+        <v>-17345</v>
+      </c>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-73</v>
+      </c>
+      <c r="H72" s="2">
+        <v>106</v>
+      </c>
+      <c r="I72" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" ref="G73" si="28">G71+G72+G64+G58</f>
+        <v>4941</v>
+      </c>
+      <c r="H73" s="7">
+        <f>H71+H72+H64+H58</f>
+        <v>1439</v>
+      </c>
+      <c r="I73" s="7">
+        <f>I71+I72+I64+I58</f>
+        <v>-8106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" ref="G75:H75" si="29">G58+G60</f>
+        <v>18730</v>
+      </c>
+      <c r="H75" s="7">
+        <f>H58+H60</f>
+        <v>8615</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" ref="I75" si="30">I58+I60</f>
+        <v>20046</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F3907E-635E-46E9-B48B-8C2580475551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13D507-89D8-4003-B816-6B268B1E9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="15" windowWidth="18060" windowHeight="15000" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="4980" yWindow="660" windowWidth="17280" windowHeight="15000" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Founded</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -768,6 +771,14 @@
         <v>1836894</v>
       </c>
     </row>
+    <row r="9" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9">
+        <v>1975</v>
+      </c>
+    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
@@ -782,11 +793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28:E28" si="17">C14/C10</f>
+        <f t="shared" ref="C28:D28" si="17">C14/C10</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="D28" s="11">
@@ -1500,7 +1511,7 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="F28" s="11" t="e">
-        <f t="shared" ref="F28:J28" si="18">F14/F10</f>
+        <f t="shared" ref="F28:I28" si="18">F14/F10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="11">
@@ -1911,7 +1922,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7">
-        <f t="shared" ref="G51:H51" si="23">G23</f>
+        <f t="shared" ref="G51" si="23">G23</f>
         <v>20505</v>
       </c>
       <c r="H51" s="7">
@@ -2330,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" ref="G75:H75" si="29">G58+G60</f>
+        <f t="shared" ref="G75" si="29">G58+G60</f>
         <v>18730</v>
       </c>
       <c r="H75" s="7">

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE07C3-0BA5-41AC-965E-04A01D56FD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFE6B5-E2B4-446E-AD0A-7181D666FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>Price</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>F2018</t>
+  </si>
+  <si>
+    <t>F2017</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -416,7 +422,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,13 +494,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -926,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
-  <dimension ref="A1:CK80"/>
+  <dimension ref="A1:CM80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH30" sqref="AH30"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -942,20 +948,22 @@
     <col min="3" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="14" width="9.85546875" style="2" customWidth="1"/>
     <col min="15" max="18" width="9.85546875" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" style="2"/>
-    <col min="34" max="34" width="9" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="2"/>
+    <col min="36" max="36" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>44012</v>
+      </c>
       <c r="G2" s="3">
         <v>44104</v>
       </c>
@@ -997,52 +1005,58 @@
         <v>45107</v>
       </c>
       <c r="T2" s="12">
+        <v>42916</v>
+      </c>
+      <c r="U2" s="12">
+        <v>43281</v>
+      </c>
+      <c r="V2" s="12">
         <v>43646</v>
       </c>
-      <c r="U2" s="3">
+      <c r="W2" s="3">
         <v>44012</v>
       </c>
-      <c r="V2" s="3">
+      <c r="X2" s="3">
         <f>+J2</f>
         <v>44377</v>
       </c>
-      <c r="W2" s="3">
+      <c r="Y2" s="3">
         <f>+N2</f>
         <v>44742</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Z2" s="3">
         <v>45107</v>
       </c>
-      <c r="Y2" s="12">
-        <f>+X2+366</f>
+      <c r="AA2" s="12">
+        <f>+Z2+366</f>
         <v>45473</v>
-      </c>
-      <c r="Z2" s="12">
-        <f>+Y2+365</f>
-        <v>45838</v>
-      </c>
-      <c r="AA2" s="12">
-        <f>+Z2+365</f>
-        <v>46203</v>
       </c>
       <c r="AB2" s="12">
         <f>+AA2+365</f>
-        <v>46568</v>
+        <v>45838</v>
       </c>
       <c r="AC2" s="12">
-        <f>+AB2+366</f>
-        <v>46934</v>
+        <f>+AB2+365</f>
+        <v>46203</v>
       </c>
       <c r="AD2" s="12">
         <f>+AC2+365</f>
+        <v>46568</v>
+      </c>
+      <c r="AE2" s="12">
+        <f>+AD2+366</f>
+        <v>46934</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>+AE2+365</f>
         <v>47299</v>
       </c>
-      <c r="AE2" s="12">
-        <f>+AD2+365</f>
+      <c r="AG2" s="12">
+        <f>+AF2+365</f>
         <v>47664</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1092,43 +1106,49 @@
         <v>87</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>88</v>
       </c>
@@ -1141,20 +1161,22 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>11752</v>
+      </c>
       <c r="G6" s="6">
         <v>12319</v>
       </c>
@@ -1179,25 +1201,27 @@
       <c r="N6" s="6">
         <v>16600</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
         <f>SUM(G6:J6)</f>
         <v>53915</v>
       </c>
-      <c r="W6" s="6">
+      <c r="Y6" s="6">
         <f>SUM(K6:N6)</f>
         <v>63364</v>
       </c>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>13371</v>
+      </c>
       <c r="G7" s="6">
         <v>12986</v>
       </c>
@@ -1222,25 +1246,27 @@
       <c r="N7" s="6">
         <v>20909</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6">
+      <c r="W7" s="6"/>
+      <c r="X7" s="6">
         <f>SUM(G7:J7)</f>
         <v>60080</v>
       </c>
-      <c r="W7" s="6">
-        <f t="shared" ref="W7:W14" si="0">SUM(K7:N7)</f>
+      <c r="Y7" s="6">
+        <f t="shared" ref="Y7:Y14" si="0">SUM(K7:N7)</f>
         <v>75251</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>12910</v>
+      </c>
       <c r="G8" s="6">
         <v>11849</v>
       </c>
@@ -1265,25 +1291,27 @@
       <c r="N8" s="6">
         <v>14356</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6">
+      <c r="W8" s="6"/>
+      <c r="X8" s="6">
         <f>SUM(G8:J8)</f>
         <v>54093</v>
       </c>
-      <c r="W8" s="6">
+      <c r="Y8" s="6">
         <f t="shared" si="0"/>
         <v>59655</v>
       </c>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="10" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>18147</v>
+      </c>
       <c r="G10" s="6">
         <v>15803</v>
       </c>
@@ -1309,60 +1337,68 @@
         <v>17956</v>
       </c>
       <c r="T10" s="5">
+        <v>63811</v>
+      </c>
+      <c r="U10" s="5">
+        <v>64497</v>
+      </c>
+      <c r="V10" s="5">
         <v>66069</v>
       </c>
-      <c r="U10" s="6">
+      <c r="W10" s="6">
         <v>68041</v>
       </c>
-      <c r="V10" s="6">
+      <c r="X10" s="6">
         <f>SUM(G10:J10)</f>
         <v>71074</v>
       </c>
-      <c r="W10" s="6">
+      <c r="Y10" s="6">
         <f t="shared" si="0"/>
         <v>72732</v>
       </c>
-      <c r="X10" s="6">
-        <f>+W10*1.01</f>
+      <c r="Z10" s="6">
+        <f>+Y10*1.01</f>
         <v>73459.320000000007</v>
       </c>
-      <c r="Y10" s="6">
-        <f>+X10*1.03</f>
+      <c r="AA10" s="6">
+        <f>+Z10*1.03</f>
         <v>75663.099600000016</v>
       </c>
-      <c r="Z10" s="6">
-        <f t="shared" ref="Z10:AE10" si="1">+Y10*1.03</f>
+      <c r="AB10" s="6">
+        <f t="shared" ref="AB10:AG10" si="1">+AA10*1.03</f>
         <v>77932.992588000023</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AC10" s="6">
         <f t="shared" si="1"/>
         <v>80270.982365640026</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AD10" s="6">
         <f t="shared" si="1"/>
         <v>82679.111836609227</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AE10" s="6">
         <f t="shared" si="1"/>
         <v>85159.485191707499</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <f t="shared" si="1"/>
         <v>87714.269747458733</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AG10" s="6">
         <f t="shared" si="1"/>
         <v>90345.697839882501</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6">
+        <v>19886</v>
+      </c>
       <c r="G11" s="6">
         <v>21351</v>
       </c>
@@ -1388,62 +1424,71 @@
         <v>33909</v>
       </c>
       <c r="T11" s="5">
+        <v>32760</v>
+      </c>
+      <c r="U11" s="5">
+        <v>45863</v>
+      </c>
+      <c r="V11" s="5">
         <v>59774</v>
       </c>
-      <c r="U11" s="6">
+      <c r="W11" s="6">
         <v>74974</v>
       </c>
-      <c r="V11" s="6">
+      <c r="X11" s="6">
         <f>SUM(G11:J11)</f>
         <v>97014</v>
       </c>
-      <c r="W11" s="6">
+      <c r="Y11" s="6">
         <f t="shared" si="0"/>
         <v>125538</v>
       </c>
-      <c r="X11" s="6">
-        <f>+W11*1.2</f>
+      <c r="Z11" s="6">
+        <f>+Y11*1.2</f>
         <v>150645.6</v>
       </c>
-      <c r="Y11" s="6">
-        <f>+X11*1.15</f>
+      <c r="AA11" s="6">
+        <f>+Z11*1.15</f>
         <v>173242.44</v>
       </c>
-      <c r="Z11" s="6">
-        <f>+Y11*1.1</f>
+      <c r="AB11" s="6">
+        <f>+AA11*1.1</f>
         <v>190566.68400000001</v>
       </c>
-      <c r="AA11" s="6">
-        <f t="shared" ref="AA11:AE11" si="2">+Z11*1.1</f>
+      <c r="AC11" s="6">
+        <f t="shared" ref="AC11:AG11" si="2">+AB11*1.1</f>
         <v>209623.35240000003</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AD11" s="6">
         <f t="shared" si="2"/>
         <v>230585.68764000005</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AE11" s="6">
         <f t="shared" si="2"/>
         <v>253644.25640400007</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <f t="shared" si="2"/>
         <v>279008.68204440008</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AG11" s="6">
         <f t="shared" si="2"/>
         <v>306909.55024884013</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:G12" si="3">F10+F11</f>
+        <v>38033</v>
+      </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12" si="3">G10+G11</f>
+        <f t="shared" si="3"/>
         <v>37154</v>
       </c>
       <c r="H12" s="8">
@@ -1476,61 +1521,71 @@
       </c>
       <c r="T12" s="8">
         <f>+T11+T10</f>
-        <v>125843</v>
+        <v>96571</v>
       </c>
       <c r="U12" s="8">
         <f>+U11+U10</f>
-        <v>143015</v>
+        <v>110360</v>
       </c>
       <c r="V12" s="8">
         <f>+V11+V10</f>
-        <v>168088</v>
+        <v>125843</v>
       </c>
       <c r="W12" s="8">
         <f>+W11+W10</f>
-        <v>198270</v>
+        <v>143015</v>
       </c>
       <c r="X12" s="8">
         <f>+X11+X10</f>
+        <v>168088</v>
+      </c>
+      <c r="Y12" s="8">
+        <f>+Y11+Y10</f>
+        <v>198270</v>
+      </c>
+      <c r="Z12" s="8">
+        <f>+Z11+Z10</f>
         <v>224104.92</v>
       </c>
-      <c r="Y12" s="8">
-        <f t="shared" ref="Y12:AE12" si="6">+Y11+Y10</f>
+      <c r="AA12" s="8">
+        <f t="shared" ref="AA12:AG12" si="6">+AA11+AA10</f>
         <v>248905.53960000002</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="AB12" s="8">
         <f t="shared" si="6"/>
         <v>268499.67658800003</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AC12" s="8">
         <f t="shared" si="6"/>
         <v>289894.33476564009</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AD12" s="8">
         <f t="shared" si="6"/>
         <v>313264.79947660927</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AE12" s="8">
         <f t="shared" si="6"/>
         <v>338803.7415957076</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AF12" s="8">
         <f t="shared" si="6"/>
         <v>366722.95179185882</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AG12" s="8">
         <f t="shared" si="6"/>
         <v>397255.24808872264</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>4370</v>
+      </c>
       <c r="G13" s="6">
         <v>3597</v>
       </c>
@@ -1556,25 +1611,25 @@
         <v>4357</v>
       </c>
       <c r="T13" s="5">
+        <v>15175</v>
+      </c>
+      <c r="U13" s="5">
+        <v>15420</v>
+      </c>
+      <c r="V13" s="5">
         <v>16273</v>
       </c>
-      <c r="U13" s="6">
+      <c r="W13" s="6">
         <v>16017</v>
       </c>
-      <c r="V13" s="6">
+      <c r="X13" s="6">
         <f>SUM(G13:J13)</f>
         <v>18219</v>
       </c>
-      <c r="W13" s="6">
+      <c r="Y13" s="6">
         <f t="shared" si="0"/>
         <v>19064</v>
       </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
       <c r="Z13" s="6">
         <v>0</v>
       </c>
@@ -1593,15 +1648,23 @@
       <c r="AE13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>7969</v>
+      </c>
       <c r="G14" s="6">
         <v>7405</v>
       </c>
@@ -1627,25 +1690,25 @@
         <v>12072</v>
       </c>
       <c r="T14" s="5">
+        <v>19086</v>
+      </c>
+      <c r="U14" s="5">
+        <v>22933</v>
+      </c>
+      <c r="V14" s="5">
         <v>26637</v>
       </c>
-      <c r="U14" s="6">
+      <c r="W14" s="6">
         <v>30061</v>
       </c>
-      <c r="V14" s="6">
+      <c r="X14" s="6">
         <f>SUM(G14:J14)</f>
         <v>34013</v>
       </c>
-      <c r="W14" s="6">
+      <c r="Y14" s="6">
         <f t="shared" si="0"/>
         <v>43586</v>
       </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
       <c r="Z14" s="6">
         <v>0</v>
       </c>
@@ -1664,21 +1727,30 @@
       <c r="AE14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:G15" si="7">F13+F14</f>
+        <v>12339</v>
+      </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:H15" si="7">G13+G14</f>
+        <f t="shared" ref="G15:H15" si="8">G13+G14</f>
         <v>11002</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14194</v>
       </c>
       <c r="I15" s="6">
@@ -1686,88 +1758,99 @@
         <v>13045</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15:M15" si="8">J13+J14</f>
+        <f t="shared" ref="J15:M15" si="9">J13+J14</f>
         <v>13991</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13646</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16960</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15615</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15" si="9">N13+N14</f>
+        <f t="shared" ref="N15" si="10">N13+N14</f>
         <v>16429</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" ref="T15:V15" si="10">T13+T14</f>
+        <f t="shared" ref="T15:U15" si="11">T13+T14</f>
+        <v>34261</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="11"/>
+        <v>38353</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" ref="V15:W15" si="12">V13+V14</f>
         <v>42910</v>
       </c>
-      <c r="U15" s="6">
-        <f t="shared" si="10"/>
+      <c r="W15" s="6">
+        <f t="shared" si="12"/>
         <v>46078</v>
       </c>
-      <c r="V15" s="6">
-        <f t="shared" ref="V15:X15" si="11">V13+V14</f>
+      <c r="X15" s="6">
+        <f t="shared" ref="X15:Y15" si="13">X13+X14</f>
         <v>52232</v>
       </c>
-      <c r="W15" s="6">
-        <f t="shared" si="11"/>
+      <c r="Y15" s="6">
+        <f t="shared" si="13"/>
         <v>62650</v>
       </c>
-      <c r="X15" s="6">
-        <f>+X12-X16</f>
+      <c r="Z15" s="6">
+        <f>+Z12-Z16</f>
         <v>73954.623599999992</v>
       </c>
-      <c r="Y15" s="6">
-        <f t="shared" ref="Y15:AE15" si="12">+Y12-Y16</f>
+      <c r="AA15" s="6">
+        <f t="shared" ref="AA15:AG15" si="14">+AA12-AA16</f>
         <v>82138.828068000003</v>
       </c>
-      <c r="Z15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AB15" s="6">
+        <f t="shared" si="14"/>
         <v>88604.893274039991</v>
       </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AC15" s="6">
+        <f t="shared" si="14"/>
         <v>95665.130472661229</v>
       </c>
-      <c r="AB15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AD15" s="6">
+        <f t="shared" si="14"/>
         <v>103377.38382728104</v>
       </c>
-      <c r="AC15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AE15" s="6">
+        <f t="shared" si="14"/>
         <v>111805.2347265835</v>
       </c>
-      <c r="AD15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AF15" s="6">
+        <f t="shared" si="14"/>
         <v>121018.57409131341</v>
       </c>
-      <c r="AE15" s="6">
-        <f t="shared" si="12"/>
+      <c r="AG15" s="6">
+        <f t="shared" si="14"/>
         <v>131094.23186927848</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:G16" si="15">F12-F15</f>
+        <v>25694</v>
+      </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:H16" si="13">G12-G15</f>
+        <f t="shared" ref="G16:H16" si="16">G12-G15</f>
         <v>26152</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28882</v>
       </c>
       <c r="I16" s="6">
@@ -1775,82 +1858,92 @@
         <v>28661</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" ref="J16:M16" si="14">J12-J15</f>
+        <f t="shared" ref="J16:M16" si="17">J12-J15</f>
         <v>32161</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>31671</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>34768</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>33745</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="15">N12-N15</f>
+        <f t="shared" ref="N16" si="18">N12-N15</f>
         <v>35436</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" ref="T16:V16" si="16">T12-T15</f>
+        <f t="shared" ref="T16:U16" si="19">T12-T15</f>
+        <v>62310</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="19"/>
+        <v>72007</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" ref="V16:W16" si="20">V12-V15</f>
         <v>82933</v>
       </c>
-      <c r="U16" s="6">
-        <f t="shared" si="16"/>
+      <c r="W16" s="6">
+        <f t="shared" si="20"/>
         <v>96937</v>
       </c>
-      <c r="V16" s="6">
-        <f t="shared" ref="V16:X16" si="17">V12-V15</f>
+      <c r="X16" s="6">
+        <f t="shared" ref="X16:Y16" si="21">X12-X15</f>
         <v>115856</v>
       </c>
-      <c r="W16" s="6">
-        <f t="shared" si="17"/>
+      <c r="Y16" s="6">
+        <f t="shared" si="21"/>
         <v>135620</v>
       </c>
-      <c r="X16" s="6">
-        <f>+X12*0.67</f>
+      <c r="Z16" s="6">
+        <f>+Z12*0.67</f>
         <v>150150.29640000002</v>
       </c>
-      <c r="Y16" s="6">
-        <f t="shared" ref="Y16:AE16" si="18">+Y12*0.67</f>
+      <c r="AA16" s="6">
+        <f t="shared" ref="AA16:AG16" si="22">+AA12*0.67</f>
         <v>166766.71153200002</v>
       </c>
-      <c r="Z16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AB16" s="6">
+        <f t="shared" si="22"/>
         <v>179894.78331396004</v>
       </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AC16" s="6">
+        <f t="shared" si="22"/>
         <v>194229.20429297886</v>
       </c>
-      <c r="AB16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AD16" s="6">
+        <f t="shared" si="22"/>
         <v>209887.41564932824</v>
       </c>
-      <c r="AC16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AE16" s="6">
+        <f t="shared" si="22"/>
         <v>226998.5068691241</v>
       </c>
-      <c r="AD16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AF16" s="6">
+        <f t="shared" si="22"/>
         <v>245704.37770054542</v>
       </c>
-      <c r="AE16" s="6">
-        <f t="shared" si="18"/>
+      <c r="AG16" s="6">
+        <f t="shared" si="22"/>
         <v>266161.01621944417</v>
       </c>
     </row>
-    <row r="17" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6">
+        <v>5214</v>
+      </c>
       <c r="G17" s="6">
         <v>4926</v>
       </c>
@@ -1876,60 +1969,68 @@
         <v>6849</v>
       </c>
       <c r="T17" s="5">
+        <v>13037</v>
+      </c>
+      <c r="U17" s="5">
+        <v>14726</v>
+      </c>
+      <c r="V17" s="5">
         <v>16876</v>
       </c>
-      <c r="U17" s="6">
+      <c r="W17" s="6">
         <v>19269</v>
       </c>
-      <c r="V17" s="6">
+      <c r="X17" s="6">
         <f>SUM(G17:J17)</f>
         <v>20716</v>
       </c>
-      <c r="W17" s="6">
-        <f t="shared" ref="W17:X19" si="19">SUM(K17:N17)</f>
+      <c r="Y17" s="6">
+        <f t="shared" ref="Y17:Y19" si="23">SUM(K17:N17)</f>
         <v>24512</v>
       </c>
-      <c r="X17" s="6">
-        <f>+W17*1.1</f>
+      <c r="Z17" s="6">
+        <f>+Y17*1.1</f>
         <v>26963.200000000001</v>
       </c>
-      <c r="Y17" s="6">
-        <f t="shared" ref="Y17:AE17" si="20">+X17*1.1</f>
+      <c r="AA17" s="6">
+        <f t="shared" ref="AA17:AG17" si="24">+Z17*1.1</f>
         <v>29659.520000000004</v>
       </c>
-      <c r="Z17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AB17" s="6">
+        <f t="shared" si="24"/>
         <v>32625.472000000009</v>
       </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AC17" s="6">
+        <f t="shared" si="24"/>
         <v>35888.01920000001</v>
       </c>
-      <c r="AB17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AD17" s="6">
+        <f t="shared" si="24"/>
         <v>39476.821120000015</v>
       </c>
-      <c r="AC17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AE17" s="6">
+        <f t="shared" si="24"/>
         <v>43424.503232000017</v>
       </c>
-      <c r="AD17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AF17" s="6">
+        <f t="shared" si="24"/>
         <v>47766.953555200023</v>
       </c>
-      <c r="AE17" s="6">
-        <f t="shared" si="20"/>
+      <c r="AG17" s="6">
+        <f t="shared" si="24"/>
         <v>52543.648910720032</v>
       </c>
     </row>
-    <row r="18" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <v>5417</v>
+      </c>
       <c r="G18" s="6">
         <v>4231</v>
       </c>
@@ -1955,60 +2056,68 @@
         <v>6304</v>
       </c>
       <c r="T18" s="5">
+        <v>15461</v>
+      </c>
+      <c r="U18" s="5">
+        <v>17469</v>
+      </c>
+      <c r="V18" s="5">
         <v>18213</v>
       </c>
-      <c r="U18" s="6">
+      <c r="W18" s="6">
         <v>19598</v>
       </c>
-      <c r="V18" s="6">
+      <c r="X18" s="6">
         <f>SUM(G18:J18)</f>
         <v>20117</v>
       </c>
-      <c r="W18" s="6">
-        <f t="shared" si="19"/>
+      <c r="Y18" s="6">
+        <f t="shared" si="23"/>
         <v>21825</v>
       </c>
-      <c r="X18" s="6">
-        <f>+W18*1.1</f>
+      <c r="Z18" s="6">
+        <f>+Y18*1.1</f>
         <v>24007.500000000004</v>
       </c>
-      <c r="Y18" s="6">
-        <f t="shared" ref="Y18:AE18" si="21">+X18*1.1</f>
+      <c r="AA18" s="6">
+        <f t="shared" ref="AA18:AG18" si="25">+Z18*1.1</f>
         <v>26408.250000000007</v>
       </c>
-      <c r="Z18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AB18" s="6">
+        <f t="shared" si="25"/>
         <v>29049.075000000012</v>
       </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AC18" s="6">
+        <f t="shared" si="25"/>
         <v>31953.982500000016</v>
       </c>
-      <c r="AB18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AD18" s="6">
+        <f t="shared" si="25"/>
         <v>35149.380750000018</v>
       </c>
-      <c r="AC18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AE18" s="6">
+        <f t="shared" si="25"/>
         <v>38664.318825000024</v>
       </c>
-      <c r="AD18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AF18" s="6">
+        <f t="shared" si="25"/>
         <v>42530.750707500032</v>
       </c>
-      <c r="AE18" s="6">
-        <f t="shared" si="21"/>
+      <c r="AG18" s="6">
+        <f t="shared" si="25"/>
         <v>46783.825778250037</v>
       </c>
     </row>
-    <row r="19" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6">
+        <v>1656</v>
+      </c>
       <c r="G19" s="6">
         <v>1119</v>
       </c>
@@ -2034,82 +2143,91 @@
         <v>1749</v>
       </c>
       <c r="T19" s="5">
+        <v>4481</v>
+      </c>
+      <c r="U19" s="5">
+        <v>4754</v>
+      </c>
+      <c r="V19" s="5">
         <v>4885</v>
       </c>
-      <c r="U19" s="6">
+      <c r="W19" s="6">
         <v>5111</v>
       </c>
-      <c r="V19" s="6">
+      <c r="X19" s="6">
         <f>SUM(G19:J19)</f>
         <v>5107</v>
       </c>
-      <c r="W19" s="6">
-        <f t="shared" si="19"/>
+      <c r="Y19" s="6">
+        <f t="shared" si="23"/>
         <v>5900</v>
       </c>
-      <c r="X19" s="6">
-        <f>+W19*1.1</f>
+      <c r="Z19" s="6">
+        <f>+Y19*1.1</f>
         <v>6490.0000000000009</v>
       </c>
-      <c r="Y19" s="6">
-        <f t="shared" ref="Y19:AE19" si="22">+X19*1.1</f>
+      <c r="AA19" s="6">
+        <f t="shared" ref="AA19:AG19" si="26">+Z19*1.1</f>
         <v>7139.0000000000018</v>
       </c>
-      <c r="Z19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AB19" s="6">
+        <f t="shared" si="26"/>
         <v>7852.9000000000024</v>
       </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AC19" s="6">
+        <f t="shared" si="26"/>
         <v>8638.1900000000041</v>
       </c>
-      <c r="AB19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AD19" s="6">
+        <f t="shared" si="26"/>
         <v>9502.0090000000055</v>
       </c>
-      <c r="AC19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AE19" s="6">
+        <f t="shared" si="26"/>
         <v>10452.209900000007</v>
       </c>
-      <c r="AD19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AF19" s="6">
+        <f t="shared" si="26"/>
         <v>11497.430890000009</v>
       </c>
-      <c r="AE19" s="6">
-        <f t="shared" si="22"/>
+      <c r="AG19" s="6">
+        <f t="shared" si="26"/>
         <v>12647.17397900001</v>
       </c>
     </row>
-    <row r="20" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:G20" si="27">SUM(F17:F19)</f>
+        <v>12287</v>
+      </c>
       <c r="G20" s="6">
-        <f t="shared" ref="G20:L20" si="23">SUM(G17:G19)</f>
+        <f t="shared" ref="G20:L20" si="28">SUM(G17:G19)</f>
         <v>10276</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>10985</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>11613</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>13066</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>11433</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>12521</v>
       </c>
       <c r="M20" s="6">
@@ -2117,88 +2235,99 @@
         <v>13381</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="24">SUM(N17:N19)</f>
+        <f t="shared" ref="N20" si="29">SUM(N17:N19)</f>
         <v>14902</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" ref="T20" si="25">SUM(T17:T19)</f>
+        <f t="shared" ref="T20" si="30">SUM(T17:T19)</f>
+        <v>32979</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" ref="U20:V20" si="31">SUM(U17:U19)</f>
+        <v>36949</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="31"/>
         <v>39974</v>
       </c>
-      <c r="U20" s="6">
-        <f t="shared" ref="U20" si="26">SUM(U17:U19)</f>
+      <c r="W20" s="6">
+        <f t="shared" ref="W20" si="32">SUM(W17:W19)</f>
         <v>43978</v>
       </c>
-      <c r="V20" s="6">
-        <f t="shared" ref="V20:X20" si="27">SUM(V17:V19)</f>
+      <c r="X20" s="6">
+        <f t="shared" ref="X20:Z20" si="33">SUM(X17:X19)</f>
         <v>45940</v>
       </c>
-      <c r="W20" s="6">
-        <f t="shared" si="27"/>
+      <c r="Y20" s="6">
+        <f t="shared" si="33"/>
         <v>52237</v>
       </c>
-      <c r="X20" s="6">
-        <f t="shared" si="27"/>
+      <c r="Z20" s="6">
+        <f t="shared" si="33"/>
         <v>57460.700000000004</v>
       </c>
-      <c r="Y20" s="6">
-        <f t="shared" ref="Y20" si="28">SUM(Y17:Y19)</f>
+      <c r="AA20" s="6">
+        <f t="shared" ref="AA20" si="34">SUM(AA17:AA19)</f>
         <v>63206.770000000011</v>
       </c>
-      <c r="Z20" s="6">
-        <f t="shared" ref="Z20" si="29">SUM(Z17:Z19)</f>
+      <c r="AB20" s="6">
+        <f t="shared" ref="AB20" si="35">SUM(AB17:AB19)</f>
         <v>69527.447000000029</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" ref="AA20" si="30">SUM(AA17:AA19)</f>
+      <c r="AC20" s="6">
+        <f t="shared" ref="AC20" si="36">SUM(AC17:AC19)</f>
         <v>76480.191700000025</v>
       </c>
-      <c r="AB20" s="6">
-        <f t="shared" ref="AB20" si="31">SUM(AB17:AB19)</f>
+      <c r="AD20" s="6">
+        <f t="shared" ref="AD20" si="37">SUM(AD17:AD19)</f>
         <v>84128.210870000039</v>
       </c>
-      <c r="AC20" s="6">
-        <f t="shared" ref="AC20" si="32">SUM(AC17:AC19)</f>
+      <c r="AE20" s="6">
+        <f t="shared" ref="AE20" si="38">SUM(AE17:AE19)</f>
         <v>92541.031957000043</v>
       </c>
-      <c r="AD20" s="6">
-        <f t="shared" ref="AD20" si="33">SUM(AD17:AD19)</f>
+      <c r="AF20" s="6">
+        <f t="shared" ref="AF20" si="39">SUM(AF17:AF19)</f>
         <v>101795.13515270005</v>
       </c>
-      <c r="AE20" s="6">
-        <f t="shared" ref="AE20" si="34">SUM(AE17:AE19)</f>
+      <c r="AG20" s="6">
+        <f t="shared" ref="AG20" si="40">SUM(AG17:AG19)</f>
         <v>111974.64866797009</v>
       </c>
     </row>
-    <row r="21" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:G21" si="41">F16-F20</f>
+        <v>13407</v>
+      </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:L21" si="35">G16-G20</f>
+        <f t="shared" ref="G21:L21" si="42">G16-G20</f>
         <v>15876</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>17897</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>17048</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>19095</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>20238</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>22247</v>
       </c>
       <c r="M21" s="6">
@@ -2206,62 +2335,73 @@
         <v>20364</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21" si="36">N16-N20</f>
+        <f t="shared" ref="N21" si="43">N16-N20</f>
         <v>20534</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" ref="T21" si="37">T16-T20</f>
+        <f t="shared" ref="T21" si="44">T16-T20</f>
+        <v>29331</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21:V21" si="45">U16-U20</f>
+        <v>35058</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="45"/>
         <v>42959</v>
       </c>
-      <c r="U21" s="6">
-        <f t="shared" ref="U21" si="38">U16-U20</f>
+      <c r="W21" s="6">
+        <f t="shared" ref="W21" si="46">W16-W20</f>
         <v>52959</v>
       </c>
-      <c r="V21" s="6">
-        <f t="shared" ref="V21:X21" si="39">V16-V20</f>
+      <c r="X21" s="6">
+        <f t="shared" ref="X21:Z21" si="47">X16-X20</f>
         <v>69916</v>
       </c>
-      <c r="W21" s="6">
-        <f t="shared" si="39"/>
+      <c r="Y21" s="6">
+        <f t="shared" si="47"/>
         <v>83383</v>
       </c>
-      <c r="X21" s="6">
-        <f t="shared" si="39"/>
+      <c r="Z21" s="6">
+        <f t="shared" si="47"/>
         <v>92689.596400000009</v>
       </c>
-      <c r="Y21" s="6">
-        <f t="shared" ref="Y21" si="40">Y16-Y20</f>
+      <c r="AA21" s="6">
+        <f t="shared" ref="AA21" si="48">AA16-AA20</f>
         <v>103559.941532</v>
       </c>
-      <c r="Z21" s="6">
-        <f t="shared" ref="Z21" si="41">Z16-Z20</f>
+      <c r="AB21" s="6">
+        <f t="shared" ref="AB21" si="49">AB16-AB20</f>
         <v>110367.33631396001</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" ref="AA21" si="42">AA16-AA20</f>
+      <c r="AC21" s="6">
+        <f t="shared" ref="AC21" si="50">AC16-AC20</f>
         <v>117749.01259297883</v>
       </c>
-      <c r="AB21" s="6">
-        <f t="shared" ref="AB21" si="43">AB16-AB20</f>
+      <c r="AD21" s="6">
+        <f t="shared" ref="AD21" si="51">AD16-AD20</f>
         <v>125759.2047793282</v>
       </c>
-      <c r="AC21" s="6">
-        <f t="shared" ref="AC21" si="44">AC16-AC20</f>
+      <c r="AE21" s="6">
+        <f t="shared" ref="AE21" si="52">AE16-AE20</f>
         <v>134457.47491212405</v>
       </c>
-      <c r="AD21" s="6">
-        <f t="shared" ref="AD21" si="45">AD16-AD20</f>
+      <c r="AF21" s="6">
+        <f t="shared" ref="AF21" si="53">AF16-AF20</f>
         <v>143909.24254784535</v>
       </c>
-      <c r="AE21" s="6">
-        <f t="shared" ref="AE21" si="46">AE16-AE20</f>
+      <c r="AG21" s="6">
+        <f t="shared" ref="AG21" si="54">AG16-AG20</f>
         <v>154186.36755147408</v>
       </c>
     </row>
-    <row r="22" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F22" s="2">
+        <v>15</v>
+      </c>
       <c r="G22" s="2">
         <v>248</v>
       </c>
@@ -2287,149 +2427,168 @@
         <v>-47</v>
       </c>
       <c r="T22" s="5">
+        <v>876</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1416</v>
+      </c>
+      <c r="V22" s="5">
         <v>729</v>
       </c>
-      <c r="U22" s="2">
+      <c r="W22" s="2">
         <v>77</v>
       </c>
-      <c r="V22" s="6">
+      <c r="X22" s="6">
         <f>SUM(G22:J22)</f>
         <v>1186</v>
       </c>
-      <c r="W22" s="6">
-        <f t="shared" ref="W22" si="47">SUM(K22:N22)</f>
+      <c r="Y22" s="6">
+        <f t="shared" ref="Y22" si="55">SUM(K22:N22)</f>
         <v>333</v>
       </c>
-      <c r="X22" s="6">
-        <f>+W33*$AH$30</f>
+      <c r="Z22" s="6">
+        <f>+Y33*$AJ$30</f>
         <v>618.66999999999996</v>
       </c>
-      <c r="Y22" s="6">
-        <f t="shared" ref="Y22:AE22" si="48">+X33*$AH$30</f>
+      <c r="AA22" s="6">
+        <f t="shared" ref="AA22:AG22" si="56">+Z33*$AJ$30</f>
         <v>1411.7902643999998</v>
       </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AB22" s="6">
+        <f t="shared" si="56"/>
         <v>2304.0499846693997</v>
       </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AC22" s="6">
+        <f t="shared" si="56"/>
         <v>3261.7567682077497</v>
       </c>
-      <c r="AB22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AD22" s="6">
+        <f t="shared" si="56"/>
         <v>4290.3483077778355</v>
       </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AE22" s="6">
+        <f t="shared" si="56"/>
         <v>5395.7695090182369</v>
       </c>
-      <c r="AD22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AF22" s="6">
+        <f t="shared" si="56"/>
         <v>6584.5220865979463</v>
       </c>
-      <c r="AE22" s="6">
-        <f t="shared" si="48"/>
+      <c r="AG22" s="6">
+        <f t="shared" si="56"/>
         <v>7863.7190859907141</v>
       </c>
     </row>
-    <row r="23" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23" si="57">F21+F22</f>
+        <v>13422</v>
+      </c>
       <c r="G23" s="6">
         <f>G21+G22</f>
         <v>16124</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:N23" si="49">H21+H22</f>
+        <f t="shared" ref="H23:N23" si="58">H21+H22</f>
         <v>18337</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>17236</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>19405</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>20524</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>22515</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>20190</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>20487</v>
       </c>
       <c r="T23" s="5">
         <f>+T21+T22</f>
+        <v>30207</v>
+      </c>
+      <c r="U23" s="5">
+        <f>+U21+U22</f>
+        <v>36474</v>
+      </c>
+      <c r="V23" s="5">
+        <f>+V21+V22</f>
         <v>43688</v>
       </c>
-      <c r="U23" s="6">
-        <f>+U21+U22</f>
+      <c r="W23" s="6">
+        <f>+W21+W22</f>
         <v>53036</v>
       </c>
-      <c r="V23" s="6">
-        <f t="shared" ref="V23:X23" si="50">+V21+V22</f>
+      <c r="X23" s="6">
+        <f t="shared" ref="X23:Z23" si="59">+X21+X22</f>
         <v>71102</v>
       </c>
-      <c r="W23" s="6">
-        <f t="shared" si="50"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="59"/>
         <v>83716</v>
       </c>
-      <c r="X23" s="6">
-        <f t="shared" si="50"/>
+      <c r="Z23" s="6">
+        <f t="shared" si="59"/>
         <v>93308.266400000008</v>
       </c>
-      <c r="Y23" s="6">
-        <f t="shared" ref="Y23" si="51">+Y21+Y22</f>
+      <c r="AA23" s="6">
+        <f t="shared" ref="AA23" si="60">+AA21+AA22</f>
         <v>104971.7317964</v>
       </c>
-      <c r="Z23" s="6">
-        <f t="shared" ref="Z23" si="52">+Z21+Z22</f>
+      <c r="AB23" s="6">
+        <f t="shared" ref="AB23" si="61">+AB21+AB22</f>
         <v>112671.38629862941</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" ref="AA23" si="53">+AA21+AA22</f>
+      <c r="AC23" s="6">
+        <f t="shared" ref="AC23" si="62">+AC21+AC22</f>
         <v>121010.76936118658</v>
       </c>
-      <c r="AB23" s="6">
-        <f t="shared" ref="AB23" si="54">+AB21+AB22</f>
+      <c r="AD23" s="6">
+        <f t="shared" ref="AD23" si="63">+AD21+AD22</f>
         <v>130049.55308710603</v>
       </c>
-      <c r="AC23" s="6">
-        <f t="shared" ref="AC23" si="55">+AC21+AC22</f>
+      <c r="AE23" s="6">
+        <f t="shared" ref="AE23" si="64">+AE21+AE22</f>
         <v>139853.24442114227</v>
       </c>
-      <c r="AD23" s="6">
-        <f t="shared" ref="AD23" si="56">+AD21+AD22</f>
+      <c r="AF23" s="6">
+        <f t="shared" ref="AF23" si="65">+AF21+AF22</f>
         <v>150493.7646344433</v>
       </c>
-      <c r="AE23" s="6">
-        <f t="shared" ref="AE23" si="57">+AE21+AE22</f>
+      <c r="AG23" s="6">
+        <f t="shared" ref="AG23" si="66">+AG21+AG22</f>
         <v>162050.08663746479</v>
       </c>
     </row>
-    <row r="24" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>2220</v>
+      </c>
       <c r="G24" s="6">
         <v>2231</v>
       </c>
@@ -2455,403 +2614,423 @@
         <v>3747</v>
       </c>
       <c r="T24" s="5">
+        <v>4412</v>
+      </c>
+      <c r="U24" s="5">
+        <v>19903</v>
+      </c>
+      <c r="V24" s="5">
         <v>4448</v>
       </c>
-      <c r="U24" s="6">
+      <c r="W24" s="6">
         <v>8755</v>
       </c>
-      <c r="V24" s="6">
+      <c r="X24" s="6">
         <f>SUM(G24:J24)</f>
         <v>9831</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" ref="W24" si="58">SUM(K24:N24)</f>
+      <c r="Y24" s="6">
+        <f t="shared" ref="Y24" si="67">SUM(K24:N24)</f>
         <v>10978</v>
       </c>
-      <c r="X24" s="6">
-        <f>+X23*0.15</f>
+      <c r="Z24" s="6">
+        <f>+Z23*0.15</f>
         <v>13996.239960000001</v>
       </c>
-      <c r="Y24" s="6">
-        <f t="shared" ref="Y24:AE24" si="59">+Y23*0.15</f>
+      <c r="AA24" s="6">
+        <f t="shared" ref="AA24:AG24" si="68">+AA23*0.15</f>
         <v>15745.759769459999</v>
       </c>
-      <c r="Z24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AB24" s="6">
+        <f t="shared" si="68"/>
         <v>16900.707944794412</v>
       </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AC24" s="6">
+        <f t="shared" si="68"/>
         <v>18151.615404177988</v>
       </c>
-      <c r="AB24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AD24" s="6">
+        <f t="shared" si="68"/>
         <v>19507.432963065905</v>
       </c>
-      <c r="AC24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AE24" s="6">
+        <f t="shared" si="68"/>
         <v>20977.986663171341</v>
       </c>
-      <c r="AD24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AF24" s="6">
+        <f t="shared" si="68"/>
         <v>22574.064695166493</v>
       </c>
-      <c r="AE24" s="6">
-        <f t="shared" si="59"/>
+      <c r="AG24" s="6">
+        <f t="shared" si="68"/>
         <v>24307.512995619716</v>
       </c>
     </row>
-    <row r="25" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25" si="69">F23-F24</f>
+        <v>11202</v>
+      </c>
       <c r="G25" s="6">
         <f>G23-G24</f>
         <v>13893</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:N25" si="60">H23-H24</f>
+        <f t="shared" ref="H25:N25" si="70">H23-H24</f>
         <v>15463</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>15457</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>16458</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>20505</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>18765</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>16728</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>16740</v>
       </c>
       <c r="T25" s="5">
         <f>+T23-T24</f>
-        <v>39240</v>
+        <v>25795</v>
       </c>
       <c r="U25" s="5">
         <f>+U23-U24</f>
+        <v>16571</v>
+      </c>
+      <c r="V25" s="5">
+        <f>+V23-V24</f>
+        <v>39240</v>
+      </c>
+      <c r="W25" s="5">
+        <f>+W23-W24</f>
         <v>44281</v>
       </c>
-      <c r="V25" s="5">
-        <f t="shared" ref="V25:X26" si="61">+V23-V24</f>
+      <c r="X25" s="5">
+        <f t="shared" ref="X25:Z25" si="71">+X23-X24</f>
         <v>61271</v>
       </c>
-      <c r="W25" s="5">
-        <f t="shared" si="61"/>
+      <c r="Y25" s="5">
+        <f t="shared" si="71"/>
         <v>72738</v>
       </c>
-      <c r="X25" s="5">
-        <f t="shared" si="61"/>
+      <c r="Z25" s="5">
+        <f t="shared" si="71"/>
         <v>79312.026440000001</v>
       </c>
-      <c r="Y25" s="5">
-        <f t="shared" ref="Y25" si="62">+Y23-Y24</f>
+      <c r="AA25" s="5">
+        <f t="shared" ref="AA25" si="72">+AA23-AA24</f>
         <v>89225.972026939999</v>
       </c>
-      <c r="Z25" s="5">
-        <f t="shared" ref="Z25" si="63">+Z23-Z24</f>
+      <c r="AB25" s="5">
+        <f t="shared" ref="AB25" si="73">+AB23-AB24</f>
         <v>95770.678353834999</v>
       </c>
-      <c r="AA25" s="5">
-        <f t="shared" ref="AA25" si="64">+AA23-AA24</f>
+      <c r="AC25" s="5">
+        <f t="shared" ref="AC25" si="74">+AC23-AC24</f>
         <v>102859.15395700859</v>
       </c>
-      <c r="AB25" s="5">
-        <f t="shared" ref="AB25" si="65">+AB23-AB24</f>
+      <c r="AD25" s="5">
+        <f t="shared" ref="AD25" si="75">+AD23-AD24</f>
         <v>110542.12012404013</v>
       </c>
-      <c r="AC25" s="5">
-        <f t="shared" ref="AC25" si="66">+AC23-AC24</f>
+      <c r="AE25" s="5">
+        <f t="shared" ref="AE25" si="76">+AE23-AE24</f>
         <v>118875.25775797093</v>
       </c>
-      <c r="AD25" s="5">
-        <f t="shared" ref="AD25" si="67">+AD23-AD24</f>
+      <c r="AF25" s="5">
+        <f t="shared" ref="AF25" si="77">+AF23-AF24</f>
         <v>127919.6999392768</v>
       </c>
-      <c r="AE25" s="5">
-        <f t="shared" ref="AE25" si="68">+AE23-AE24</f>
-        <v>137742.57364184508</v>
-      </c>
-      <c r="AF25" s="5">
-        <f>+AE25*(1+$AH$28)</f>
-        <v>137742.57364184508</v>
-      </c>
       <c r="AG25" s="5">
-        <f t="shared" ref="AG25:CK25" si="69">+AF25*(1+$AH$28)</f>
+        <f t="shared" ref="AG25" si="78">+AG23-AG24</f>
         <v>137742.57364184508</v>
       </c>
       <c r="AH25" s="5">
-        <f t="shared" si="69"/>
+        <f>+AG25*(1+$AJ$28)</f>
         <v>137742.57364184508</v>
       </c>
       <c r="AI25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="AI25:CM25" si="79">+AH25*(1+$AJ$28)</f>
         <v>137742.57364184508</v>
       </c>
       <c r="AJ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AK25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AL25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AM25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AN25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AO25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AP25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AQ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AR25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AS25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AT25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AU25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AV25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AW25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AX25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AY25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="AZ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BA25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BB25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BC25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BD25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BE25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BF25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BG25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BH25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BI25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BJ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BK25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BL25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BM25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BN25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BO25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BP25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BQ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BR25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BS25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BT25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BU25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BV25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BW25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BX25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BY25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="BZ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CA25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CB25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CC25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CD25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CE25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CF25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CG25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CH25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CI25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CJ25" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>137742.57364184508</v>
       </c>
       <c r="CK25" s="5">
-        <f t="shared" si="69"/>
-        <v>137742.57364184508</v>
-      </c>
-    </row>
-    <row r="26" spans="2:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="79"/>
+        <v>137742.57364184508</v>
+      </c>
+      <c r="CL25" s="5">
+        <f t="shared" si="79"/>
+        <v>137742.57364184508</v>
+      </c>
+      <c r="CM25" s="5">
+        <f t="shared" si="79"/>
+        <v>137742.57364184508</v>
+      </c>
+    </row>
+    <row r="26" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:G26" si="80">F25/F27</f>
+        <v>1.4643137254901961</v>
+      </c>
       <c r="G26" s="9">
-        <f t="shared" ref="G26:L26" si="70">G25/G27</f>
+        <f t="shared" ref="G26:L26" si="81">G25/G27</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="M26" s="9">
@@ -2864,61 +3043,71 @@
       </c>
       <c r="T26" s="13">
         <f>+T25/T27</f>
-        <v>5.0612666064749128</v>
+        <v>3.2935393258426968</v>
       </c>
       <c r="U26" s="13">
         <f>+U25/U27</f>
+        <v>2.126122658455222</v>
+      </c>
+      <c r="V26" s="13">
+        <f>+V25/V27</f>
+        <v>5.0612666064749128</v>
+      </c>
+      <c r="W26" s="13">
+        <f>+W25/W27</f>
         <v>5.7635038396459715</v>
       </c>
-      <c r="V26" s="13">
-        <f t="shared" ref="V26:X26" si="71">+V25/V27</f>
+      <c r="X26" s="13">
+        <f t="shared" ref="X26:Z26" si="82">+X25/X27</f>
         <v>8.0537609674345241</v>
       </c>
-      <c r="W26" s="13">
-        <f t="shared" si="71"/>
+      <c r="Y26" s="13">
+        <f t="shared" si="82"/>
         <v>9.6463099263974534</v>
       </c>
-      <c r="X26" s="13">
-        <f t="shared" si="71"/>
+      <c r="Z26" s="13">
+        <f t="shared" si="82"/>
         <v>10.566483671729284</v>
       </c>
-      <c r="Y26" s="13">
-        <f t="shared" ref="Y26" si="72">+Y25/Y27</f>
+      <c r="AA26" s="13">
+        <f t="shared" ref="AA26" si="83">+AA25/AA27</f>
         <v>11.887286441105783</v>
       </c>
-      <c r="Z26" s="13">
-        <f t="shared" ref="Z26" si="73">+Z25/Z27</f>
+      <c r="AB26" s="13">
+        <f t="shared" ref="AB26" si="84">+AB25/AB27</f>
         <v>12.759216407385425</v>
       </c>
-      <c r="AA26" s="13">
-        <f t="shared" ref="AA26" si="74">+AA25/AA27</f>
+      <c r="AC26" s="13">
+        <f t="shared" ref="AC26" si="85">+AC25/AC27</f>
         <v>13.703590988143963</v>
       </c>
-      <c r="AB26" s="13">
-        <f t="shared" ref="AB26" si="75">+AB25/AB27</f>
+      <c r="AD26" s="13">
+        <f t="shared" ref="AD26" si="86">+AD25/AD27</f>
         <v>14.727167615779393</v>
       </c>
-      <c r="AC26" s="13">
-        <f t="shared" ref="AC26" si="76">+AC25/AC27</f>
+      <c r="AE26" s="13">
+        <f t="shared" ref="AE26" si="87">+AE25/AE27</f>
         <v>15.837364476148538</v>
       </c>
-      <c r="AD26" s="13">
-        <f t="shared" ref="AD26" si="77">+AD25/AD27</f>
+      <c r="AF26" s="13">
+        <f t="shared" ref="AF26" si="88">+AF25/AF27</f>
         <v>17.042326130998774</v>
       </c>
-      <c r="AE26" s="13">
-        <f t="shared" ref="AE26" si="78">+AE25/AE27</f>
+      <c r="AG26" s="13">
+        <f t="shared" ref="AG26" si="89">+AG25/AG27</f>
         <v>18.350995689028121</v>
       </c>
     </row>
-    <row r="27" spans="2:89" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6">
+        <v>7650</v>
+      </c>
       <c r="G27" s="6">
         <v>7637</v>
       </c>
@@ -2944,69 +3133,75 @@
         <v>7506</v>
       </c>
       <c r="T27" s="5">
+        <v>7832</v>
+      </c>
+      <c r="U27" s="5">
+        <v>7794</v>
+      </c>
+      <c r="V27" s="5">
         <v>7753</v>
       </c>
-      <c r="U27" s="6">
+      <c r="W27" s="6">
         <v>7683</v>
       </c>
-      <c r="V27" s="6">
+      <c r="X27" s="6">
         <f>AVERAGE(G27:J27)</f>
         <v>7607.75</v>
       </c>
-      <c r="W27" s="6">
+      <c r="Y27" s="6">
         <f>AVERAGE(K27:N27)</f>
         <v>7540.5</v>
       </c>
-      <c r="X27" s="6">
+      <c r="Z27" s="6">
         <f>+N27</f>
         <v>7506</v>
       </c>
-      <c r="Y27" s="6">
-        <f>+X27</f>
+      <c r="AA27" s="6">
+        <f>+Z27</f>
         <v>7506</v>
       </c>
-      <c r="Z27" s="6">
-        <f t="shared" ref="Z27:AE27" si="79">+Y27</f>
+      <c r="AB27" s="6">
+        <f t="shared" ref="AB27:AG27" si="90">+AA27</f>
         <v>7506</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="79"/>
+      <c r="AC27" s="6">
+        <f t="shared" si="90"/>
         <v>7506</v>
       </c>
-      <c r="AB27" s="6">
-        <f t="shared" si="79"/>
+      <c r="AD27" s="6">
+        <f t="shared" si="90"/>
         <v>7506</v>
       </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="79"/>
+      <c r="AE27" s="6">
+        <f t="shared" si="90"/>
         <v>7506</v>
       </c>
-      <c r="AD27" s="6">
-        <f t="shared" si="79"/>
+      <c r="AF27" s="6">
+        <f t="shared" si="90"/>
         <v>7506</v>
       </c>
-      <c r="AE27" s="6">
-        <f t="shared" si="79"/>
+      <c r="AG27" s="6">
+        <f t="shared" si="90"/>
         <v>7506</v>
       </c>
     </row>
-    <row r="28" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:91" x14ac:dyDescent="0.2">
       <c r="O28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AG28" t="s">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AI28" t="s">
         <v>99</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AJ28" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:89" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:91" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
@@ -3017,13 +3212,16 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29:K29" si="91">J12/F12-1</f>
+        <v>0.21347251071437956</v>
+      </c>
       <c r="K29" s="11">
-        <f t="shared" ref="K29" si="80">K12/G12-1</f>
+        <f t="shared" si="91"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" ref="L29" si="81">L12/H12-1</f>
+        <f t="shared" ref="L29" si="92">L12/H12-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="M29" s="11">
@@ -3031,74 +3229,85 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" ref="N29" si="82">N12/J12-1</f>
+        <f t="shared" ref="N29" si="93">N12/J12-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="U29" s="11">
         <f>+U12/T12-1</f>
-        <v>0.13645574247276371</v>
+        <v>0.14278613662486661</v>
       </c>
       <c r="V29" s="11">
         <f>+V12/U12-1</f>
-        <v>0.17531727441177503</v>
+        <v>0.14029539688292858</v>
       </c>
       <c r="W29" s="11">
         <f>+W12/V12-1</f>
-        <v>0.17956070629670173</v>
+        <v>0.13645574247276371</v>
       </c>
       <c r="X29" s="11">
         <f>+X12/W12-1</f>
+        <v>0.17531727441177503</v>
+      </c>
+      <c r="Y29" s="11">
+        <f>+Y12/X12-1</f>
+        <v>0.17956070629670173</v>
+      </c>
+      <c r="Z29" s="11">
+        <f>+Z12/Y12-1</f>
         <v>0.13030170978968081</v>
       </c>
-      <c r="Y29" s="11">
-        <f t="shared" ref="Y29:AE29" si="83">+Y12/X12-1</f>
+      <c r="AA29" s="11">
+        <f t="shared" ref="AA29:AG29" si="94">+AA12/Z12-1</f>
         <v>0.1106652169885427</v>
       </c>
-      <c r="Z29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AB29" s="11">
+        <f t="shared" si="94"/>
         <v>7.8721176794572356E-2</v>
       </c>
-      <c r="AA29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AC29" s="11">
+        <f t="shared" si="94"/>
         <v>7.9682249340170097E-2</v>
       </c>
-      <c r="AB29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AD29" s="11">
+        <f t="shared" si="94"/>
         <v>8.0617183257005065E-2</v>
       </c>
-      <c r="AC29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AE29" s="11">
+        <f t="shared" si="94"/>
         <v>8.1525093664426507E-2</v>
       </c>
-      <c r="AD29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AF29" s="11">
+        <f t="shared" si="94"/>
         <v>8.2405259353561133E-2</v>
       </c>
-      <c r="AE29" s="11">
-        <f t="shared" si="83"/>
+      <c r="AG29" s="11">
+        <f t="shared" si="94"/>
         <v>8.3257118616870907E-2</v>
       </c>
-      <c r="AG29" s="4" t="s">
+      <c r="AI29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AH29" s="15">
+      <c r="AJ29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10">
+        <f t="shared" ref="F30:G30" si="95">F16/F12</f>
+        <v>0.67557121447164303</v>
+      </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:H30" si="84">G16/G12</f>
+        <f t="shared" ref="G30:H30" si="96">G16/G12</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I30" s="10">
@@ -3106,183 +3315,202 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" ref="J30:M30" si="85">J16/J12</f>
+        <f t="shared" ref="J30:M30" si="97">J16/J12</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" ref="N30" si="86">N16/N12</f>
+        <f t="shared" ref="N30" si="98">N16/N12</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" ref="T30:X30" si="87">T16/T12</f>
+        <f t="shared" ref="T30:U30" si="99">T16/T12</f>
+        <v>0.64522475691460168</v>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="99"/>
+        <v>0.65247372236317502</v>
+      </c>
+      <c r="V30" s="10">
+        <f t="shared" ref="V30:Z30" si="100">V16/V12</f>
         <v>0.65901957200638894</v>
       </c>
-      <c r="U30" s="10">
-        <f t="shared" si="87"/>
+      <c r="W30" s="10">
+        <f t="shared" si="100"/>
         <v>0.67781001992797962</v>
       </c>
-      <c r="V30" s="10">
-        <f t="shared" si="87"/>
+      <c r="X30" s="10">
+        <f t="shared" si="100"/>
         <v>0.68925800771024703</v>
       </c>
-      <c r="W30" s="10">
-        <f t="shared" si="87"/>
+      <c r="Y30" s="10">
+        <f t="shared" si="100"/>
         <v>0.68401674484289099</v>
       </c>
-      <c r="X30" s="10">
-        <f t="shared" si="87"/>
+      <c r="Z30" s="10">
+        <f t="shared" si="100"/>
         <v>0.67</v>
       </c>
-      <c r="Y30" s="10">
-        <f t="shared" ref="Y30:AE30" si="88">Y16/Y12</f>
+      <c r="AA30" s="10">
+        <f t="shared" ref="AA30:AG30" si="101">AA16/AA12</f>
         <v>0.67</v>
       </c>
-      <c r="Z30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AB30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AA30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AC30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AB30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AD30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AC30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AE30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AD30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AF30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AE30" s="10">
-        <f t="shared" si="88"/>
+      <c r="AG30" s="10">
+        <f t="shared" si="101"/>
         <v>0.67</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AI30" t="s">
         <v>100</v>
       </c>
-      <c r="AH30" s="14">
+      <c r="AJ30" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31:G31" si="102">+F24/F23</f>
+        <v>0.16540008940545373</v>
+      </c>
       <c r="G31" s="10">
         <f>+G24/G23</f>
         <v>0.13836516993301909</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31:N31" si="89">+H24/H23</f>
+        <f t="shared" ref="H31:N31" si="103">+H24/H23</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" ref="T31:X31" si="90">+T24/T23</f>
+        <f t="shared" ref="T31:U31" si="104">+T24/T23</f>
+        <v>0.14605886052901645</v>
+      </c>
+      <c r="U31" s="10">
+        <f t="shared" si="104"/>
+        <v>0.5456763722103416</v>
+      </c>
+      <c r="V31" s="10">
+        <f t="shared" ref="V31:Z31" si="105">+V24/V23</f>
         <v>0.10181285478850027</v>
       </c>
-      <c r="U31" s="10">
-        <f t="shared" si="90"/>
+      <c r="W31" s="10">
+        <f t="shared" si="105"/>
         <v>0.16507655177615205</v>
       </c>
-      <c r="V31" s="10">
-        <f t="shared" si="90"/>
+      <c r="X31" s="10">
+        <f t="shared" si="105"/>
         <v>0.13826615285083402</v>
       </c>
-      <c r="W31" s="10">
-        <f t="shared" si="90"/>
+      <c r="Y31" s="10">
+        <f t="shared" si="105"/>
         <v>0.13113383343685794</v>
       </c>
-      <c r="X31" s="10">
-        <f t="shared" si="90"/>
+      <c r="Z31" s="10">
+        <f t="shared" si="105"/>
         <v>0.15</v>
       </c>
-      <c r="Y31" s="10">
-        <f t="shared" ref="Y31:AE31" si="91">+Y24/Y23</f>
+      <c r="AA31" s="10">
+        <f t="shared" ref="AA31:AG31" si="106">+AA24/AA23</f>
         <v>0.15</v>
       </c>
-      <c r="Z31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AB31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AA31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AC31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AB31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AD31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AC31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AE31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AD31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AF31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AE31" s="10">
-        <f t="shared" si="91"/>
+      <c r="AG31" s="10">
+        <f t="shared" si="106"/>
         <v>0.15</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AI31" t="s">
         <v>101</v>
       </c>
-      <c r="AH31" s="5">
-        <f>NPV(AH29,X25:CK25)+Main!L5-Main!L6</f>
+      <c r="AJ31" s="5">
+        <f>NPV(AJ29,Z25:CM25)+Main!L5-Main!L6</f>
         <v>1810856.2720202641</v>
       </c>
     </row>
-    <row r="32" spans="2:89" x14ac:dyDescent="0.2">
-      <c r="AH32" s="1">
-        <f>+AH31/Main!L3</f>
+    <row r="32" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="1">
+        <f>+AJ31/Main!L3</f>
         <v>240.35788054423469</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>83</v>
       </c>
@@ -3290,44 +3518,44 @@
         <f>+N34-N45</f>
         <v>61867</v>
       </c>
-      <c r="W33" s="6">
+      <c r="Y33" s="6">
         <f>+N33</f>
         <v>61867</v>
       </c>
-      <c r="X33" s="6">
-        <f>+W33+X25</f>
+      <c r="Z33" s="6">
+        <f>+Y33+Z25</f>
         <v>141179.02643999999</v>
       </c>
-      <c r="Y33" s="6">
-        <f t="shared" ref="Y33:AE33" si="92">+X33+Y25</f>
+      <c r="AA33" s="6">
+        <f t="shared" ref="AA33:AG33" si="107">+Z33+AA25</f>
         <v>230404.99846693999</v>
       </c>
-      <c r="Z33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AB33" s="6">
+        <f t="shared" si="107"/>
         <v>326175.67682077497</v>
       </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AC33" s="6">
+        <f t="shared" si="107"/>
         <v>429034.83077778353</v>
       </c>
-      <c r="AB33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AD33" s="6">
+        <f t="shared" si="107"/>
         <v>539576.9509018237</v>
       </c>
-      <c r="AC33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AE33" s="6">
+        <f t="shared" si="107"/>
         <v>658452.20865979465</v>
       </c>
-      <c r="AD33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AF33" s="6">
+        <f t="shared" si="107"/>
         <v>786371.90859907144</v>
       </c>
-      <c r="AE33" s="6">
-        <f t="shared" si="92"/>
+      <c r="AG33" s="6">
+        <f t="shared" si="107"/>
         <v>924114.48224091646</v>
       </c>
     </row>
-    <row r="34" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
@@ -3355,12 +3583,12 @@
         <f>104757+6891</f>
         <v>111648</v>
       </c>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-    </row>
-    <row r="35" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
@@ -3384,12 +3612,12 @@
       <c r="N35" s="6">
         <v>44261</v>
       </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3413,12 +3641,12 @@
       <c r="N36" s="6">
         <v>3742</v>
       </c>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-    </row>
-    <row r="37" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
@@ -3442,12 +3670,12 @@
       <c r="N37" s="6">
         <v>16924</v>
       </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
@@ -3471,12 +3699,12 @@
       <c r="N38" s="6">
         <v>74398</v>
       </c>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>40</v>
       </c>
@@ -3500,12 +3728,12 @@
       <c r="N39" s="6">
         <v>13148</v>
       </c>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
@@ -3533,12 +3761,12 @@
         <f>67524+11298</f>
         <v>78822</v>
       </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-    </row>
-    <row r="41" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>43</v>
       </c>
@@ -3562,12 +3790,12 @@
       <c r="N41" s="6">
         <v>21897</v>
       </c>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-    </row>
-    <row r="42" spans="2:31" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
@@ -3580,11 +3808,11 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8">
-        <f t="shared" ref="K42" si="93">SUM(K34:K41)</f>
+        <f t="shared" ref="K42" si="108">SUM(K34:K41)</f>
         <v>335418</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" ref="L42" si="94">SUM(L34:L41)</f>
+        <f t="shared" ref="L42" si="109">SUM(L34:L41)</f>
         <v>340389</v>
       </c>
       <c r="M42" s="8">
@@ -3595,12 +3823,12 @@
         <f>SUM(N34:N41)</f>
         <v>364840</v>
       </c>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
-    </row>
-    <row r="44" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+    </row>
+    <row r="44" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
@@ -3624,12 +3852,12 @@
       <c r="N44" s="6">
         <v>19000</v>
       </c>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>4</v>
       </c>
@@ -3657,12 +3885,12 @@
         <f>2749+47032</f>
         <v>49781</v>
       </c>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-    </row>
-    <row r="46" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
@@ -3686,12 +3914,12 @@
       <c r="N46" s="6">
         <v>10661</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
@@ -3719,12 +3947,12 @@
         <f>4067+26069+230</f>
         <v>30366</v>
       </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-    </row>
-    <row r="48" spans="2:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
@@ -3752,12 +3980,12 @@
         <f>45538+2870</f>
         <v>48408</v>
       </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-    </row>
-    <row r="49" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
@@ -3781,12 +4009,12 @@
       <c r="N49" s="6">
         <v>13067</v>
       </c>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
-    </row>
-    <row r="50" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
         <v>40</v>
       </c>
@@ -3810,12 +4038,12 @@
       <c r="N50" s="6">
         <v>11489</v>
       </c>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-    </row>
-    <row r="51" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
@@ -3839,12 +4067,12 @@
       <c r="N51" s="6">
         <v>15526</v>
       </c>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
-    </row>
-    <row r="52" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
@@ -3868,12 +4096,12 @@
       <c r="N52" s="6">
         <v>166542</v>
       </c>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-    </row>
-    <row r="53" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
@@ -3886,11 +4114,11 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8">
-        <f t="shared" ref="K53:L53" si="95">SUM(K44:K52)</f>
+        <f t="shared" ref="K53:L53" si="110">SUM(K44:K52)</f>
         <v>335418</v>
       </c>
       <c r="L53" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="110"/>
         <v>340389</v>
       </c>
       <c r="M53" s="8">
@@ -3901,12 +4129,12 @@
         <f>SUM(N44:N52)</f>
         <v>364840</v>
       </c>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
-    </row>
-    <row r="55" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+    </row>
+    <row r="55" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
         <v>50</v>
       </c>
@@ -3919,7 +4147,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6">
-        <f t="shared" ref="K55" si="96">K25</f>
+        <f t="shared" ref="K55" si="111">K25</f>
         <v>20505</v>
       </c>
       <c r="L55" s="6">
@@ -3934,12 +4162,12 @@
         <f>N25</f>
         <v>16740</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
-    </row>
-    <row r="56" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
         <v>51</v>
       </c>
@@ -3963,12 +4191,12 @@
       <c r="N56" s="6">
         <v>16740</v>
       </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
-    </row>
-    <row r="57" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>53</v>
       </c>
@@ -3992,12 +4220,12 @@
       <c r="N57" s="6">
         <v>3979</v>
       </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
-    </row>
-    <row r="58" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
         <v>54</v>
       </c>
@@ -4021,12 +4249,12 @@
       <c r="N58" s="6">
         <v>1997</v>
       </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
-    </row>
-    <row r="59" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>55</v>
       </c>
@@ -4050,12 +4278,12 @@
       <c r="N59" s="6">
         <v>157</v>
       </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
-    </row>
-    <row r="60" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
         <v>56</v>
       </c>
@@ -4079,12 +4307,12 @@
       <c r="N60" s="6">
         <v>283</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
-    </row>
-    <row r="61" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
         <v>57</v>
       </c>
@@ -4112,12 +4340,12 @@
         <f>-12634-461-2570-575+2659+12546-991+3455+44</f>
         <v>1473</v>
       </c>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
-    </row>
-    <row r="62" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>52</v>
       </c>
@@ -4130,11 +4358,11 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6">
-        <f t="shared" ref="K62" si="97">SUM(K56:K61)</f>
+        <f t="shared" ref="K62" si="112">SUM(K56:K61)</f>
         <v>24540</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" ref="L62" si="98">SUM(L56:L61)</f>
+        <f t="shared" ref="L62" si="113">SUM(L56:L61)</f>
         <v>14480</v>
       </c>
       <c r="M62" s="6">
@@ -4145,12 +4373,12 @@
         <f>SUM(N56:N61)</f>
         <v>24629</v>
       </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
-    </row>
-    <row r="63" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -4163,12 +4391,12 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
-    </row>
-    <row r="64" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>59</v>
       </c>
@@ -4192,12 +4420,12 @@
       <c r="N64" s="6">
         <v>-6871</v>
       </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
-    </row>
-    <row r="65" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>60</v>
       </c>
@@ -4221,12 +4449,12 @@
       <c r="N65" s="6">
         <v>-1263</v>
       </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
-    </row>
-    <row r="66" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
         <v>61</v>
       </c>
@@ -4254,12 +4482,12 @@
         <f>-4919+1237+3225</f>
         <v>-457</v>
       </c>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
-    </row>
-    <row r="67" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
         <v>28</v>
       </c>
@@ -4283,12 +4511,12 @@
       <c r="N67" s="6">
         <v>-1138</v>
       </c>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
-    </row>
-    <row r="68" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
         <v>58</v>
       </c>
@@ -4301,11 +4529,11 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6">
-        <f t="shared" ref="K68:L68" si="99">SUM(K64:K67)</f>
+        <f t="shared" ref="K68:L68" si="114">SUM(K64:K67)</f>
         <v>-3250</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="114"/>
         <v>-1161</v>
       </c>
       <c r="M68" s="6">
@@ -4316,12 +4544,12 @@
         <f>SUM(N64:N67)</f>
         <v>-9729</v>
       </c>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
-    </row>
-    <row r="70" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="70" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
@@ -4345,12 +4573,12 @@
       <c r="N70" s="6">
         <v>0</v>
       </c>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
-    </row>
-    <row r="71" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+    </row>
+    <row r="71" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
@@ -4374,12 +4602,12 @@
       <c r="N71" s="6">
         <v>0</v>
       </c>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
-    </row>
-    <row r="72" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>64</v>
       </c>
@@ -4407,12 +4635,12 @@
         <f>-8757+461</f>
         <v>-8296</v>
       </c>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
-    </row>
-    <row r="73" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
@@ -4436,12 +4664,12 @@
       <c r="N73" s="6">
         <v>-4632</v>
       </c>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
-    </row>
-    <row r="74" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>28</v>
       </c>
@@ -4465,12 +4693,12 @@
       <c r="N74" s="6">
         <v>-341</v>
       </c>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
-    </row>
-    <row r="75" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>66</v>
       </c>
@@ -4483,7 +4711,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6">
-        <f t="shared" ref="K75" si="100">SUM(K70:K74)</f>
+        <f t="shared" ref="K75" si="115">SUM(K70:K74)</f>
         <v>-16276</v>
       </c>
       <c r="L75" s="6">
@@ -4498,12 +4726,12 @@
         <f>SUM(N70:N74)</f>
         <v>-13269</v>
       </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
         <v>67</v>
       </c>
@@ -4520,12 +4748,12 @@
         <v>-198</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
         <v>68</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" ref="K77" si="101">K75+K76+K68+K62</f>
+        <f t="shared" ref="K77" si="116">K75+K76+K68+K62</f>
         <v>4941</v>
       </c>
       <c r="L77" s="6">
@@ -4541,12 +4769,12 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>73</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" ref="K79" si="102">K62+K64</f>
+        <f t="shared" ref="K79" si="117">K62+K64</f>
         <v>18730</v>
       </c>
       <c r="L79" s="6">
@@ -4554,15 +4782,15 @@
         <v>8615</v>
       </c>
       <c r="M79" s="6">
-        <f t="shared" ref="M79:N79" si="103">M62+M64</f>
+        <f t="shared" ref="M79:N79" si="118">M62+M64</f>
         <v>20046</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>17758</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="L80" s="6"/>
     </row>
   </sheetData>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECA689-C617-46CE-A4E1-5E5620EE5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5397DC3-F1F8-4E1D-A307-88F6E68EA378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41535" yWindow="3690" windowWidth="40860" windowHeight="16275" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26025" windowHeight="19860" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -432,6 +432,30 @@
   </si>
   <si>
     <t>Edge</t>
+  </si>
+  <si>
+    <t>1990: $1B revenue</t>
+  </si>
+  <si>
+    <t>1991: MS-DOS 5.0. DOS was installed on 75% of all computers at that point (60m PCs)</t>
+  </si>
+  <si>
+    <t>1975: Microsoft founded, signed MITS BASIC deal for $3,000 upfront, with royalties capped at $180,000.</t>
+  </si>
+  <si>
+    <t>1977: Terminates MITS license agreement. FORTRAN, 6800, 6502 but not 8080 BASIC. MITS/Pertec litigation returns BASIC to Microsoft. COBOL released. Tandy &amp; Apple sign BASIC deals.</t>
+  </si>
+  <si>
+    <t>1976: 4K, 8K, Extended, ROM and Disk BASIC. NCR and GE purchased BASIC. $200,000 revenue.</t>
+  </si>
+  <si>
+    <t>1978: Nearly $1m in revenue by 1978.</t>
+  </si>
+  <si>
+    <t>1979: Establishes consumer products division with Raburn: Typing Tutor and Adventure. $4m revenue.</t>
+  </si>
+  <si>
+    <t>1980: Enters OS market with UNIX license "XENIX". IBM deal for MS-DOS. Releases "SoftCard", hardware product for Apple II. $8m revenue. BASIC for Atari in development. 86-QDOS created by Seattle Computer.</t>
   </si>
 </sst>
 </file>
@@ -956,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1124,46 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC234698-5851-4716-A354-C6FB6C37FF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACD32E-91AF-475E-8C14-F3C9D82F22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="495" windowWidth="27420" windowHeight="20610" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-49260" yWindow="2340" windowWidth="38700" windowHeight="15345" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1496,9 +1496,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="170" formatCode="0\x"/>
+    <numFmt numFmtId="166" formatCode="0\x"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1532,12 +1532,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1618,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1659,40 +1653,35 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2205,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2515,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:DS104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AR88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4385,135 +4374,135 @@
         <v>39801.740579999998</v>
       </c>
       <c r="Y22" s="4">
-        <f>Y18-Y21</f>
+        <f t="shared" ref="Y22:AE22" si="36">Y18-Y21</f>
         <v>930</v>
       </c>
       <c r="Z22" s="4">
-        <f>Z18-Z21</f>
+        <f t="shared" si="36"/>
         <v>1481</v>
       </c>
       <c r="AA22" s="4">
-        <f>AA18-AA21</f>
+        <f t="shared" si="36"/>
         <v>2292</v>
       </c>
       <c r="AB22" s="4">
-        <f>AB18-AB21</f>
+        <f t="shared" si="36"/>
         <v>3120</v>
       </c>
       <c r="AC22" s="4">
-        <f>AC18-AC21</f>
+        <f t="shared" si="36"/>
         <v>3886</v>
       </c>
       <c r="AD22" s="4">
-        <f>AD18-AD21</f>
+        <f t="shared" si="36"/>
         <v>5060</v>
       </c>
       <c r="AE22" s="4">
-        <f>AE18-AE21</f>
+        <f t="shared" si="36"/>
         <v>7483</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" ref="AF22" si="36">AF18-AF21</f>
+        <f t="shared" ref="AF22" si="37">AF18-AF21</f>
         <v>10273</v>
       </c>
       <c r="AG22" s="4">
-        <f>AG18-AG21</f>
+        <f t="shared" ref="AG22:AX22" si="38">AG18-AG21</f>
         <v>13287</v>
       </c>
       <c r="AH22" s="4">
-        <f>AH18-AH21</f>
+        <f t="shared" si="38"/>
         <v>16933</v>
       </c>
       <c r="AI22" s="4">
-        <f>AI18-AI21</f>
+        <f t="shared" si="38"/>
         <v>19954</v>
       </c>
       <c r="AJ22" s="4">
-        <f>AJ18-AJ21</f>
+        <f t="shared" si="38"/>
         <v>21841</v>
       </c>
       <c r="AK22" s="4">
-        <f>AK18-AK21</f>
+        <f t="shared" si="38"/>
         <v>23174</v>
       </c>
       <c r="AL22" s="4">
-        <f>AL18-AL21</f>
+        <f t="shared" si="38"/>
         <v>26501</v>
       </c>
       <c r="AM22" s="4">
-        <f>AM18-AM21</f>
+        <f t="shared" si="38"/>
         <v>30119</v>
       </c>
       <c r="AN22" s="4">
-        <f>AN18-AN21</f>
+        <f t="shared" si="38"/>
         <v>33588</v>
       </c>
       <c r="AO22" s="4">
-        <f>AO18-AO21</f>
+        <f t="shared" si="38"/>
         <v>36632</v>
       </c>
       <c r="AP22" s="4">
-        <f>AP18-AP21</f>
+        <f t="shared" si="38"/>
         <v>40429</v>
       </c>
       <c r="AQ22" s="4">
-        <f>AQ18-AQ21</f>
+        <f t="shared" si="38"/>
         <v>48822</v>
       </c>
       <c r="AR22" s="4">
-        <f>AR18-AR21</f>
+        <f t="shared" si="38"/>
         <v>46282</v>
       </c>
       <c r="AS22" s="4">
-        <f>AS18-AS21</f>
+        <f t="shared" si="38"/>
         <v>50089</v>
       </c>
       <c r="AT22" s="4">
-        <f>AT18-AT21</f>
+        <f t="shared" si="38"/>
         <v>54366</v>
       </c>
       <c r="AU22" s="4">
-        <f>AU18-AU21</f>
+        <f t="shared" si="38"/>
         <v>56193</v>
       </c>
       <c r="AV22" s="4">
-        <f>AV18-AV21</f>
+        <f t="shared" si="38"/>
         <v>57600</v>
       </c>
       <c r="AW22" s="4">
-        <f>AW18-AW21</f>
+        <f t="shared" si="38"/>
         <v>59899</v>
       </c>
       <c r="AX22" s="4">
-        <f>AX18-AX21</f>
+        <f t="shared" si="38"/>
         <v>60542</v>
       </c>
       <c r="AY22" s="5">
-        <f t="shared" ref="AY22" si="37">AY18-AY21</f>
+        <f t="shared" ref="AY22" si="39">AY18-AY21</f>
         <v>52540</v>
       </c>
       <c r="AZ22" s="5">
-        <f t="shared" ref="AZ22:BA22" si="38">AZ18-AZ21</f>
+        <f t="shared" ref="AZ22:BA22" si="40">AZ18-AZ21</f>
         <v>62310</v>
       </c>
       <c r="BA22" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>72007</v>
       </c>
       <c r="BB22" s="5">
-        <f t="shared" ref="BB22:BC22" si="39">BB18-BB21</f>
+        <f t="shared" ref="BB22:BC22" si="41">BB18-BB21</f>
         <v>82933</v>
       </c>
       <c r="BC22" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>96937</v>
       </c>
       <c r="BD22" s="5">
-        <f t="shared" ref="BD22:BE22" si="40">BD18-BD21</f>
+        <f t="shared" ref="BD22:BE22" si="42">BD18-BD21</f>
         <v>115856</v>
       </c>
       <c r="BE22" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>135620</v>
       </c>
       <c r="BF22" s="5">
@@ -4521,31 +4510,31 @@
         <v>144198.45799999998</v>
       </c>
       <c r="BG22" s="5">
-        <f t="shared" ref="BG22:BM22" si="41">+BG18*0.67</f>
+        <f t="shared" ref="BG22:BM22" si="43">+BG18*0.67</f>
         <v>156996.36417200003</v>
       </c>
       <c r="BH22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>169499.95536536005</v>
       </c>
       <c r="BI22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>183158.02432134081</v>
       </c>
       <c r="BJ22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>198083.14237550308</v>
       </c>
       <c r="BK22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>214399.05170374239</v>
       </c>
       <c r="BL22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>232241.77981752632</v>
       </c>
       <c r="BM22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>251760.86543099093</v>
       </c>
     </row>
@@ -4593,50 +4582,50 @@
         <v>6984</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23" si="42">+N23*1.05</f>
+        <f t="shared" ref="R23" si="44">+N23*1.05</f>
         <v>7191.4500000000007</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:S24" si="43">O23*1.01</f>
+        <f t="shared" ref="S23:S24" si="45">O23*1.01</f>
         <v>6694.28</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:T25" si="44">P23*1.01</f>
+        <f t="shared" ref="T23:T25" si="46">P23*1.01</f>
         <v>6912.4400000000005</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" ref="U23:U25" si="45">Q23*1.01</f>
+        <f t="shared" ref="U23:U25" si="47">Q23*1.01</f>
         <v>7053.84</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" ref="V23:V25" si="46">R23*1.01</f>
+        <f t="shared" ref="V23:V25" si="48">R23*1.01</f>
         <v>7263.3645000000006</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Y23" s="4">
         <v>181</v>
       </c>
-      <c r="Z23" s="25">
+      <c r="Z23" s="4">
         <v>235</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AA23" s="4">
         <v>352</v>
       </c>
-      <c r="AB23" s="25">
+      <c r="AB23" s="4">
         <v>470</v>
       </c>
-      <c r="AC23" s="25">
+      <c r="AC23" s="4">
         <v>610</v>
       </c>
-      <c r="AD23" s="25">
+      <c r="AD23" s="4">
         <v>860</v>
       </c>
-      <c r="AE23" s="25">
+      <c r="AE23" s="4">
         <v>1432</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AF23" s="4">
         <v>1925</v>
       </c>
-      <c r="AG23" s="25">
+      <c r="AG23" s="4">
         <v>2502</v>
       </c>
       <c r="AH23" s="4">
@@ -4710,11 +4699,11 @@
         <v>20716</v>
       </c>
       <c r="BE23" s="5">
-        <f t="shared" ref="BE23:BE25" si="47">SUM(K23:N23)</f>
+        <f t="shared" ref="BE23:BE25" si="49">SUM(K23:N23)</f>
         <v>24512</v>
       </c>
       <c r="BF23" s="5">
-        <f t="shared" ref="BF23:BF25" si="48">SUM(O23:R23)</f>
+        <f t="shared" ref="BF23:BF25" si="50">SUM(O23:R23)</f>
         <v>27647.45</v>
       </c>
       <c r="BG23" s="5">
@@ -4722,27 +4711,27 @@
         <v>28476.873500000002</v>
       </c>
       <c r="BH23" s="5">
-        <f t="shared" ref="BH23:BM23" si="49">+BG23*1.03</f>
+        <f t="shared" ref="BH23:BM23" si="51">+BG23*1.03</f>
         <v>29331.179705000002</v>
       </c>
       <c r="BI23" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>30211.115096150003</v>
       </c>
       <c r="BJ23" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>31117.448549034503</v>
       </c>
       <c r="BK23" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>32050.97200550554</v>
       </c>
       <c r="BL23" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>33012.501165670707</v>
       </c>
       <c r="BM23" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>34002.876200640829</v>
       </c>
     </row>
@@ -4790,23 +4779,23 @@
         <v>5750</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" ref="R24:R25" si="50">+N24*1.05</f>
+        <f t="shared" ref="R24:R25" si="52">+N24*1.05</f>
         <v>6619.2000000000007</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5177.26</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5735.79</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5807.5</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>6685.3920000000007</v>
       </c>
       <c r="Y24" s="4">
@@ -4907,11 +4896,11 @@
         <v>20117</v>
       </c>
       <c r="BE24" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>21825</v>
       </c>
       <c r="BF24" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>23174.2</v>
       </c>
       <c r="BG24" s="5">
@@ -4919,27 +4908,27 @@
         <v>23869.426000000003</v>
       </c>
       <c r="BH24" s="5">
-        <f t="shared" ref="BH24:BM24" si="51">+BG24*1.03</f>
+        <f t="shared" ref="BH24:BM24" si="53">+BG24*1.03</f>
         <v>24585.508780000004</v>
       </c>
       <c r="BI24" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>25323.074043400004</v>
       </c>
       <c r="BJ24" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>26082.766264702004</v>
       </c>
       <c r="BK24" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>26865.249252643065</v>
       </c>
       <c r="BL24" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>27671.206730222359</v>
       </c>
       <c r="BM24" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>28501.342932129031</v>
       </c>
     </row>
@@ -4987,7 +4976,7 @@
         <v>1643</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1836.45</v>
       </c>
       <c r="S25" s="4">
@@ -4995,15 +4984,15 @@
         <v>1411.98</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2360.37</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1659.43</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1854.8145</v>
       </c>
       <c r="Y25" s="4">
@@ -5104,11 +5093,11 @@
         <v>5107</v>
       </c>
       <c r="BE25" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5900</v>
       </c>
       <c r="BF25" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>7214.45</v>
       </c>
       <c r="BG25" s="5">
@@ -5116,27 +5105,27 @@
         <v>7430.8834999999999</v>
       </c>
       <c r="BH25" s="5">
-        <f t="shared" ref="BH25:BM25" si="52">+BG25*1.03</f>
+        <f t="shared" ref="BH25:BM25" si="54">+BG25*1.03</f>
         <v>7653.8100050000003</v>
       </c>
       <c r="BI25" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7883.4243051500007</v>
       </c>
       <c r="BJ25" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8119.9270343045009</v>
       </c>
       <c r="BK25" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8363.5248453336353</v>
       </c>
       <c r="BL25" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8614.4305906936443</v>
       </c>
       <c r="BM25" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8872.8635084144535</v>
       </c>
     </row>
@@ -5148,31 +5137,31 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
-        <f t="shared" ref="F26" si="53">SUM(F23:F25)</f>
+        <f t="shared" ref="F26" si="55">SUM(F23:F25)</f>
         <v>12287</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:L26" si="54">SUM(G23:G25)</f>
+        <f t="shared" ref="G26:L26" si="56">SUM(G23:G25)</f>
         <v>10276</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10985</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>11613</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>13066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>11433</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>12521</v>
       </c>
       <c r="M26" s="5">
@@ -5180,11 +5169,11 @@
         <v>13381</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26:O26" si="55">SUM(N23:N25)</f>
+        <f t="shared" ref="N26:O26" si="57">SUM(N23:N25)</f>
         <v>14902</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>13152</v>
       </c>
       <c r="P26" s="5">
@@ -5192,37 +5181,37 @@
         <v>14860</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" ref="Q26:R26" si="56">SUM(Q23:Q25)</f>
+        <f t="shared" ref="Q26:R26" si="58">SUM(Q23:Q25)</f>
         <v>14377</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>15647.100000000002</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" ref="S26:U26" si="57">SUM(S23:S25)</f>
+        <f t="shared" ref="S26:U26" si="59">SUM(S23:S25)</f>
         <v>13283.52</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15008.599999999999</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>14520.77</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" ref="V26" si="58">SUM(V23:V25)</f>
+        <f t="shared" ref="V26" si="60">SUM(V23:V25)</f>
         <v>15803.571000000002</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5">
-        <f t="shared" ref="Y26:Z26" si="59">Y23+Y24+Y25</f>
+        <f t="shared" ref="Y26:Z26" si="61">Y23+Y24+Y25</f>
         <v>537</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>831</v>
       </c>
       <c r="AA26" s="5">
@@ -5246,139 +5235,139 @@
         <v>4405</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" ref="AF26" si="60">AF23+AF24+AF25</f>
+        <f t="shared" ref="AF26" si="62">AF23+AF24+AF25</f>
         <v>5143</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" ref="AG26:AX26" si="61">AG23+AG24+AG25</f>
+        <f t="shared" ref="AG26:AX26" si="63">AG23+AG24+AG25</f>
         <v>6347</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6890</v>
       </c>
       <c r="AI26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>8925</v>
       </c>
       <c r="AJ26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10121</v>
       </c>
       <c r="AK26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>11264</v>
       </c>
       <c r="AL26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>13284</v>
       </c>
       <c r="AM26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>21085</v>
       </c>
       <c r="AN26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>19027</v>
       </c>
       <c r="AO26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>20160</v>
       </c>
       <c r="AP26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>21905</v>
       </c>
       <c r="AQ26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>26330</v>
       </c>
       <c r="AR26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>25589</v>
       </c>
       <c r="AS26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>25932</v>
       </c>
       <c r="AT26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>27205</v>
       </c>
       <c r="AU26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>28237</v>
       </c>
       <c r="AV26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>30836</v>
       </c>
       <c r="AW26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>32013</v>
       </c>
       <c r="AX26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>32370</v>
       </c>
       <c r="AY26" s="5">
-        <f t="shared" ref="AY26:AZ26" si="62">SUM(AY23:AY25)</f>
+        <f t="shared" ref="AY26:AZ26" si="64">SUM(AY23:AY25)</f>
         <v>31248</v>
       </c>
       <c r="AZ26" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>32979</v>
       </c>
       <c r="BA26" s="5">
-        <f t="shared" ref="BA26:BB26" si="63">SUM(BA23:BA25)</f>
+        <f t="shared" ref="BA26:BB26" si="65">SUM(BA23:BA25)</f>
         <v>36949</v>
       </c>
       <c r="BB26" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>39974</v>
       </c>
       <c r="BC26" s="5">
-        <f t="shared" ref="BC26" si="64">SUM(BC23:BC25)</f>
+        <f t="shared" ref="BC26" si="66">SUM(BC23:BC25)</f>
         <v>43978</v>
       </c>
       <c r="BD26" s="5">
-        <f t="shared" ref="BD26:BF26" si="65">SUM(BD23:BD25)</f>
+        <f t="shared" ref="BD26:BF26" si="67">SUM(BD23:BD25)</f>
         <v>45940</v>
       </c>
       <c r="BE26" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>52237</v>
       </c>
       <c r="BF26" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>58036.1</v>
       </c>
       <c r="BG26" s="5">
-        <f t="shared" ref="BG26" si="66">SUM(BG23:BG25)</f>
+        <f t="shared" ref="BG26" si="68">SUM(BG23:BG25)</f>
         <v>59777.183000000005</v>
       </c>
       <c r="BH26" s="5">
-        <f t="shared" ref="BH26" si="67">SUM(BH23:BH25)</f>
+        <f t="shared" ref="BH26" si="69">SUM(BH23:BH25)</f>
         <v>61570.498490000005</v>
       </c>
       <c r="BI26" s="5">
-        <f t="shared" ref="BI26" si="68">SUM(BI23:BI25)</f>
+        <f t="shared" ref="BI26" si="70">SUM(BI23:BI25)</f>
         <v>63417.613444700008</v>
       </c>
       <c r="BJ26" s="5">
-        <f t="shared" ref="BJ26" si="69">SUM(BJ23:BJ25)</f>
+        <f t="shared" ref="BJ26" si="71">SUM(BJ23:BJ25)</f>
         <v>65320.141848041007</v>
       </c>
       <c r="BK26" s="5">
-        <f t="shared" ref="BK26" si="70">SUM(BK23:BK25)</f>
+        <f t="shared" ref="BK26" si="72">SUM(BK23:BK25)</f>
         <v>67279.746103482248</v>
       </c>
       <c r="BL26" s="5">
-        <f t="shared" ref="BL26" si="71">SUM(BL23:BL25)</f>
+        <f t="shared" ref="BL26" si="73">SUM(BL23:BL25)</f>
         <v>69298.138486586715</v>
       </c>
       <c r="BM26" s="5">
-        <f t="shared" ref="BM26" si="72">SUM(BM23:BM25)</f>
+        <f t="shared" ref="BM26" si="74">SUM(BM23:BM25)</f>
         <v>71377.082641184315</v>
       </c>
     </row>
@@ -5390,31 +5379,31 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <f t="shared" ref="F27" si="73">F22-F26</f>
+        <f t="shared" ref="F27" si="75">F22-F26</f>
         <v>13407</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27:L27" si="74">G22-G26</f>
+        <f t="shared" ref="G27:L27" si="76">G22-G26</f>
         <v>15876</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>17897</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>17048</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>19095</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>20238</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>22247</v>
       </c>
       <c r="M27" s="5">
@@ -5422,11 +5411,11 @@
         <v>20364</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" ref="N27:O27" si="75">N22-N26</f>
+        <f t="shared" ref="N27:O27" si="77">N22-N26</f>
         <v>20534</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>21518</v>
       </c>
       <c r="P27" s="5">
@@ -5438,33 +5427,33 @@
         <v>22352</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:U27" si="76">R22-R26</f>
+        <f t="shared" ref="R27:U27" si="78">R22-R26</f>
         <v>22259.319599999992</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>23029.869000000002</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>23206.601500000004</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>23774.126500000002</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" ref="V27" si="77">V22-V26</f>
+        <f t="shared" ref="V27" si="79">V22-V26</f>
         <v>23998.169579999994</v>
       </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5">
-        <f t="shared" ref="Y27:Z27" si="78">Y22-Y26</f>
+        <f t="shared" ref="Y27:Z27" si="80">Y22-Y26</f>
         <v>393</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>650</v>
       </c>
       <c r="AA27" s="5">
@@ -5488,139 +5477,139 @@
         <v>3078</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" ref="AF27" si="79">AF22-AF26</f>
+        <f t="shared" ref="AF27" si="81">AF22-AF26</f>
         <v>5130</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" ref="AG27:AX27" si="80">AG22-AG26</f>
+        <f t="shared" ref="AG27:AX27" si="82">AG22-AG26</f>
         <v>6940</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10043</v>
       </c>
       <c r="AI27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>11029</v>
       </c>
       <c r="AJ27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>11720</v>
       </c>
       <c r="AK27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>11910</v>
       </c>
       <c r="AL27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>13217</v>
       </c>
       <c r="AM27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9034</v>
       </c>
       <c r="AN27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>14561</v>
       </c>
       <c r="AO27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>16472</v>
       </c>
       <c r="AP27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>18524</v>
       </c>
       <c r="AQ27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>22492</v>
       </c>
       <c r="AR27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>20693</v>
       </c>
       <c r="AS27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>24157</v>
       </c>
       <c r="AT27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>27161</v>
       </c>
       <c r="AU27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>27956</v>
       </c>
       <c r="AV27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>26764</v>
       </c>
       <c r="AW27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>27886</v>
       </c>
       <c r="AX27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>28172</v>
       </c>
       <c r="AY27" s="5">
-        <f t="shared" ref="AY27:AZ27" si="81">AY22-AY26</f>
+        <f t="shared" ref="AY27:AZ27" si="83">AY22-AY26</f>
         <v>21292</v>
       </c>
       <c r="AZ27" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>29331</v>
       </c>
       <c r="BA27" s="5">
-        <f t="shared" ref="BA27:BB27" si="82">BA22-BA26</f>
+        <f t="shared" ref="BA27:BB27" si="84">BA22-BA26</f>
         <v>35058</v>
       </c>
       <c r="BB27" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>42959</v>
       </c>
       <c r="BC27" s="5">
-        <f t="shared" ref="BC27" si="83">BC22-BC26</f>
+        <f t="shared" ref="BC27" si="85">BC22-BC26</f>
         <v>52959</v>
       </c>
       <c r="BD27" s="5">
-        <f t="shared" ref="BD27:BF27" si="84">BD22-BD26</f>
+        <f t="shared" ref="BD27:BF27" si="86">BD22-BD26</f>
         <v>69916</v>
       </c>
       <c r="BE27" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>83383</v>
       </c>
       <c r="BF27" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>86162.357999999978</v>
       </c>
       <c r="BG27" s="5">
-        <f t="shared" ref="BG27" si="85">BG22-BG26</f>
+        <f t="shared" ref="BG27" si="87">BG22-BG26</f>
         <v>97219.181172000026</v>
       </c>
       <c r="BH27" s="5">
-        <f t="shared" ref="BH27" si="86">BH22-BH26</f>
+        <f t="shared" ref="BH27" si="88">BH22-BH26</f>
         <v>107929.45687536005</v>
       </c>
       <c r="BI27" s="5">
-        <f t="shared" ref="BI27" si="87">BI22-BI26</f>
+        <f t="shared" ref="BI27" si="89">BI22-BI26</f>
         <v>119740.4108766408</v>
       </c>
       <c r="BJ27" s="5">
-        <f t="shared" ref="BJ27" si="88">BJ22-BJ26</f>
+        <f t="shared" ref="BJ27" si="90">BJ22-BJ26</f>
         <v>132763.00052746208</v>
       </c>
       <c r="BK27" s="5">
-        <f t="shared" ref="BK27" si="89">BK22-BK26</f>
+        <f t="shared" ref="BK27" si="91">BK22-BK26</f>
         <v>147119.30560026015</v>
       </c>
       <c r="BL27" s="5">
-        <f t="shared" ref="BL27" si="90">BL22-BL26</f>
+        <f t="shared" ref="BL27" si="92">BL22-BL26</f>
         <v>162943.6413309396</v>
       </c>
       <c r="BM27" s="5">
-        <f t="shared" ref="BM27" si="91">BM22-BM26</f>
+        <f t="shared" ref="BM27" si="93">BM22-BM26</f>
         <v>180383.7827898066</v>
       </c>
     </row>
@@ -5665,7 +5654,7 @@
         <v>321</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="92">AVERAGE(N28:Q28)</f>
+        <f t="shared" ref="R28" si="94">AVERAGE(N28:Q28)</f>
         <v>67</v>
       </c>
       <c r="S28" s="4">
@@ -5673,15 +5662,15 @@
         <v>67</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:V28" si="93">S28</f>
+        <f t="shared" ref="T28:V28" si="95">S28</f>
         <v>67</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>67</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>67</v>
       </c>
       <c r="Y28">
@@ -5793,39 +5782,39 @@
         <v>1186</v>
       </c>
       <c r="BE28" s="5">
-        <f t="shared" ref="BE28" si="94">SUM(K28:N28)</f>
+        <f t="shared" ref="BE28" si="96">SUM(K28:N28)</f>
         <v>333</v>
       </c>
       <c r="BF28" s="5">
-        <f t="shared" ref="BF28:BM28" si="95">+BE44*$BP$36</f>
+        <f t="shared" ref="BF28:BM28" si="97">+BE44*$BP$36</f>
         <v>618.66999999999996</v>
       </c>
       <c r="BG28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1356.3087379999999</v>
       </c>
       <c r="BH28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>2194.2004022350002</v>
       </c>
       <c r="BI28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3130.2514890945581</v>
       </c>
       <c r="BJ28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>4174.6521192033088</v>
       </c>
       <c r="BK28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>5338.6221666999654</v>
       </c>
       <c r="BL28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>6634.5145527191262</v>
       </c>
       <c r="BM28" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>8075.9288777302254</v>
       </c>
     </row>
@@ -5837,7 +5826,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <f t="shared" ref="F29" si="96">F27+F28</f>
+        <f t="shared" ref="F29" si="98">F27+F28</f>
         <v>13422</v>
       </c>
       <c r="G29" s="5">
@@ -5845,71 +5834,71 @@
         <v>16124</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29:V29" si="97">H27+H28</f>
+        <f t="shared" ref="H29:V29" si="99">H27+H28</f>
         <v>18337</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>17236</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>19405</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>20524</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22515</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>20190</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>20487</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>21572</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>20339</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22673</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22326.319599999992</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>23096.869000000002</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>23273.601500000004</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>23841.126500000002</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>24065.169579999994</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" ref="Y29:Z29" si="98">Y28+Y27</f>
+        <f t="shared" ref="Y29:Z29" si="100">Y28+Y27</f>
         <v>410</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>671</v>
       </c>
       <c r="AA29" s="4">
@@ -5933,79 +5922,79 @@
         <v>3379</v>
       </c>
       <c r="AF29" s="4">
-        <f t="shared" ref="AF29" si="99">AF28+AF27</f>
+        <f t="shared" ref="AF29" si="101">AF28+AF27</f>
         <v>5314</v>
       </c>
       <c r="AG29" s="4">
-        <f>AG28+AG27</f>
+        <f t="shared" ref="AG29:AX29" si="102">AG28+AG27</f>
         <v>7413</v>
       </c>
       <c r="AH29" s="4">
-        <f>AH28+AH27</f>
+        <f t="shared" si="102"/>
         <v>11731</v>
       </c>
       <c r="AI29" s="4">
-        <f>AI28+AI27</f>
+        <f t="shared" si="102"/>
         <v>14119</v>
       </c>
       <c r="AJ29" s="4">
-        <f>AJ28+AJ27</f>
+        <f t="shared" si="102"/>
         <v>11684</v>
       </c>
       <c r="AK29" s="4">
-        <f>AK28+AK27</f>
+        <f t="shared" si="102"/>
         <v>11605</v>
       </c>
       <c r="AL29" s="4">
-        <f>AL28+AL27</f>
+        <f t="shared" si="102"/>
         <v>14794</v>
       </c>
       <c r="AM29" s="4">
-        <f>AM28+AM27</f>
+        <f t="shared" si="102"/>
         <v>12221</v>
       </c>
       <c r="AN29" s="4">
-        <f>AN28+AN27</f>
+        <f t="shared" si="102"/>
         <v>16628</v>
       </c>
       <c r="AO29" s="4">
-        <f>AO28+AO27</f>
+        <f t="shared" si="102"/>
         <v>18262</v>
       </c>
       <c r="AP29" s="4">
-        <f>AP28+AP27</f>
+        <f t="shared" si="102"/>
         <v>20101</v>
       </c>
       <c r="AQ29" s="4">
-        <f>AQ28+AQ27</f>
+        <f t="shared" si="102"/>
         <v>23814</v>
       </c>
       <c r="AR29" s="4">
-        <f>AR28+AR27</f>
+        <f t="shared" si="102"/>
         <v>20151</v>
       </c>
       <c r="AS29" s="4">
-        <f>AS28+AS27</f>
+        <f t="shared" si="102"/>
         <v>25072</v>
       </c>
       <c r="AT29" s="4">
-        <f>AT28+AT27</f>
+        <f t="shared" si="102"/>
         <v>28071</v>
       </c>
       <c r="AU29" s="4">
-        <f>AU28+AU27</f>
+        <f t="shared" si="102"/>
         <v>28460</v>
       </c>
       <c r="AV29" s="4">
-        <f>AV28+AV27</f>
+        <f t="shared" si="102"/>
         <v>27052</v>
       </c>
       <c r="AW29" s="4">
-        <f>AW28+AW27</f>
+        <f t="shared" si="102"/>
         <v>27947</v>
       </c>
       <c r="AX29" s="4">
-        <f>AX28+AX27</f>
+        <f t="shared" si="102"/>
         <v>28518</v>
       </c>
       <c r="AY29" s="4">
@@ -6029,43 +6018,43 @@
         <v>53036</v>
       </c>
       <c r="BD29" s="5">
-        <f t="shared" ref="BD29:BF29" si="100">+BD27+BD28</f>
+        <f t="shared" ref="BD29:BF29" si="103">+BD27+BD28</f>
         <v>71102</v>
       </c>
       <c r="BE29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>83716</v>
       </c>
       <c r="BF29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>86781.027999999977</v>
       </c>
       <c r="BG29" s="5">
-        <f t="shared" ref="BG29" si="101">+BG27+BG28</f>
+        <f t="shared" ref="BG29" si="104">+BG27+BG28</f>
         <v>98575.489910000033</v>
       </c>
       <c r="BH29" s="5">
-        <f t="shared" ref="BH29" si="102">+BH27+BH28</f>
+        <f t="shared" ref="BH29" si="105">+BH27+BH28</f>
         <v>110123.65727759505</v>
       </c>
       <c r="BI29" s="5">
-        <f t="shared" ref="BI29" si="103">+BI27+BI28</f>
+        <f t="shared" ref="BI29" si="106">+BI27+BI28</f>
         <v>122870.66236573536</v>
       </c>
       <c r="BJ29" s="5">
-        <f t="shared" ref="BJ29" si="104">+BJ27+BJ28</f>
+        <f t="shared" ref="BJ29" si="107">+BJ27+BJ28</f>
         <v>136937.65264666537</v>
       </c>
       <c r="BK29" s="5">
-        <f t="shared" ref="BK29" si="105">+BK27+BK28</f>
+        <f t="shared" ref="BK29" si="108">+BK27+BK28</f>
         <v>152457.92776696011</v>
       </c>
       <c r="BL29" s="5">
-        <f t="shared" ref="BL29" si="106">+BL27+BL28</f>
+        <f t="shared" ref="BL29" si="109">+BL27+BL28</f>
         <v>169578.15588365874</v>
       </c>
       <c r="BM29" s="5">
-        <f t="shared" ref="BM29" si="107">+BM27+BM28</f>
+        <f t="shared" ref="BM29" si="110">+BM27+BM28</f>
         <v>188459.71166753682</v>
       </c>
     </row>
@@ -6113,7 +6102,7 @@
         <v>3914</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="108">+R29*0.2</f>
+        <f t="shared" ref="R30" si="111">+R29*0.2</f>
         <v>4465.2639199999985</v>
       </c>
       <c r="S30" s="4">
@@ -6121,15 +6110,15 @@
         <v>4619.3738000000003</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:V30" si="109">T29*0.2</f>
+        <f t="shared" ref="T30:V30" si="112">T29*0.2</f>
         <v>4654.7203000000009</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>4768.225300000001</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>4813.0339159999994</v>
       </c>
       <c r="Y30" s="4">
@@ -6231,7 +6220,7 @@
         <v>9831</v>
       </c>
       <c r="BE30" s="5">
-        <f t="shared" ref="BE30" si="110">SUM(K30:N30)</f>
+        <f t="shared" ref="BE30" si="113">SUM(K30:N30)</f>
         <v>10978</v>
       </c>
       <c r="BF30" s="5">
@@ -6239,31 +6228,31 @@
         <v>13017.154199999995</v>
       </c>
       <c r="BG30" s="5">
-        <f t="shared" ref="BG30:BM30" si="111">+BG29*0.15</f>
+        <f t="shared" ref="BG30:BM30" si="114">+BG29*0.15</f>
         <v>14786.323486500005</v>
       </c>
       <c r="BH30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>16518.548591639257</v>
       </c>
       <c r="BI30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>18430.599354860304</v>
       </c>
       <c r="BJ30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>20540.647896999806</v>
       </c>
       <c r="BK30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>22868.689165044016</v>
       </c>
       <c r="BL30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>25436.723382548811</v>
       </c>
       <c r="BM30" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>28268.956750130521</v>
       </c>
     </row>
@@ -6275,7 +6264,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <f t="shared" ref="F31" si="112">F29-F30</f>
+        <f t="shared" ref="F31" si="115">F29-F30</f>
         <v>11202</v>
       </c>
       <c r="G31" s="5">
@@ -6283,39 +6272,39 @@
         <v>13893</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:V31" si="113">H29-H30</f>
+        <f t="shared" ref="H31:V31" si="116">H29-H30</f>
         <v>15463</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>15457</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16458</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>20505</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>18765</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16728</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16740</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>17556</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16425</v>
       </c>
       <c r="Q31" s="5">
@@ -6323,31 +6312,31 @@
         <v>18759</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>17861.055679999994</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>18477.495200000001</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>18618.881200000003</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>19072.9012</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>19252.135663999994</v>
       </c>
       <c r="Y31" s="4">
-        <f t="shared" ref="X31:Z31" si="114">Y29-Y30</f>
+        <f t="shared" ref="Y31:Z31" si="117">Y29-Y30</f>
         <v>279</v>
       </c>
       <c r="Z31" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>463</v>
       </c>
       <c r="AA31" s="4">
@@ -6371,79 +6360,79 @@
         <v>2195</v>
       </c>
       <c r="AF31" s="4">
-        <f t="shared" ref="AF31" si="115">AF29-AF30</f>
+        <f t="shared" ref="AF31" si="118">AF29-AF30</f>
         <v>3454</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" ref="AG31:AX31" si="116">AG29-AG30</f>
+        <f t="shared" ref="AG31:AX31" si="119">AG29-AG30</f>
         <v>4758</v>
       </c>
       <c r="AH31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>7625</v>
       </c>
       <c r="AI31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>9265</v>
       </c>
       <c r="AJ31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>7880</v>
       </c>
       <c r="AK31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>7921</v>
       </c>
       <c r="AL31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>10061</v>
       </c>
       <c r="AM31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>8193</v>
       </c>
       <c r="AN31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>12254</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>12599</v>
       </c>
       <c r="AP31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>14065</v>
       </c>
       <c r="AQ31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>17681</v>
       </c>
       <c r="AR31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>14899</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>18819</v>
       </c>
       <c r="AT31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>23150</v>
       </c>
       <c r="AU31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>23171</v>
       </c>
       <c r="AV31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>21863</v>
       </c>
       <c r="AW31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>22201</v>
       </c>
       <c r="AX31" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>22204</v>
       </c>
       <c r="AY31" s="4">
@@ -6467,43 +6456,43 @@
         <v>44281</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" ref="BD31:BF31" si="117">+BD29-BD30</f>
+        <f t="shared" ref="BD31:BF31" si="120">+BD29-BD30</f>
         <v>61271</v>
       </c>
       <c r="BE31" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>72738</v>
       </c>
       <c r="BF31" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>73763.873799999987</v>
       </c>
       <c r="BG31" s="4">
-        <f t="shared" ref="BG31" si="118">+BG29-BG30</f>
+        <f t="shared" ref="BG31" si="121">+BG29-BG30</f>
         <v>83789.166423500021</v>
       </c>
       <c r="BH31" s="4">
-        <f t="shared" ref="BH31" si="119">+BH29-BH30</f>
+        <f t="shared" ref="BH31" si="122">+BH29-BH30</f>
         <v>93605.108685955784</v>
       </c>
       <c r="BI31" s="4">
-        <f t="shared" ref="BI31" si="120">+BI29-BI30</f>
+        <f t="shared" ref="BI31" si="123">+BI29-BI30</f>
         <v>104440.06301087506</v>
       </c>
       <c r="BJ31" s="4">
-        <f t="shared" ref="BJ31" si="121">+BJ29-BJ30</f>
+        <f t="shared" ref="BJ31" si="124">+BJ29-BJ30</f>
         <v>116397.00474966556</v>
       </c>
       <c r="BK31" s="4">
-        <f t="shared" ref="BK31" si="122">+BK29-BK30</f>
+        <f t="shared" ref="BK31" si="125">+BK29-BK30</f>
         <v>129589.23860191609</v>
       </c>
       <c r="BL31" s="4">
-        <f t="shared" ref="BL31" si="123">+BL29-BL30</f>
+        <f t="shared" ref="BL31" si="126">+BL29-BL30</f>
         <v>144141.43250110993</v>
       </c>
       <c r="BM31" s="4">
-        <f t="shared" ref="BM31" si="124">+BM29-BM30</f>
+        <f t="shared" ref="BM31" si="127">+BM29-BM30</f>
         <v>160190.7549174063</v>
       </c>
       <c r="BN31" s="4">
@@ -6511,231 +6500,231 @@
         <v>160190.7549174063</v>
       </c>
       <c r="BO31" s="4">
-        <f t="shared" ref="BO31:DS31" si="125">+BN31*(1+$BP$34)</f>
+        <f t="shared" ref="BO31:DS31" si="128">+BN31*(1+$BP$34)</f>
         <v>160190.7549174063</v>
       </c>
       <c r="BP31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BQ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BR31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BS31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BT31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BU31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BV31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BW31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BX31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BY31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="BZ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CA31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CB31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CC31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CD31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CE31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CF31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CG31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CH31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CI31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CJ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CK31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CL31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CM31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CN31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CO31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CP31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CQ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CR31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CS31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CT31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CU31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CV31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CW31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CX31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CY31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="CZ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DA31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DB31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DC31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DD31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DE31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DF31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DG31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DH31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DI31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DJ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DK31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DL31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DM31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DN31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DO31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DP31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DQ31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DR31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
       <c r="DS31" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>160190.7549174063</v>
       </c>
     </row>
@@ -6747,31 +6736,31 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <f t="shared" ref="F32" si="126">F31/F33</f>
+        <f t="shared" ref="F32" si="129">F31/F33</f>
         <v>1.4643137254901961</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32:L32" si="127">G31/G33</f>
+        <f t="shared" ref="G32:L32" si="130">G31/G33</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="M32" s="8">
@@ -6787,7 +6776,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:V32" si="128">P31/P33</f>
+        <f t="shared" ref="P32:V32" si="131">P31/P33</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="Q32" s="8">
@@ -6795,31 +6784,31 @@
         <v>2.5132636655948555</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.3929603001071804</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.4755486602357988</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.4944910503751343</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.5553190246516615</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>2.5793322165058941</v>
       </c>
       <c r="Y32" s="11">
-        <f t="shared" ref="Y32:Z32" si="129">Y31/Y33</f>
+        <f t="shared" ref="Y32:Z32" si="132">Y31/Y33</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AA32" s="11">
@@ -6843,79 +6832,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AF32" s="11">
-        <f t="shared" ref="AF32" si="130">AF31/AF33</f>
+        <f t="shared" ref="AF32" si="133">AF31/AF33</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AG32" s="11">
-        <f t="shared" ref="AG32:AX32" si="131">AG31/AG33</f>
+        <f t="shared" ref="AG32:AX32" si="134">AG31/AG33</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AH32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AI32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AJ32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AK32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AL32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AM32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AN32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AO32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AP32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AQ32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AR32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="AS32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="AT32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="AU32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.724077122031507</v>
       </c>
       <c r="AV32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.581227863046045</v>
       </c>
       <c r="AW32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="AX32" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="AY32" s="11">
@@ -6939,43 +6928,43 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BD32" s="11">
-        <f t="shared" ref="BD32:BF32" si="132">+BD31/BD33</f>
+        <f t="shared" ref="BD32:BF32" si="135">+BD31/BD33</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BE32" s="11">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BF32" s="11">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>9.8726994311717835</v>
       </c>
       <c r="BG32" s="11">
-        <f t="shared" ref="BG32" si="133">+BG31/BG33</f>
+        <f t="shared" ref="BG32" si="136">+BG31/BG33</f>
         <v>11.225772564777602</v>
       </c>
       <c r="BH32" s="11">
-        <f t="shared" ref="BH32" si="134">+BH31/BH33</f>
+        <f t="shared" ref="BH32" si="137">+BH31/BH33</f>
         <v>12.540877369501043</v>
       </c>
       <c r="BI32" s="11">
-        <f t="shared" ref="BI32" si="135">+BI31/BI33</f>
+        <f t="shared" ref="BI32" si="138">+BI31/BI33</f>
         <v>13.992505762443068</v>
       </c>
       <c r="BJ32" s="11">
-        <f t="shared" ref="BJ32" si="136">+BJ31/BJ33</f>
+        <f t="shared" ref="BJ32" si="139">+BJ31/BJ33</f>
         <v>15.594454012548976</v>
       </c>
       <c r="BK32" s="11">
-        <f t="shared" ref="BK32" si="137">+BK31/BK33</f>
+        <f t="shared" ref="BK32" si="140">+BK31/BK33</f>
         <v>17.361902277855854</v>
       </c>
       <c r="BL32" s="11">
-        <f t="shared" ref="BL32" si="138">+BL31/BL33</f>
+        <f t="shared" ref="BL32" si="141">+BL31/BL33</f>
         <v>19.311553121799292</v>
       </c>
       <c r="BM32" s="11">
-        <f t="shared" ref="BM32" si="139">+BM31/BM33</f>
+        <f t="shared" ref="BM32" si="142">+BM31/BM33</f>
         <v>21.461783884968689</v>
       </c>
     </row>
@@ -7023,7 +7012,7 @@
         <v>7464</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" ref="R33" si="140">+Q33</f>
+        <f t="shared" ref="R33" si="143">+Q33</f>
         <v>7464</v>
       </c>
       <c r="S33" s="4">
@@ -7031,15 +7020,15 @@
         <v>7464</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" ref="T33:V33" si="141">S33</f>
+        <f t="shared" ref="T33:V33" si="144">S33</f>
         <v>7464</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>7464</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>7464</v>
       </c>
       <c r="Y33" s="4">
@@ -7152,27 +7141,27 @@
         <v>7464</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" ref="BH33:BM33" si="142">+BG33</f>
+        <f t="shared" ref="BH33:BM33" si="145">+BG33</f>
         <v>7464</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>7464</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>7464</v>
       </c>
       <c r="BK33" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>7464</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>7464</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>7464</v>
       </c>
     </row>
@@ -7204,15 +7193,15 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10">
-        <f t="shared" ref="J35:K35" si="143">J18/F18-1</f>
+        <f t="shared" ref="J35:K35" si="146">J18/F18-1</f>
         <v>0.21347251071437956</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" ref="L35" si="144">L18/H18-1</f>
+        <f t="shared" ref="L35" si="147">L18/H18-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="M35" s="10">
@@ -7220,15 +7209,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" ref="N35:O35" si="145">N18/J18-1</f>
+        <f t="shared" ref="N35:O35" si="148">N18/J18-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" ref="P35" si="146">P18/L18-1</f>
+        <f t="shared" ref="P35" si="149">P18/L18-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="Q35" s="10">
@@ -7240,179 +7229,179 @@
         <v>5.922761014171396E-2</v>
       </c>
       <c r="S35" s="10">
-        <f t="shared" ref="S35:V35" si="147">S18/O18-1</f>
+        <f t="shared" ref="S35:V35" si="150">S18/O18-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T35" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U35" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z35" s="18">
-        <f>Z18/Y18-1</f>
+        <f t="shared" ref="Z35:AZ35" si="151">Z18/Y18-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AA35" s="18">
-        <f>AA18/Z18-1</f>
+        <f t="shared" si="151"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AB35" s="18">
-        <f>AB18/AA18-1</f>
+        <f t="shared" si="151"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AC35" s="18">
-        <f>AC18/AB18-1</f>
+        <f t="shared" si="151"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AD35" s="18">
-        <f>AD18/AC18-1</f>
+        <f t="shared" si="151"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AE35" s="18">
-        <f>AE18/AD18-1</f>
+        <f t="shared" si="151"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AF35" s="18">
-        <f>AF18/AE18-1</f>
+        <f t="shared" si="151"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AG35" s="18">
-        <f>AG18/AF18-1</f>
+        <f t="shared" si="151"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AH35" s="18">
-        <f>AH18/AG18-1</f>
+        <f t="shared" si="151"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AI35" s="18">
-        <f>AI18/AH18-1</f>
+        <f t="shared" si="151"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AJ35" s="18">
-        <f>AJ18/AI18-1</f>
+        <f t="shared" si="151"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AK35" s="18">
-        <f>AK18/AJ18-1</f>
+        <f t="shared" si="151"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AL35" s="18">
-        <f>AL18/AK18-1</f>
+        <f t="shared" si="151"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AM35" s="18">
-        <f>AM18/AL18-1</f>
+        <f t="shared" si="151"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AN35" s="18">
-        <f>AN18/AM18-1</f>
+        <f t="shared" si="151"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AO35" s="18">
-        <f>AO18/AN18-1</f>
+        <f t="shared" si="151"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AP35" s="18">
-        <f>AP18/AO18-1</f>
+        <f t="shared" si="151"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AQ35" s="18">
-        <f>AQ18/AP18-1</f>
+        <f t="shared" si="151"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AR35" s="18">
-        <f>AR18/AQ18-1</f>
+        <f t="shared" si="151"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="AS35" s="18">
-        <f>AS18/AR18-1</f>
+        <f t="shared" si="151"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AT35" s="18">
-        <f>AT18/AS18-1</f>
+        <f t="shared" si="151"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AU35" s="18">
-        <f>AU18/AT18-1</f>
+        <f t="shared" si="151"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AV35" s="18">
-        <f>AV18/AU18-1</f>
+        <f t="shared" si="151"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="AW35" s="18">
-        <f>AW18/AV18-1</f>
+        <f t="shared" si="151"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="AX35" s="18">
-        <f>AX18/AW18-1</f>
+        <f t="shared" si="151"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="AY35" s="18">
-        <f>AY18/AX18-1</f>
+        <f t="shared" si="151"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="AZ35" s="18">
-        <f>AZ18/AY18-1</f>
+        <f t="shared" si="151"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BA35" s="10">
-        <f t="shared" ref="BA35:BF35" si="148">+BA18/AZ18-1</f>
+        <f t="shared" ref="BA35:BF35" si="152">+BA18/AZ18-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BB35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BC35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BD35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BE35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BF35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.2504867100418693E-2</v>
       </c>
       <c r="BG35" s="10">
-        <f t="shared" ref="BG35:BM35" si="149">+BG18/BF18-1</f>
+        <f t="shared" ref="BG35:BM35" si="153">+BG18/BF18-1</f>
         <v>0.11231260150105271</v>
       </c>
       <c r="BH35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>7.9642552611355333E-2</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>8.0578599130251005E-2</v>
       </c>
       <c r="BJ35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>8.1487655861459674E-2</v>
       </c>
       <c r="BK35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>8.236899481990978E-2</v>
       </c>
       <c r="BL35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>8.3222047728266579E-2</v>
       </c>
       <c r="BM35" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>8.4046400388426479E-2</v>
       </c>
       <c r="BO35" s="3" t="s">
@@ -7484,11 +7473,11 @@
       <c r="M37" s="10"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18">
-        <f t="shared" ref="O37:P37" si="150">O59/K59-1</f>
+        <f t="shared" ref="O37:P37" si="154">O59/K59-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="P37" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="Q37" s="18">
@@ -7519,15 +7508,15 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9">
-        <f t="shared" ref="F38" si="151">F22/F18</f>
+        <f t="shared" ref="F38" si="155">F22/F18</f>
         <v>0.67557121447164303</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" ref="G38:H38" si="152">G22/G18</f>
+        <f t="shared" ref="G38:H38" si="156">G22/G18</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I38" s="9">
@@ -7535,27 +7524,27 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" ref="J38:M38" si="153">J22/J18</f>
+        <f t="shared" ref="J38:M38" si="157">J22/J18</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" ref="N38:O38" si="154">N22/N18</f>
+        <f t="shared" ref="N38:O38" si="158">N22/N18</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P38" s="9">
@@ -7563,193 +7552,193 @@
         <v>0.66845507801391546</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" ref="Q38:R38" si="155">Q22/Q18</f>
+        <f t="shared" ref="Q38:R38" si="159">Q22/Q18</f>
         <v>0.69487485101311086</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.69</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" ref="S38:V38" si="156">S22/S18</f>
+        <f t="shared" ref="S38:V38" si="160">S22/S18</f>
         <v>0.69</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>0.69</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>0.69</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>0.69</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9">
-        <f t="shared" ref="Y38:AE38" si="157">Y22/Y18</f>
+        <f t="shared" ref="Y38:AD38" si="161">Y22/Y18</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" ref="AE38:AN38" si="158">AE22/AE18</f>
+        <f t="shared" ref="AE38:AM38" si="162">AE22/AE18</f>
         <v>0.86299158113251062</v>
       </c>
       <c r="AF38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AG38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AH38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AI38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AJ38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AK38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AL38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AM38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AN38" s="9">
-        <f t="shared" ref="AN38:AX38" si="159">AN22/AN18</f>
+        <f t="shared" ref="AN38:AW38" si="163">AN22/AN18</f>
         <v>0.84417412285111093</v>
       </c>
       <c r="AO38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AP38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AQ38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AR38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="AS38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AT38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="AU38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="AV38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="AW38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="AX38" s="9">
-        <f t="shared" ref="AX38:AZ38" si="160">AX22/AX18</f>
+        <f t="shared" ref="AX38:AY38" si="164">AX22/AX18</f>
         <v>0.64695447745244705</v>
       </c>
       <c r="AY38" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="AZ38" s="9">
-        <f t="shared" ref="AZ38:BA38" si="161">AZ22/AZ18</f>
+        <f t="shared" ref="AZ38:BA38" si="165">AZ22/AZ18</f>
         <v>0.64522475691460168</v>
       </c>
       <c r="BA38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BB38" s="9">
-        <f t="shared" ref="BB38:BF38" si="162">BB22/BB18</f>
+        <f t="shared" ref="BB38:BF38" si="166">BB22/BB18</f>
         <v>0.65901957200638894</v>
       </c>
       <c r="BC38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BD38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BE38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BF38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>0.68449878488299121</v>
       </c>
       <c r="BG38" s="9">
-        <f t="shared" ref="BG38:BM38" si="163">BG22/BG18</f>
+        <f t="shared" ref="BG38:BM38" si="167">BG22/BG18</f>
         <v>0.67000000000000015</v>
       </c>
       <c r="BH38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BI38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BJ38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BK38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BL38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BM38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.67</v>
       </c>
       <c r="BO38" t="s">
@@ -7768,7 +7757,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9">
-        <f t="shared" ref="F39" si="164">+F30/F29</f>
+        <f t="shared" ref="F39" si="168">+F30/F29</f>
         <v>0.16540008940545373</v>
       </c>
       <c r="G39" s="9">
@@ -7776,35 +7765,35 @@
         <v>0.13836516993301909</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" ref="H39:O39" si="165">+H30/H29</f>
+        <f t="shared" ref="H39:O39" si="169">+H30/H29</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P39" s="9">
@@ -7812,193 +7801,193 @@
         <v>0.19243817296818919</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" ref="Q39:R39" si="166">+Q30/Q29</f>
+        <f t="shared" ref="Q39:R39" si="170">+Q30/Q29</f>
         <v>0.17262823622811274</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.2</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" ref="S39:V39" si="167">+S30/S29</f>
+        <f t="shared" ref="S39:V39" si="171">+S30/S29</f>
         <v>0.19999999999999998</v>
       </c>
       <c r="T39" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>0.2</v>
       </c>
       <c r="U39" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>0.2</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>0.2</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9">
-        <f t="shared" ref="Y39:AE39" si="168">+Y30/Y29</f>
+        <f t="shared" ref="Y39:AD39" si="172">+Y30/Y29</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="Z39" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AA39" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AB39" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AC39" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AD39" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AE39" s="9">
-        <f t="shared" ref="AE39:AN39" si="169">+AE30/AE29</f>
+        <f t="shared" ref="AE39:AM39" si="173">+AE30/AE29</f>
         <v>0.35039952648712636</v>
       </c>
       <c r="AF39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AG39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AH39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AI39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AJ39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AK39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AL39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AM39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AN39" s="9">
-        <f t="shared" ref="AN39:AX39" si="170">+AN30/AN29</f>
+        <f t="shared" ref="AN39:AW39" si="174">+AN30/AN29</f>
         <v>0.26305027664180902</v>
       </c>
       <c r="AO39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AP39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AQ39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AR39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="AS39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="AT39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="AU39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="AV39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="AW39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="AX39" s="9">
-        <f t="shared" ref="AX39:AZ39" si="171">+AX30/AX29</f>
+        <f t="shared" ref="AX39:AY39" si="175">+AX30/AX29</f>
         <v>0.22140402552773686</v>
       </c>
       <c r="AY39" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="AZ39" s="9">
-        <f t="shared" ref="AZ39:BA39" si="172">+AZ30/AZ29</f>
+        <f t="shared" ref="AZ39:BA39" si="176">+AZ30/AZ29</f>
         <v>0.14605886052901645</v>
       </c>
       <c r="BA39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BB39" s="9">
-        <f t="shared" ref="BB39:BF39" si="173">+BB30/BB29</f>
+        <f t="shared" ref="BB39:BF39" si="177">+BB30/BB29</f>
         <v>0.10181285478850027</v>
       </c>
       <c r="BC39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BD39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BE39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BF39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.15</v>
       </c>
       <c r="BG39" s="9">
-        <f t="shared" ref="BG39:BM39" si="174">+BG30/BG29</f>
+        <f t="shared" ref="BG39:BM39" si="178">+BG30/BG29</f>
         <v>0.15</v>
       </c>
       <c r="BH39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BI39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BJ39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BK39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BL39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BM39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.15</v>
       </c>
       <c r="BO39" t="s">
@@ -8017,43 +8006,43 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9">
-        <f t="shared" ref="F40:I40" si="175">(F16-F19)/F16</f>
+        <f t="shared" ref="F40:I40" si="179">(F16-F19)/F16</f>
         <v>0.75918884664131814</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" ref="J40:L40" si="176">(J16-J19)/J16</f>
+        <f t="shared" ref="J40:L40" si="180">(J16-J19)/J16</f>
         <v>0.7736297391488014</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" ref="M40:O40" si="177">(M16-M19)/M16</f>
+        <f t="shared" ref="M40:O40" si="181">(M16-M19)/M16</f>
         <v>0.73603593228146957</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P40" s="9">
@@ -8061,27 +8050,27 @@
         <v>0.65550644790216139</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" ref="Q40:V40" si="178">(Q16-Q19)/Q16</f>
+        <f t="shared" ref="Q40:V40" si="182">(Q16-Q19)/Q16</f>
         <v>0.74717731588401337</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.75</v>
       </c>
       <c r="W40" s="9"/>
@@ -8113,63 +8102,63 @@
       <c r="AW40" s="9"/>
       <c r="AX40" s="9"/>
       <c r="AY40" s="9">
-        <f t="shared" ref="AX40:AZ40" si="179">(AY16-AY19)/AY16</f>
+        <f t="shared" ref="AY40" si="183">(AY16-AY19)/AY16</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="AZ40" s="9">
-        <f t="shared" ref="AZ40:BM40" si="180">(AZ16-AZ19)/AZ16</f>
+        <f t="shared" ref="AZ40:BM40" si="184">(AZ16-AZ19)/AZ16</f>
         <v>0.76218833743398473</v>
       </c>
       <c r="BA40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BB40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BC40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BD40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BE40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BF40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.72020153225942973</v>
       </c>
       <c r="BG40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BH40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BI40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BJ40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BK40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BL40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BM40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.75</v>
       </c>
       <c r="BP40" s="1"/>
@@ -8182,43 +8171,43 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9">
-        <f t="shared" ref="F41:K41" si="181">(F17-F20)/F17</f>
+        <f t="shared" ref="F41:K41" si="185">(F17-F20)/F17</f>
         <v>0.59926581514633415</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:O41" si="182">(L17-L20)/L17</f>
+        <f t="shared" ref="L41:O41" si="186">(L17-L20)/L17</f>
         <v>0.65656402468577335</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P41" s="9">
@@ -8226,27 +8215,27 @@
         <v>0.67435826662986476</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:V41" si="183">(Q17-Q20)/Q17</f>
+        <f t="shared" ref="Q41:V41" si="187">(Q17-Q20)/Q17</f>
         <v>0.67299900721779493</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.65</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.65</v>
       </c>
       <c r="T41" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="U41" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.65</v>
       </c>
       <c r="W41" s="9"/>
@@ -8278,63 +8267,63 @@
       <c r="AW41" s="9"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9">
-        <f t="shared" ref="AX41:AZ41" si="184">(AY17-AY20)/AY17</f>
+        <f t="shared" ref="AY41" si="188">(AY17-AY20)/AY17</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="AZ41" s="9">
-        <f t="shared" ref="AZ41:BM41" si="185">(AZ17-AZ20)/AZ17</f>
+        <f t="shared" ref="AZ41:BM41" si="189">(AZ17-AZ20)/AZ17</f>
         <v>0.41739926739926742</v>
       </c>
       <c r="BA41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BB41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BC41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BD41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BE41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BF41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.66815203306922577</v>
       </c>
       <c r="BG41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BH41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BI41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BJ41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="BK41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BL41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BM41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.65</v>
       </c>
       <c r="BP41" s="1"/>
@@ -8411,35 +8400,35 @@
         <v>82</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" ref="K44:R44" si="186">+K45-K56</f>
+        <f t="shared" ref="K44:R44" si="190">+K45-K56</f>
         <v>83720</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>79105</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>61674</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>61867</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>65479</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>58489</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>65632</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="S44" s="5"/>
@@ -8447,87 +8436,87 @@
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="AC44" s="4">
-        <f>AC45</f>
+        <f t="shared" ref="AC44:AQ44" si="191">AC45</f>
         <v>3614</v>
       </c>
       <c r="AD44" s="4">
-        <f>AD45</f>
+        <f t="shared" si="191"/>
         <v>4750</v>
       </c>
       <c r="AE44" s="4">
-        <f>AE45</f>
+        <f t="shared" si="191"/>
         <v>6940</v>
       </c>
       <c r="AF44" s="4">
-        <f>AF45</f>
+        <f t="shared" si="191"/>
         <v>11312</v>
       </c>
       <c r="AG44" s="4">
-        <f>AG45</f>
+        <f t="shared" si="191"/>
         <v>18630</v>
       </c>
       <c r="AH44" s="4">
-        <f>AH45</f>
+        <f t="shared" si="191"/>
         <v>31608</v>
       </c>
       <c r="AI44" s="4">
-        <f>AI45</f>
+        <f t="shared" si="191"/>
         <v>41524</v>
       </c>
       <c r="AJ44" s="4">
-        <f>AJ45</f>
+        <f t="shared" si="191"/>
         <v>45741</v>
       </c>
       <c r="AK44" s="4">
-        <f>AK45</f>
+        <f t="shared" si="191"/>
         <v>52843</v>
       </c>
       <c r="AL44" s="4">
-        <f>AL45</f>
+        <f t="shared" si="191"/>
         <v>62740</v>
       </c>
       <c r="AM44" s="4">
-        <f>AM45</f>
+        <f t="shared" si="191"/>
         <v>72802</v>
       </c>
       <c r="AN44" s="4">
-        <f>AN45</f>
+        <f t="shared" si="191"/>
         <v>48755</v>
       </c>
       <c r="AO44" s="4">
-        <f>AO45</f>
+        <f t="shared" si="191"/>
         <v>43393</v>
       </c>
       <c r="AP44" s="4">
-        <f>AP45</f>
+        <f t="shared" si="191"/>
         <v>33528</v>
       </c>
       <c r="AQ44" s="4">
-        <f>AQ45</f>
+        <f t="shared" si="191"/>
         <v>30250</v>
       </c>
       <c r="AR44" s="4">
-        <f>AR45-AR56</f>
+        <f t="shared" ref="AR44:AW44" si="192">AR45-AR56</f>
         <v>30634</v>
       </c>
       <c r="AS44" s="4">
-        <f>AS45-AS56</f>
+        <f t="shared" si="192"/>
         <v>38603</v>
       </c>
       <c r="AT44" s="4">
-        <f>AT45-AT56</f>
+        <f t="shared" si="192"/>
         <v>51716</v>
       </c>
       <c r="AU44" s="4">
-        <f>AU45-AU56</f>
+        <f t="shared" si="192"/>
         <v>60872</v>
       </c>
       <c r="AV44" s="4">
-        <f>AV45-AV56</f>
+        <f t="shared" si="192"/>
         <v>72266</v>
       </c>
       <c r="AW44" s="4">
-        <f>AW45-AW56</f>
+        <f t="shared" si="192"/>
         <v>77661</v>
       </c>
       <c r="BE44" s="5">
@@ -8539,31 +8528,31 @@
         <v>135630.8738</v>
       </c>
       <c r="BG44" s="5">
-        <f t="shared" ref="BG44:BM44" si="187">+BF44+BG31</f>
+        <f t="shared" ref="BG44:BM44" si="193">+BF44+BG31</f>
         <v>219420.04022350002</v>
       </c>
       <c r="BH44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>313025.14890945581</v>
       </c>
       <c r="BI44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>417465.21192033088</v>
       </c>
       <c r="BJ44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>533862.2166699965</v>
       </c>
       <c r="BK44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>663451.45527191262</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>807592.88777302252</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="193"/>
         <v>967783.64269042877</v>
       </c>
     </row>
@@ -9456,35 +9445,35 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <f t="shared" ref="K53" si="188">SUM(K45:K52)</f>
+        <f t="shared" ref="K53" si="194">SUM(K45:K52)</f>
         <v>335418</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" ref="L53" si="189">SUM(L45:L52)</f>
+        <f t="shared" ref="L53" si="195">SUM(L45:L52)</f>
         <v>340389</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" ref="M53:R53" si="190">SUM(M45:M52)</f>
+        <f t="shared" ref="M53:R53" si="196">SUM(M45:M52)</f>
         <v>344607</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>364840</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>359784</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>364552</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>380088</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="190"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="S53" s="7"/>
@@ -9492,87 +9481,87 @@
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="AC53" s="6">
-        <f>SUM(AC45:AC52)</f>
+        <f t="shared" ref="AC53:AW53" si="197">SUM(AC45:AC52)</f>
         <v>5363</v>
       </c>
       <c r="AD53" s="6">
-        <f>SUM(AD45:AD52)</f>
+        <f t="shared" si="197"/>
         <v>7210</v>
       </c>
       <c r="AE53" s="6">
-        <f>SUM(AE45:AE52)</f>
+        <f t="shared" si="197"/>
         <v>10093</v>
       </c>
       <c r="AF53" s="6">
-        <f>SUM(AF45:AF52)</f>
+        <f t="shared" si="197"/>
         <v>14387</v>
       </c>
       <c r="AG53" s="6">
-        <f>SUM(AG45:AG52)</f>
+        <f t="shared" si="197"/>
         <v>22357</v>
       </c>
       <c r="AH53" s="6">
-        <f>SUM(AH45:AH52)</f>
+        <f t="shared" si="197"/>
         <v>37156</v>
       </c>
       <c r="AI53" s="6">
-        <f>SUM(AI45:AI52)</f>
+        <f t="shared" si="197"/>
         <v>52150</v>
       </c>
       <c r="AJ53" s="6">
-        <f>SUM(AJ45:AJ52)</f>
+        <f t="shared" si="197"/>
         <v>59257</v>
       </c>
       <c r="AK53" s="6">
-        <f>SUM(AK45:AK52)</f>
+        <f t="shared" si="197"/>
         <v>67646</v>
       </c>
       <c r="AL53" s="6">
-        <f>SUM(AL45:AL52)</f>
+        <f t="shared" si="197"/>
         <v>79571</v>
       </c>
       <c r="AM53" s="6">
-        <f>SUM(AM45:AM52)</f>
+        <f t="shared" si="197"/>
         <v>92389</v>
       </c>
       <c r="AN53" s="6">
-        <f>SUM(AN45:AN52)</f>
+        <f t="shared" si="197"/>
         <v>70815</v>
       </c>
       <c r="AO53" s="6">
-        <f>SUM(AO45:AO52)</f>
+        <f t="shared" si="197"/>
         <v>69597</v>
       </c>
       <c r="AP53" s="6">
-        <f>SUM(AP45:AP52)</f>
+        <f t="shared" si="197"/>
         <v>63171</v>
       </c>
       <c r="AQ53" s="6">
-        <f>SUM(AQ45:AQ52)</f>
+        <f t="shared" si="197"/>
         <v>72793</v>
       </c>
       <c r="AR53" s="6">
-        <f>SUM(AR45:AR52)</f>
+        <f t="shared" si="197"/>
         <v>77888</v>
       </c>
       <c r="AS53" s="6">
-        <f>SUM(AS45:AS52)</f>
+        <f t="shared" si="197"/>
         <v>86113</v>
       </c>
       <c r="AT53" s="6">
-        <f>SUM(AT45:AT52)</f>
+        <f t="shared" si="197"/>
         <v>108704</v>
       </c>
       <c r="AU53" s="6">
-        <f>SUM(AU45:AU52)</f>
+        <f t="shared" si="197"/>
         <v>121271</v>
       </c>
       <c r="AV53" s="6">
-        <f>SUM(AV45:AV52)</f>
+        <f t="shared" si="197"/>
         <v>142431</v>
       </c>
       <c r="AW53" s="6">
-        <f>SUM(AW45:AW52)</f>
+        <f t="shared" si="197"/>
         <v>172384</v>
       </c>
       <c r="BC53" s="7"/>
@@ -10566,35 +10555,35 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7">
-        <f t="shared" ref="K64:L64" si="191">SUM(K55:K63)</f>
+        <f t="shared" ref="K64:L64" si="198">SUM(K55:K63)</f>
         <v>335418</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="191"/>
+        <f t="shared" si="198"/>
         <v>340389</v>
       </c>
       <c r="M64" s="7">
-        <f t="shared" ref="M64:R64" si="192">SUM(M55:M63)</f>
+        <f t="shared" ref="M64:R64" si="199">SUM(M55:M63)</f>
         <v>344607</v>
       </c>
       <c r="N64" s="7">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>364840</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>359784</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>364552</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>380088</v>
       </c>
       <c r="R64" s="7">
-        <f t="shared" si="192"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="S64" s="7"/>
@@ -10602,87 +10591,87 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="AC64" s="6">
-        <f>SUM(AC55:AC63)</f>
+        <f t="shared" ref="AC64:AW64" si="200">SUM(AC55:AC63)</f>
         <v>5363</v>
       </c>
       <c r="AD64" s="6">
-        <f>SUM(AD55:AD63)</f>
+        <f t="shared" si="200"/>
         <v>7210</v>
       </c>
       <c r="AE64" s="6">
-        <f>SUM(AE55:AE63)</f>
+        <f t="shared" si="200"/>
         <v>10093</v>
       </c>
       <c r="AF64" s="6">
-        <f>SUM(AF55:AF63)</f>
+        <f t="shared" si="200"/>
         <v>14387</v>
       </c>
       <c r="AG64" s="6">
-        <f>SUM(AG55:AG63)</f>
+        <f t="shared" si="200"/>
         <v>22357</v>
       </c>
       <c r="AH64" s="6">
-        <f>SUM(AH55:AH63)</f>
+        <f t="shared" si="200"/>
         <v>37156</v>
       </c>
       <c r="AI64" s="6">
-        <f>SUM(AI55:AI63)</f>
+        <f t="shared" si="200"/>
         <v>52150</v>
       </c>
       <c r="AJ64" s="6">
-        <f>SUM(AJ55:AJ63)</f>
+        <f t="shared" si="200"/>
         <v>59257</v>
       </c>
       <c r="AK64" s="6">
-        <f>SUM(AK55:AK63)</f>
+        <f t="shared" si="200"/>
         <v>67646</v>
       </c>
       <c r="AL64" s="6">
-        <f>SUM(AL55:AL63)</f>
+        <f t="shared" si="200"/>
         <v>79571</v>
       </c>
       <c r="AM64" s="6">
-        <f>SUM(AM55:AM63)</f>
+        <f t="shared" si="200"/>
         <v>92389</v>
       </c>
       <c r="AN64" s="6">
-        <f>SUM(AN55:AN63)</f>
+        <f t="shared" si="200"/>
         <v>70815</v>
       </c>
       <c r="AO64" s="6">
-        <f>SUM(AO55:AO63)</f>
+        <f t="shared" si="200"/>
         <v>69597</v>
       </c>
       <c r="AP64" s="6">
-        <f>SUM(AP55:AP63)</f>
+        <f t="shared" si="200"/>
         <v>63171</v>
       </c>
       <c r="AQ64" s="6">
-        <f>SUM(AQ55:AQ63)</f>
+        <f t="shared" si="200"/>
         <v>72793</v>
       </c>
       <c r="AR64" s="6">
-        <f>SUM(AR55:AR63)</f>
+        <f t="shared" si="200"/>
         <v>77888</v>
       </c>
       <c r="AS64" s="6">
-        <f>SUM(AS55:AS63)</f>
+        <f t="shared" si="200"/>
         <v>86113</v>
       </c>
       <c r="AT64" s="6">
-        <f>SUM(AT55:AT63)</f>
+        <f t="shared" si="200"/>
         <v>108704</v>
       </c>
       <c r="AU64" s="6">
-        <f>SUM(AU55:AU63)</f>
+        <f t="shared" si="200"/>
         <v>121271</v>
       </c>
       <c r="AV64" s="6">
-        <f>SUM(AV55:AV63)</f>
+        <f t="shared" si="200"/>
         <v>142431</v>
       </c>
       <c r="AW64" s="6">
-        <f>SUM(AW55:AW63)</f>
+        <f t="shared" si="200"/>
         <v>172384</v>
       </c>
       <c r="BC64" s="7"/>
@@ -10703,35 +10692,35 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5">
-        <f t="shared" ref="K66" si="193">K31</f>
+        <f t="shared" ref="K66" si="201">K31</f>
         <v>20505</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" ref="L66:R66" si="194">L31</f>
+        <f t="shared" ref="L66:R66" si="202">L31</f>
         <v>18765</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>16728</v>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>16740</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>17556</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>16425</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>18759</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="202"/>
         <v>17861.055679999994</v>
       </c>
       <c r="S66" s="5"/>
@@ -10972,35 +10961,35 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5">
-        <f t="shared" ref="K73" si="195">SUM(K67:K72)</f>
+        <f t="shared" ref="K73" si="203">SUM(K67:K72)</f>
         <v>24540</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" ref="L73" si="196">SUM(L67:L72)</f>
+        <f t="shared" ref="L73" si="204">SUM(L67:L72)</f>
         <v>14480</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" ref="M73:R73" si="197">SUM(M67:M72)</f>
+        <f t="shared" ref="M73:R73" si="205">SUM(M67:M72)</f>
         <v>25386</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="205"/>
         <v>24629</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="205"/>
         <v>23198</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="205"/>
         <v>11173</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="S73" s="5"/>
@@ -11189,11 +11178,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="198">SUM(K75:K78)</f>
+        <f t="shared" ref="K79:L79" si="206">SUM(K75:K78)</f>
         <v>-3250</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="206"/>
         <v>-1161</v>
       </c>
       <c r="M79" s="5">
@@ -11411,7 +11400,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5">
-        <f t="shared" ref="K86" si="199">SUM(K81:K85)</f>
+        <f t="shared" ref="K86" si="207">SUM(K81:K85)</f>
         <v>-16276</v>
       </c>
       <c r="L86" s="5">
@@ -11467,7 +11456,7 @@
         <v>67</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" ref="K88" si="200">K86+K87+K79+K73</f>
+        <f t="shared" ref="K88" si="208">K86+K87+K79+K73</f>
         <v>4941</v>
       </c>
       <c r="L88" s="5">
@@ -11496,7 +11485,7 @@
         <v>72</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" ref="K90" si="201">K73+K75</f>
+        <f t="shared" ref="K90" si="209">K73+K75</f>
         <v>18730</v>
       </c>
       <c r="L90" s="5">
@@ -11504,11 +11493,11 @@
         <v>8615</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:N90" si="202">M73+M75</f>
+        <f t="shared" ref="M90:N90" si="210">M73+M75</f>
         <v>20046</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="210"/>
         <v>17758</v>
       </c>
       <c r="O90" s="5">
@@ -11648,11 +11637,11 @@
         <f>171181/2484.635</f>
         <v>68.895833794501002</v>
       </c>
-      <c r="AH96" s="30">
+      <c r="AH96" s="1">
         <f>375039/5141</f>
         <v>72.950593269791867</v>
       </c>
-      <c r="AI96" s="30">
+      <c r="AI96" s="1">
         <f>302326/5355</f>
         <v>56.456769374416432</v>
       </c>
@@ -11726,95 +11715,95 @@
         <v>2</v>
       </c>
       <c r="AC97" s="4">
-        <f>AC96*AC33</f>
+        <f t="shared" ref="AC97:AY97" si="211">AC96*AC33</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD97" s="4">
-        <f>AD96*AD33</f>
+        <f t="shared" si="211"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE97" s="4">
-        <f>AE96*AE33</f>
+        <f t="shared" si="211"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF97" s="4">
-        <f>AF96*AF33</f>
+        <f t="shared" si="211"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG97" s="4">
-        <f>AG96*AG33</f>
+        <f t="shared" si="211"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH97" s="4">
-        <f>AH96*AH33</f>
+        <f t="shared" si="211"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI97" s="4">
-        <f>AI96*AI33</f>
+        <f t="shared" si="211"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ97" s="4">
-        <f>AJ96*AJ33</f>
+        <f t="shared" si="211"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK97" s="4">
-        <f>AK96*AK33</f>
+        <f t="shared" si="211"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL97" s="4">
-        <f>AL96*AL33</f>
+        <f t="shared" si="211"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM97" s="4">
-        <f>AM96*AM33</f>
+        <f t="shared" si="211"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN97" s="4">
-        <f>AN96*AN33</f>
+        <f t="shared" si="211"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO97" s="4">
-        <f>AO96*AO33</f>
+        <f t="shared" si="211"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP97" s="4">
-        <f>AP96*AP33</f>
+        <f t="shared" si="211"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ97" s="4">
-        <f>AQ96*AQ33</f>
+        <f t="shared" si="211"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR97" s="4">
-        <f>AR96*AR33</f>
+        <f t="shared" si="211"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS97" s="4">
-        <f>AS96*AS33</f>
+        <f t="shared" si="211"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT97" s="4">
-        <f>AT96*AT33</f>
+        <f t="shared" si="211"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU97" s="4">
-        <f>AU96*AU33</f>
+        <f t="shared" si="211"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV97" s="4">
-        <f>AV96*AV33</f>
+        <f t="shared" si="211"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW97" s="4">
-        <f>AW96*AW33</f>
+        <f t="shared" si="211"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX97" s="4">
-        <f>AX96*AX33</f>
+        <f t="shared" si="211"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY97" s="4">
-        <f>AY96*AY33</f>
+        <f t="shared" si="211"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -11823,95 +11812,95 @@
         <v>5</v>
       </c>
       <c r="AC98" s="4">
-        <f>AC97-AC44</f>
+        <f t="shared" ref="AC98:AY98" si="212">AC97-AC44</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD98" s="4">
-        <f>AD97-AD44</f>
+        <f t="shared" si="212"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE98" s="4">
-        <f>AE97-AE44</f>
+        <f t="shared" si="212"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF98" s="4">
-        <f>AF97-AF44</f>
+        <f t="shared" si="212"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG98" s="4">
-        <f>AG97-AG44</f>
+        <f t="shared" si="212"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH98" s="4">
-        <f>AH97-AH44</f>
+        <f t="shared" si="212"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI98" s="4">
-        <f>AI97-AI44</f>
+        <f t="shared" si="212"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ98" s="4">
-        <f>AJ97-AJ44</f>
+        <f t="shared" si="212"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK98" s="4">
-        <f>AK97-AK44</f>
+        <f t="shared" si="212"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL98" s="4">
-        <f>AL97-AL44</f>
+        <f t="shared" si="212"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM98" s="4">
-        <f>AM97-AM44</f>
+        <f t="shared" si="212"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN98" s="4">
-        <f>AN97-AN44</f>
+        <f t="shared" si="212"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO98" s="4">
-        <f>AO97-AO44</f>
+        <f t="shared" si="212"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP98" s="4">
-        <f>AP97-AP44</f>
+        <f t="shared" si="212"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ98" s="4">
-        <f>AQ97-AQ44</f>
+        <f t="shared" si="212"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR98" s="4">
-        <f>AR97-AR44</f>
+        <f t="shared" si="212"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS98" s="4">
-        <f>AS97-AS44</f>
+        <f t="shared" si="212"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT98" s="4">
-        <f>AT97-AT44</f>
+        <f t="shared" si="212"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU98" s="4">
-        <f>AU97-AU44</f>
+        <f t="shared" si="212"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV98" s="4">
-        <f>AV97-AV44</f>
+        <f t="shared" si="212"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW98" s="4">
-        <f>AW97-AW44</f>
+        <f t="shared" si="212"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX98" s="4">
-        <f>AX97-AX44</f>
+        <f t="shared" si="212"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY98" s="4">
-        <f>AY97-AY44</f>
+        <f t="shared" si="212"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -11920,95 +11909,95 @@
         <v>224</v>
       </c>
       <c r="AC99" s="24">
-        <f>AC98/AC31</f>
+        <f t="shared" ref="AC99:AY99" si="213">AC98/AC31</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD99" s="24">
-        <f>AD98/AD31</f>
+        <f t="shared" si="213"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE99" s="24">
-        <f>AE98/AE31</f>
+        <f t="shared" si="213"/>
         <v>19.310819281160661</v>
       </c>
-      <c r="AF99" s="27">
-        <f>AF98/AF31</f>
+      <c r="AF99" s="24">
+        <f t="shared" si="213"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG99" s="24">
-        <f>AG98/AG31</f>
+        <f t="shared" si="213"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH99" s="24">
-        <f>AH98/AH31</f>
+        <f t="shared" si="213"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI99" s="24">
-        <f>AI98/AI31</f>
+        <f t="shared" si="213"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ99" s="24">
-        <f>AJ98/AJ31</f>
+        <f t="shared" si="213"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK99" s="24">
-        <f>AK98/AK31</f>
+        <f t="shared" si="213"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL99" s="24">
-        <f>AL98/AL31</f>
+        <f t="shared" si="213"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM99" s="24">
-        <f>AM98/AM31</f>
+        <f t="shared" si="213"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN99" s="24">
-        <f>AN98/AN31</f>
+        <f t="shared" si="213"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO99" s="24">
-        <f>AO98/AO31</f>
+        <f t="shared" si="213"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP99" s="24">
-        <f>AP98/AP31</f>
+        <f t="shared" si="213"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ99" s="24">
-        <f>AQ98/AQ31</f>
+        <f t="shared" si="213"/>
         <v>15.161856345073236</v>
       </c>
-      <c r="AR99" s="26">
-        <f>AR98/AR31</f>
+      <c r="AR99" s="25">
+        <f t="shared" si="213"/>
         <v>8.0931996656273455</v>
       </c>
-      <c r="AS99" s="26">
-        <f>AS98/AS31</f>
+      <c r="AS99" s="25">
+        <f t="shared" si="213"/>
         <v>10.844894848746359</v>
       </c>
-      <c r="AT99" s="26">
-        <f>AT98/AT31</f>
+      <c r="AT99" s="25">
+        <f t="shared" si="213"/>
         <v>6.9978956611138807</v>
       </c>
-      <c r="AU99" s="26">
-        <f>AU98/AU31</f>
+      <c r="AU99" s="25">
+        <f t="shared" si="213"/>
         <v>5.9266770325069915</v>
       </c>
-      <c r="AV99" s="26">
-        <f>AV98/AV31</f>
+      <c r="AV99" s="25">
+        <f t="shared" si="213"/>
         <v>6.1343189827689946</v>
       </c>
-      <c r="AW99" s="26">
-        <f>AW98/AW31</f>
+      <c r="AW99" s="25">
+        <f t="shared" si="213"/>
         <v>9.5673032620530574</v>
       </c>
-      <c r="AX99" s="26">
-        <f>AX98/AX31</f>
+      <c r="AX99" s="25">
+        <f t="shared" si="213"/>
         <v>16.98126691222053</v>
       </c>
-      <c r="AY99" s="26">
-        <f>AY98/AY31</f>
+      <c r="AY99" s="25">
+        <f t="shared" si="213"/>
         <v>24.376806374951329</v>
       </c>
     </row>
@@ -12051,37 +12040,37 @@
       <c r="AN102" s="3">
         <v>18</v>
       </c>
-      <c r="AO102" s="28">
+      <c r="AO102">
         <v>17</v>
       </c>
-      <c r="AP102" s="28">
+      <c r="AP102">
         <v>16</v>
       </c>
-      <c r="AQ102" s="28">
+      <c r="AQ102">
         <v>15</v>
       </c>
       <c r="AR102" s="3">
         <v>14</v>
       </c>
-      <c r="AS102" s="28">
+      <c r="AS102">
         <v>13</v>
       </c>
-      <c r="AT102" s="28">
+      <c r="AT102">
         <v>12</v>
       </c>
-      <c r="AU102" s="28">
+      <c r="AU102">
         <v>11</v>
       </c>
-      <c r="AV102" s="28">
+      <c r="AV102">
         <v>10</v>
       </c>
-      <c r="AW102" s="28">
+      <c r="AW102">
         <v>9</v>
       </c>
-      <c r="AX102" s="28">
+      <c r="AX102">
         <v>8</v>
       </c>
-      <c r="AY102" s="28">
+      <c r="AY102">
         <v>7</v>
       </c>
     </row>
@@ -12134,15 +12123,15 @@
         <f>AN97*1.12^18</f>
         <v>2005020.1473098751</v>
       </c>
-      <c r="AO103" s="25">
+      <c r="AO103" s="4">
         <f>AO97*1.13^17</f>
         <v>1973467.8274649733</v>
       </c>
-      <c r="AP103" s="25">
+      <c r="AP103" s="4">
         <f>AP97*1.135^16</f>
         <v>2011217.0113389471</v>
       </c>
-      <c r="AQ103" s="25">
+      <c r="AQ103" s="4">
         <f>AQ97*1.135^15</f>
         <v>1993563.9263761484</v>
       </c>
@@ -12216,13 +12205,13 @@
       <c r="AN104" s="18">
         <v>0.12</v>
       </c>
-      <c r="AO104" s="29">
+      <c r="AO104" s="12">
         <v>0.13</v>
       </c>
-      <c r="AP104" s="29">
+      <c r="AP104" s="12">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AQ104" s="29">
+      <c r="AQ104" s="12">
         <v>0.13500000000000001</v>
       </c>
       <c r="AR104" s="18">
@@ -12251,7 +12240,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{55B5032E-1DFB-40E9-9828-DF68BA8D1ADB}"/>
   </hyperlinks>
@@ -13085,298 +13074,298 @@
       </c>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="31"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="31"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="26"/>
     </row>
     <row r="179" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B179" s="33" t="s">
+      <c r="B179" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="C179" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="D179" s="35" t="s">
+      <c r="D179" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="E179" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="F179" s="33" t="s">
+      <c r="F179" s="28" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="36" t="s">
+      <c r="B180" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="C180" s="37" t="s">
+      <c r="C180" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D180" s="38">
+      <c r="D180" s="33">
         <v>49</v>
       </c>
-      <c r="E180" s="37" t="s">
+      <c r="E180" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F180" s="39" t="s">
+      <c r="F180" s="34" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="36" t="s">
+      <c r="B181" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="C181" s="37" t="s">
+      <c r="C181" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D181" s="38">
+      <c r="D181" s="33">
         <v>49</v>
       </c>
-      <c r="E181" s="37" t="s">
+      <c r="E181" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="34" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="C182" s="37" t="s">
+      <c r="C182" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D182" s="38">
+      <c r="D182" s="33">
         <v>53</v>
       </c>
-      <c r="E182" s="37" t="s">
+      <c r="E182" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F182" s="39" t="s">
+      <c r="F182" s="34" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="183" spans="2:6">
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="C183" s="37" t="s">
+      <c r="C183" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D183" s="38">
+      <c r="D183" s="33">
         <v>43</v>
       </c>
-      <c r="E183" s="37" t="s">
+      <c r="E183" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F183" s="39" t="s">
+      <c r="F183" s="34" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="C184" s="37" t="s">
+      <c r="C184" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D184" s="38">
+      <c r="D184" s="33">
         <v>45</v>
       </c>
-      <c r="E184" s="37" t="s">
+      <c r="E184" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F184" s="39" t="s">
+      <c r="F184" s="34" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="185" spans="2:6">
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="C185" s="37" t="s">
+      <c r="C185" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D185" s="38">
+      <c r="D185" s="33">
         <v>49</v>
       </c>
-      <c r="E185" s="37" t="s">
+      <c r="E185" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F185" s="39" t="s">
+      <c r="F185" s="34" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="36" t="s">
+      <c r="B186" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="37" t="s">
+      <c r="C186" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D186" s="38">
+      <c r="D186" s="33">
         <v>43</v>
       </c>
-      <c r="E186" s="37" t="s">
+      <c r="E186" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F186" s="39" t="s">
+      <c r="F186" s="34" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="36" t="s">
+      <c r="B187" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C187" s="37" t="s">
+      <c r="C187" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D187" s="38">
+      <c r="D187" s="33">
         <v>45</v>
       </c>
-      <c r="E187" s="37" t="s">
+      <c r="E187" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F187" s="39" t="s">
+      <c r="F187" s="34" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="188" spans="2:6">
-      <c r="B188" s="36" t="s">
+      <c r="B188" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="C188" s="37" t="s">
+      <c r="C188" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D188" s="38">
+      <c r="D188" s="33">
         <v>42</v>
       </c>
-      <c r="E188" s="37" t="s">
+      <c r="E188" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F188" s="39" t="s">
+      <c r="F188" s="34" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="36" t="s">
+      <c r="B189" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C189" s="37" t="s">
+      <c r="C189" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D189" s="38">
+      <c r="D189" s="33">
         <v>44</v>
       </c>
-      <c r="E189" s="37" t="s">
+      <c r="E189" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F189" s="39" t="s">
+      <c r="F189" s="34" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="190" spans="2:6">
-      <c r="B190" s="36" t="s">
+      <c r="B190" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C190" s="37" t="s">
+      <c r="C190" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D190" s="38">
+      <c r="D190" s="33">
         <v>47</v>
       </c>
-      <c r="E190" s="37" t="s">
+      <c r="E190" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F190" s="39" t="s">
+      <c r="F190" s="34" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="191" spans="2:6">
-      <c r="B191" s="36" t="s">
+      <c r="B191" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C191" s="37" t="s">
+      <c r="C191" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D191" s="38">
+      <c r="D191" s="33">
         <v>38</v>
       </c>
-      <c r="E191" s="37" t="s">
+      <c r="E191" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F191" s="39" t="s">
+      <c r="F191" s="34" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="36" t="s">
+      <c r="B192" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C192" s="37" t="s">
+      <c r="C192" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D192" s="38">
+      <c r="D192" s="33">
         <v>56</v>
       </c>
-      <c r="E192" s="37" t="s">
+      <c r="E192" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F192" s="39" t="s">
+      <c r="F192" s="34" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="36" t="s">
+      <c r="B193" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C193" s="37" t="s">
+      <c r="C193" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D193" s="38">
+      <c r="D193" s="33">
         <v>47</v>
       </c>
-      <c r="E193" s="37" t="s">
+      <c r="E193" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F193" s="39" t="s">
+      <c r="F193" s="34" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="36" t="s">
+      <c r="B194" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C194" s="37" t="s">
+      <c r="C194" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D194" s="38">
+      <c r="D194" s="33">
         <v>38</v>
       </c>
-      <c r="E194" s="37" t="s">
+      <c r="E194" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F194" s="39" t="s">
+      <c r="F194" s="34" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="36" t="s">
+      <c r="B195" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="C195" s="37" t="s">
+      <c r="C195" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D195" s="38">
+      <c r="D195" s="33">
         <v>46</v>
       </c>
-      <c r="E195" s="37" t="s">
+      <c r="E195" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F195" s="39" t="s">
+      <c r="F195" s="34" t="s">
         <v>385</v>
       </c>
     </row>
@@ -13562,191 +13551,191 @@
       </c>
     </row>
     <row r="232" spans="2:8">
-      <c r="B232" s="36" t="s">
+      <c r="B232" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="C232" s="37" t="s">
+      <c r="C232" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D232" s="40"/>
-      <c r="E232" s="41">
+      <c r="D232" s="35"/>
+      <c r="E232" s="36">
         <v>56</v>
       </c>
-      <c r="F232" s="40" t="s">
+      <c r="F232" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G232" s="37" t="s">
+      <c r="G232" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H232" s="40" t="s">
+      <c r="H232" s="35" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="233" spans="2:8">
-      <c r="B233" s="36" t="s">
+      <c r="B233" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="C233" s="37" t="s">
+      <c r="C233" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D233" s="40"/>
-      <c r="E233" s="41">
+      <c r="D233" s="35"/>
+      <c r="E233" s="36">
         <v>52</v>
       </c>
-      <c r="F233" s="40" t="s">
+      <c r="F233" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G233" s="37" t="s">
+      <c r="G233" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H233" s="40" t="s">
+      <c r="H233" s="35" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="234" spans="2:8">
-      <c r="B234" s="36" t="s">
+      <c r="B234" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="C234" s="37" t="s">
+      <c r="C234" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D234" s="40"/>
-      <c r="E234" s="41">
+      <c r="D234" s="35"/>
+      <c r="E234" s="36">
         <v>52</v>
       </c>
-      <c r="F234" s="40" t="s">
+      <c r="F234" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G234" s="37" t="s">
+      <c r="G234" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H234" s="40" t="s">
+      <c r="H234" s="35" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="235" spans="2:8">
-      <c r="B235" s="36" t="s">
+      <c r="B235" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="C235" s="37" t="s">
+      <c r="C235" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D235" s="40"/>
-      <c r="E235" s="41">
+      <c r="D235" s="35"/>
+      <c r="E235" s="36">
         <v>49</v>
       </c>
-      <c r="F235" s="40" t="s">
+      <c r="F235" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G235" s="37" t="s">
+      <c r="G235" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H235" s="40" t="s">
+      <c r="H235" s="35" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="236" spans="2:8">
-      <c r="B236" s="36" t="s">
+      <c r="B236" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C236" s="37" t="s">
+      <c r="C236" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D236" s="40"/>
-      <c r="E236" s="41">
+      <c r="D236" s="35"/>
+      <c r="E236" s="36">
         <v>63</v>
       </c>
-      <c r="F236" s="40" t="s">
+      <c r="F236" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G236" s="37" t="s">
+      <c r="G236" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H236" s="40" t="s">
+      <c r="H236" s="35" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="237" spans="2:8">
-      <c r="B237" s="36" t="s">
+      <c r="B237" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="C237" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D237" s="40"/>
-      <c r="E237" s="41">
+      <c r="D237" s="35"/>
+      <c r="E237" s="36">
         <v>44</v>
       </c>
-      <c r="F237" s="40" t="s">
+      <c r="F237" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G237" s="37" t="s">
+      <c r="G237" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H237" s="40" t="s">
+      <c r="H237" s="35" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="238" spans="2:8">
-      <c r="B238" s="36" t="s">
+      <c r="B238" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C238" s="37" t="s">
+      <c r="C238" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D238" s="40"/>
-      <c r="E238" s="41">
+      <c r="D238" s="35"/>
+      <c r="E238" s="36">
         <v>46</v>
       </c>
-      <c r="F238" s="40" t="s">
+      <c r="F238" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G238" s="37" t="s">
+      <c r="G238" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H238" s="40" t="s">
+      <c r="H238" s="35" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="239" spans="2:8">
-      <c r="B239" s="36" t="s">
+      <c r="B239" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="C239" s="37" t="s">
+      <c r="C239" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D239" s="40"/>
-      <c r="E239" s="41">
+      <c r="D239" s="35"/>
+      <c r="E239" s="36">
         <v>53</v>
       </c>
-      <c r="F239" s="40" t="s">
+      <c r="F239" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G239" s="37" t="s">
+      <c r="G239" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H239" s="40" t="s">
+      <c r="H239" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="240" spans="2:8">
-      <c r="B240" s="36" t="s">
+      <c r="B240" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C240" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="D240" s="40"/>
-      <c r="E240" s="41">
+      <c r="D240" s="35"/>
+      <c r="E240" s="36">
         <v>47</v>
       </c>
-      <c r="F240" s="40" t="s">
+      <c r="F240" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="G240" s="37" t="s">
+      <c r="G240" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H240" s="40" t="s">
+      <c r="H240" s="35" t="s">
         <v>396</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACD32E-91AF-475E-8C14-F3C9D82F22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED1B66-43DD-49B0-8B0C-E4A71EEF5369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49260" yWindow="2340" windowWidth="38700" windowHeight="15345" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-50895" yWindow="855" windowWidth="22605" windowHeight="19425" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1708,16 +1708,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>34685</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>30038</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
+      <xdr:rowOff>22430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>34685</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>30038</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>41713</xdr:rowOff>
+      <xdr:rowOff>51005</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1732,8 +1732,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11589495" y="13138"/>
-          <a:ext cx="0" cy="16286765"/>
+          <a:off x="12217392" y="22430"/>
+          <a:ext cx="0" cy="16128148"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1758,14 +1758,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>65745</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>65745</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1782,8 +1782,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15278100" y="0"/>
-          <a:ext cx="0" cy="14116050"/>
+          <a:off x="36813660" y="0"/>
+          <a:ext cx="0" cy="16128148"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2194,9 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>278.93</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -2245,7 +2243,7 @@
       </c>
       <c r="L4" s="4">
         <f>L2*L3</f>
-        <v>2084443.8900000001</v>
+        <v>2421252</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -2282,7 +2280,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>2025954.8900000001</v>
+        <v>2362763</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -2504,11 +2502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:DS104"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AR88" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BA28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AY95" sqref="AY95"/>
+      <selection pane="bottomRight" activeCell="BF36" sqref="BF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3438,8 +3436,7 @@
         <v>15588</v>
       </c>
       <c r="R16" s="4">
-        <f>+N16*1.02</f>
-        <v>18315.12</v>
+        <v>16853</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" ref="S16" si="2">O16*1.05</f>
@@ -3455,7 +3452,7 @@
       </c>
       <c r="V16" s="4">
         <f t="shared" ref="V16:V17" si="5">R16*1.05</f>
-        <v>19230.876</v>
+        <v>17695.650000000001</v>
       </c>
       <c r="AY16" s="4">
         <v>61502</v>
@@ -3482,35 +3479,35 @@
       </c>
       <c r="BF16" s="5">
         <f>SUM(O16:R16)</f>
-        <v>66161.119999999995</v>
+        <v>64699</v>
       </c>
       <c r="BG16" s="5">
         <f>+BF16*1.03</f>
-        <v>68145.953599999993</v>
+        <v>66639.97</v>
       </c>
       <c r="BH16" s="5">
         <f t="shared" ref="BH16:BM16" si="6">+BG16*1.03</f>
-        <v>70190.332207999993</v>
+        <v>68639.169099999999</v>
       </c>
       <c r="BI16" s="5">
         <f t="shared" si="6"/>
-        <v>72296.042174239992</v>
+        <v>70698.344173000005</v>
       </c>
       <c r="BJ16" s="5">
         <f t="shared" si="6"/>
-        <v>74464.923439467195</v>
+        <v>72819.294498190007</v>
       </c>
       <c r="BK16" s="5">
         <f t="shared" si="6"/>
-        <v>76698.871142651216</v>
+        <v>75003.873333135707</v>
       </c>
       <c r="BL16" s="5">
         <f t="shared" si="6"/>
-        <v>78999.837276930761</v>
+        <v>77253.989533129774</v>
       </c>
       <c r="BM16" s="5">
         <f t="shared" si="6"/>
-        <v>81369.832395238685</v>
+        <v>79571.609219123668</v>
       </c>
     </row>
     <row r="17" spans="2:123" s="4" customFormat="1">
@@ -3557,8 +3554,7 @@
         <v>37269</v>
       </c>
       <c r="R17" s="4">
-        <f>+N17*1.08</f>
-        <v>36621.72</v>
+        <v>39336</v>
       </c>
       <c r="S17" s="4">
         <f>O17*1.05</f>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="V17" s="4">
         <f t="shared" si="5"/>
-        <v>38452.806000000004</v>
+        <v>41302.800000000003</v>
       </c>
       <c r="AY17" s="4">
         <v>23818</v>
@@ -3601,35 +3597,35 @@
       </c>
       <c r="BF17" s="5">
         <f>SUM(O17:R17)</f>
-        <v>144501.72</v>
+        <v>147216</v>
       </c>
       <c r="BG17" s="5">
         <f>+BF17*1.15</f>
-        <v>166176.978</v>
+        <v>169298.4</v>
       </c>
       <c r="BH17" s="5">
         <f>+BG17*1.1</f>
-        <v>182794.67580000003</v>
+        <v>186228.24000000002</v>
       </c>
       <c r="BI17" s="5">
         <f t="shared" ref="BI17:BM17" si="7">+BH17*1.1</f>
-        <v>201074.14338000005</v>
+        <v>204851.06400000004</v>
       </c>
       <c r="BJ17" s="5">
         <f t="shared" si="7"/>
-        <v>221181.55771800008</v>
+        <v>225336.17040000006</v>
       </c>
       <c r="BK17" s="5">
         <f t="shared" si="7"/>
-        <v>243299.71348980011</v>
+        <v>247869.78744000007</v>
       </c>
       <c r="BL17" s="5">
         <f t="shared" si="7"/>
-        <v>267629.68483878014</v>
+        <v>272656.76618400012</v>
       </c>
       <c r="BM17" s="5">
         <f t="shared" si="7"/>
-        <v>294392.65332265821</v>
+        <v>299922.44280240015</v>
       </c>
     </row>
     <row r="18" spans="2:123" s="6" customFormat="1">
@@ -3689,7 +3685,7 @@
       </c>
       <c r="R18" s="7">
         <f t="shared" si="10"/>
-        <v>54936.84</v>
+        <v>56189</v>
       </c>
       <c r="S18" s="7">
         <f t="shared" si="10"/>
@@ -3705,7 +3701,7 @@
       </c>
       <c r="V18" s="7">
         <f t="shared" si="10"/>
-        <v>57683.682000000001</v>
+        <v>58998.450000000004</v>
       </c>
       <c r="Y18" s="6">
         <v>1183</v>
@@ -3815,35 +3811,35 @@
       </c>
       <c r="BF18" s="7">
         <f t="shared" si="11"/>
-        <v>210662.84</v>
+        <v>211915</v>
       </c>
       <c r="BG18" s="7">
         <f t="shared" ref="BG18:BM18" si="12">+BG17+BG16</f>
-        <v>234322.93160000001</v>
+        <v>235938.37</v>
       </c>
       <c r="BH18" s="7">
         <f t="shared" si="12"/>
-        <v>252985.00800800003</v>
+        <v>254867.40910000002</v>
       </c>
       <c r="BI18" s="7">
         <f t="shared" si="12"/>
-        <v>273370.18555424002</v>
+        <v>275549.40817300003</v>
       </c>
       <c r="BJ18" s="7">
         <f t="shared" si="12"/>
-        <v>295646.48115746729</v>
+        <v>298155.46489819005</v>
       </c>
       <c r="BK18" s="7">
         <f t="shared" si="12"/>
-        <v>319998.5846324513</v>
+        <v>322873.66077313578</v>
       </c>
       <c r="BL18" s="7">
         <f t="shared" si="12"/>
-        <v>346629.52211571089</v>
+        <v>349910.75571712991</v>
       </c>
       <c r="BM18" s="7">
         <f t="shared" si="12"/>
-        <v>375762.4857178969</v>
+        <v>379494.05202152382</v>
       </c>
     </row>
     <row r="19" spans="2:123" s="4" customFormat="1">
@@ -3890,11 +3886,10 @@
         <v>3941</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" ref="R19:V19" si="13">R16*0.25</f>
-        <v>4578.78</v>
+        <v>3871</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="R19:V19" si="13">S16*0.25</f>
         <v>4132.0124999999998</v>
       </c>
       <c r="T19" s="4">
@@ -3907,7 +3902,7 @@
       </c>
       <c r="V19" s="4">
         <f t="shared" si="13"/>
-        <v>4807.7190000000001</v>
+        <v>4423.9125000000004</v>
       </c>
       <c r="AY19" s="4">
         <v>17880</v>
@@ -3934,35 +3929,35 @@
       </c>
       <c r="BF19" s="5">
         <f>SUM(O19:R19)</f>
-        <v>18511.78</v>
+        <v>17804</v>
       </c>
       <c r="BG19" s="5">
         <f>BG16*0.25</f>
-        <v>17036.488399999998</v>
+        <v>16659.9925</v>
       </c>
       <c r="BH19" s="5">
         <f t="shared" ref="BH19:BM19" si="14">BH16*0.25</f>
-        <v>17547.583051999998</v>
+        <v>17159.792275</v>
       </c>
       <c r="BI19" s="5">
         <f t="shared" si="14"/>
-        <v>18074.010543559998</v>
+        <v>17674.586043250001</v>
       </c>
       <c r="BJ19" s="5">
         <f t="shared" si="14"/>
-        <v>18616.230859866799</v>
+        <v>18204.823624547502</v>
       </c>
       <c r="BK19" s="5">
         <f t="shared" si="14"/>
-        <v>19174.717785662804</v>
+        <v>18750.968333283927</v>
       </c>
       <c r="BL19" s="5">
         <f t="shared" si="14"/>
-        <v>19749.95931923269</v>
+        <v>19313.497383282443</v>
       </c>
       <c r="BM19" s="5">
         <f t="shared" si="14"/>
-        <v>20342.458098809671</v>
+        <v>19892.902304780917</v>
       </c>
     </row>
     <row r="20" spans="2:123" s="4" customFormat="1">
@@ -4009,11 +4004,10 @@
         <v>12187</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" ref="R20:V20" si="15">R17*0.35</f>
-        <v>12817.601999999999</v>
+        <v>12924</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="R20:V20" si="15">S17*0.35</f>
         <v>12635.0175</v>
       </c>
       <c r="T20" s="4">
@@ -4026,7 +4020,7 @@
       </c>
       <c r="V20" s="4">
         <f t="shared" si="15"/>
-        <v>13458.482100000001</v>
+        <v>14455.98</v>
       </c>
       <c r="AY20" s="4">
         <v>14900</v>
@@ -4053,35 +4047,35 @@
       </c>
       <c r="BF20" s="5">
         <f>SUM(O20:R20)</f>
-        <v>47952.601999999999</v>
+        <v>48059</v>
       </c>
       <c r="BG20" s="5">
         <f>BG17*0.35</f>
-        <v>58161.942299999995</v>
+        <v>59254.439999999995</v>
       </c>
       <c r="BH20" s="5">
         <f t="shared" ref="BH20:BM20" si="16">BH17*0.35</f>
-        <v>63978.136530000003</v>
+        <v>65179.884000000005</v>
       </c>
       <c r="BI20" s="5">
         <f t="shared" si="16"/>
-        <v>70375.950183000008</v>
+        <v>71697.872400000007</v>
       </c>
       <c r="BJ20" s="5">
         <f t="shared" si="16"/>
-        <v>77413.545201300018</v>
+        <v>78867.659640000013</v>
       </c>
       <c r="BK20" s="5">
         <f t="shared" si="16"/>
-        <v>85154.899721430033</v>
+        <v>86754.425604000018</v>
       </c>
       <c r="BL20" s="5">
         <f t="shared" si="16"/>
-        <v>93670.389693573044</v>
+        <v>95429.868164400032</v>
       </c>
       <c r="BM20" s="5">
         <f t="shared" si="16"/>
-        <v>103037.42866293037</v>
+        <v>104972.85498084004</v>
       </c>
     </row>
     <row r="21" spans="2:123" s="4" customFormat="1">
@@ -4139,25 +4133,25 @@
         <f>Q19+Q20</f>
         <v>16128</v>
       </c>
-      <c r="R21" s="4">
-        <f t="shared" ref="R21" si="21">+R18-R22</f>
-        <v>17030.420400000003</v>
+      <c r="R21" s="5">
+        <f>R19+R20</f>
+        <v>16795</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" ref="S21:T21" si="22">+S18-S22</f>
+        <f t="shared" ref="S21:T21" si="21">+S18-S22</f>
         <v>16314.711000000003</v>
       </c>
       <c r="T21" s="4">
+        <f t="shared" si="21"/>
+        <v>17169.148500000003</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" ref="U21:V21" si="22">+U18-U22</f>
+        <v>17204.953500000003</v>
+      </c>
+      <c r="V21" s="4">
         <f t="shared" si="22"/>
-        <v>17169.148500000003</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" ref="U21:V21" si="23">+U18-U22</f>
-        <v>17204.953500000003</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" si="23"/>
-        <v>17881.941420000003</v>
+        <v>18289.519500000002</v>
       </c>
       <c r="Y21" s="4">
         <v>253</v>
@@ -4238,64 +4232,64 @@
         <v>33038</v>
       </c>
       <c r="AY21" s="5">
-        <f t="shared" ref="AY21" si="24">AY19+AY20</f>
+        <f t="shared" ref="AY21" si="23">AY19+AY20</f>
         <v>32780</v>
       </c>
       <c r="AZ21" s="5">
-        <f t="shared" ref="AZ21:BA21" si="25">AZ19+AZ20</f>
+        <f t="shared" ref="AZ21:BA21" si="24">AZ19+AZ20</f>
         <v>34261</v>
       </c>
       <c r="BA21" s="5">
+        <f t="shared" si="24"/>
+        <v>38353</v>
+      </c>
+      <c r="BB21" s="5">
+        <f t="shared" ref="BB21:BC21" si="25">BB19+BB20</f>
+        <v>42910</v>
+      </c>
+      <c r="BC21" s="5">
         <f t="shared" si="25"/>
-        <v>38353</v>
-      </c>
-      <c r="BB21" s="5">
-        <f t="shared" ref="BB21:BC21" si="26">BB19+BB20</f>
-        <v>42910</v>
-      </c>
-      <c r="BC21" s="5">
+        <v>46078</v>
+      </c>
+      <c r="BD21" s="5">
+        <f t="shared" ref="BD21:BE21" si="26">BD19+BD20</f>
+        <v>52232</v>
+      </c>
+      <c r="BE21" s="5">
         <f t="shared" si="26"/>
-        <v>46078</v>
-      </c>
-      <c r="BD21" s="5">
-        <f t="shared" ref="BD21:BE21" si="27">BD19+BD20</f>
-        <v>52232</v>
-      </c>
-      <c r="BE21" s="5">
-        <f t="shared" si="27"/>
         <v>62650</v>
       </c>
       <c r="BF21" s="5">
         <f>BF19+BF20</f>
-        <v>66464.381999999998</v>
+        <v>65863</v>
       </c>
       <c r="BG21" s="5">
         <f>+BG18-BG22</f>
-        <v>77326.56742799998</v>
+        <v>77859.662099999987</v>
       </c>
       <c r="BH21" s="5">
         <f>+BH18-BH22</f>
-        <v>83485.052642639988</v>
+        <v>84106.245002999989</v>
       </c>
       <c r="BI21" s="5">
-        <f t="shared" ref="BI21:BM21" si="28">+BI18-BI22</f>
-        <v>90212.161232899205</v>
+        <f t="shared" ref="BI21:BM21" si="27">+BI18-BI22</f>
+        <v>90931.304697090003</v>
       </c>
       <c r="BJ21" s="5">
-        <f t="shared" si="28"/>
-        <v>97563.338781964208</v>
+        <f t="shared" si="27"/>
+        <v>98391.303416402719</v>
       </c>
       <c r="BK21" s="5">
-        <f t="shared" si="28"/>
-        <v>105599.53292870891</v>
+        <f t="shared" si="27"/>
+        <v>106548.30805513478</v>
       </c>
       <c r="BL21" s="5">
-        <f t="shared" si="28"/>
-        <v>114387.74229818457</v>
+        <f t="shared" si="27"/>
+        <v>115470.54938665286</v>
       </c>
       <c r="BM21" s="5">
-        <f t="shared" si="28"/>
-        <v>124001.62028690596</v>
+        <f t="shared" si="27"/>
+        <v>125233.03716710286</v>
       </c>
     </row>
     <row r="22" spans="2:123" s="4" customFormat="1">
@@ -4306,15 +4300,15 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <f t="shared" ref="F22" si="29">F18-F21</f>
+        <f t="shared" ref="F22" si="28">F18-F21</f>
         <v>25694</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:H22" si="30">G18-G21</f>
+        <f t="shared" ref="G22:H22" si="29">G18-G21</f>
         <v>26152</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28882</v>
       </c>
       <c r="I22" s="5">
@@ -4322,23 +4316,23 @@
         <v>28661</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ref="J22:M22" si="31">J18-J21</f>
+        <f t="shared" ref="J22:M22" si="30">J18-J21</f>
         <v>32161</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>31671</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>34768</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>33745</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" ref="N22" si="32">N18-N21</f>
+        <f t="shared" ref="N22" si="31">N18-N21</f>
         <v>35436</v>
       </c>
       <c r="O22" s="5">
@@ -4353,189 +4347,189 @@
         <f>Q18-Q21</f>
         <v>36729</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" ref="R22" si="33">+R18*0.69</f>
-        <v>37906.419599999994</v>
+      <c r="R22" s="5">
+        <f>R18-R21</f>
+        <v>39394</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" ref="S22:T22" si="34">+S18*0.69</f>
+        <f t="shared" ref="S22:T22" si="32">+S18*0.69</f>
         <v>36313.389000000003</v>
       </c>
       <c r="T22" s="4">
+        <f t="shared" si="32"/>
+        <v>38215.201500000003</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" ref="U22:V22" si="33">+U18*0.69</f>
+        <v>38294.896500000003</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="33"/>
+        <v>40708.930500000002</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" ref="Y22:AE22" si="34">Y18-Y21</f>
+        <v>930</v>
+      </c>
+      <c r="Z22" s="4">
         <f t="shared" si="34"/>
-        <v>38215.201500000003</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" ref="U22:V22" si="35">+U18*0.69</f>
-        <v>38294.896500000003</v>
-      </c>
-      <c r="V22" s="4">
-        <f t="shared" si="35"/>
-        <v>39801.740579999998</v>
-      </c>
-      <c r="Y22" s="4">
-        <f t="shared" ref="Y22:AE22" si="36">Y18-Y21</f>
-        <v>930</v>
-      </c>
-      <c r="Z22" s="4">
+        <v>1481</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="34"/>
+        <v>2292</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="34"/>
+        <v>3120</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="34"/>
+        <v>3886</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="34"/>
+        <v>5060</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="34"/>
+        <v>7483</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" ref="AF22" si="35">AF18-AF21</f>
+        <v>10273</v>
+      </c>
+      <c r="AG22" s="4">
+        <f t="shared" ref="AG22:AX22" si="36">AG18-AG21</f>
+        <v>13287</v>
+      </c>
+      <c r="AH22" s="4">
         <f t="shared" si="36"/>
-        <v>1481</v>
-      </c>
-      <c r="AA22" s="4">
+        <v>16933</v>
+      </c>
+      <c r="AI22" s="4">
         <f t="shared" si="36"/>
-        <v>2292</v>
-      </c>
-      <c r="AB22" s="4">
+        <v>19954</v>
+      </c>
+      <c r="AJ22" s="4">
         <f t="shared" si="36"/>
-        <v>3120</v>
-      </c>
-      <c r="AC22" s="4">
+        <v>21841</v>
+      </c>
+      <c r="AK22" s="4">
         <f t="shared" si="36"/>
-        <v>3886</v>
-      </c>
-      <c r="AD22" s="4">
+        <v>23174</v>
+      </c>
+      <c r="AL22" s="4">
         <f t="shared" si="36"/>
-        <v>5060</v>
-      </c>
-      <c r="AE22" s="4">
+        <v>26501</v>
+      </c>
+      <c r="AM22" s="4">
         <f t="shared" si="36"/>
-        <v>7483</v>
-      </c>
-      <c r="AF22" s="4">
-        <f t="shared" ref="AF22" si="37">AF18-AF21</f>
-        <v>10273</v>
-      </c>
-      <c r="AG22" s="4">
-        <f t="shared" ref="AG22:AX22" si="38">AG18-AG21</f>
-        <v>13287</v>
-      </c>
-      <c r="AH22" s="4">
+        <v>30119</v>
+      </c>
+      <c r="AN22" s="4">
+        <f t="shared" si="36"/>
+        <v>33588</v>
+      </c>
+      <c r="AO22" s="4">
+        <f t="shared" si="36"/>
+        <v>36632</v>
+      </c>
+      <c r="AP22" s="4">
+        <f t="shared" si="36"/>
+        <v>40429</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f t="shared" si="36"/>
+        <v>48822</v>
+      </c>
+      <c r="AR22" s="4">
+        <f t="shared" si="36"/>
+        <v>46282</v>
+      </c>
+      <c r="AS22" s="4">
+        <f t="shared" si="36"/>
+        <v>50089</v>
+      </c>
+      <c r="AT22" s="4">
+        <f t="shared" si="36"/>
+        <v>54366</v>
+      </c>
+      <c r="AU22" s="4">
+        <f t="shared" si="36"/>
+        <v>56193</v>
+      </c>
+      <c r="AV22" s="4">
+        <f t="shared" si="36"/>
+        <v>57600</v>
+      </c>
+      <c r="AW22" s="4">
+        <f t="shared" si="36"/>
+        <v>59899</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" si="36"/>
+        <v>60542</v>
+      </c>
+      <c r="AY22" s="5">
+        <f t="shared" ref="AY22" si="37">AY18-AY21</f>
+        <v>52540</v>
+      </c>
+      <c r="AZ22" s="5">
+        <f t="shared" ref="AZ22:BA22" si="38">AZ18-AZ21</f>
+        <v>62310</v>
+      </c>
+      <c r="BA22" s="5">
         <f t="shared" si="38"/>
-        <v>16933</v>
-      </c>
-      <c r="AI22" s="4">
-        <f t="shared" si="38"/>
-        <v>19954</v>
-      </c>
-      <c r="AJ22" s="4">
-        <f t="shared" si="38"/>
-        <v>21841</v>
-      </c>
-      <c r="AK22" s="4">
-        <f t="shared" si="38"/>
-        <v>23174</v>
-      </c>
-      <c r="AL22" s="4">
-        <f t="shared" si="38"/>
-        <v>26501</v>
-      </c>
-      <c r="AM22" s="4">
-        <f t="shared" si="38"/>
-        <v>30119</v>
-      </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="38"/>
-        <v>33588</v>
-      </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="38"/>
-        <v>36632</v>
-      </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="38"/>
-        <v>40429</v>
-      </c>
-      <c r="AQ22" s="4">
-        <f t="shared" si="38"/>
-        <v>48822</v>
-      </c>
-      <c r="AR22" s="4">
-        <f t="shared" si="38"/>
-        <v>46282</v>
-      </c>
-      <c r="AS22" s="4">
-        <f t="shared" si="38"/>
-        <v>50089</v>
-      </c>
-      <c r="AT22" s="4">
-        <f t="shared" si="38"/>
-        <v>54366</v>
-      </c>
-      <c r="AU22" s="4">
-        <f t="shared" si="38"/>
-        <v>56193</v>
-      </c>
-      <c r="AV22" s="4">
-        <f t="shared" si="38"/>
-        <v>57600</v>
-      </c>
-      <c r="AW22" s="4">
-        <f t="shared" si="38"/>
-        <v>59899</v>
-      </c>
-      <c r="AX22" s="4">
-        <f t="shared" si="38"/>
-        <v>60542</v>
-      </c>
-      <c r="AY22" s="5">
-        <f t="shared" ref="AY22" si="39">AY18-AY21</f>
-        <v>52540</v>
-      </c>
-      <c r="AZ22" s="5">
-        <f t="shared" ref="AZ22:BA22" si="40">AZ18-AZ21</f>
-        <v>62310</v>
-      </c>
-      <c r="BA22" s="5">
+        <v>72007</v>
+      </c>
+      <c r="BB22" s="5">
+        <f t="shared" ref="BB22:BC22" si="39">BB18-BB21</f>
+        <v>82933</v>
+      </c>
+      <c r="BC22" s="5">
+        <f t="shared" si="39"/>
+        <v>96937</v>
+      </c>
+      <c r="BD22" s="5">
+        <f t="shared" ref="BD22:BE22" si="40">BD18-BD21</f>
+        <v>115856</v>
+      </c>
+      <c r="BE22" s="5">
         <f t="shared" si="40"/>
-        <v>72007</v>
-      </c>
-      <c r="BB22" s="5">
-        <f t="shared" ref="BB22:BC22" si="41">BB18-BB21</f>
-        <v>82933</v>
-      </c>
-      <c r="BC22" s="5">
-        <f t="shared" si="41"/>
-        <v>96937</v>
-      </c>
-      <c r="BD22" s="5">
-        <f t="shared" ref="BD22:BE22" si="42">BD18-BD21</f>
-        <v>115856</v>
-      </c>
-      <c r="BE22" s="5">
-        <f t="shared" si="42"/>
         <v>135620</v>
       </c>
       <c r="BF22" s="5">
         <f>BF18-BF21</f>
-        <v>144198.45799999998</v>
+        <v>146052</v>
       </c>
       <c r="BG22" s="5">
-        <f t="shared" ref="BG22:BM22" si="43">+BG18*0.67</f>
-        <v>156996.36417200003</v>
+        <f t="shared" ref="BG22:BM22" si="41">+BG18*0.67</f>
+        <v>158078.70790000001</v>
       </c>
       <c r="BH22" s="5">
-        <f t="shared" si="43"/>
-        <v>169499.95536536005</v>
+        <f t="shared" si="41"/>
+        <v>170761.16409700003</v>
       </c>
       <c r="BI22" s="5">
-        <f t="shared" si="43"/>
-        <v>183158.02432134081</v>
+        <f t="shared" si="41"/>
+        <v>184618.10347591003</v>
       </c>
       <c r="BJ22" s="5">
-        <f t="shared" si="43"/>
-        <v>198083.14237550308</v>
+        <f t="shared" si="41"/>
+        <v>199764.16148178733</v>
       </c>
       <c r="BK22" s="5">
-        <f t="shared" si="43"/>
-        <v>214399.05170374239</v>
+        <f t="shared" si="41"/>
+        <v>216325.352718001</v>
       </c>
       <c r="BL22" s="5">
-        <f t="shared" si="43"/>
-        <v>232241.77981752632</v>
+        <f t="shared" si="41"/>
+        <v>234440.20633047706</v>
       </c>
       <c r="BM22" s="5">
-        <f t="shared" si="43"/>
-        <v>251760.86543099093</v>
+        <f t="shared" si="41"/>
+        <v>254261.01485442097</v>
       </c>
     </row>
     <row r="23" spans="2:123" s="4" customFormat="1">
@@ -4582,24 +4576,23 @@
         <v>6984</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" ref="R23" si="44">+N23*1.05</f>
-        <v>7191.4500000000007</v>
+        <v>6739</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:S24" si="45">O23*1.01</f>
+        <f t="shared" ref="S23:S24" si="42">O23*1.01</f>
         <v>6694.28</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:T25" si="46">P23*1.01</f>
+        <f t="shared" ref="T23:T25" si="43">P23*1.01</f>
         <v>6912.4400000000005</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" ref="U23:U25" si="47">Q23*1.01</f>
+        <f t="shared" ref="U23:U25" si="44">Q23*1.01</f>
         <v>7053.84</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" ref="V23:V25" si="48">R23*1.01</f>
-        <v>7263.3645000000006</v>
+        <f t="shared" ref="V23:V25" si="45">R23*1.01</f>
+        <v>6806.39</v>
       </c>
       <c r="Y23" s="4">
         <v>181</v>
@@ -4699,40 +4692,40 @@
         <v>20716</v>
       </c>
       <c r="BE23" s="5">
-        <f t="shared" ref="BE23:BE25" si="49">SUM(K23:N23)</f>
+        <f t="shared" ref="BE23:BE25" si="46">SUM(K23:N23)</f>
         <v>24512</v>
       </c>
       <c r="BF23" s="5">
-        <f t="shared" ref="BF23:BF25" si="50">SUM(O23:R23)</f>
-        <v>27647.45</v>
+        <f t="shared" ref="BF23:BF25" si="47">SUM(O23:R23)</f>
+        <v>27195</v>
       </c>
       <c r="BG23" s="5">
         <f>+BF23*1.03</f>
-        <v>28476.873500000002</v>
+        <v>28010.850000000002</v>
       </c>
       <c r="BH23" s="5">
-        <f t="shared" ref="BH23:BM23" si="51">+BG23*1.03</f>
-        <v>29331.179705000002</v>
+        <f t="shared" ref="BH23:BM23" si="48">+BG23*1.03</f>
+        <v>28851.175500000001</v>
       </c>
       <c r="BI23" s="5">
-        <f t="shared" si="51"/>
-        <v>30211.115096150003</v>
+        <f t="shared" si="48"/>
+        <v>29716.710765000003</v>
       </c>
       <c r="BJ23" s="5">
-        <f t="shared" si="51"/>
-        <v>31117.448549034503</v>
+        <f t="shared" si="48"/>
+        <v>30608.212087950003</v>
       </c>
       <c r="BK23" s="5">
-        <f t="shared" si="51"/>
-        <v>32050.97200550554</v>
+        <f t="shared" si="48"/>
+        <v>31526.458450588503</v>
       </c>
       <c r="BL23" s="5">
-        <f t="shared" si="51"/>
-        <v>33012.501165670707</v>
+        <f t="shared" si="48"/>
+        <v>32472.25220410616</v>
       </c>
       <c r="BM23" s="5">
-        <f t="shared" si="51"/>
-        <v>34002.876200640829</v>
+        <f t="shared" si="48"/>
+        <v>33446.419770229346</v>
       </c>
     </row>
     <row r="24" spans="2:123" s="4" customFormat="1">
@@ -4779,24 +4772,23 @@
         <v>5750</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" ref="R24:R25" si="52">+N24*1.05</f>
-        <v>6619.2000000000007</v>
+        <v>6204</v>
       </c>
       <c r="S24" s="4">
+        <f t="shared" si="42"/>
+        <v>5177.26</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="43"/>
+        <v>5735.79</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="44"/>
+        <v>5807.5</v>
+      </c>
+      <c r="V24" s="4">
         <f t="shared" si="45"/>
-        <v>5177.26</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="46"/>
-        <v>5735.79</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="47"/>
-        <v>5807.5</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" si="48"/>
-        <v>6685.3920000000007</v>
+        <v>6266.04</v>
       </c>
       <c r="Y24" s="4">
         <v>317</v>
@@ -4896,40 +4888,40 @@
         <v>20117</v>
       </c>
       <c r="BE24" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>21825</v>
       </c>
       <c r="BF24" s="5">
-        <f t="shared" si="50"/>
-        <v>23174.2</v>
+        <f t="shared" si="47"/>
+        <v>22759</v>
       </c>
       <c r="BG24" s="5">
         <f>+BF24*1.03</f>
-        <v>23869.426000000003</v>
+        <v>23441.77</v>
       </c>
       <c r="BH24" s="5">
-        <f t="shared" ref="BH24:BM24" si="53">+BG24*1.03</f>
-        <v>24585.508780000004</v>
+        <f t="shared" ref="BH24:BM24" si="49">+BG24*1.03</f>
+        <v>24145.023100000002</v>
       </c>
       <c r="BI24" s="5">
-        <f t="shared" si="53"/>
-        <v>25323.074043400004</v>
+        <f t="shared" si="49"/>
+        <v>24869.373793000002</v>
       </c>
       <c r="BJ24" s="5">
-        <f t="shared" si="53"/>
-        <v>26082.766264702004</v>
+        <f t="shared" si="49"/>
+        <v>25615.455006790002</v>
       </c>
       <c r="BK24" s="5">
-        <f t="shared" si="53"/>
-        <v>26865.249252643065</v>
+        <f t="shared" si="49"/>
+        <v>26383.918656993701</v>
       </c>
       <c r="BL24" s="5">
-        <f t="shared" si="53"/>
-        <v>27671.206730222359</v>
+        <f t="shared" si="49"/>
+        <v>27175.436216703514</v>
       </c>
       <c r="BM24" s="5">
-        <f t="shared" si="53"/>
-        <v>28501.342932129031</v>
+        <f t="shared" si="49"/>
+        <v>27990.699303204619</v>
       </c>
     </row>
     <row r="25" spans="2:123" s="4" customFormat="1">
@@ -4976,24 +4968,23 @@
         <v>1643</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="52"/>
-        <v>1836.45</v>
+        <v>2197</v>
       </c>
       <c r="S25" s="4">
         <f>O25*1.01</f>
         <v>1411.98</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>2360.37</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1659.43</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="48"/>
-        <v>1854.8145</v>
+        <f t="shared" si="45"/>
+        <v>2218.9699999999998</v>
       </c>
       <c r="Y25" s="4">
         <v>39</v>
@@ -5093,40 +5084,40 @@
         <v>5107</v>
       </c>
       <c r="BE25" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>5900</v>
       </c>
       <c r="BF25" s="5">
-        <f t="shared" si="50"/>
-        <v>7214.45</v>
+        <f t="shared" si="47"/>
+        <v>7575</v>
       </c>
       <c r="BG25" s="5">
         <f>+BF25*1.03</f>
-        <v>7430.8834999999999</v>
+        <v>7802.25</v>
       </c>
       <c r="BH25" s="5">
-        <f t="shared" ref="BH25:BM25" si="54">+BG25*1.03</f>
-        <v>7653.8100050000003</v>
+        <f t="shared" ref="BH25:BM25" si="50">+BG25*1.03</f>
+        <v>8036.3175000000001</v>
       </c>
       <c r="BI25" s="5">
-        <f t="shared" si="54"/>
-        <v>7883.4243051500007</v>
+        <f t="shared" si="50"/>
+        <v>8277.4070250000004</v>
       </c>
       <c r="BJ25" s="5">
-        <f t="shared" si="54"/>
-        <v>8119.9270343045009</v>
+        <f t="shared" si="50"/>
+        <v>8525.729235750001</v>
       </c>
       <c r="BK25" s="5">
-        <f t="shared" si="54"/>
-        <v>8363.5248453336353</v>
+        <f t="shared" si="50"/>
+        <v>8781.5011128225015</v>
       </c>
       <c r="BL25" s="5">
-        <f t="shared" si="54"/>
-        <v>8614.4305906936443</v>
+        <f t="shared" si="50"/>
+        <v>9044.9461462071758</v>
       </c>
       <c r="BM25" s="5">
-        <f t="shared" si="54"/>
-        <v>8872.8635084144535</v>
+        <f t="shared" si="50"/>
+        <v>9316.2945305933918</v>
       </c>
     </row>
     <row r="26" spans="2:123" s="4" customFormat="1">
@@ -5137,31 +5128,31 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
-        <f t="shared" ref="F26" si="55">SUM(F23:F25)</f>
+        <f t="shared" ref="F26" si="51">SUM(F23:F25)</f>
         <v>12287</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:L26" si="56">SUM(G23:G25)</f>
+        <f t="shared" ref="G26:L26" si="52">SUM(G23:G25)</f>
         <v>10276</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>10985</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>11613</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>13066</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>11433</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>12521</v>
       </c>
       <c r="M26" s="5">
@@ -5169,11 +5160,11 @@
         <v>13381</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26:O26" si="57">SUM(N23:N25)</f>
+        <f t="shared" ref="N26:O26" si="53">SUM(N23:N25)</f>
         <v>14902</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>13152</v>
       </c>
       <c r="P26" s="5">
@@ -5181,37 +5172,37 @@
         <v>14860</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" ref="Q26:R26" si="58">SUM(Q23:Q25)</f>
+        <f t="shared" ref="Q26:R26" si="54">SUM(Q23:Q25)</f>
         <v>14377</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="58"/>
-        <v>15647.100000000002</v>
+        <f t="shared" si="54"/>
+        <v>15140</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" ref="S26:U26" si="59">SUM(S23:S25)</f>
+        <f t="shared" ref="S26:U26" si="55">SUM(S23:S25)</f>
         <v>13283.52</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>15008.599999999999</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>14520.77</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" ref="V26" si="60">SUM(V23:V25)</f>
-        <v>15803.571000000002</v>
+        <f t="shared" ref="V26" si="56">SUM(V23:V25)</f>
+        <v>15291.4</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5">
-        <f t="shared" ref="Y26:Z26" si="61">Y23+Y24+Y25</f>
+        <f t="shared" ref="Y26:Z26" si="57">Y23+Y24+Y25</f>
         <v>537</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>831</v>
       </c>
       <c r="AA26" s="5">
@@ -5235,140 +5226,140 @@
         <v>4405</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" ref="AF26" si="62">AF23+AF24+AF25</f>
+        <f t="shared" ref="AF26" si="58">AF23+AF24+AF25</f>
         <v>5143</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" ref="AG26:AX26" si="63">AG23+AG24+AG25</f>
+        <f t="shared" ref="AG26:AX26" si="59">AG23+AG24+AG25</f>
         <v>6347</v>
       </c>
       <c r="AH26" s="5">
+        <f t="shared" si="59"/>
+        <v>6890</v>
+      </c>
+      <c r="AI26" s="5">
+        <f t="shared" si="59"/>
+        <v>8925</v>
+      </c>
+      <c r="AJ26" s="5">
+        <f t="shared" si="59"/>
+        <v>10121</v>
+      </c>
+      <c r="AK26" s="5">
+        <f t="shared" si="59"/>
+        <v>11264</v>
+      </c>
+      <c r="AL26" s="5">
+        <f t="shared" si="59"/>
+        <v>13284</v>
+      </c>
+      <c r="AM26" s="5">
+        <f t="shared" si="59"/>
+        <v>21085</v>
+      </c>
+      <c r="AN26" s="5">
+        <f t="shared" si="59"/>
+        <v>19027</v>
+      </c>
+      <c r="AO26" s="5">
+        <f t="shared" si="59"/>
+        <v>20160</v>
+      </c>
+      <c r="AP26" s="5">
+        <f t="shared" si="59"/>
+        <v>21905</v>
+      </c>
+      <c r="AQ26" s="5">
+        <f t="shared" si="59"/>
+        <v>26330</v>
+      </c>
+      <c r="AR26" s="5">
+        <f t="shared" si="59"/>
+        <v>25589</v>
+      </c>
+      <c r="AS26" s="5">
+        <f t="shared" si="59"/>
+        <v>25932</v>
+      </c>
+      <c r="AT26" s="5">
+        <f t="shared" si="59"/>
+        <v>27205</v>
+      </c>
+      <c r="AU26" s="5">
+        <f t="shared" si="59"/>
+        <v>28237</v>
+      </c>
+      <c r="AV26" s="5">
+        <f t="shared" si="59"/>
+        <v>30836</v>
+      </c>
+      <c r="AW26" s="5">
+        <f t="shared" si="59"/>
+        <v>32013</v>
+      </c>
+      <c r="AX26" s="5">
+        <f t="shared" si="59"/>
+        <v>32370</v>
+      </c>
+      <c r="AY26" s="5">
+        <f t="shared" ref="AY26:AZ26" si="60">SUM(AY23:AY25)</f>
+        <v>31248</v>
+      </c>
+      <c r="AZ26" s="5">
+        <f t="shared" si="60"/>
+        <v>32979</v>
+      </c>
+      <c r="BA26" s="5">
+        <f t="shared" ref="BA26:BB26" si="61">SUM(BA23:BA25)</f>
+        <v>36949</v>
+      </c>
+      <c r="BB26" s="5">
+        <f t="shared" si="61"/>
+        <v>39974</v>
+      </c>
+      <c r="BC26" s="5">
+        <f t="shared" ref="BC26" si="62">SUM(BC23:BC25)</f>
+        <v>43978</v>
+      </c>
+      <c r="BD26" s="5">
+        <f t="shared" ref="BD26:BF26" si="63">SUM(BD23:BD25)</f>
+        <v>45940</v>
+      </c>
+      <c r="BE26" s="5">
         <f t="shared" si="63"/>
-        <v>6890</v>
-      </c>
-      <c r="AI26" s="5">
+        <v>52237</v>
+      </c>
+      <c r="BF26" s="5">
         <f t="shared" si="63"/>
-        <v>8925</v>
-      </c>
-      <c r="AJ26" s="5">
-        <f t="shared" si="63"/>
-        <v>10121</v>
-      </c>
-      <c r="AK26" s="5">
-        <f t="shared" si="63"/>
-        <v>11264</v>
-      </c>
-      <c r="AL26" s="5">
-        <f t="shared" si="63"/>
-        <v>13284</v>
-      </c>
-      <c r="AM26" s="5">
-        <f t="shared" si="63"/>
-        <v>21085</v>
-      </c>
-      <c r="AN26" s="5">
-        <f t="shared" si="63"/>
-        <v>19027</v>
-      </c>
-      <c r="AO26" s="5">
-        <f t="shared" si="63"/>
-        <v>20160</v>
-      </c>
-      <c r="AP26" s="5">
-        <f t="shared" si="63"/>
-        <v>21905</v>
-      </c>
-      <c r="AQ26" s="5">
-        <f t="shared" si="63"/>
-        <v>26330</v>
-      </c>
-      <c r="AR26" s="5">
-        <f t="shared" si="63"/>
-        <v>25589</v>
-      </c>
-      <c r="AS26" s="5">
-        <f t="shared" si="63"/>
-        <v>25932</v>
-      </c>
-      <c r="AT26" s="5">
-        <f t="shared" si="63"/>
-        <v>27205</v>
-      </c>
-      <c r="AU26" s="5">
-        <f t="shared" si="63"/>
-        <v>28237</v>
-      </c>
-      <c r="AV26" s="5">
-        <f t="shared" si="63"/>
-        <v>30836</v>
-      </c>
-      <c r="AW26" s="5">
-        <f t="shared" si="63"/>
-        <v>32013</v>
-      </c>
-      <c r="AX26" s="5">
-        <f t="shared" si="63"/>
-        <v>32370</v>
-      </c>
-      <c r="AY26" s="5">
-        <f t="shared" ref="AY26:AZ26" si="64">SUM(AY23:AY25)</f>
-        <v>31248</v>
-      </c>
-      <c r="AZ26" s="5">
-        <f t="shared" si="64"/>
-        <v>32979</v>
-      </c>
-      <c r="BA26" s="5">
-        <f t="shared" ref="BA26:BB26" si="65">SUM(BA23:BA25)</f>
-        <v>36949</v>
-      </c>
-      <c r="BB26" s="5">
-        <f t="shared" si="65"/>
-        <v>39974</v>
-      </c>
-      <c r="BC26" s="5">
-        <f t="shared" ref="BC26" si="66">SUM(BC23:BC25)</f>
-        <v>43978</v>
-      </c>
-      <c r="BD26" s="5">
-        <f t="shared" ref="BD26:BF26" si="67">SUM(BD23:BD25)</f>
-        <v>45940</v>
-      </c>
-      <c r="BE26" s="5">
-        <f t="shared" si="67"/>
-        <v>52237</v>
-      </c>
-      <c r="BF26" s="5">
-        <f t="shared" si="67"/>
-        <v>58036.1</v>
+        <v>57529</v>
       </c>
       <c r="BG26" s="5">
-        <f t="shared" ref="BG26" si="68">SUM(BG23:BG25)</f>
-        <v>59777.183000000005</v>
+        <f t="shared" ref="BG26" si="64">SUM(BG23:BG25)</f>
+        <v>59254.87</v>
       </c>
       <c r="BH26" s="5">
-        <f t="shared" ref="BH26" si="69">SUM(BH23:BH25)</f>
-        <v>61570.498490000005</v>
+        <f t="shared" ref="BH26" si="65">SUM(BH23:BH25)</f>
+        <v>61032.516100000001</v>
       </c>
       <c r="BI26" s="5">
-        <f t="shared" ref="BI26" si="70">SUM(BI23:BI25)</f>
-        <v>63417.613444700008</v>
+        <f t="shared" ref="BI26" si="66">SUM(BI23:BI25)</f>
+        <v>62863.491583000003</v>
       </c>
       <c r="BJ26" s="5">
-        <f t="shared" ref="BJ26" si="71">SUM(BJ23:BJ25)</f>
-        <v>65320.141848041007</v>
+        <f t="shared" ref="BJ26" si="67">SUM(BJ23:BJ25)</f>
+        <v>64749.39633049001</v>
       </c>
       <c r="BK26" s="5">
-        <f t="shared" ref="BK26" si="72">SUM(BK23:BK25)</f>
-        <v>67279.746103482248</v>
+        <f t="shared" ref="BK26" si="68">SUM(BK23:BK25)</f>
+        <v>66691.878220404702</v>
       </c>
       <c r="BL26" s="5">
-        <f t="shared" ref="BL26" si="73">SUM(BL23:BL25)</f>
-        <v>69298.138486586715</v>
+        <f t="shared" ref="BL26" si="69">SUM(BL23:BL25)</f>
+        <v>68692.634567016852</v>
       </c>
       <c r="BM26" s="5">
-        <f t="shared" ref="BM26" si="74">SUM(BM23:BM25)</f>
-        <v>71377.082641184315</v>
+        <f t="shared" ref="BM26" si="70">SUM(BM23:BM25)</f>
+        <v>70753.413604027359</v>
       </c>
     </row>
     <row r="27" spans="2:123" s="4" customFormat="1">
@@ -5379,31 +5370,31 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <f t="shared" ref="F27" si="75">F22-F26</f>
+        <f t="shared" ref="F27" si="71">F22-F26</f>
         <v>13407</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27:L27" si="76">G22-G26</f>
+        <f t="shared" ref="G27:L27" si="72">G22-G26</f>
         <v>15876</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>17897</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>17048</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>19095</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>20238</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>22247</v>
       </c>
       <c r="M27" s="5">
@@ -5411,11 +5402,11 @@
         <v>20364</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" ref="N27:O27" si="77">N22-N26</f>
+        <f t="shared" ref="N27:O27" si="73">N22-N26</f>
         <v>20534</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>21518</v>
       </c>
       <c r="P27" s="5">
@@ -5427,33 +5418,33 @@
         <v>22352</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:U27" si="78">R22-R26</f>
-        <v>22259.319599999992</v>
+        <f t="shared" ref="R27:U27" si="74">R22-R26</f>
+        <v>24254</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>23029.869000000002</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>23206.601500000004</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>23774.126500000002</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" ref="V27" si="79">V22-V26</f>
-        <v>23998.169579999994</v>
+        <f t="shared" ref="V27" si="75">V22-V26</f>
+        <v>25417.530500000001</v>
       </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5">
-        <f t="shared" ref="Y27:Z27" si="80">Y22-Y26</f>
+        <f t="shared" ref="Y27:Z27" si="76">Y22-Y26</f>
         <v>393</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>650</v>
       </c>
       <c r="AA27" s="5">
@@ -5477,140 +5468,140 @@
         <v>3078</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" ref="AF27" si="81">AF22-AF26</f>
+        <f t="shared" ref="AF27" si="77">AF22-AF26</f>
         <v>5130</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" ref="AG27:AX27" si="82">AG22-AG26</f>
+        <f t="shared" ref="AG27:AX27" si="78">AG22-AG26</f>
         <v>6940</v>
       </c>
       <c r="AH27" s="5">
+        <f t="shared" si="78"/>
+        <v>10043</v>
+      </c>
+      <c r="AI27" s="5">
+        <f t="shared" si="78"/>
+        <v>11029</v>
+      </c>
+      <c r="AJ27" s="5">
+        <f t="shared" si="78"/>
+        <v>11720</v>
+      </c>
+      <c r="AK27" s="5">
+        <f t="shared" si="78"/>
+        <v>11910</v>
+      </c>
+      <c r="AL27" s="5">
+        <f t="shared" si="78"/>
+        <v>13217</v>
+      </c>
+      <c r="AM27" s="5">
+        <f t="shared" si="78"/>
+        <v>9034</v>
+      </c>
+      <c r="AN27" s="5">
+        <f t="shared" si="78"/>
+        <v>14561</v>
+      </c>
+      <c r="AO27" s="5">
+        <f t="shared" si="78"/>
+        <v>16472</v>
+      </c>
+      <c r="AP27" s="5">
+        <f t="shared" si="78"/>
+        <v>18524</v>
+      </c>
+      <c r="AQ27" s="5">
+        <f t="shared" si="78"/>
+        <v>22492</v>
+      </c>
+      <c r="AR27" s="5">
+        <f t="shared" si="78"/>
+        <v>20693</v>
+      </c>
+      <c r="AS27" s="5">
+        <f t="shared" si="78"/>
+        <v>24157</v>
+      </c>
+      <c r="AT27" s="5">
+        <f t="shared" si="78"/>
+        <v>27161</v>
+      </c>
+      <c r="AU27" s="5">
+        <f t="shared" si="78"/>
+        <v>27956</v>
+      </c>
+      <c r="AV27" s="5">
+        <f t="shared" si="78"/>
+        <v>26764</v>
+      </c>
+      <c r="AW27" s="5">
+        <f t="shared" si="78"/>
+        <v>27886</v>
+      </c>
+      <c r="AX27" s="5">
+        <f t="shared" si="78"/>
+        <v>28172</v>
+      </c>
+      <c r="AY27" s="5">
+        <f t="shared" ref="AY27:AZ27" si="79">AY22-AY26</f>
+        <v>21292</v>
+      </c>
+      <c r="AZ27" s="5">
+        <f t="shared" si="79"/>
+        <v>29331</v>
+      </c>
+      <c r="BA27" s="5">
+        <f t="shared" ref="BA27:BB27" si="80">BA22-BA26</f>
+        <v>35058</v>
+      </c>
+      <c r="BB27" s="5">
+        <f t="shared" si="80"/>
+        <v>42959</v>
+      </c>
+      <c r="BC27" s="5">
+        <f t="shared" ref="BC27" si="81">BC22-BC26</f>
+        <v>52959</v>
+      </c>
+      <c r="BD27" s="5">
+        <f t="shared" ref="BD27:BF27" si="82">BD22-BD26</f>
+        <v>69916</v>
+      </c>
+      <c r="BE27" s="5">
         <f t="shared" si="82"/>
-        <v>10043</v>
-      </c>
-      <c r="AI27" s="5">
+        <v>83383</v>
+      </c>
+      <c r="BF27" s="5">
         <f t="shared" si="82"/>
-        <v>11029</v>
-      </c>
-      <c r="AJ27" s="5">
-        <f t="shared" si="82"/>
-        <v>11720</v>
-      </c>
-      <c r="AK27" s="5">
-        <f t="shared" si="82"/>
-        <v>11910</v>
-      </c>
-      <c r="AL27" s="5">
-        <f t="shared" si="82"/>
-        <v>13217</v>
-      </c>
-      <c r="AM27" s="5">
-        <f t="shared" si="82"/>
-        <v>9034</v>
-      </c>
-      <c r="AN27" s="5">
-        <f t="shared" si="82"/>
-        <v>14561</v>
-      </c>
-      <c r="AO27" s="5">
-        <f t="shared" si="82"/>
-        <v>16472</v>
-      </c>
-      <c r="AP27" s="5">
-        <f t="shared" si="82"/>
-        <v>18524</v>
-      </c>
-      <c r="AQ27" s="5">
-        <f t="shared" si="82"/>
-        <v>22492</v>
-      </c>
-      <c r="AR27" s="5">
-        <f t="shared" si="82"/>
-        <v>20693</v>
-      </c>
-      <c r="AS27" s="5">
-        <f t="shared" si="82"/>
-        <v>24157</v>
-      </c>
-      <c r="AT27" s="5">
-        <f t="shared" si="82"/>
-        <v>27161</v>
-      </c>
-      <c r="AU27" s="5">
-        <f t="shared" si="82"/>
-        <v>27956</v>
-      </c>
-      <c r="AV27" s="5">
-        <f t="shared" si="82"/>
-        <v>26764</v>
-      </c>
-      <c r="AW27" s="5">
-        <f t="shared" si="82"/>
-        <v>27886</v>
-      </c>
-      <c r="AX27" s="5">
-        <f t="shared" si="82"/>
-        <v>28172</v>
-      </c>
-      <c r="AY27" s="5">
-        <f t="shared" ref="AY27:AZ27" si="83">AY22-AY26</f>
-        <v>21292</v>
-      </c>
-      <c r="AZ27" s="5">
-        <f t="shared" si="83"/>
-        <v>29331</v>
-      </c>
-      <c r="BA27" s="5">
-        <f t="shared" ref="BA27:BB27" si="84">BA22-BA26</f>
-        <v>35058</v>
-      </c>
-      <c r="BB27" s="5">
-        <f t="shared" si="84"/>
-        <v>42959</v>
-      </c>
-      <c r="BC27" s="5">
-        <f t="shared" ref="BC27" si="85">BC22-BC26</f>
-        <v>52959</v>
-      </c>
-      <c r="BD27" s="5">
-        <f t="shared" ref="BD27:BF27" si="86">BD22-BD26</f>
-        <v>69916</v>
-      </c>
-      <c r="BE27" s="5">
-        <f t="shared" si="86"/>
-        <v>83383</v>
-      </c>
-      <c r="BF27" s="5">
-        <f t="shared" si="86"/>
-        <v>86162.357999999978</v>
+        <v>88523</v>
       </c>
       <c r="BG27" s="5">
-        <f t="shared" ref="BG27" si="87">BG22-BG26</f>
-        <v>97219.181172000026</v>
+        <f t="shared" ref="BG27" si="83">BG22-BG26</f>
+        <v>98823.837900000013</v>
       </c>
       <c r="BH27" s="5">
-        <f t="shared" ref="BH27" si="88">BH22-BH26</f>
-        <v>107929.45687536005</v>
+        <f t="shared" ref="BH27" si="84">BH22-BH26</f>
+        <v>109728.64799700002</v>
       </c>
       <c r="BI27" s="5">
-        <f t="shared" ref="BI27" si="89">BI22-BI26</f>
-        <v>119740.4108766408</v>
+        <f t="shared" ref="BI27" si="85">BI22-BI26</f>
+        <v>121754.61189291003</v>
       </c>
       <c r="BJ27" s="5">
-        <f t="shared" ref="BJ27" si="90">BJ22-BJ26</f>
-        <v>132763.00052746208</v>
+        <f t="shared" ref="BJ27" si="86">BJ22-BJ26</f>
+        <v>135014.76515129732</v>
       </c>
       <c r="BK27" s="5">
-        <f t="shared" ref="BK27" si="91">BK22-BK26</f>
-        <v>147119.30560026015</v>
+        <f t="shared" ref="BK27" si="87">BK22-BK26</f>
+        <v>149633.4744975963</v>
       </c>
       <c r="BL27" s="5">
-        <f t="shared" ref="BL27" si="92">BL22-BL26</f>
-        <v>162943.6413309396</v>
+        <f t="shared" ref="BL27" si="88">BL22-BL26</f>
+        <v>165747.5717634602</v>
       </c>
       <c r="BM27" s="5">
-        <f t="shared" ref="BM27" si="93">BM22-BM26</f>
-        <v>180383.7827898066</v>
+        <f t="shared" ref="BM27" si="89">BM22-BM26</f>
+        <v>183507.60125039361</v>
       </c>
     </row>
     <row r="28" spans="2:123">
@@ -5654,24 +5645,23 @@
         <v>321</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28" si="94">AVERAGE(N28:Q28)</f>
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="S28" s="4">
         <f>R28</f>
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:V28" si="95">S28</f>
-        <v>67</v>
+        <f t="shared" ref="T28:V28" si="90">S28</f>
+        <v>473</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="95"/>
-        <v>67</v>
+        <f t="shared" si="90"/>
+        <v>473</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="95"/>
-        <v>67</v>
+        <f t="shared" si="90"/>
+        <v>473</v>
       </c>
       <c r="Y28">
         <f>31-14</f>
@@ -5782,40 +5772,40 @@
         <v>1186</v>
       </c>
       <c r="BE28" s="5">
-        <f t="shared" ref="BE28" si="96">SUM(K28:N28)</f>
+        <f t="shared" ref="BE28" si="91">SUM(K28:N28)</f>
         <v>333</v>
       </c>
       <c r="BF28" s="5">
-        <f t="shared" ref="BF28:BM28" si="97">+BE44*$BP$36</f>
+        <f t="shared" ref="BF28:BM28" si="92">+BE44*$BP$36</f>
         <v>618.66999999999996</v>
       </c>
       <c r="BG28" s="5">
-        <f t="shared" si="97"/>
-        <v>1356.3087379999999</v>
+        <f t="shared" si="92"/>
+        <v>1376.3741950000001</v>
       </c>
       <c r="BH28" s="5">
-        <f t="shared" si="97"/>
-        <v>2194.2004022350002</v>
+        <f t="shared" si="92"/>
+        <v>2228.0759978075002</v>
       </c>
       <c r="BI28" s="5">
-        <f t="shared" si="97"/>
-        <v>3130.2514890945581</v>
+        <f t="shared" si="92"/>
+        <v>3179.7081517633646</v>
       </c>
       <c r="BJ28" s="5">
-        <f t="shared" si="97"/>
-        <v>4174.6521192033088</v>
+        <f t="shared" si="92"/>
+        <v>4241.649872143088</v>
       </c>
       <c r="BK28" s="5">
-        <f t="shared" si="97"/>
-        <v>5338.6221666999654</v>
+        <f t="shared" si="92"/>
+        <v>5425.3293998423314</v>
       </c>
       <c r="BL28" s="5">
-        <f t="shared" si="97"/>
-        <v>6634.5145527191262</v>
+        <f t="shared" si="92"/>
+        <v>6743.32923297056</v>
       </c>
       <c r="BM28" s="5">
-        <f t="shared" si="97"/>
-        <v>8075.9288777302254</v>
+        <f t="shared" si="92"/>
+        <v>8209.5018914402226</v>
       </c>
     </row>
     <row r="29" spans="2:123">
@@ -5826,7 +5816,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <f t="shared" ref="F29" si="98">F27+F28</f>
+        <f t="shared" ref="F29" si="93">F27+F28</f>
         <v>13422</v>
       </c>
       <c r="G29" s="5">
@@ -5834,71 +5824,71 @@
         <v>16124</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29:V29" si="99">H27+H28</f>
+        <f t="shared" ref="H29:V29" si="94">H27+H28</f>
         <v>18337</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>17236</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>19405</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>20524</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>22515</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>20190</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>20487</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>21572</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>20339</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="94"/>
         <v>22673</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="99"/>
-        <v>22326.319599999992</v>
+        <f t="shared" si="94"/>
+        <v>24727</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="99"/>
-        <v>23096.869000000002</v>
+        <f t="shared" si="94"/>
+        <v>23502.869000000002</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="99"/>
-        <v>23273.601500000004</v>
+        <f t="shared" si="94"/>
+        <v>23679.601500000004</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="99"/>
-        <v>23841.126500000002</v>
+        <f t="shared" si="94"/>
+        <v>24247.126500000002</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="99"/>
-        <v>24065.169579999994</v>
+        <f t="shared" si="94"/>
+        <v>25890.530500000001</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" ref="Y29:Z29" si="100">Y28+Y27</f>
+        <f t="shared" ref="Y29:Z29" si="95">Y28+Y27</f>
         <v>410</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>671</v>
       </c>
       <c r="AA29" s="4">
@@ -5922,79 +5912,79 @@
         <v>3379</v>
       </c>
       <c r="AF29" s="4">
-        <f t="shared" ref="AF29" si="101">AF28+AF27</f>
+        <f t="shared" ref="AF29" si="96">AF28+AF27</f>
         <v>5314</v>
       </c>
       <c r="AG29" s="4">
-        <f t="shared" ref="AG29:AX29" si="102">AG28+AG27</f>
+        <f t="shared" ref="AG29:AX29" si="97">AG28+AG27</f>
         <v>7413</v>
       </c>
       <c r="AH29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>11731</v>
       </c>
       <c r="AI29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>14119</v>
       </c>
       <c r="AJ29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>11684</v>
       </c>
       <c r="AK29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>11605</v>
       </c>
       <c r="AL29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>14794</v>
       </c>
       <c r="AM29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>12221</v>
       </c>
       <c r="AN29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>16628</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>18262</v>
       </c>
       <c r="AP29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>20101</v>
       </c>
       <c r="AQ29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>23814</v>
       </c>
       <c r="AR29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>20151</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>25072</v>
       </c>
       <c r="AT29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>28071</v>
       </c>
       <c r="AU29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>28460</v>
       </c>
       <c r="AV29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>27052</v>
       </c>
       <c r="AW29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>27947</v>
       </c>
       <c r="AX29" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>28518</v>
       </c>
       <c r="AY29" s="4">
@@ -6018,44 +6008,44 @@
         <v>53036</v>
       </c>
       <c r="BD29" s="5">
-        <f t="shared" ref="BD29:BF29" si="103">+BD27+BD28</f>
+        <f t="shared" ref="BD29:BF29" si="98">+BD27+BD28</f>
         <v>71102</v>
       </c>
       <c r="BE29" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>83716</v>
       </c>
       <c r="BF29" s="5">
-        <f t="shared" si="103"/>
-        <v>86781.027999999977</v>
+        <f t="shared" si="98"/>
+        <v>89141.67</v>
       </c>
       <c r="BG29" s="5">
-        <f t="shared" ref="BG29" si="104">+BG27+BG28</f>
-        <v>98575.489910000033</v>
+        <f t="shared" ref="BG29" si="99">+BG27+BG28</f>
+        <v>100200.21209500001</v>
       </c>
       <c r="BH29" s="5">
-        <f t="shared" ref="BH29" si="105">+BH27+BH28</f>
-        <v>110123.65727759505</v>
+        <f t="shared" ref="BH29" si="100">+BH27+BH28</f>
+        <v>111956.72399480751</v>
       </c>
       <c r="BI29" s="5">
-        <f t="shared" ref="BI29" si="106">+BI27+BI28</f>
-        <v>122870.66236573536</v>
+        <f t="shared" ref="BI29" si="101">+BI27+BI28</f>
+        <v>124934.3200446734</v>
       </c>
       <c r="BJ29" s="5">
-        <f t="shared" ref="BJ29" si="107">+BJ27+BJ28</f>
-        <v>136937.65264666537</v>
+        <f t="shared" ref="BJ29" si="102">+BJ27+BJ28</f>
+        <v>139256.41502344041</v>
       </c>
       <c r="BK29" s="5">
-        <f t="shared" ref="BK29" si="108">+BK27+BK28</f>
-        <v>152457.92776696011</v>
+        <f t="shared" ref="BK29" si="103">+BK27+BK28</f>
+        <v>155058.80389743863</v>
       </c>
       <c r="BL29" s="5">
-        <f t="shared" ref="BL29" si="109">+BL27+BL28</f>
-        <v>169578.15588365874</v>
+        <f t="shared" ref="BL29" si="104">+BL27+BL28</f>
+        <v>172490.90099643078</v>
       </c>
       <c r="BM29" s="5">
-        <f t="shared" ref="BM29" si="110">+BM27+BM28</f>
-        <v>188459.71166753682</v>
+        <f t="shared" ref="BM29" si="105">+BM27+BM28</f>
+        <v>191717.10314183382</v>
       </c>
     </row>
     <row r="30" spans="2:123" s="4" customFormat="1">
@@ -6102,24 +6092,23 @@
         <v>3914</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30" si="111">+R29*0.2</f>
-        <v>4465.2639199999985</v>
+        <v>4646</v>
       </c>
       <c r="S30" s="4">
         <f>S29*0.2</f>
-        <v>4619.3738000000003</v>
+        <v>4700.573800000001</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:V30" si="112">T29*0.2</f>
-        <v>4654.7203000000009</v>
+        <f t="shared" ref="T30:V30" si="106">T29*0.2</f>
+        <v>4735.9203000000007</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="112"/>
-        <v>4768.225300000001</v>
+        <f t="shared" si="106"/>
+        <v>4849.4253000000008</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="112"/>
-        <v>4813.0339159999994</v>
+        <f t="shared" si="106"/>
+        <v>5178.1061000000009</v>
       </c>
       <c r="Y30" s="4">
         <v>131</v>
@@ -6220,40 +6209,40 @@
         <v>9831</v>
       </c>
       <c r="BE30" s="5">
-        <f t="shared" ref="BE30" si="113">SUM(K30:N30)</f>
+        <f t="shared" ref="BE30" si="107">SUM(K30:N30)</f>
         <v>10978</v>
       </c>
       <c r="BF30" s="5">
         <f>+BF29*0.15</f>
-        <v>13017.154199999995</v>
+        <v>13371.2505</v>
       </c>
       <c r="BG30" s="5">
-        <f t="shared" ref="BG30:BM30" si="114">+BG29*0.15</f>
-        <v>14786.323486500005</v>
+        <f t="shared" ref="BG30:BM30" si="108">+BG29*0.15</f>
+        <v>15030.03181425</v>
       </c>
       <c r="BH30" s="5">
-        <f t="shared" si="114"/>
-        <v>16518.548591639257</v>
+        <f t="shared" si="108"/>
+        <v>16793.508599221128</v>
       </c>
       <c r="BI30" s="5">
-        <f t="shared" si="114"/>
-        <v>18430.599354860304</v>
+        <f t="shared" si="108"/>
+        <v>18740.148006701009</v>
       </c>
       <c r="BJ30" s="5">
-        <f t="shared" si="114"/>
-        <v>20540.647896999806</v>
+        <f t="shared" si="108"/>
+        <v>20888.46225351606</v>
       </c>
       <c r="BK30" s="5">
-        <f t="shared" si="114"/>
-        <v>22868.689165044016</v>
+        <f t="shared" si="108"/>
+        <v>23258.820584615794</v>
       </c>
       <c r="BL30" s="5">
-        <f t="shared" si="114"/>
-        <v>25436.723382548811</v>
+        <f t="shared" si="108"/>
+        <v>25873.635149464615</v>
       </c>
       <c r="BM30" s="5">
-        <f t="shared" si="114"/>
-        <v>28268.956750130521</v>
+        <f t="shared" si="108"/>
+        <v>28757.565471275073</v>
       </c>
     </row>
     <row r="31" spans="2:123" s="4" customFormat="1">
@@ -6264,7 +6253,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <f t="shared" ref="F31" si="115">F29-F30</f>
+        <f t="shared" ref="F31" si="109">F29-F30</f>
         <v>11202</v>
       </c>
       <c r="G31" s="5">
@@ -6272,39 +6261,39 @@
         <v>13893</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:V31" si="116">H29-H30</f>
+        <f t="shared" ref="H31:V31" si="110">H29-H30</f>
         <v>15463</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>15457</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>16458</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>20505</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>18765</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>16728</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>16740</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>17556</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="110"/>
         <v>16425</v>
       </c>
       <c r="Q31" s="5">
@@ -6312,31 +6301,31 @@
         <v>18759</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="116"/>
-        <v>17861.055679999994</v>
+        <f t="shared" si="110"/>
+        <v>20081</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="116"/>
-        <v>18477.495200000001</v>
+        <f t="shared" si="110"/>
+        <v>18802.2952</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="116"/>
-        <v>18618.881200000003</v>
+        <f t="shared" si="110"/>
+        <v>18943.681200000003</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="116"/>
-        <v>19072.9012</v>
+        <f t="shared" si="110"/>
+        <v>19397.701200000003</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="116"/>
-        <v>19252.135663999994</v>
+        <f t="shared" si="110"/>
+        <v>20712.4244</v>
       </c>
       <c r="Y31" s="4">
-        <f t="shared" ref="Y31:Z31" si="117">Y29-Y30</f>
+        <f t="shared" ref="Y31:Z31" si="111">Y29-Y30</f>
         <v>279</v>
       </c>
       <c r="Z31" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="111"/>
         <v>463</v>
       </c>
       <c r="AA31" s="4">
@@ -6360,79 +6349,79 @@
         <v>2195</v>
       </c>
       <c r="AF31" s="4">
-        <f t="shared" ref="AF31" si="118">AF29-AF30</f>
+        <f t="shared" ref="AF31" si="112">AF29-AF30</f>
         <v>3454</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" ref="AG31:AX31" si="119">AG29-AG30</f>
+        <f t="shared" ref="AG31:AX31" si="113">AG29-AG30</f>
         <v>4758</v>
       </c>
       <c r="AH31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>7625</v>
       </c>
       <c r="AI31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>9265</v>
       </c>
       <c r="AJ31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>7880</v>
       </c>
       <c r="AK31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>7921</v>
       </c>
       <c r="AL31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>10061</v>
       </c>
       <c r="AM31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>8193</v>
       </c>
       <c r="AN31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>12254</v>
       </c>
       <c r="AO31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>12599</v>
       </c>
       <c r="AP31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>14065</v>
       </c>
       <c r="AQ31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>17681</v>
       </c>
       <c r="AR31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>14899</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>18819</v>
       </c>
       <c r="AT31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>23150</v>
       </c>
       <c r="AU31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>23171</v>
       </c>
       <c r="AV31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>21863</v>
       </c>
       <c r="AW31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>22201</v>
       </c>
       <c r="AX31" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="113"/>
         <v>22204</v>
       </c>
       <c r="AY31" s="4">
@@ -6456,276 +6445,276 @@
         <v>44281</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" ref="BD31:BF31" si="120">+BD29-BD30</f>
+        <f t="shared" ref="BD31:BF31" si="114">+BD29-BD30</f>
         <v>61271</v>
       </c>
       <c r="BE31" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="114"/>
         <v>72738</v>
       </c>
       <c r="BF31" s="4">
-        <f t="shared" si="120"/>
-        <v>73763.873799999987</v>
+        <f t="shared" si="114"/>
+        <v>75770.419500000004</v>
       </c>
       <c r="BG31" s="4">
-        <f t="shared" ref="BG31" si="121">+BG29-BG30</f>
-        <v>83789.166423500021</v>
+        <f t="shared" ref="BG31" si="115">+BG29-BG30</f>
+        <v>85170.180280750006</v>
       </c>
       <c r="BH31" s="4">
-        <f t="shared" ref="BH31" si="122">+BH29-BH30</f>
-        <v>93605.108685955784</v>
+        <f t="shared" ref="BH31" si="116">+BH29-BH30</f>
+        <v>95163.215395586391</v>
       </c>
       <c r="BI31" s="4">
-        <f t="shared" ref="BI31" si="123">+BI29-BI30</f>
-        <v>104440.06301087506</v>
+        <f t="shared" ref="BI31" si="117">+BI29-BI30</f>
+        <v>106194.17203797238</v>
       </c>
       <c r="BJ31" s="4">
-        <f t="shared" ref="BJ31" si="124">+BJ29-BJ30</f>
-        <v>116397.00474966556</v>
+        <f t="shared" ref="BJ31" si="118">+BJ29-BJ30</f>
+        <v>118367.95276992435</v>
       </c>
       <c r="BK31" s="4">
-        <f t="shared" ref="BK31" si="125">+BK29-BK30</f>
-        <v>129589.23860191609</v>
+        <f t="shared" ref="BK31" si="119">+BK29-BK30</f>
+        <v>131799.98331282282</v>
       </c>
       <c r="BL31" s="4">
-        <f t="shared" ref="BL31" si="126">+BL29-BL30</f>
-        <v>144141.43250110993</v>
+        <f t="shared" ref="BL31" si="120">+BL29-BL30</f>
+        <v>146617.26584696615</v>
       </c>
       <c r="BM31" s="4">
-        <f t="shared" ref="BM31" si="127">+BM29-BM30</f>
-        <v>160190.7549174063</v>
+        <f t="shared" ref="BM31" si="121">+BM29-BM30</f>
+        <v>162959.53767055876</v>
       </c>
       <c r="BN31" s="4">
         <f>+BM31*(1+$BP$34)</f>
-        <v>160190.7549174063</v>
+        <v>162959.53767055876</v>
       </c>
       <c r="BO31" s="4">
-        <f t="shared" ref="BO31:DS31" si="128">+BN31*(1+$BP$34)</f>
-        <v>160190.7549174063</v>
+        <f t="shared" ref="BO31:DS31" si="122">+BN31*(1+$BP$34)</f>
+        <v>162959.53767055876</v>
       </c>
       <c r="BP31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BQ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BR31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BS31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BT31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BU31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BV31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BW31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BX31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BY31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="BZ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CA31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CB31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CC31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CD31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CE31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CF31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CG31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CH31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CI31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CJ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CK31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CL31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CM31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CN31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CO31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CP31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CQ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CR31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CS31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CT31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CU31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CV31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CW31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CX31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CY31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="CZ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DA31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DB31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DC31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DD31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DE31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DF31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DG31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DH31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DI31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DJ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DK31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DL31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DM31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DN31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DO31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DP31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DQ31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DR31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
       <c r="DS31" s="4">
-        <f t="shared" si="128"/>
-        <v>160190.7549174063</v>
+        <f t="shared" si="122"/>
+        <v>162959.53767055876</v>
       </c>
     </row>
     <row r="32" spans="2:123" s="3" customFormat="1">
@@ -6736,31 +6725,31 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <f t="shared" ref="F32" si="129">F31/F33</f>
+        <f t="shared" ref="F32" si="123">F31/F33</f>
         <v>1.4643137254901961</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32:L32" si="130">G31/G33</f>
+        <f t="shared" ref="G32:L32" si="124">G31/G33</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="M32" s="8">
@@ -6776,7 +6765,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:V32" si="131">P31/P33</f>
+        <f t="shared" ref="P32:V32" si="125">P31/P33</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="Q32" s="8">
@@ -6784,31 +6773,31 @@
         <v>2.5132636655948555</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="131"/>
-        <v>2.3929603001071804</v>
+        <f t="shared" si="125"/>
+        <v>2.6892995848399623</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" si="131"/>
-        <v>2.4755486602357988</v>
+        <f t="shared" si="125"/>
+        <v>2.5180521226730952</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" si="131"/>
-        <v>2.4944910503751343</v>
+        <f t="shared" si="125"/>
+        <v>2.5369869023704301</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" si="131"/>
-        <v>2.5553190246516615</v>
+        <f t="shared" si="125"/>
+        <v>2.5977904379268786</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" si="131"/>
-        <v>2.5793322165058941</v>
+        <f t="shared" si="125"/>
+        <v>2.7738615776081423</v>
       </c>
       <c r="Y32" s="11">
-        <f t="shared" ref="Y32:Z32" si="132">Y31/Y33</f>
+        <f t="shared" ref="Y32:Z32" si="126">Y31/Y33</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" si="132"/>
+        <f t="shared" si="126"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AA32" s="11">
@@ -6832,79 +6821,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AF32" s="11">
-        <f t="shared" ref="AF32" si="133">AF31/AF33</f>
+        <f t="shared" ref="AF32" si="127">AF31/AF33</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AG32" s="11">
-        <f t="shared" ref="AG32:AX32" si="134">AG31/AG33</f>
+        <f t="shared" ref="AG32:AX32" si="128">AG31/AG33</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AH32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AI32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AJ32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AK32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AL32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AM32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AN32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AO32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AP32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AQ32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AR32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="AS32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="AT32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="AU32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.724077122031507</v>
       </c>
       <c r="AV32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.581227863046045</v>
       </c>
       <c r="AW32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="AX32" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="AY32" s="11">
@@ -6928,44 +6917,44 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BD32" s="11">
-        <f t="shared" ref="BD32:BF32" si="135">+BD31/BD33</f>
+        <f t="shared" ref="BD32:BF32" si="129">+BD31/BD33</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BE32" s="11">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BF32" s="11">
-        <f t="shared" si="135"/>
-        <v>9.8726994311717835</v>
+        <f t="shared" si="129"/>
+        <v>10.140241493526046</v>
       </c>
       <c r="BG32" s="11">
-        <f t="shared" ref="BG32" si="136">+BG31/BG33</f>
-        <v>11.225772564777602</v>
+        <f t="shared" ref="BG32" si="130">+BG31/BG33</f>
+        <v>11.406211367450116</v>
       </c>
       <c r="BH32" s="11">
-        <f t="shared" ref="BH32" si="137">+BH31/BH33</f>
-        <v>12.540877369501043</v>
+        <f t="shared" ref="BH32" si="131">+BH31/BH33</f>
+        <v>12.744504539384812</v>
       </c>
       <c r="BI32" s="11">
-        <f t="shared" ref="BI32" si="138">+BI31/BI33</f>
-        <v>13.992505762443068</v>
+        <f t="shared" ref="BI32" si="132">+BI31/BI33</f>
+        <v>14.221798853351062</v>
       </c>
       <c r="BJ32" s="11">
-        <f t="shared" ref="BJ32" si="139">+BJ31/BJ33</f>
-        <v>15.594454012548976</v>
+        <f t="shared" ref="BJ32" si="133">+BJ31/BJ33</f>
+        <v>15.852143132439313</v>
       </c>
       <c r="BK32" s="11">
-        <f t="shared" ref="BK32" si="140">+BK31/BK33</f>
-        <v>17.361902277855854</v>
+        <f t="shared" ref="BK32" si="134">+BK31/BK33</f>
+        <v>17.65099548852589</v>
       </c>
       <c r="BL32" s="11">
-        <f t="shared" ref="BL32" si="141">+BL31/BL33</f>
-        <v>19.311553121799292</v>
+        <f t="shared" ref="BL32" si="135">+BL31/BL33</f>
+        <v>19.635364382880159</v>
       </c>
       <c r="BM32" s="11">
-        <f t="shared" ref="BM32" si="142">+BM31/BM33</f>
-        <v>21.461783884968689</v>
+        <f t="shared" ref="BM32" si="136">+BM31/BM33</f>
+        <v>21.823963796780333</v>
       </c>
     </row>
     <row r="33" spans="2:68" s="4" customFormat="1">
@@ -7012,24 +7001,23 @@
         <v>7464</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" ref="R33" si="143">+Q33</f>
-        <v>7464</v>
+        <v>7467</v>
       </c>
       <c r="S33" s="4">
         <f>R33</f>
-        <v>7464</v>
+        <v>7467</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" ref="T33:V33" si="144">S33</f>
-        <v>7464</v>
+        <f t="shared" ref="T33:V33" si="137">S33</f>
+        <v>7467</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="144"/>
-        <v>7464</v>
+        <f t="shared" si="137"/>
+        <v>7467</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="144"/>
-        <v>7464</v>
+        <f t="shared" si="137"/>
+        <v>7467</v>
       </c>
       <c r="Y33" s="4">
         <v>537</v>
@@ -7134,35 +7122,35 @@
       </c>
       <c r="BF33" s="5">
         <f>AVERAGE(O33:R33)</f>
-        <v>7471.5</v>
+        <v>7472.25</v>
       </c>
       <c r="BG33" s="5">
         <f>AVERAGE(S33:V33)</f>
-        <v>7464</v>
+        <v>7467</v>
       </c>
       <c r="BH33" s="5">
-        <f t="shared" ref="BH33:BM33" si="145">+BG33</f>
-        <v>7464</v>
+        <f t="shared" ref="BH33:BM33" si="138">+BG33</f>
+        <v>7467</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="145"/>
-        <v>7464</v>
+        <f t="shared" si="138"/>
+        <v>7467</v>
       </c>
       <c r="BJ33" s="5">
-        <f t="shared" si="145"/>
-        <v>7464</v>
+        <f t="shared" si="138"/>
+        <v>7467</v>
       </c>
       <c r="BK33" s="5">
-        <f t="shared" si="145"/>
-        <v>7464</v>
+        <f t="shared" si="138"/>
+        <v>7467</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" si="145"/>
-        <v>7464</v>
+        <f t="shared" si="138"/>
+        <v>7467</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="145"/>
-        <v>7464</v>
+        <f t="shared" si="138"/>
+        <v>7467</v>
       </c>
     </row>
     <row r="34" spans="2:68">
@@ -7193,15 +7181,15 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10">
-        <f t="shared" ref="J35:K35" si="146">J18/F18-1</f>
+        <f t="shared" ref="J35:K35" si="139">J18/F18-1</f>
         <v>0.21347251071437956</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="139"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" ref="L35" si="147">L18/H18-1</f>
+        <f t="shared" ref="L35" si="140">L18/H18-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="M35" s="10">
@@ -7209,15 +7197,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="N35" s="10">
-        <f t="shared" ref="N35:O35" si="148">N18/J18-1</f>
+        <f t="shared" ref="N35:O35" si="141">N18/J18-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="141"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" ref="P35" si="149">P18/L18-1</f>
+        <f t="shared" ref="P35" si="142">P18/L18-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="Q35" s="10">
@@ -7226,183 +7214,183 @@
       </c>
       <c r="R35" s="10">
         <f>R18/N18-1</f>
-        <v>5.922761014171396E-2</v>
+        <v>8.3370288248336921E-2</v>
       </c>
       <c r="S35" s="10">
-        <f t="shared" ref="S35:V35" si="150">S18/O18-1</f>
+        <f t="shared" ref="S35:V35" si="143">S18/O18-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T35" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="143"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U35" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="143"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V35" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="143"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z35" s="18">
-        <f t="shared" ref="Z35:AZ35" si="151">Z18/Y18-1</f>
+        <f t="shared" ref="Z35:AZ35" si="144">Z18/Y18-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AA35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AB35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AC35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AD35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AE35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AF35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AG35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AH35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AI35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AJ35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AK35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AM35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AN35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AO35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AP35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AQ35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AU35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="AZ35" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BA35" s="10">
-        <f t="shared" ref="BA35:BF35" si="152">+BA18/AZ18-1</f>
+        <f t="shared" ref="BA35:BF35" si="145">+BA18/AZ18-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BB35" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="145"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BC35" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="145"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BD35" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="145"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BE35" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="145"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BF35" s="10">
-        <f t="shared" si="152"/>
-        <v>6.2504867100418693E-2</v>
+        <f>+BF18/BE18-1</f>
+        <v>6.8820295556564215E-2</v>
       </c>
       <c r="BG35" s="10">
-        <f t="shared" ref="BG35:BM35" si="153">+BG18/BF18-1</f>
-        <v>0.11231260150105271</v>
+        <f t="shared" ref="BG35:BM35" si="146">+BG18/BF18-1</f>
+        <v>0.11336323525942005</v>
       </c>
       <c r="BH35" s="10">
-        <f t="shared" si="153"/>
-        <v>7.9642552611355333E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.0228744057187606E-2</v>
       </c>
       <c r="BI35" s="10">
-        <f t="shared" si="153"/>
-        <v>8.0578599130251005E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.1148072819640982E-2</v>
       </c>
       <c r="BJ35" s="10">
-        <f t="shared" si="153"/>
-        <v>8.1487655861459674E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.2039939316425947E-2</v>
       </c>
       <c r="BK35" s="10">
-        <f t="shared" si="153"/>
-        <v>8.236899481990978E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.2903715628308783E-2</v>
       </c>
       <c r="BL35" s="10">
-        <f t="shared" si="153"/>
-        <v>8.3222047728266579E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.3738930203388406E-2</v>
       </c>
       <c r="BM35" s="10">
-        <f t="shared" si="153"/>
-        <v>8.4046400388426479E-2</v>
+        <f t="shared" si="146"/>
+        <v>8.4545261387475756E-2</v>
       </c>
       <c r="BO35" s="3" t="s">
         <v>97</v>
@@ -7436,12 +7424,17 @@
       <c r="Q36" s="18">
         <v>0.1</v>
       </c>
+      <c r="R36" s="18">
+        <v>0.1</v>
+      </c>
       <c r="BA36" s="10"/>
       <c r="BB36" s="10"/>
       <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
+      <c r="BF36" s="10">
+        <v>0.11</v>
+      </c>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
@@ -7473,11 +7466,11 @@
       <c r="M37" s="10"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18">
-        <f t="shared" ref="O37:P37" si="154">O59/K59-1</f>
+        <f t="shared" ref="O37:P37" si="147">O59/K59-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="P37" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="147"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="Q37" s="18">
@@ -7508,15 +7501,15 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9">
-        <f t="shared" ref="F38" si="155">F22/F18</f>
+        <f t="shared" ref="F38" si="148">F22/F18</f>
         <v>0.67557121447164303</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" ref="G38:H38" si="156">G22/G18</f>
+        <f t="shared" ref="G38:H38" si="149">G22/G18</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I38" s="9">
@@ -7524,27 +7517,27 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" ref="J38:M38" si="157">J22/J18</f>
+        <f t="shared" ref="J38:M38" si="150">J22/J18</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" ref="N38:O38" si="158">N22/N18</f>
+        <f t="shared" ref="N38:O38" si="151">N22/N18</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="151"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P38" s="9">
@@ -7552,193 +7545,193 @@
         <v>0.66845507801391546</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" ref="Q38:R38" si="159">Q22/Q18</f>
+        <f t="shared" ref="Q38:R38" si="152">Q22/Q18</f>
         <v>0.69487485101311086</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
+        <v>0.70109807969531401</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" ref="S38:V38" si="153">S22/S18</f>
         <v>0.69</v>
       </c>
-      <c r="S38" s="9">
-        <f t="shared" ref="S38:V38" si="160">S22/S18</f>
+      <c r="T38" s="9">
+        <f t="shared" si="153"/>
         <v>0.69</v>
       </c>
-      <c r="T38" s="9">
-        <f t="shared" si="160"/>
+      <c r="U38" s="9">
+        <f t="shared" si="153"/>
         <v>0.69</v>
       </c>
-      <c r="U38" s="9">
-        <f t="shared" si="160"/>
-        <v>0.69</v>
-      </c>
       <c r="V38" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="153"/>
         <v>0.69</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9">
-        <f t="shared" ref="Y38:AD38" si="161">Y22/Y18</f>
+        <f t="shared" ref="Y38:AD38" si="154">Y22/Y18</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AA38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AB38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AC38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AD38" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AE38" s="9">
-        <f t="shared" ref="AE38:AM38" si="162">AE22/AE18</f>
+        <f t="shared" ref="AE38:AM38" si="155">AE22/AE18</f>
         <v>0.86299158113251062</v>
       </c>
       <c r="AF38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AG38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AH38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AI38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AJ38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AK38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AL38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AM38" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AN38" s="9">
-        <f t="shared" ref="AN38:AW38" si="163">AN22/AN18</f>
+        <f t="shared" ref="AN38:AW38" si="156">AN22/AN18</f>
         <v>0.84417412285111093</v>
       </c>
       <c r="AO38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AP38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AQ38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AR38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="AS38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AT38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="AU38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="AV38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="AW38" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="AX38" s="9">
-        <f t="shared" ref="AX38:AY38" si="164">AX22/AX18</f>
+        <f t="shared" ref="AX38:AY38" si="157">AX22/AX18</f>
         <v>0.64695447745244705</v>
       </c>
       <c r="AY38" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="AZ38" s="9">
-        <f t="shared" ref="AZ38:BA38" si="165">AZ22/AZ18</f>
+        <f t="shared" ref="AZ38:BA38" si="158">AZ22/AZ18</f>
         <v>0.64522475691460168</v>
       </c>
       <c r="BA38" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="158"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BB38" s="9">
-        <f t="shared" ref="BB38:BF38" si="166">BB22/BB18</f>
+        <f t="shared" ref="BB38:BF38" si="159">BB22/BB18</f>
         <v>0.65901957200638894</v>
       </c>
       <c r="BC38" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BD38" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BE38" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BF38" s="9">
-        <f t="shared" si="166"/>
-        <v>0.68449878488299121</v>
+        <f t="shared" si="159"/>
+        <v>0.68920085883491022</v>
       </c>
       <c r="BG38" s="9">
-        <f t="shared" ref="BG38:BM38" si="167">BG22/BG18</f>
-        <v>0.67000000000000015</v>
+        <f t="shared" ref="BG38:BM38" si="160">BG22/BG18</f>
+        <v>0.67</v>
       </c>
       <c r="BH38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BI38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BJ38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BK38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BL38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BM38" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="160"/>
         <v>0.67</v>
       </c>
       <c r="BO38" t="s">
@@ -7746,7 +7739,7 @@
       </c>
       <c r="BP38" s="4">
         <f>NPV(BP35,BF31:DS31)+Main!L5-Main!L6</f>
-        <v>2014612.2671979193</v>
+        <v>2048901.4757257558</v>
       </c>
     </row>
     <row r="39" spans="2:68">
@@ -7757,7 +7750,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9">
-        <f t="shared" ref="F39" si="168">+F30/F29</f>
+        <f t="shared" ref="F39" si="161">+F30/F29</f>
         <v>0.16540008940545373</v>
       </c>
       <c r="G39" s="9">
@@ -7765,35 +7758,35 @@
         <v>0.13836516993301909</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" ref="H39:O39" si="169">+H30/H29</f>
+        <f t="shared" ref="H39:O39" si="162">+H30/H29</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P39" s="9">
@@ -7801,193 +7794,193 @@
         <v>0.19243817296818919</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" ref="Q39:R39" si="170">+Q30/Q29</f>
+        <f t="shared" ref="Q39:R39" si="163">+Q30/Q29</f>
         <v>0.17262823622811274</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
+        <v>0.18789177821814212</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" ref="S39:V39" si="164">+S30/S29</f>
         <v>0.2</v>
       </c>
-      <c r="S39" s="9">
-        <f t="shared" ref="S39:V39" si="171">+S30/S29</f>
+      <c r="T39" s="9">
+        <f t="shared" si="164"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="T39" s="9">
-        <f t="shared" si="171"/>
+      <c r="U39" s="9">
+        <f t="shared" si="164"/>
         <v>0.2</v>
       </c>
-      <c r="U39" s="9">
-        <f t="shared" si="171"/>
-        <v>0.2</v>
-      </c>
       <c r="V39" s="9">
-        <f t="shared" si="171"/>
-        <v>0.2</v>
+        <f t="shared" si="164"/>
+        <v>0.20000000000000004</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9">
-        <f t="shared" ref="Y39:AD39" si="172">+Y30/Y29</f>
+        <f t="shared" ref="Y39:AD39" si="165">+Y30/Y29</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="Z39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AA39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AB39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AC39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AD39" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AE39" s="9">
-        <f t="shared" ref="AE39:AM39" si="173">+AE30/AE29</f>
+        <f t="shared" ref="AE39:AM39" si="166">+AE30/AE29</f>
         <v>0.35039952648712636</v>
       </c>
       <c r="AF39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AG39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AH39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AI39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AJ39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AK39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AL39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AM39" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AN39" s="9">
-        <f t="shared" ref="AN39:AW39" si="174">+AN30/AN29</f>
+        <f t="shared" ref="AN39:AW39" si="167">+AN30/AN29</f>
         <v>0.26305027664180902</v>
       </c>
       <c r="AO39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AP39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AQ39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AR39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="AS39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="AT39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="AU39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="AV39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="AW39" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="167"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="AX39" s="9">
-        <f t="shared" ref="AX39:AY39" si="175">+AX30/AX29</f>
+        <f t="shared" ref="AX39:AY39" si="168">+AX30/AX29</f>
         <v>0.22140402552773686</v>
       </c>
       <c r="AY39" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="AZ39" s="9">
-        <f t="shared" ref="AZ39:BA39" si="176">+AZ30/AZ29</f>
+        <f t="shared" ref="AZ39:BA39" si="169">+AZ30/AZ29</f>
         <v>0.14605886052901645</v>
       </c>
       <c r="BA39" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BB39" s="9">
-        <f t="shared" ref="BB39:BF39" si="177">+BB30/BB29</f>
+        <f t="shared" ref="BB39:BF39" si="170">+BB30/BB29</f>
         <v>0.10181285478850027</v>
       </c>
       <c r="BC39" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BD39" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BE39" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BF39" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>0.15</v>
       </c>
       <c r="BG39" s="9">
-        <f t="shared" ref="BG39:BM39" si="178">+BG30/BG29</f>
+        <f t="shared" ref="BG39:BM39" si="171">+BG30/BG29</f>
         <v>0.15</v>
       </c>
       <c r="BH39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BI39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BJ39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BK39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BL39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BM39" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>0.15</v>
       </c>
       <c r="BO39" t="s">
@@ -7995,7 +7988,7 @@
       </c>
       <c r="BP39" s="1">
         <f>+BP38/Main!L3</f>
-        <v>269.58547667575527</v>
+        <v>274.17388943205617</v>
       </c>
     </row>
     <row r="40" spans="2:68">
@@ -8006,43 +7999,43 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9">
-        <f t="shared" ref="F40:I40" si="179">(F16-F19)/F16</f>
+        <f t="shared" ref="F40:I40" si="172">(F16-F19)/F16</f>
         <v>0.75918884664131814</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" ref="J40:L40" si="180">(J16-J19)/J16</f>
+        <f t="shared" ref="J40:L40" si="173">(J16-J19)/J16</f>
         <v>0.7736297391488014</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" ref="M40:O40" si="181">(M16-M19)/M16</f>
+        <f t="shared" ref="M40:O40" si="174">(M16-M19)/M16</f>
         <v>0.73603593228146957</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P40" s="9">
@@ -8050,27 +8043,27 @@
         <v>0.65550644790216139</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" ref="Q40:V40" si="182">(Q16-Q19)/Q16</f>
+        <f t="shared" ref="Q40:V40" si="175">(Q16-Q19)/Q16</f>
         <v>0.74717731588401337</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
+        <v>0.77030795704028954</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="175"/>
         <v>0.75</v>
       </c>
-      <c r="S40" s="9">
-        <f t="shared" si="182"/>
+      <c r="T40" s="9">
+        <f t="shared" si="175"/>
         <v>0.75</v>
       </c>
-      <c r="T40" s="9">
-        <f t="shared" si="182"/>
+      <c r="U40" s="9">
+        <f t="shared" si="175"/>
         <v>0.75</v>
       </c>
-      <c r="U40" s="9">
-        <f t="shared" si="182"/>
-        <v>0.75</v>
-      </c>
       <c r="V40" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="175"/>
         <v>0.75</v>
       </c>
       <c r="W40" s="9"/>
@@ -8102,63 +8095,63 @@
       <c r="AW40" s="9"/>
       <c r="AX40" s="9"/>
       <c r="AY40" s="9">
-        <f t="shared" ref="AY40" si="183">(AY16-AY19)/AY16</f>
+        <f t="shared" ref="AY40" si="176">(AY16-AY19)/AY16</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="AZ40" s="9">
-        <f t="shared" ref="AZ40:BM40" si="184">(AZ16-AZ19)/AZ16</f>
+        <f t="shared" ref="AZ40:BM40" si="177">(AZ16-AZ19)/AZ16</f>
         <v>0.76218833743398473</v>
       </c>
       <c r="BA40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BB40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BC40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BD40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BE40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BF40" s="9">
-        <f t="shared" si="184"/>
-        <v>0.72020153225942973</v>
+        <f t="shared" si="177"/>
+        <v>0.72481800336944935</v>
       </c>
       <c r="BG40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BH40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BI40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BJ40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BK40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BL40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BM40" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>0.75</v>
       </c>
       <c r="BP40" s="1"/>
@@ -8171,43 +8164,43 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9">
-        <f t="shared" ref="F41:K41" si="185">(F17-F20)/F17</f>
+        <f t="shared" ref="F41:K41" si="178">(F17-F20)/F17</f>
         <v>0.59926581514633415</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:O41" si="186">(L17-L20)/L17</f>
+        <f t="shared" ref="L41:O41" si="179">(L17-L20)/L17</f>
         <v>0.65656402468577335</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="179"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P41" s="9">
@@ -8215,27 +8208,27 @@
         <v>0.67435826662986476</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41:V41" si="187">(Q17-Q20)/Q17</f>
+        <f t="shared" ref="Q41:V41" si="180">(Q17-Q20)/Q17</f>
         <v>0.67299900721779493</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
+        <v>0.67144600366076879</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" si="180"/>
         <v>0.65</v>
       </c>
-      <c r="S41" s="9">
-        <f t="shared" si="187"/>
-        <v>0.65</v>
-      </c>
       <c r="T41" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="U41" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="180"/>
         <v>0.65</v>
       </c>
       <c r="W41" s="9"/>
@@ -8267,63 +8260,63 @@
       <c r="AW41" s="9"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9">
-        <f t="shared" ref="AY41" si="188">(AY17-AY20)/AY17</f>
+        <f t="shared" ref="AY41" si="181">(AY17-AY20)/AY17</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="AZ41" s="9">
-        <f t="shared" ref="AZ41:BM41" si="189">(AZ17-AZ20)/AZ17</f>
+        <f t="shared" ref="AZ41:BM41" si="182">(AZ17-AZ20)/AZ17</f>
         <v>0.41739926739926742</v>
       </c>
       <c r="BA41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BB41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BC41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BD41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BE41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BF41" s="9">
-        <f t="shared" si="189"/>
-        <v>0.66815203306922577</v>
+        <f t="shared" si="182"/>
+        <v>0.67354771220519505</v>
       </c>
       <c r="BG41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
       <c r="BH41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
       <c r="BI41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="BJ41" s="9">
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
-      <c r="BJ41" s="9">
-        <f t="shared" si="189"/>
-        <v>0.65000000000000013</v>
-      </c>
       <c r="BK41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
       <c r="BL41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
       <c r="BM41" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="182"/>
         <v>0.65</v>
       </c>
       <c r="BP41" s="1"/>
@@ -8400,123 +8393,123 @@
         <v>82</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" ref="K44:R44" si="190">+K45-K56</f>
+        <f t="shared" ref="K44:R44" si="183">+K45-K56</f>
         <v>83720</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>79105</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>61674</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>61867</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>65479</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>58489</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="183"/>
         <v>65632</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="190"/>
-        <v>0</v>
+        <f t="shared" si="183"/>
+        <v>73904</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="AC44" s="4">
-        <f t="shared" ref="AC44:AQ44" si="191">AC45</f>
+        <f t="shared" ref="AC44:AQ44" si="184">AC45</f>
         <v>3614</v>
       </c>
       <c r="AD44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>4750</v>
       </c>
       <c r="AE44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>6940</v>
       </c>
       <c r="AF44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>11312</v>
       </c>
       <c r="AG44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>18630</v>
       </c>
       <c r="AH44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>31608</v>
       </c>
       <c r="AI44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>41524</v>
       </c>
       <c r="AJ44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>45741</v>
       </c>
       <c r="AK44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>52843</v>
       </c>
       <c r="AL44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>62740</v>
       </c>
       <c r="AM44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>72802</v>
       </c>
       <c r="AN44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>48755</v>
       </c>
       <c r="AO44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>43393</v>
       </c>
       <c r="AP44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>33528</v>
       </c>
       <c r="AQ44" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="184"/>
         <v>30250</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" ref="AR44:AW44" si="192">AR45-AR56</f>
+        <f t="shared" ref="AR44:AW44" si="185">AR45-AR56</f>
         <v>30634</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>38603</v>
       </c>
       <c r="AT44" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>51716</v>
       </c>
       <c r="AU44" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>60872</v>
       </c>
       <c r="AV44" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>72266</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="185"/>
         <v>77661</v>
       </c>
       <c r="BE44" s="5">
@@ -8525,35 +8518,35 @@
       </c>
       <c r="BF44" s="5">
         <f>+BE44+BF31</f>
-        <v>135630.8738</v>
+        <v>137637.41950000002</v>
       </c>
       <c r="BG44" s="5">
-        <f t="shared" ref="BG44:BM44" si="193">+BF44+BG31</f>
-        <v>219420.04022350002</v>
+        <f t="shared" ref="BG44:BM44" si="186">+BF44+BG31</f>
+        <v>222807.59978075002</v>
       </c>
       <c r="BH44" s="5">
-        <f t="shared" si="193"/>
-        <v>313025.14890945581</v>
+        <f t="shared" si="186"/>
+        <v>317970.81517633644</v>
       </c>
       <c r="BI44" s="5">
-        <f t="shared" si="193"/>
-        <v>417465.21192033088</v>
+        <f t="shared" si="186"/>
+        <v>424164.98721430881</v>
       </c>
       <c r="BJ44" s="5">
-        <f t="shared" si="193"/>
-        <v>533862.2166699965</v>
+        <f t="shared" si="186"/>
+        <v>542532.93998423312</v>
       </c>
       <c r="BK44" s="5">
-        <f t="shared" si="193"/>
-        <v>663451.45527191262</v>
+        <f t="shared" si="186"/>
+        <v>674332.923297056</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" si="193"/>
-        <v>807592.88777302252</v>
+        <f t="shared" si="186"/>
+        <v>820950.18914402218</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" si="193"/>
-        <v>967783.64269042877</v>
+        <f t="shared" si="186"/>
+        <v>983909.72681458096</v>
       </c>
     </row>
     <row r="45" spans="2:68" s="4" customFormat="1">
@@ -8596,6 +8589,10 @@
         <f>104427+9415</f>
         <v>113842</v>
       </c>
+      <c r="R45" s="4">
+        <f>111262+9879</f>
+        <v>121141</v>
+      </c>
       <c r="AC45" s="4">
         <f>3614</f>
         <v>3614</v>
@@ -8716,6 +8713,9 @@
       <c r="Q46" s="4">
         <v>37420</v>
       </c>
+      <c r="R46" s="4">
+        <v>48688</v>
+      </c>
       <c r="AC46" s="4">
         <v>475</v>
       </c>
@@ -8817,6 +8817,9 @@
       <c r="Q47" s="4">
         <v>2877</v>
       </c>
+      <c r="R47" s="4">
+        <v>2500</v>
+      </c>
       <c r="AC47" s="4">
         <v>102</v>
       </c>
@@ -8918,6 +8921,9 @@
       <c r="Q48" s="4">
         <v>19165</v>
       </c>
+      <c r="R48" s="4">
+        <v>21807</v>
+      </c>
       <c r="AC48" s="4">
         <v>121</v>
       </c>
@@ -9034,6 +9040,9 @@
       <c r="Q49" s="4">
         <v>88132</v>
       </c>
+      <c r="R49" s="4">
+        <v>95641</v>
+      </c>
       <c r="AC49" s="4">
         <v>930</v>
       </c>
@@ -9134,6 +9143,9 @@
       </c>
       <c r="Q50" s="4">
         <v>13879</v>
+      </c>
+      <c r="R50" s="4">
+        <v>14346</v>
       </c>
       <c r="AC50" s="4">
         <v>0</v>
@@ -9243,6 +9255,10 @@
         <f>67940+9879</f>
         <v>77819</v>
       </c>
+      <c r="R51" s="4">
+        <f>67886+9366</f>
+        <v>77252</v>
+      </c>
       <c r="AC51" s="4">
         <v>0</v>
       </c>
@@ -9357,6 +9373,9 @@
       <c r="Q52" s="4">
         <v>26954</v>
       </c>
+      <c r="R52" s="4">
+        <v>30601</v>
+      </c>
       <c r="AC52" s="4">
         <v>121</v>
       </c>
@@ -9445,123 +9464,123 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <f t="shared" ref="K53" si="194">SUM(K45:K52)</f>
+        <f t="shared" ref="K53" si="187">SUM(K45:K52)</f>
         <v>335418</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" ref="L53" si="195">SUM(L45:L52)</f>
+        <f t="shared" ref="L53" si="188">SUM(L45:L52)</f>
         <v>340389</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" ref="M53:R53" si="196">SUM(M45:M52)</f>
+        <f t="shared" ref="M53:R53" si="189">SUM(M45:M52)</f>
         <v>344607</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>364840</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>359784</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>364552</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" si="196"/>
+        <f t="shared" si="189"/>
         <v>380088</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="196"/>
-        <v>0</v>
+        <f t="shared" si="189"/>
+        <v>411976</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="AC53" s="6">
-        <f t="shared" ref="AC53:AW53" si="197">SUM(AC45:AC52)</f>
+        <f t="shared" ref="AC53:AW53" si="190">SUM(AC45:AC52)</f>
         <v>5363</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>7210</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>10093</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>14387</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>22357</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>37156</v>
       </c>
       <c r="AI53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>52150</v>
       </c>
       <c r="AJ53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>59257</v>
       </c>
       <c r="AK53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>67646</v>
       </c>
       <c r="AL53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>79571</v>
       </c>
       <c r="AM53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>92389</v>
       </c>
       <c r="AN53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>70815</v>
       </c>
       <c r="AO53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>69597</v>
       </c>
       <c r="AP53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>63171</v>
       </c>
       <c r="AQ53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>72793</v>
       </c>
       <c r="AR53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>77888</v>
       </c>
       <c r="AS53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>86113</v>
       </c>
       <c r="AT53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>108704</v>
       </c>
       <c r="AU53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>121271</v>
       </c>
       <c r="AV53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>142431</v>
       </c>
       <c r="AW53" s="6">
-        <f t="shared" si="197"/>
+        <f t="shared" si="190"/>
         <v>172384</v>
       </c>
       <c r="BC53" s="7"/>
@@ -9606,6 +9625,9 @@
       </c>
       <c r="Q55" s="4">
         <v>15305</v>
+      </c>
+      <c r="R55" s="4">
+        <v>18095</v>
       </c>
       <c r="AC55" s="4">
         <v>324</v>
@@ -9716,6 +9738,10 @@
         <f>6245+41965</f>
         <v>48210</v>
       </c>
+      <c r="R56" s="4">
+        <f>5247+41990</f>
+        <v>47237</v>
+      </c>
       <c r="AC56" s="4">
         <v>0</v>
       </c>
@@ -9821,6 +9847,9 @@
       </c>
       <c r="Q57" s="4">
         <v>10411</v>
+      </c>
+      <c r="R57" s="4">
+        <v>11009</v>
       </c>
       <c r="AC57" s="4">
         <v>96</v>
@@ -9930,6 +9959,10 @@
         <f>4163+25000+302</f>
         <v>29465</v>
       </c>
+      <c r="R58" s="4">
+        <f>4152+25560+433</f>
+        <v>30145</v>
+      </c>
       <c r="AC58" s="4">
         <v>305</v>
       </c>
@@ -10041,6 +10074,10 @@
         <f>2698+36903</f>
         <v>39601</v>
       </c>
+      <c r="R59" s="4">
+        <f>2912+50901</f>
+        <v>53813</v>
+      </c>
       <c r="AC59" s="4">
         <v>0</v>
       </c>
@@ -10155,6 +10192,9 @@
       <c r="Q60" s="4">
         <v>12664</v>
       </c>
+      <c r="R60" s="4">
+        <v>14745</v>
+      </c>
       <c r="AC60" s="4">
         <v>188</v>
       </c>
@@ -10257,6 +10297,9 @@
       <c r="Q61" s="4">
         <v>12312</v>
       </c>
+      <c r="R61" s="4">
+        <v>12728</v>
+      </c>
       <c r="AC61" s="4">
         <v>0</v>
       </c>
@@ -10358,6 +10401,9 @@
       <c r="Q62" s="4">
         <v>17437</v>
       </c>
+      <c r="R62" s="4">
+        <v>17981</v>
+      </c>
       <c r="AC62" s="4">
         <v>0</v>
       </c>
@@ -10473,6 +10519,9 @@
       <c r="Q63" s="4">
         <v>194683</v>
       </c>
+      <c r="R63" s="4">
+        <v>206223</v>
+      </c>
       <c r="AC63" s="4">
         <v>4450</v>
       </c>
@@ -10555,123 +10604,123 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7">
-        <f t="shared" ref="K64:L64" si="198">SUM(K55:K63)</f>
+        <f t="shared" ref="K64:L64" si="191">SUM(K55:K63)</f>
         <v>335418</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="198"/>
+        <f t="shared" si="191"/>
         <v>340389</v>
       </c>
       <c r="M64" s="7">
-        <f t="shared" ref="M64:R64" si="199">SUM(M55:M63)</f>
+        <f t="shared" ref="M64:R64" si="192">SUM(M55:M63)</f>
         <v>344607</v>
       </c>
       <c r="N64" s="7">
-        <f t="shared" si="199"/>
+        <f t="shared" si="192"/>
         <v>364840</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="199"/>
+        <f t="shared" si="192"/>
         <v>359784</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="199"/>
+        <f t="shared" si="192"/>
         <v>364552</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" si="199"/>
+        <f t="shared" si="192"/>
         <v>380088</v>
       </c>
       <c r="R64" s="7">
-        <f t="shared" si="199"/>
-        <v>0</v>
+        <f t="shared" si="192"/>
+        <v>411976</v>
       </c>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="AC64" s="6">
-        <f t="shared" ref="AC64:AW64" si="200">SUM(AC55:AC63)</f>
+        <f t="shared" ref="AC64:AW64" si="193">SUM(AC55:AC63)</f>
         <v>5363</v>
       </c>
       <c r="AD64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>7210</v>
       </c>
       <c r="AE64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>10093</v>
       </c>
       <c r="AF64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>14387</v>
       </c>
       <c r="AG64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>22357</v>
       </c>
       <c r="AH64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>37156</v>
       </c>
       <c r="AI64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>52150</v>
       </c>
       <c r="AJ64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>59257</v>
       </c>
       <c r="AK64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>67646</v>
       </c>
       <c r="AL64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>79571</v>
       </c>
       <c r="AM64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>92389</v>
       </c>
       <c r="AN64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>70815</v>
       </c>
       <c r="AO64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>69597</v>
       </c>
       <c r="AP64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>63171</v>
       </c>
       <c r="AQ64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>72793</v>
       </c>
       <c r="AR64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>77888</v>
       </c>
       <c r="AS64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>86113</v>
       </c>
       <c r="AT64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>108704</v>
       </c>
       <c r="AU64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>121271</v>
       </c>
       <c r="AV64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>142431</v>
       </c>
       <c r="AW64" s="6">
-        <f t="shared" si="200"/>
+        <f t="shared" si="193"/>
         <v>172384</v>
       </c>
       <c r="BC64" s="7"/>
@@ -10692,36 +10741,36 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5">
-        <f t="shared" ref="K66" si="201">K31</f>
+        <f t="shared" ref="K66" si="194">K31</f>
         <v>20505</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" ref="L66:R66" si="202">L31</f>
+        <f t="shared" ref="L66:R66" si="195">L31</f>
         <v>18765</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="195"/>
         <v>16728</v>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="195"/>
         <v>16740</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="195"/>
         <v>17556</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="195"/>
         <v>16425</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="195"/>
         <v>18759</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="202"/>
-        <v>17861.055679999994</v>
+        <f>R31</f>
+        <v>20081</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
@@ -10762,6 +10811,9 @@
       <c r="P67" s="4">
         <v>16425</v>
       </c>
+      <c r="R67" s="4">
+        <v>20081</v>
+      </c>
       <c r="BC67" s="5"/>
       <c r="BD67" s="5"/>
       <c r="BE67" s="5"/>
@@ -10797,6 +10849,9 @@
       <c r="P68" s="4">
         <v>3648</v>
       </c>
+      <c r="R68" s="4">
+        <v>3874</v>
+      </c>
       <c r="BC68" s="5"/>
       <c r="BD68" s="5"/>
       <c r="BE68" s="5"/>
@@ -10832,6 +10887,9 @@
       <c r="P69" s="4">
         <v>2538</v>
       </c>
+      <c r="R69" s="4">
+        <v>2416</v>
+      </c>
       <c r="BC69" s="5"/>
       <c r="BD69" s="5"/>
       <c r="BE69" s="5"/>
@@ -10867,6 +10925,9 @@
       <c r="P70" s="4">
         <v>214</v>
       </c>
+      <c r="R70" s="4">
+        <v>44</v>
+      </c>
       <c r="BC70" s="5"/>
       <c r="BD70" s="5"/>
       <c r="BE70" s="5"/>
@@ -10901,6 +10962,9 @@
       </c>
       <c r="P71" s="4">
         <v>-1305</v>
+      </c>
+      <c r="R71" s="4">
+        <v>-1888</v>
       </c>
       <c r="BC71" s="5"/>
       <c r="BD71" s="5"/>
@@ -10943,6 +11007,10 @@
         <f>-3164+1305-392-65-2058-5186-2863+1819+257</f>
         <v>-10347</v>
       </c>
+      <c r="R72" s="4">
+        <f>-11244+374-2419-1548+1311+14224+681+2762+102</f>
+        <v>4243</v>
+      </c>
       <c r="BC72" s="5"/>
       <c r="BD72" s="5"/>
       <c r="BE72" s="5"/>
@@ -10961,36 +11029,36 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5">
-        <f t="shared" ref="K73" si="203">SUM(K67:K72)</f>
+        <f t="shared" ref="K73" si="196">SUM(K67:K72)</f>
         <v>24540</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" ref="L73" si="204">SUM(L67:L72)</f>
+        <f t="shared" ref="L73" si="197">SUM(L67:L72)</f>
         <v>14480</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" ref="M73:R73" si="205">SUM(M67:M72)</f>
+        <f t="shared" ref="M73:R73" si="198">SUM(M67:M72)</f>
         <v>25386</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="198"/>
         <v>24629</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="198"/>
         <v>23198</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="198"/>
         <v>11173</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="205"/>
-        <v>0</v>
+        <f>SUM(R67:R72)</f>
+        <v>28770</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
@@ -11049,6 +11117,9 @@
       <c r="P75" s="4">
         <v>-6274</v>
       </c>
+      <c r="R75" s="4">
+        <v>-8943</v>
+      </c>
       <c r="BC75" s="5"/>
       <c r="BD75" s="5"/>
       <c r="BE75" s="5"/>
@@ -11083,6 +11154,9 @@
       </c>
       <c r="P76" s="4">
         <v>-679</v>
+      </c>
+      <c r="R76" s="4">
+        <v>-341</v>
       </c>
       <c r="BC76" s="5"/>
       <c r="BD76" s="5"/>
@@ -11125,6 +11199,10 @@
         <f>-11599+6928+4775</f>
         <v>104</v>
       </c>
+      <c r="R77" s="4">
+        <f>-11976+6766+5629</f>
+        <v>419</v>
+      </c>
       <c r="BC77" s="5"/>
       <c r="BD77" s="5"/>
       <c r="BE77" s="5"/>
@@ -11160,6 +11238,9 @@
       <c r="P78" s="4">
         <v>-301</v>
       </c>
+      <c r="R78" s="4">
+        <v>-269</v>
+      </c>
       <c r="BC78" s="5"/>
       <c r="BD78" s="5"/>
       <c r="BE78" s="5"/>
@@ -11178,11 +11259,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="206">SUM(K75:K78)</f>
+        <f t="shared" ref="K79:L79" si="199">SUM(K75:K78)</f>
         <v>-3250</v>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="199"/>
         <v>-1161</v>
       </c>
       <c r="M79" s="5">
@@ -11200,6 +11281,14 @@
       <c r="P79" s="5">
         <f>SUM(P75:P78)</f>
         <v>-7150</v>
+      </c>
+      <c r="Q79" s="5">
+        <f>SUM(Q75:Q78)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="5">
+        <f>SUM(R75:R78)</f>
+        <v>-9134</v>
       </c>
       <c r="BC79" s="5"/>
       <c r="BD79" s="5"/>
@@ -11236,6 +11325,9 @@
       <c r="P81" s="4">
         <v>0</v>
       </c>
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
       <c r="BC81" s="5"/>
       <c r="BD81" s="5"/>
       <c r="BE81" s="5"/>
@@ -11270,6 +11362,10 @@
       </c>
       <c r="P82" s="4">
         <v>-750</v>
+      </c>
+      <c r="R82" s="4">
+        <f>-1000+512</f>
+        <v>-488</v>
       </c>
       <c r="BC82" s="5"/>
       <c r="BD82" s="5"/>
@@ -11312,6 +11408,9 @@
         <f>243-5459</f>
         <v>-5216</v>
       </c>
+      <c r="R83" s="4">
+        <v>-5704</v>
+      </c>
       <c r="BC83" s="5"/>
       <c r="BD83" s="5"/>
       <c r="BE83" s="5"/>
@@ -11347,6 +11446,9 @@
       <c r="P84" s="4">
         <v>-5066</v>
       </c>
+      <c r="R84" s="4">
+        <v>-5054</v>
+      </c>
       <c r="BC84" s="5"/>
       <c r="BD84" s="5"/>
       <c r="BE84" s="5"/>
@@ -11382,6 +11484,9 @@
       <c r="P85" s="4">
         <v>-317</v>
       </c>
+      <c r="R85" s="4">
+        <v>-167</v>
+      </c>
       <c r="BC85" s="5"/>
       <c r="BD85" s="5"/>
       <c r="BE85" s="5"/>
@@ -11400,7 +11505,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5">
-        <f t="shared" ref="K86" si="207">SUM(K81:K85)</f>
+        <f t="shared" ref="K86" si="200">SUM(K81:K85)</f>
         <v>-16276</v>
       </c>
       <c r="L86" s="5">
@@ -11423,6 +11528,15 @@
         <f>SUM(P81:P85)</f>
         <v>-11349</v>
       </c>
+      <c r="Q86" s="5">
+        <f t="shared" ref="Q86:S86" si="201">SUM(Q81:Q85)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
+        <f t="shared" si="201"/>
+        <v>-11413</v>
+      </c>
+      <c r="S86" s="5"/>
       <c r="BC86" s="5"/>
       <c r="BD86" s="5"/>
       <c r="BE86" s="5"/>
@@ -11450,13 +11564,16 @@
       <c r="P87" s="4">
         <v>88</v>
       </c>
+      <c r="R87" s="4">
+        <v>-81</v>
+      </c>
     </row>
     <row r="88" spans="2:58">
       <c r="B88" s="4" t="s">
         <v>67</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" ref="K88" si="208">K86+K87+K79+K73</f>
+        <f t="shared" ref="K88" si="202">K86+K87+K79+K73</f>
         <v>4941</v>
       </c>
       <c r="L88" s="5">
@@ -11479,13 +11596,21 @@
         <f>P86+P87+P79+P73</f>
         <v>-7238</v>
       </c>
+      <c r="Q88" s="5">
+        <f t="shared" ref="Q88:R88" si="203">Q86+Q87+Q79+Q73</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
+        <f t="shared" si="203"/>
+        <v>8142</v>
+      </c>
     </row>
     <row r="90" spans="2:58">
       <c r="B90" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" ref="K90" si="209">K73+K75</f>
+        <f t="shared" ref="K90" si="204">K73+K75</f>
         <v>18730</v>
       </c>
       <c r="L90" s="5">
@@ -11493,11 +11618,11 @@
         <v>8615</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:N90" si="210">M73+M75</f>
+        <f t="shared" ref="M90:N90" si="205">M73+M75</f>
         <v>20046</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="205"/>
         <v>17758</v>
       </c>
       <c r="O90" s="5">
@@ -11507,6 +11632,14 @@
       <c r="P90" s="5">
         <f>P73+P75</f>
         <v>4899</v>
+      </c>
+      <c r="Q90" s="5">
+        <f t="shared" ref="Q90:R90" si="206">Q73+Q75</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="5">
+        <f t="shared" si="206"/>
+        <v>19827</v>
       </c>
     </row>
     <row r="91" spans="2:58">
@@ -11526,6 +11659,14 @@
         <f>SUM(M90:P90)</f>
         <v>59618</v>
       </c>
+      <c r="Q91" s="4">
+        <f t="shared" ref="Q91:R91" si="207">SUM(N90:Q90)</f>
+        <v>39572</v>
+      </c>
+      <c r="R91" s="4">
+        <f t="shared" si="207"/>
+        <v>41641</v>
+      </c>
     </row>
     <row r="94" spans="2:58">
       <c r="B94" t="s">
@@ -11715,95 +11856,95 @@
         <v>2</v>
       </c>
       <c r="AC97" s="4">
-        <f t="shared" ref="AC97:AY97" si="211">AC96*AC33</f>
+        <f t="shared" ref="AC97:AY97" si="208">AC96*AC33</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY97" s="4">
-        <f t="shared" si="211"/>
+        <f t="shared" si="208"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -11812,95 +11953,95 @@
         <v>5</v>
       </c>
       <c r="AC98" s="4">
-        <f t="shared" ref="AC98:AY98" si="212">AC97-AC44</f>
+        <f t="shared" ref="AC98:AY98" si="209">AC97-AC44</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY98" s="4">
-        <f t="shared" si="212"/>
+        <f t="shared" si="209"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -11909,95 +12050,95 @@
         <v>224</v>
       </c>
       <c r="AC99" s="24">
-        <f t="shared" ref="AC99:AY99" si="213">AC98/AC31</f>
+        <f t="shared" ref="AC99:AY99" si="210">AC98/AC31</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AF99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ99" s="24">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AR99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AS99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AT99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AU99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AV99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="AW99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="AX99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>16.98126691222053</v>
       </c>
       <c r="AY99" s="25">
-        <f t="shared" si="213"/>
+        <f t="shared" si="210"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ED1B66-43DD-49B0-8B0C-E4A71EEF5369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F89A10E-FFB3-4D66-8B64-80A5FAA463BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50895" yWindow="855" windowWidth="22605" windowHeight="19425" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-28500" yWindow="1230" windowWidth="27825" windowHeight="19425" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2503,10 +2503,10 @@
   <dimension ref="A1:DS104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF36" sqref="BF36"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3889,7 +3889,7 @@
         <v>3871</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" ref="R19:V19" si="13">S16*0.25</f>
+        <f t="shared" ref="S19:V19" si="13">S16*0.25</f>
         <v>4132.0124999999998</v>
       </c>
       <c r="T19" s="4">
@@ -4007,7 +4007,7 @@
         <v>12924</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" ref="R20:V20" si="15">S17*0.35</f>
+        <f t="shared" ref="S20:V20" si="15">S17*0.35</f>
         <v>12635.0175</v>
       </c>
       <c r="T20" s="4">
@@ -6089,7 +6089,7 @@
         <v>3914</v>
       </c>
       <c r="Q30" s="4">
-        <v>3914</v>
+        <v>4374</v>
       </c>
       <c r="R30" s="4">
         <v>4646</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="Q31" s="5">
         <f>Q29-Q30</f>
-        <v>18759</v>
+        <v>18299</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="110"/>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="Q32" s="8">
         <f>Q31/Q33</f>
-        <v>2.5132636655948555</v>
+        <v>2.4516345123258305</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="125"/>
@@ -7341,7 +7341,7 @@
         <v>0.1318682606657291</v>
       </c>
       <c r="BA35" s="10">
-        <f t="shared" ref="BA35:BF35" si="145">+BA18/AZ18-1</f>
+        <f t="shared" ref="BA35:BE35" si="145">+BA18/AZ18-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BB35" s="10">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="shared" ref="Q39:R39" si="163">+Q30/Q29</f>
-        <v>0.17262823622811274</v>
+        <v>0.19291668504388479</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="163"/>
@@ -8392,8 +8392,16 @@
       <c r="B44" t="s">
         <v>82</v>
       </c>
+      <c r="I44" s="5">
+        <f t="shared" ref="I44:R44" si="183">+I45-I56</f>
+        <v>72744</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="183"/>
+        <v>78172</v>
+      </c>
       <c r="K44" s="5">
-        <f t="shared" ref="K44:R44" si="183">+K45-K56</f>
+        <f t="shared" si="183"/>
         <v>83720</v>
       </c>
       <c r="L44" s="5">
@@ -8559,8 +8567,14 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="I45" s="5">
+        <f>125407+5395</f>
+        <v>130802</v>
+      </c>
+      <c r="J45" s="5">
+        <f>130334+5984</f>
+        <v>136318</v>
+      </c>
       <c r="K45" s="5">
         <f>130615+6393</f>
         <v>137008</v>
@@ -8690,8 +8704,12 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="I46" s="5">
+        <v>26322</v>
+      </c>
+      <c r="J46" s="5">
+        <v>38043</v>
+      </c>
       <c r="K46" s="5">
         <v>27349</v>
       </c>
@@ -8794,8 +8812,12 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="I47" s="5">
+        <v>2245</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2636</v>
+      </c>
       <c r="K47" s="5">
         <v>3411</v>
       </c>
@@ -8898,8 +8920,12 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="I48" s="5">
+        <v>11640</v>
+      </c>
+      <c r="J48" s="5">
+        <v>13393</v>
+      </c>
       <c r="K48" s="5">
         <v>12951</v>
       </c>
@@ -9017,8 +9043,12 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="I49" s="5">
+        <v>54945</v>
+      </c>
+      <c r="J49" s="5">
+        <v>59715</v>
+      </c>
       <c r="K49" s="5">
         <v>63772</v>
       </c>
@@ -9121,8 +9151,12 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="I50" s="5">
+        <v>10673</v>
+      </c>
+      <c r="J50" s="5">
+        <v>11088</v>
+      </c>
       <c r="K50" s="5">
         <v>11575</v>
       </c>
@@ -9225,8 +9259,14 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="I51" s="5">
+        <f>49698+8127</f>
+        <v>57825</v>
+      </c>
+      <c r="J51" s="5">
+        <f>49711+7800</f>
+        <v>57511</v>
+      </c>
       <c r="K51" s="5">
         <f>50455+7794</f>
         <v>58249</v>
@@ -9350,8 +9390,12 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="I52" s="5">
+        <v>14427</v>
+      </c>
+      <c r="J52" s="5">
+        <v>15075</v>
+      </c>
       <c r="K52" s="5">
         <v>21103</v>
       </c>
@@ -9461,10 +9505,16 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="I53" s="7">
+        <f t="shared" ref="I53:K53" si="187">SUM(I45:I52)</f>
+        <v>308879</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="187"/>
+        <v>333779</v>
+      </c>
       <c r="K53" s="7">
-        <f t="shared" ref="K53" si="187">SUM(K45:K52)</f>
+        <f t="shared" si="187"/>
         <v>335418</v>
       </c>
       <c r="L53" s="7">
@@ -9603,8 +9653,12 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="I55" s="5">
+        <v>13412</v>
+      </c>
+      <c r="J55" s="5">
+        <v>15163</v>
+      </c>
       <c r="K55" s="5">
         <v>14832</v>
       </c>
@@ -9708,8 +9762,14 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="I56" s="5">
+        <f>8051+50007</f>
+        <v>58058</v>
+      </c>
+      <c r="J56" s="5">
+        <f>8072+50074</f>
+        <v>58146</v>
+      </c>
       <c r="K56" s="5">
         <f>3249+50039</f>
         <v>53288</v>
@@ -9825,8 +9885,12 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="I57" s="5">
+        <v>8032</v>
+      </c>
+      <c r="J57" s="5">
+        <v>10057</v>
+      </c>
       <c r="K57" s="5">
         <v>6894</v>
       </c>
@@ -9929,8 +9993,14 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="I58" s="5">
+        <f>2165+27157+173</f>
+        <v>29495</v>
+      </c>
+      <c r="J58" s="5">
+        <f>2174+27190+198</f>
+        <v>29562</v>
+      </c>
       <c r="K58" s="5">
         <f>6272+25715+212</f>
         <v>32199</v>
@@ -10044,8 +10114,14 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="I59" s="5">
+        <f>30083+2631</f>
+        <v>32714</v>
+      </c>
+      <c r="J59" s="5">
+        <f>41525+2616</f>
+        <v>44141</v>
+      </c>
       <c r="K59" s="5">
         <f>2550+38465</f>
         <v>41015</v>
@@ -10169,8 +10245,12 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="I60" s="5">
+        <v>10450</v>
+      </c>
+      <c r="J60" s="5">
+        <v>11666</v>
+      </c>
       <c r="K60" s="5">
         <v>10816</v>
       </c>
@@ -10274,8 +10354,12 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="I61" s="5">
+        <v>9272</v>
+      </c>
+      <c r="J61" s="5">
+        <v>9629</v>
+      </c>
       <c r="K61" s="5">
         <v>10050</v>
       </c>
@@ -10378,8 +10462,12 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="I62" s="5">
+        <v>12941</v>
+      </c>
+      <c r="J62" s="5">
+        <v>13427</v>
+      </c>
       <c r="K62" s="5">
         <v>14346</v>
       </c>
@@ -10496,8 +10584,12 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="I63" s="5">
+        <v>134505</v>
+      </c>
+      <c r="J63" s="5">
+        <v>141988</v>
+      </c>
       <c r="K63" s="5">
         <v>151978</v>
       </c>
@@ -10601,10 +10693,16 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="7">
+        <f t="shared" ref="I64:L64" si="191">SUM(I55:I63)</f>
+        <v>308879</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="191"/>
+        <v>333779</v>
+      </c>
       <c r="K64" s="7">
-        <f t="shared" ref="K64:L64" si="191">SUM(K55:K63)</f>
+        <f t="shared" si="191"/>
         <v>335418</v>
       </c>
       <c r="L64" s="7">
@@ -10738,14 +10836,20 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="I66" s="5">
+        <f t="shared" ref="I66:K66" si="194">I31</f>
+        <v>15457</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="194"/>
+        <v>16458</v>
+      </c>
       <c r="K66" s="5">
-        <f t="shared" ref="K66" si="194">K31</f>
+        <f t="shared" si="194"/>
         <v>20505</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" ref="L66:R66" si="195">L31</f>
+        <f t="shared" ref="L66:Q66" si="195">L31</f>
         <v>18765</v>
       </c>
       <c r="M66" s="5">
@@ -10766,7 +10870,7 @@
       </c>
       <c r="Q66" s="5">
         <f t="shared" si="195"/>
-        <v>18759</v>
+        <v>18299</v>
       </c>
       <c r="R66" s="5">
         <f>R31</f>
@@ -10791,8 +10895,12 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="I67" s="5">
+        <v>15457</v>
+      </c>
+      <c r="J67" s="5">
+        <v>16458</v>
+      </c>
       <c r="K67" s="5">
         <v>20505</v>
       </c>
@@ -10810,6 +10918,9 @@
       </c>
       <c r="P67" s="4">
         <v>16425</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>18299</v>
       </c>
       <c r="R67" s="4">
         <v>20081</v>
@@ -10829,8 +10940,12 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="I68" s="5">
+        <v>2936</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3344</v>
+      </c>
       <c r="K68" s="5">
         <v>3212</v>
       </c>
@@ -10848,6 +10963,9 @@
       </c>
       <c r="P68" s="4">
         <v>3648</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>3549</v>
       </c>
       <c r="R68" s="4">
         <v>3874</v>
@@ -10867,8 +10985,12 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="I69" s="5">
+        <v>1525</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1571</v>
+      </c>
       <c r="K69" s="5">
         <v>1702</v>
       </c>
@@ -10886,6 +11008,9 @@
       </c>
       <c r="P69" s="4">
         <v>2538</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>2465</v>
       </c>
       <c r="R69" s="4">
         <v>2416</v>
@@ -10905,8 +11030,12 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="I70" s="5">
+        <v>-351</v>
+      </c>
+      <c r="J70" s="5">
+        <v>-416</v>
+      </c>
       <c r="K70" s="5">
         <v>-364</v>
       </c>
@@ -10924,6 +11053,9 @@
       </c>
       <c r="P70" s="4">
         <v>214</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>-40</v>
       </c>
       <c r="R70" s="4">
         <v>44</v>
@@ -10943,8 +11075,12 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="I71" s="5">
+        <v>-88</v>
+      </c>
+      <c r="J71" s="5">
+        <v>-34</v>
+      </c>
       <c r="K71" s="5">
         <v>-5970</v>
       </c>
@@ -10962,6 +11098,9 @@
       </c>
       <c r="P71" s="4">
         <v>-1305</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>-1675</v>
       </c>
       <c r="R71" s="4">
         <v>-1888</v>
@@ -10981,8 +11120,14 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="I72" s="5">
+        <f>290-329+478-885+833-473+1074+1590+122</f>
+        <v>2700</v>
+      </c>
+      <c r="J72" s="5">
+        <f>-11606-388-2086-1013+1617+11397-32+3755+143</f>
+        <v>1787</v>
+      </c>
       <c r="K72" s="5">
         <f>10486-777+940-598-471-2885+2653-4143+250</f>
         <v>5455</v>
@@ -11006,6 +11151,10 @@
       <c r="P72" s="4">
         <f>-3164+1305-392-65-2058-5186-2863+1819+257</f>
         <v>-10347</v>
+      </c>
+      <c r="Q72" s="4">
+        <f>-1408+106+1152-554-407-181+1414+1715+6</f>
+        <v>1843</v>
       </c>
       <c r="R72" s="4">
         <f>-11244+374-2419-1548+1311+14224+681+2762+102</f>
@@ -11026,10 +11175,16 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="I73" s="5">
+        <f t="shared" ref="I73:K73" si="196">SUM(I67:I72)</f>
+        <v>22179</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="196"/>
+        <v>22710</v>
+      </c>
       <c r="K73" s="5">
-        <f t="shared" ref="K73" si="196">SUM(K67:K72)</f>
+        <f t="shared" si="196"/>
         <v>24540</v>
       </c>
       <c r="L73" s="5">
@@ -11037,7 +11192,7 @@
         <v>14480</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" ref="M73:R73" si="198">SUM(M67:M72)</f>
+        <f t="shared" ref="M73:Q73" si="198">SUM(M67:M72)</f>
         <v>25386</v>
       </c>
       <c r="N73" s="5">
@@ -11054,7 +11209,7 @@
       </c>
       <c r="Q73" s="5">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>24441</v>
       </c>
       <c r="R73" s="5">
         <f>SUM(R67:R72)</f>
@@ -11097,8 +11252,12 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="I75" s="5">
+        <v>-5089</v>
+      </c>
+      <c r="J75" s="5">
+        <v>-6452</v>
+      </c>
       <c r="K75" s="5">
         <v>-5810</v>
       </c>
@@ -11116,6 +11275,9 @@
       </c>
       <c r="P75" s="4">
         <v>-6274</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>-6607</v>
       </c>
       <c r="R75" s="4">
         <v>-8943</v>
@@ -11135,8 +11297,12 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="I76" s="5">
+        <v>-7512</v>
+      </c>
+      <c r="J76" s="5">
+        <v>-501</v>
+      </c>
       <c r="K76" s="5">
         <v>-1206</v>
       </c>
@@ -11154,6 +11320,9 @@
       </c>
       <c r="P76" s="4">
         <v>-679</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>-301</v>
       </c>
       <c r="R76" s="4">
         <v>-341</v>
@@ -11173,8 +11342,14 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="I77" s="5">
+        <f>-18375+15016+5876</f>
+        <v>2517</v>
+      </c>
+      <c r="J77" s="5">
+        <f>-14877+7246+3297</f>
+        <v>-4334</v>
+      </c>
       <c r="K77" s="5">
         <f>-10309+8862+5630</f>
         <v>4183</v>
@@ -11198,6 +11373,10 @@
       <c r="P77" s="4">
         <f>-11599+6928+4775</f>
         <v>104</v>
+      </c>
+      <c r="Q77" s="4">
+        <f>-9063+13154+1239</f>
+        <v>5330</v>
       </c>
       <c r="R77" s="4">
         <f>-11976+6766+5629</f>
@@ -11218,8 +11397,12 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="I78" s="5">
+        <v>400</v>
+      </c>
+      <c r="J78" s="5">
+        <v>434</v>
+      </c>
       <c r="K78" s="5">
         <v>-417</v>
       </c>
@@ -11237,6 +11420,9 @@
       </c>
       <c r="P78" s="4">
         <v>-301</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>-1686</v>
       </c>
       <c r="R78" s="4">
         <v>-269</v>
@@ -11256,10 +11442,16 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="I79" s="5">
+        <f t="shared" ref="I79:L79" si="199">SUM(I75:I78)</f>
+        <v>-9684</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="199"/>
+        <v>-10853</v>
+      </c>
       <c r="K79" s="5">
-        <f t="shared" ref="K79:L79" si="199">SUM(K75:K78)</f>
+        <f t="shared" si="199"/>
         <v>-3250</v>
       </c>
       <c r="L79" s="5">
@@ -11267,27 +11459,27 @@
         <v>-1161</v>
       </c>
       <c r="M79" s="5">
-        <f>SUM(M75:M78)</f>
+        <f t="shared" ref="M79:R79" si="200">SUM(M75:M78)</f>
         <v>-16171</v>
       </c>
       <c r="N79" s="5">
-        <f>SUM(N75:N78)</f>
+        <f t="shared" si="200"/>
         <v>-9729</v>
       </c>
       <c r="O79" s="5">
-        <f>SUM(O75:O78)</f>
+        <f t="shared" si="200"/>
         <v>-3132</v>
       </c>
       <c r="P79" s="5">
-        <f>SUM(P75:P78)</f>
+        <f t="shared" si="200"/>
         <v>-7150</v>
       </c>
       <c r="Q79" s="5">
-        <f>SUM(Q75:Q78)</f>
-        <v>0</v>
+        <f t="shared" si="200"/>
+        <v>-3264</v>
       </c>
       <c r="R79" s="5">
-        <f>SUM(R75:R78)</f>
+        <f t="shared" si="200"/>
         <v>-9134</v>
       </c>
       <c r="BC79" s="5"/>
@@ -11305,8 +11497,12 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="I81" s="5">
+        <v>-1754</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
       <c r="K81" s="5">
         <v>0</v>
       </c>
@@ -11323,6 +11519,9 @@
         <v>0</v>
       </c>
       <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
         <v>0</v>
       </c>
       <c r="R81" s="4">
@@ -11343,8 +11542,12 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="I82" s="5">
+        <v>-500</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
       <c r="K82" s="5">
         <v>-4826</v>
       </c>
@@ -11362,6 +11565,9 @@
       </c>
       <c r="P82" s="4">
         <v>-750</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>536</v>
       </c>
       <c r="R82" s="4">
         <f>-1000+512</f>
@@ -11382,8 +11588,14 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="I83" s="5">
+        <f>-6930+396</f>
+        <v>-6534</v>
+      </c>
+      <c r="J83" s="5">
+        <f>450-7177</f>
+        <v>-6727</v>
+      </c>
       <c r="K83" s="5">
         <f>612-7684</f>
         <v>-7072</v>
@@ -11407,6 +11619,10 @@
       <c r="P83" s="4">
         <f>243-5459</f>
         <v>-5216</v>
+      </c>
+      <c r="Q83" s="4">
+        <f>-5509</f>
+        <v>-5509</v>
       </c>
       <c r="R83" s="4">
         <v>-5704</v>
@@ -11426,8 +11642,12 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="I84" s="5">
+        <v>-4221</v>
+      </c>
+      <c r="J84" s="5">
+        <v>-4214</v>
+      </c>
       <c r="K84" s="5">
         <v>-4206</v>
       </c>
@@ -11445,6 +11665,9 @@
       </c>
       <c r="P84" s="4">
         <v>-5066</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>-5059</v>
       </c>
       <c r="R84" s="4">
         <v>-5054</v>
@@ -11464,8 +11687,12 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="I85" s="5">
+        <v>-183</v>
+      </c>
+      <c r="J85" s="5">
+        <v>-430</v>
+      </c>
       <c r="K85" s="5">
         <v>-172</v>
       </c>
@@ -11483,6 +11710,9 @@
       </c>
       <c r="P85" s="4">
         <v>-317</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>-258</v>
       </c>
       <c r="R85" s="4">
         <v>-167</v>
@@ -11502,10 +11732,16 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="I86" s="5">
+        <f t="shared" ref="I86:K86" si="201">SUM(I81:I85)</f>
+        <v>-13192</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="201"/>
+        <v>-11371</v>
+      </c>
       <c r="K86" s="5">
-        <f t="shared" ref="K86" si="200">SUM(K81:K85)</f>
+        <f t="shared" si="201"/>
         <v>-16276</v>
       </c>
       <c r="L86" s="5">
@@ -11529,11 +11765,11 @@
         <v>-11349</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" ref="Q86:S86" si="201">SUM(Q81:Q85)</f>
-        <v>0</v>
+        <f t="shared" ref="Q86:R86" si="202">SUM(Q81:Q85)</f>
+        <v>-10290</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>-11413</v>
       </c>
       <c r="S86" s="5"/>
@@ -11546,6 +11782,12 @@
       <c r="B87" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="I87" s="2">
+        <v>-33</v>
+      </c>
+      <c r="J87" s="2">
+        <v>36</v>
+      </c>
       <c r="K87" s="2">
         <v>-73</v>
       </c>
@@ -11563,6 +11805,9 @@
       </c>
       <c r="P87" s="4">
         <v>88</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>29</v>
       </c>
       <c r="R87" s="4">
         <v>-81</v>
@@ -11572,8 +11817,16 @@
       <c r="B88" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="I88" s="5">
+        <f t="shared" ref="I88:K88" si="203">I86+I87+I79+I73</f>
+        <v>-730</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" si="203"/>
+        <v>522</v>
+      </c>
       <c r="K88" s="5">
-        <f t="shared" ref="K88" si="202">K86+K87+K79+K73</f>
+        <f t="shared" si="203"/>
         <v>4941</v>
       </c>
       <c r="L88" s="5">
@@ -11597,11 +11850,11 @@
         <v>-7238</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" ref="Q88:R88" si="203">Q86+Q87+Q79+Q73</f>
-        <v>0</v>
+        <f t="shared" ref="Q88:R88" si="204">Q86+Q87+Q79+Q73</f>
+        <v>10916</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>8142</v>
       </c>
     </row>
@@ -11609,8 +11862,16 @@
       <c r="B90" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="I90" s="5">
+        <f t="shared" ref="I90:K90" si="205">I73+I75</f>
+        <v>17090</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" si="205"/>
+        <v>16258</v>
+      </c>
       <c r="K90" s="5">
-        <f t="shared" ref="K90" si="204">K73+K75</f>
+        <f t="shared" si="205"/>
         <v>18730</v>
       </c>
       <c r="L90" s="5">
@@ -11618,11 +11879,11 @@
         <v>8615</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:N90" si="205">M73+M75</f>
+        <f t="shared" ref="M90:N90" si="206">M73+M75</f>
         <v>20046</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>17758</v>
       </c>
       <c r="O90" s="5">
@@ -11634,11 +11895,11 @@
         <v>4899</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" ref="Q90:R90" si="206">Q73+Q75</f>
-        <v>0</v>
+        <f t="shared" ref="Q90:R90" si="207">Q73+Q75</f>
+        <v>17834</v>
       </c>
       <c r="R90" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>19827</v>
       </c>
     </row>
@@ -11647,6 +11908,10 @@
         <v>103</v>
       </c>
       <c r="L91" s="5"/>
+      <c r="M91" s="4">
+        <f>SUM(J90:M90)</f>
+        <v>63649</v>
+      </c>
       <c r="N91" s="4">
         <f>SUM(K90:N90)</f>
         <v>65149</v>
@@ -11660,12 +11925,12 @@
         <v>59618</v>
       </c>
       <c r="Q91" s="4">
-        <f t="shared" ref="Q91:R91" si="207">SUM(N90:Q90)</f>
-        <v>39572</v>
+        <f t="shared" ref="Q91:R91" si="208">SUM(N90:Q90)</f>
+        <v>57406</v>
       </c>
       <c r="R91" s="4">
-        <f t="shared" si="207"/>
-        <v>41641</v>
+        <f t="shared" si="208"/>
+        <v>59475</v>
       </c>
     </row>
     <row r="94" spans="2:58">
@@ -11856,95 +12121,95 @@
         <v>2</v>
       </c>
       <c r="AC97" s="4">
-        <f t="shared" ref="AC97:AY97" si="208">AC96*AC33</f>
+        <f t="shared" ref="AC97:AY97" si="209">AC96*AC33</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY97" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -11953,95 +12218,95 @@
         <v>5</v>
       </c>
       <c r="AC98" s="4">
-        <f t="shared" ref="AC98:AY98" si="209">AC97-AC44</f>
+        <f t="shared" ref="AC98:AY98" si="210">AC97-AC44</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY98" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -12050,95 +12315,95 @@
         <v>224</v>
       </c>
       <c r="AC99" s="24">
-        <f t="shared" ref="AC99:AY99" si="210">AC98/AC31</f>
+        <f t="shared" ref="AC99:AY99" si="211">AC98/AC31</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AF99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ99" s="24">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AR99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AS99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AT99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AU99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AV99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="AW99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="AX99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>16.98126691222053</v>
       </c>
       <c r="AY99" s="25">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E0527-82C7-4143-98EC-0CAA14AC6C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3203A-FAEF-4C44-A7F0-EA56E124052F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24705" yWindow="525" windowWidth="24075" windowHeight="18750" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-31725" yWindow="2055" windowWidth="31650" windowHeight="18690" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1928,7 +1928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2003,11 +2003,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2895,10 +2890,10 @@
   <dimension ref="A1:DS124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BE25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="BP48" sqref="BP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3544,62 +3539,62 @@
       <c r="B8" t="s">
         <v>463</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="5">
         <v>9192</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="5">
         <v>10119</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="5">
         <v>10490</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="5">
         <f>+BC8-E8-D8-C8</f>
         <v>11578</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="5">
         <v>11195</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="5">
         <v>12729</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="5">
         <v>13204</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="5">
         <f>+BD8-I8-H8-G8</f>
         <v>15461</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="5">
         <v>15070</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="5">
         <v>16375</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="5">
         <v>17046</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="5">
         <f>+BE8-M8-L8-K8</f>
         <v>18859</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="5">
         <v>18388</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="5">
         <v>19594</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="5">
         <v>20025</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="5">
         <f>+BF8-Q8-P8-O8</f>
         <v>21963</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="5">
         <v>22308</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="5">
         <v>23953</v>
       </c>
       <c r="U8" s="20"/>
@@ -3640,62 +3635,62 @@
       <c r="B9" t="s">
         <v>464</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="5">
         <v>8466</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="5">
         <v>8983</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="5">
         <v>8920</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="5">
         <f t="shared" ref="F9:F17" si="1">+BC9-E9-D9-C9</f>
         <v>8947</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="5">
         <v>9278</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="5">
         <v>9881</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="5">
         <v>10016</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="5">
         <f t="shared" ref="J9:J17" si="2">+BD9-I9-H9-G9</f>
         <v>10697</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="5">
         <v>10808</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="5">
         <v>11251</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="5">
         <v>11164</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="5">
         <f t="shared" ref="N9:N17" si="3">+BE9-M9-L9-K9</f>
         <v>11639</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="5">
         <v>11577</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="5">
         <v>11867</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="5">
         <v>12438</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="5">
         <f t="shared" ref="R9:R17" si="4">+BF9-Q9-P9-O9</f>
         <v>12846</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="5">
         <v>13140</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="5">
         <v>13477</v>
       </c>
       <c r="U9" s="20"/>
@@ -3736,62 +3731,62 @@
       <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="5">
         <v>5353</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="5">
         <v>5593</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="5">
         <v>5220</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>6128</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="5">
         <v>5151</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="5">
         <v>5514</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="5">
         <v>5463</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>6360</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="5">
         <v>5674</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="5">
         <v>6600</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="5">
         <v>6069</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="5">
         <f t="shared" si="3"/>
         <v>6389</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="5">
         <v>5313</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="5">
         <v>4808</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="5">
         <v>5328</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="5">
         <f t="shared" si="4"/>
         <v>6058</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="5">
         <v>5567</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="5">
         <v>5262</v>
       </c>
       <c r="U10" s="20"/>
@@ -3832,62 +3827,62 @@
       <c r="B11" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="5">
         <v>2542</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="5">
         <v>3327</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="5">
         <v>2349</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>3357</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="5">
         <v>3092</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="5">
         <v>5031</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="5">
         <v>3533</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>3714</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="5">
         <v>3593</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="5">
         <v>5442</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="5">
         <v>3740</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="5">
         <f t="shared" si="3"/>
         <v>3455</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="5">
         <v>3610</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="5">
         <v>4758</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="5">
         <v>3607</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="5">
         <f t="shared" si="4"/>
         <v>3491</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="5">
         <v>3919</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="5">
         <v>7111</v>
       </c>
       <c r="U11" s="20"/>
@@ -3928,62 +3923,62 @@
       <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="5">
         <v>1909</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="5">
         <v>2102</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="5">
         <v>2050</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="5">
         <v>2206</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="5">
         <v>2577</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="5">
         <v>2562</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="5">
         <f t="shared" si="2"/>
         <v>2944</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="5">
         <v>3136</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="5">
         <v>3531</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="5">
         <v>3437</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="5">
         <f t="shared" si="3"/>
         <v>3712</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="5">
         <v>3628</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="5">
         <v>3833</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="5">
         <v>3697</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="5">
         <f t="shared" si="4"/>
         <v>3987</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="5">
         <v>3913</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="5">
         <v>4195</v>
       </c>
       <c r="U12" s="20"/>
@@ -4024,62 +4019,62 @@
       <c r="B13" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="5">
         <v>1991</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="5">
         <v>2163</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="5">
         <v>1986</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="5">
         <v>1943</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="5">
         <v>2386</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="5">
         <v>2401</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>2537</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="5">
         <v>2656</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="5">
         <v>3064</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="5">
         <v>2945</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="5">
         <f t="shared" si="3"/>
         <v>2926</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="5">
         <v>2913</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="5">
         <v>3209</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="5">
         <v>3045</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="5">
         <f t="shared" si="4"/>
         <v>3041</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="5">
         <v>3053</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="5">
         <v>3220</v>
       </c>
       <c r="U13" s="20"/>
@@ -4120,62 +4115,62 @@
       <c r="B14" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="5">
         <v>1545</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="5">
         <v>1612</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="5">
         <v>1633</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>1619</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="5">
         <v>1637</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="5">
         <v>1695</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="5">
         <v>1803</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="5">
         <v>1791</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="5">
         <v>1823</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="5">
         <v>1891</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="5">
         <f t="shared" si="3"/>
         <v>1902</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="5">
         <v>1929</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="5">
         <v>1907</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="5">
         <v>2007</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="5">
         <f t="shared" si="4"/>
         <v>1879</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="5">
         <v>1944</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="5">
         <v>1917</v>
       </c>
       <c r="U14" s="20"/>
@@ -4216,62 +4211,62 @@
       <c r="B15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="5">
         <v>855</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="5">
         <v>959</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="5">
         <v>961</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>993</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="5">
         <v>1032</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="5">
         <v>1143</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="5">
         <v>1125</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>3843</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="5">
         <v>1175</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="5">
         <v>1357</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="5">
         <v>1233</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="5">
         <f t="shared" si="3"/>
         <v>3541</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="5">
         <v>1260</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="5">
         <v>1302</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="5">
         <v>1428</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="5">
         <f t="shared" si="4"/>
         <v>1531</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="5">
         <v>1540</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="5">
         <v>1576</v>
       </c>
       <c r="U15" s="20"/>
@@ -4309,65 +4304,65 @@
       <c r="BM15" s="20"/>
     </row>
     <row r="16" spans="1:65" s="19" customFormat="1">
-      <c r="B16" s="38" t="s">
+      <c r="B16" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="5">
         <v>1202</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="5">
         <v>2048</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="5">
         <v>1412</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>1795</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="5">
         <v>1620</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="5">
         <v>2120</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="5">
         <v>1599</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>-1585</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="5">
         <v>1414</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="5">
         <v>2285</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="5">
         <v>1835</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="5">
         <f>+BE16-M16-L16-K16</f>
         <v>-847</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="5">
         <v>1448</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="5">
         <v>1430</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="5">
         <v>1282</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="5">
         <f t="shared" si="4"/>
         <v>1277</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="5">
         <v>1125</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="5">
         <v>1298</v>
       </c>
       <c r="U16" s="20"/>
@@ -4405,65 +4400,65 @@
       <c r="BM16" s="20"/>
     </row>
     <row r="17" spans="2:65" s="19" customFormat="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>373</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="5">
         <v>0</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="5">
         <f t="shared" si="3"/>
         <v>289</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="5">
         <v>56</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="5">
         <v>39</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="5">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="5">
         <v>8</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="5">
         <v>11</v>
       </c>
       <c r="U17" s="20"/>
@@ -4501,7 +4496,7 @@
       <c r="BM17" s="20"/>
     </row>
     <row r="18" spans="2:65" s="19" customFormat="1">
-      <c r="B18" s="38"/>
+      <c r="B18"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -4514,12 +4509,12 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4545,7 +4540,7 @@
       <c r="BM18" s="20"/>
     </row>
     <row r="19" spans="2:65" s="19" customFormat="1">
-      <c r="B19" s="38"/>
+      <c r="B19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -4572,7 +4567,7 @@
         <v>0.20717131474103589</v>
       </c>
       <c r="S19" s="20"/>
-      <c r="T19" s="39"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="AS19" s="20"/>
@@ -4749,7 +4744,7 @@
       <c r="P25" s="4">
         <v>17002</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="4">
         <v>17516</v>
       </c>
       <c r="R25" s="4">
@@ -4830,7 +4825,7 @@
       <c r="P26" s="4">
         <v>21508</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="4">
         <v>22081</v>
       </c>
       <c r="R26" s="4">
@@ -4902,7 +4897,7 @@
       <c r="P27" s="4">
         <v>14237</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="Q27" s="4">
         <v>13260</v>
       </c>
       <c r="R27" s="4">
@@ -5194,7 +5189,7 @@
         <v>36906</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" ref="E31:F31" si="11">E29+E30</f>
+        <f t="shared" ref="E31" si="11">E29+E30</f>
         <v>35021</v>
       </c>
       <c r="F31" s="7">
@@ -5463,7 +5458,7 @@
         <v>5964</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" ref="T32:V32" si="17">U29*0.25</f>
+        <f t="shared" ref="U32:V32" si="17">U29*0.25</f>
         <v>4091.8500000000004</v>
       </c>
       <c r="V32" s="4">
@@ -5585,7 +5580,7 @@
         <v>13659</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" ref="T33:V33" si="19">U30*0.35</f>
+        <f t="shared" ref="U33:V33" si="19">U30*0.35</f>
         <v>13696.3575</v>
       </c>
       <c r="V33" s="4">
@@ -7281,7 +7276,7 @@
         <v>-506</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" ref="T41:V41" si="92">T41</f>
+        <f t="shared" ref="U41:V41" si="92">T41</f>
         <v>-506</v>
       </c>
       <c r="V41" s="4">
@@ -7741,7 +7736,7 @@
         <v>4656</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" ref="T43:V43" si="109">U42*0.2</f>
+        <f t="shared" ref="U43:V43" si="109">U42*0.2</f>
         <v>4653.6253000000006</v>
       </c>
       <c r="V43" s="4">
@@ -8672,7 +8667,7 @@
         <v>7468</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" ref="T46:V46" si="142">T46</f>
+        <f t="shared" ref="U46:V46" si="142">T46</f>
         <v>7468</v>
       </c>
       <c r="V46" s="4">
@@ -9313,15 +9308,15 @@
         <v>0.16295359983146374</v>
       </c>
       <c r="R52" s="12">
-        <f>R26/N26-1</f>
+        <f t="shared" ref="R52:T53" si="164">R26/N26-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="S52" s="12">
-        <f>S26/O26-1</f>
+        <f t="shared" si="164"/>
         <v>0.19355473554735547</v>
       </c>
       <c r="T52" s="12">
-        <f>T26/P26-1</f>
+        <f t="shared" si="164"/>
         <v>0.20327320066951837</v>
       </c>
       <c r="BA52" s="10"/>
@@ -9377,31 +9372,31 @@
         <v>0.11874808223381406</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53:Q53" si="164">N27/J27-1</f>
+        <f t="shared" ref="N53:Q53" si="165">N27/J27-1</f>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="O53" s="12">
+        <f t="shared" si="165"/>
+        <v>-2.5437677689660321E-3</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="165"/>
+        <v>-0.18482679645004296</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="165"/>
+        <v>-9.0784421283598427E-2</v>
+      </c>
+      <c r="R53" s="12">
         <f t="shared" si="164"/>
-        <v>-2.5437677689660321E-3</v>
-      </c>
-      <c r="P53" s="12">
+        <v>-3.8448240094046016E-2</v>
+      </c>
+      <c r="S53" s="12">
         <f t="shared" si="164"/>
-        <v>-0.18482679645004296</v>
-      </c>
-      <c r="Q53" s="12">
+        <v>2.5052505250525048E-2</v>
+      </c>
+      <c r="T53" s="12">
         <f t="shared" si="164"/>
-        <v>-9.0784421283598427E-2</v>
-      </c>
-      <c r="R53" s="12">
-        <f>R27/N27-1</f>
-        <v>-3.8448240094046016E-2</v>
-      </c>
-      <c r="S53" s="12">
-        <f>S27/O27-1</f>
-        <v>2.5052505250525048E-2</v>
-      </c>
-      <c r="T53" s="12">
-        <f>T27/P27-1</f>
         <v>0.1864156774601391</v>
       </c>
       <c r="BA53" s="10"/>
@@ -9425,27 +9420,27 @@
         <v>22</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" ref="C54:D54" si="165">C35/C31</f>
+        <f t="shared" ref="C54:D54" si="166">C35/C31</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" ref="E54:F54" si="166">E35/E31</f>
+        <f t="shared" ref="E54:F54" si="167">E35/E31</f>
         <v>0.68661660146769077</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" ref="G54:H54" si="167">G35/G31</f>
+        <f t="shared" ref="G54:H54" si="168">G35/G31</f>
         <v>0.70388114334930285</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I54" s="9">
@@ -9453,27 +9448,27 @@
         <v>0.68721526878626582</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" ref="J54:M54" si="168">J35/J31</f>
+        <f t="shared" ref="J54:M54" si="169">J35/J31</f>
         <v>0.69684954064829263</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N54" s="9">
-        <f t="shared" ref="N54:O54" si="169">N35/N31</f>
+        <f t="shared" ref="N54:O54" si="170">N35/N31</f>
         <v>0.68323532247180174</v>
       </c>
       <c r="O54" s="9">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P54" s="9">
@@ -9481,193 +9476,193 @@
         <v>0.66845507801391546</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" ref="Q54:R54" si="170">Q35/Q31</f>
+        <f t="shared" ref="Q54:R54" si="171">Q35/Q31</f>
         <v>0.69487485101311086</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" ref="S54:V54" si="171">S35/S31</f>
+        <f t="shared" ref="S54:V54" si="172">S35/S31</f>
         <v>0.71155581506449384</v>
       </c>
       <c r="T54" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.69</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.69</v>
       </c>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9">
-        <f t="shared" ref="Y54:AD54" si="172">Y35/Y31</f>
+        <f t="shared" ref="Y54:AD54" si="173">Y35/Y31</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="Z54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AA54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AB54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AC54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AD54" s="9">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AE54" s="9">
-        <f t="shared" ref="AE54:AM54" si="173">AE35/AE31</f>
+        <f t="shared" ref="AE54:AM54" si="174">AE35/AE31</f>
         <v>0.86299158113251062</v>
       </c>
       <c r="AF54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AG54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AH54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AI54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AJ54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AK54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AL54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AM54" s="9">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AN54" s="9">
-        <f t="shared" ref="AN54:AW54" si="174">AN35/AN31</f>
+        <f t="shared" ref="AN54:AW54" si="175">AN35/AN31</f>
         <v>0.84417412285111093</v>
       </c>
       <c r="AO54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AP54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AQ54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AR54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="AS54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AT54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="AU54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="AV54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="AW54" s="9">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="AX54" s="9">
-        <f t="shared" ref="AX54:AY54" si="175">AX35/AX31</f>
+        <f t="shared" ref="AX54:AY54" si="176">AX35/AX31</f>
         <v>0.64695447745244705</v>
       </c>
       <c r="AY54" s="9">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="AZ54" s="9">
-        <f t="shared" ref="AZ54:BA54" si="176">AZ35/AZ31</f>
+        <f t="shared" ref="AZ54:BA54" si="177">AZ35/AZ31</f>
         <v>0.64522475691460168</v>
       </c>
       <c r="BA54" s="9">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BB54" s="9">
-        <f t="shared" ref="BB54:BF54" si="177">BB35/BB31</f>
+        <f t="shared" ref="BB54:BF54" si="178">BB35/BB31</f>
         <v>0.65901957200638894</v>
       </c>
       <c r="BC54" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BD54" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BE54" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BF54" s="9">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BG54" s="9">
-        <f t="shared" ref="BG54:BM54" si="178">BG35/BG31</f>
+        <f t="shared" ref="BG54:BM54" si="179">BG35/BG31</f>
         <v>0.67</v>
       </c>
       <c r="BH54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BI54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BJ54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BK54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BL54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BM54" s="9">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.67</v>
       </c>
       <c r="BO54" t="s">
@@ -9683,63 +9678,63 @@
         <v>455</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55" si="179">+C40/C31</f>
+        <f t="shared" ref="C55" si="180">+C40/C31</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" ref="D55:E55" si="180">+D40/D31</f>
+        <f t="shared" ref="D55:E55" si="181">+D40/D31</f>
         <v>0.37638866309001245</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" ref="F55:J55" si="181">+F40/F31</f>
+        <f t="shared" ref="F55:I55" si="182">+F40/F31</f>
         <v>0.35250966266137301</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" ref="J55:R55" si="182">+J40/J31</f>
+        <f t="shared" ref="J55:Q55" si="183">+J40/J31</f>
         <v>0.41374154966198645</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="R55" s="9">
@@ -9747,19 +9742,19 @@
         <v>0.4316503230169606</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" ref="S55:V55" si="183">+S40/S31</f>
+        <f t="shared" ref="S55:V55" si="184">+S40/S31</f>
         <v>0.47587451563246458</v>
       </c>
       <c r="T55" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="U55" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.42836379737963254</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.43081691976653624</v>
       </c>
       <c r="W55" s="9"/>
@@ -9784,59 +9779,59 @@
       <c r="AP55" s="9"/>
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9">
-        <f t="shared" ref="AR55:AT55" si="184">AR40/AR31</f>
+        <f t="shared" ref="AR55:AT55" si="185">AR40/AR31</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="AS55" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="AT55" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="AU55" s="9">
-        <f t="shared" ref="AU55:BE55" si="185">AU40/AU31</f>
+        <f t="shared" ref="AU55:BE55" si="186">AU40/AU31</f>
         <v>0.37920323372624554</v>
       </c>
       <c r="AV55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="AW55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="AX55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="AY55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="AZ55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BA55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BB55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BC55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BD55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BE55" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BF55" s="9">
@@ -9844,31 +9839,31 @@
         <v>0.41772880636104098</v>
       </c>
       <c r="BG55" s="9">
-        <f t="shared" ref="BG55:BM55" si="186">BG40/BG31</f>
+        <f t="shared" ref="BG55:BM55" si="187">BG40/BG31</f>
         <v>0.41885445720422676</v>
       </c>
       <c r="BH55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.43053228494172352</v>
       </c>
       <c r="BI55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.44186127163251976</v>
       </c>
       <c r="BJ55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.45283344109557166</v>
       </c>
       <c r="BK55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.46344280341509458</v>
       </c>
       <c r="BL55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.47368527275981076</v>
       </c>
       <c r="BM55" s="9">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.48355857034614491</v>
       </c>
       <c r="BP55" s="4"/>
@@ -9878,19 +9873,19 @@
         <v>89</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="187">+C43/C42</f>
+        <f t="shared" ref="C56:D56" si="188">+C43/C42</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56:F56" si="188">+E43/E42</f>
+        <f t="shared" ref="E56:F56" si="189">+E43/E42</f>
         <v>0.16281242700303666</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="G56" s="9">
@@ -9898,35 +9893,35 @@
         <v>0.13836516993301909</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" ref="H56:O56" si="189">+H43/H42</f>
+        <f t="shared" ref="H56:O56" si="190">+H43/H42</f>
         <v>0.15673228990565524</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P56" s="9">
@@ -9934,193 +9929,193 @@
         <v>0.19243817296818919</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" ref="Q56:R56" si="190">+Q43/Q42</f>
+        <f t="shared" ref="Q56:R56" si="191">+Q43/Q42</f>
         <v>0.19291668504388479</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" ref="S56:V56" si="191">+S43/S42</f>
+        <f t="shared" ref="S56:V56" si="192">+S43/S42</f>
         <v>0.18300102624248643</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.2</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.2</v>
       </c>
       <c r="W56" s="9"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9">
-        <f t="shared" ref="Y56:AD56" si="192">+Y43/Y42</f>
+        <f t="shared" ref="Y56:AD56" si="193">+Y43/Y42</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AE56" s="9">
-        <f t="shared" ref="AE56:AM56" si="193">+AE43/AE42</f>
+        <f t="shared" ref="AE56:AM56" si="194">+AE43/AE42</f>
         <v>0.35039952648712636</v>
       </c>
       <c r="AF56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AG56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AI56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AJ56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AK56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" ref="AN56:AW56" si="194">+AN43/AN42</f>
+        <f t="shared" ref="AN56:AW56" si="195">+AN43/AN42</f>
         <v>0.26305027664180902</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" ref="AX56:AY56" si="195">+AX43/AX42</f>
+        <f t="shared" ref="AX56:AY56" si="196">+AX43/AX42</f>
         <v>0.22140402552773686</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" ref="AZ56:BA56" si="196">+AZ43/AZ42</f>
+        <f t="shared" ref="AZ56:BA56" si="197">+AZ43/AZ42</f>
         <v>0.14605886052901645</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" ref="BB56:BF56" si="197">+BB43/BB42</f>
+        <f t="shared" ref="BB56:BF56" si="198">+BB43/BB42</f>
         <v>0.10181285478850027</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="197"/>
-        <v>0.15</v>
-      </c>
-      <c r="BG56" s="9">
-        <f t="shared" ref="BG56:BM56" si="198">+BG43/BG42</f>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="BH56" s="9">
         <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
+      <c r="BG56" s="9">
+        <f t="shared" ref="BG56:BM56" si="199">+BG43/BG42</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="BH56" s="9">
+        <f t="shared" si="199"/>
+        <v>0.15</v>
+      </c>
       <c r="BI56" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BO56" t="s">
@@ -10136,55 +10131,55 @@
         <v>156</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57" si="199">(C29-C32)/C29</f>
+        <f t="shared" ref="C57" si="200">(C29-C32)/C29</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" ref="D57:E57" si="200">(D29-D32)/D29</f>
+        <f t="shared" ref="D57:E57" si="201">(D29-D32)/D29</f>
         <v>0.72796494111202414</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" ref="F57:I57" si="201">(F29-F32)/F29</f>
+        <f t="shared" ref="F57:I57" si="202">(F29-F32)/F29</f>
         <v>0.75918884664131814</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" ref="J57:L57" si="202">(J29-J32)/J29</f>
+        <f t="shared" ref="J57:L57" si="203">(J29-J32)/J29</f>
         <v>0.7736297391488014</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" ref="M57:O57" si="203">(M29-M32)/M29</f>
+        <f t="shared" ref="M57:O57" si="204">(M29-M32)/M29</f>
         <v>0.73603593228146957</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P57" s="9">
@@ -10192,27 +10187,27 @@
         <v>0.65550644790216139</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" ref="Q57:V57" si="204">(Q29-Q32)/Q29</f>
+        <f t="shared" ref="Q57:V57" si="205">(Q29-Q32)/Q29</f>
         <v>0.74717731588401337</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.75</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.75</v>
       </c>
       <c r="W57" s="9"/>
@@ -10244,63 +10239,63 @@
       <c r="AW57" s="9"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="9">
-        <f t="shared" ref="AY57" si="205">(AY29-AY32)/AY29</f>
+        <f t="shared" ref="AY57" si="206">(AY29-AY32)/AY29</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="AZ57" s="9">
-        <f t="shared" ref="AZ57:BM57" si="206">(AZ29-AZ32)/AZ29</f>
+        <f t="shared" ref="AZ57:BM57" si="207">(AZ29-AZ32)/AZ29</f>
         <v>0.76218833743398473</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.75</v>
       </c>
       <c r="BP57" s="1"/>
@@ -10310,55 +10305,55 @@
         <v>157</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58" si="207">(C30-C33)/C30</f>
+        <f t="shared" ref="C58" si="208">(C30-C33)/C30</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" ref="D58:E58" si="208">(D30-D33)/D30</f>
+        <f t="shared" ref="D58:E58" si="209">(D30-D33)/D30</f>
         <v>0.60366736368023166</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" ref="F58:K58" si="209">(F30-F33)/F30</f>
+        <f t="shared" ref="F58:K58" si="210">(F30-F33)/F30</f>
         <v>0.59926581514633415</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" ref="L58:O58" si="210">(L30-L33)/L30</f>
+        <f t="shared" ref="L58:O58" si="211">(L30-L33)/L30</f>
         <v>0.65656402468577335</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P58" s="9">
@@ -10366,27 +10361,27 @@
         <v>0.67435826662986476</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" ref="Q58:V58" si="211">(Q30-Q33)/Q30</f>
+        <f t="shared" ref="Q58:V58" si="212">(Q30-Q33)/Q30</f>
         <v>0.67299900721779493</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.65</v>
       </c>
       <c r="W58" s="9"/>
@@ -10418,63 +10413,63 @@
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
       <c r="AY58" s="9">
-        <f t="shared" ref="AY58" si="212">(AY30-AY33)/AY30</f>
+        <f t="shared" ref="AY58" si="213">(AY30-AY33)/AY30</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" ref="AZ58:BM58" si="213">(AZ30-AZ33)/AZ30</f>
+        <f t="shared" ref="AZ58:BM58" si="214">(AZ30-AZ33)/AZ30</f>
         <v>0.41739926739926742</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.65</v>
       </c>
       <c r="BP58" s="1"/>
@@ -10563,151 +10558,151 @@
         <v>82</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" ref="G61:H61" si="214">+G62-G73</f>
+        <f t="shared" ref="G61:H61" si="215">+G62-G73</f>
         <v>77528</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>75239</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" ref="I61:V61" si="215">+I62-I73</f>
+        <f t="shared" ref="I61:V61" si="216">+I62-I73</f>
         <v>72744</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>78172</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>83720</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>79105</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>61674</v>
       </c>
       <c r="N61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>61867</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>65479</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>58489</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>65632</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>73904</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>83872</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>20165</v>
       </c>
       <c r="U61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0</v>
       </c>
       <c r="AC61" s="4">
-        <f t="shared" ref="AC61:AQ61" si="216">AC62</f>
+        <f t="shared" ref="AC61:AQ61" si="217">AC62</f>
         <v>3614</v>
       </c>
       <c r="AD61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>4750</v>
       </c>
       <c r="AE61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>6940</v>
       </c>
       <c r="AF61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>11312</v>
       </c>
       <c r="AG61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>18630</v>
       </c>
       <c r="AH61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>31608</v>
       </c>
       <c r="AI61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>41524</v>
       </c>
       <c r="AJ61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>45741</v>
       </c>
       <c r="AK61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>52843</v>
       </c>
       <c r="AL61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>62740</v>
       </c>
       <c r="AM61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>72802</v>
       </c>
       <c r="AN61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>48755</v>
       </c>
       <c r="AO61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>43393</v>
       </c>
       <c r="AP61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>33528</v>
       </c>
       <c r="AQ61" s="4">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>30250</v>
       </c>
       <c r="AR61" s="4">
-        <f t="shared" ref="AR61:AW61" si="217">AR62-AR73</f>
+        <f t="shared" ref="AR61:AW61" si="218">AR62-AR73</f>
         <v>30634</v>
       </c>
       <c r="AS61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>38603</v>
       </c>
       <c r="AT61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>51716</v>
       </c>
       <c r="AU61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>60872</v>
       </c>
       <c r="AV61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>72266</v>
       </c>
       <c r="AW61" s="4">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>77661</v>
       </c>
       <c r="BE61" s="5">
@@ -10715,35 +10710,35 @@
         <v>61867</v>
       </c>
       <c r="BF61" s="5">
-        <f t="shared" ref="BF61:BM61" si="218">+BE61+BF44</f>
+        <f t="shared" ref="BF61:BM61" si="219">+BE61+BF44</f>
         <v>137637.41950000002</v>
       </c>
       <c r="BG61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>218799.59129695001</v>
       </c>
       <c r="BH61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>313928.73862042412</v>
       </c>
       <c r="BI61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>420088.55300767126</v>
       </c>
       <c r="BJ61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>538421.85608683922</v>
       </c>
       <c r="BK61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>670186.89518653415</v>
       </c>
       <c r="BL61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>816768.91979456088</v>
       </c>
       <c r="BM61" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>979692.91667564923</v>
       </c>
     </row>
@@ -11782,145 +11777,145 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7">
-        <f t="shared" ref="G70:H70" si="219">SUM(G62:G69)</f>
+        <f t="shared" ref="G70:H70" si="220">SUM(G62:G69)</f>
         <v>301001</v>
       </c>
       <c r="H70" s="7">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>304137</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" ref="I70:K70" si="220">SUM(I62:I69)</f>
+        <f t="shared" ref="I70:K70" si="221">SUM(I62:I69)</f>
         <v>308879</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>333779</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>335418</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" ref="L70" si="221">SUM(L62:L69)</f>
+        <f t="shared" ref="L70" si="222">SUM(L62:L69)</f>
         <v>340389</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" ref="M70:T70" si="222">SUM(M62:M69)</f>
+        <f t="shared" ref="M70:T70" si="223">SUM(M62:M69)</f>
         <v>344607</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>364840</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>359784</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>364552</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>380088</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>411976</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>445785</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>470558</v>
       </c>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="AC70" s="6">
-        <f t="shared" ref="AC70:AW70" si="223">SUM(AC62:AC69)</f>
+        <f t="shared" ref="AC70:AW70" si="224">SUM(AC62:AC69)</f>
         <v>5363</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>7210</v>
       </c>
       <c r="AE70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>10093</v>
       </c>
       <c r="AF70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>14387</v>
       </c>
       <c r="AG70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>22357</v>
       </c>
       <c r="AH70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>37156</v>
       </c>
       <c r="AI70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>52150</v>
       </c>
       <c r="AJ70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>59257</v>
       </c>
       <c r="AK70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>67646</v>
       </c>
       <c r="AL70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>79571</v>
       </c>
       <c r="AM70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>92389</v>
       </c>
       <c r="AN70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>70815</v>
       </c>
       <c r="AO70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>69597</v>
       </c>
       <c r="AP70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>63171</v>
       </c>
       <c r="AQ70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>72793</v>
       </c>
       <c r="AR70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>77888</v>
       </c>
       <c r="AS70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>86113</v>
       </c>
       <c r="AT70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>108704</v>
       </c>
       <c r="AU70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>121271</v>
       </c>
       <c r="AV70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>142431</v>
       </c>
       <c r="AW70" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>172384</v>
       </c>
       <c r="BC70" s="7"/>
@@ -13088,141 +13083,141 @@
         <v>301001</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" ref="G81:H81" si="224">SUM(H72:H80)</f>
+        <f t="shared" ref="H81" si="225">SUM(H72:H80)</f>
         <v>304137</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" ref="I81:L81" si="225">SUM(I72:I80)</f>
+        <f t="shared" ref="I81:L81" si="226">SUM(I72:I80)</f>
         <v>308879</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>333779</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>335418</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>340389</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" ref="M81:S81" si="226">SUM(M72:M80)</f>
+        <f t="shared" ref="M81:S81" si="227">SUM(M72:M80)</f>
         <v>344607</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>364840</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>359784</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>364552</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>380088</v>
       </c>
       <c r="R81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>411976</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>445785</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" ref="T81" si="227">SUM(T72:T80)</f>
+        <f t="shared" ref="T81" si="228">SUM(T72:T80)</f>
         <v>470558</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="AC81" s="6">
-        <f t="shared" ref="AC81:AW81" si="228">SUM(AC72:AC80)</f>
+        <f t="shared" ref="AC81:AW81" si="229">SUM(AC72:AC80)</f>
         <v>5363</v>
       </c>
       <c r="AD81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>7210</v>
       </c>
       <c r="AE81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>10093</v>
       </c>
       <c r="AF81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>14387</v>
       </c>
       <c r="AG81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>22357</v>
       </c>
       <c r="AH81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>37156</v>
       </c>
       <c r="AI81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>52150</v>
       </c>
       <c r="AJ81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>59257</v>
       </c>
       <c r="AK81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>67646</v>
       </c>
       <c r="AL81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>79571</v>
       </c>
       <c r="AM81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>92389</v>
       </c>
       <c r="AN81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>70815</v>
       </c>
       <c r="AO81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>69597</v>
       </c>
       <c r="AP81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>63171</v>
       </c>
       <c r="AQ81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>72793</v>
       </c>
       <c r="AR81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>77888</v>
       </c>
       <c r="AS81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>86113</v>
       </c>
       <c r="AT81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>108704</v>
       </c>
       <c r="AU81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>121271</v>
       </c>
       <c r="AV81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>142431</v>
       </c>
       <c r="AW81" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>172384</v>
       </c>
       <c r="BC81" s="7"/>
@@ -13239,59 +13234,59 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
-        <f t="shared" ref="G83:H83" si="229">G44</f>
+        <f t="shared" ref="G83:H83" si="230">G44</f>
         <v>13893</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>15463</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" ref="I83:T83" si="230">I44</f>
+        <f t="shared" ref="I83:T83" si="231">I44</f>
         <v>15457</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16458</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>20505</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>18765</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16728</v>
       </c>
       <c r="N83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16740</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>17556</v>
       </c>
       <c r="P83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16425</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>18299</v>
       </c>
       <c r="R83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>20081</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>22291</v>
       </c>
       <c r="T83" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>21870</v>
       </c>
       <c r="U83" s="5"/>
@@ -13654,47 +13649,47 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
-        <f t="shared" ref="G90:H90" si="231">SUM(G84:G89)</f>
+        <f t="shared" ref="G90:H90" si="232">SUM(G84:G89)</f>
         <v>19335</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>12516</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" ref="I90:K90" si="232">SUM(I84:I89)</f>
+        <f t="shared" ref="I90:K90" si="233">SUM(I84:I89)</f>
         <v>22179</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>22710</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>24540</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" ref="L90" si="233">SUM(L84:L89)</f>
+        <f t="shared" ref="L90" si="234">SUM(L84:L89)</f>
         <v>14480</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" ref="M90:Q90" si="234">SUM(M84:M89)</f>
+        <f t="shared" ref="M90:Q90" si="235">SUM(M84:M89)</f>
         <v>25386</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>24629</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>23198</v>
       </c>
       <c r="P90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>11173</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>24441</v>
       </c>
       <c r="R90" s="5">
@@ -13977,59 +13972,59 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5">
-        <f t="shared" ref="G96:H96" si="235">SUM(G92:G95)</f>
+        <f t="shared" ref="G96:H96" si="236">SUM(G92:G95)</f>
         <v>-5371</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>-1669</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" ref="I96:L96" si="236">SUM(I92:I95)</f>
+        <f t="shared" ref="I96:L96" si="237">SUM(I92:I95)</f>
         <v>-9684</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-10853</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-3250</v>
       </c>
       <c r="L96" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-1161</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" ref="M96:T96" si="237">SUM(M92:M95)</f>
+        <f t="shared" ref="M96:T96" si="238">SUM(M92:M95)</f>
         <v>-16171</v>
       </c>
       <c r="N96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-9729</v>
       </c>
       <c r="O96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-3132</v>
       </c>
       <c r="P96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-7150</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-3264</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-9134</v>
       </c>
       <c r="S96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>503</v>
       </c>
       <c r="T96" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-71925</v>
       </c>
       <c r="BC96" s="5"/>
@@ -14337,23 +14332,23 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
-        <f t="shared" ref="G103:H103" si="238">SUM(G98:G102)</f>
+        <f t="shared" ref="G103:H103" si="239">SUM(G98:G102)</f>
         <v>-10289</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-13634</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" ref="I103:K103" si="239">SUM(I98:I102)</f>
+        <f t="shared" ref="I103:K103" si="240">SUM(I98:I102)</f>
         <v>-13192</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-11371</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-16276</v>
       </c>
       <c r="L103" s="5">
@@ -14377,19 +14372,19 @@
         <v>-11349</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" ref="Q103:T103" si="240">SUM(Q98:Q102)</f>
+        <f t="shared" ref="Q103:T103" si="241">SUM(Q98:Q102)</f>
         <v>-10290</v>
       </c>
       <c r="R103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-11413</v>
       </c>
       <c r="S103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>14761</v>
       </c>
       <c r="T103" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-10147</v>
       </c>
       <c r="BC103" s="5"/>
@@ -14449,23 +14444,23 @@
         <v>67</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" ref="G105:H105" si="241">G103+G104+G96+G90</f>
+        <f t="shared" ref="G105:H105" si="242">G103+G104+G96+G90</f>
         <v>3629</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-2773</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" ref="I105:K105" si="242">I103+I104+I96+I90</f>
+        <f t="shared" ref="I105:K105" si="243">I103+I104+I96+I90</f>
         <v>-730</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>522</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>4941</v>
       </c>
       <c r="L105" s="5">
@@ -14489,19 +14484,19 @@
         <v>-7238</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" ref="Q105:T105" si="243">Q103+Q104+Q96+Q90</f>
+        <f t="shared" ref="Q105:T105" si="244">Q103+Q104+Q96+Q90</f>
         <v>10916</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>8142</v>
       </c>
       <c r="S105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>45748</v>
       </c>
       <c r="T105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-63147</v>
       </c>
     </row>
@@ -14510,23 +14505,23 @@
         <v>72</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:K107" si="244">G90+G92</f>
+        <f t="shared" ref="G107:K107" si="245">G90+G92</f>
         <v>14428</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>8342</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>17090</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>16258</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>18730</v>
       </c>
       <c r="L107" s="5">
@@ -14534,11 +14529,11 @@
         <v>8615</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:N107" si="245">M90+M92</f>
+        <f t="shared" ref="M107:N107" si="246">M90+M92</f>
         <v>20046</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>17758</v>
       </c>
       <c r="O107" s="5">
@@ -14550,19 +14545,19 @@
         <v>4899</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" ref="Q107:T107" si="246">Q90+Q92</f>
+        <f t="shared" ref="Q107:T107" si="247">Q90+Q92</f>
         <v>17834</v>
       </c>
       <c r="R107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>19827</v>
       </c>
       <c r="S107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>20666</v>
       </c>
       <c r="T107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>9118</v>
       </c>
     </row>
@@ -14571,43 +14566,43 @@
         <v>103</v>
       </c>
       <c r="K108" s="4">
-        <f>SUM(H107:K107)</f>
+        <f t="shared" ref="K108:P108" si="248">SUM(H107:K107)</f>
         <v>60420</v>
       </c>
       <c r="L108" s="4">
-        <f>SUM(I107:L107)</f>
+        <f t="shared" si="248"/>
         <v>60693</v>
       </c>
       <c r="M108" s="4">
-        <f>SUM(J107:M107)</f>
+        <f t="shared" si="248"/>
         <v>63649</v>
       </c>
       <c r="N108" s="4">
-        <f>SUM(K107:N107)</f>
+        <f t="shared" si="248"/>
         <v>65149</v>
       </c>
       <c r="O108" s="4">
-        <f>SUM(L107:O107)</f>
+        <f t="shared" si="248"/>
         <v>63334</v>
       </c>
       <c r="P108" s="4">
-        <f>SUM(M107:P107)</f>
+        <f t="shared" si="248"/>
         <v>59618</v>
       </c>
       <c r="Q108" s="4">
-        <f t="shared" ref="Q108:T108" si="247">SUM(N107:Q107)</f>
+        <f t="shared" ref="Q108:T108" si="249">SUM(N107:Q107)</f>
         <v>57406</v>
       </c>
       <c r="R108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>59475</v>
       </c>
       <c r="S108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>63226</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="247"/>
+        <f t="shared" si="249"/>
         <v>67445</v>
       </c>
     </row>
@@ -14616,27 +14611,27 @@
         <v>465</v>
       </c>
       <c r="O109" s="12">
-        <f>+O108/K108-1</f>
+        <f t="shared" ref="O109:T109" si="250">+O108/K108-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="P109" s="12">
-        <f>+P108/L108-1</f>
+        <f t="shared" si="250"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="Q109" s="12">
-        <f>+Q108/M108-1</f>
+        <f t="shared" si="250"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="R109" s="12">
-        <f>+R108/N108-1</f>
+        <f t="shared" si="250"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="S109" s="12">
-        <f>+S108/O108-1</f>
+        <f t="shared" si="250"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="T109" s="12">
-        <f>+T108/P108-1</f>
+        <f t="shared" si="250"/>
         <v>0.13128585326579212</v>
       </c>
     </row>
@@ -14645,39 +14640,39 @@
         <v>466</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110:S110" si="248">SUM(H92:K92)</f>
+        <f t="shared" ref="K110:S110" si="251">SUM(H92:K92)</f>
         <v>-21525</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-23216</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-23467</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-23886</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-24359</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-24768</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-26035</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-28107</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="248"/>
+        <f t="shared" si="251"/>
         <v>-31741</v>
       </c>
       <c r="T110" s="4">
@@ -14690,23 +14685,23 @@
         <v>465</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111:S111" si="249">+O110/K110-1</f>
+        <f t="shared" ref="O111:S111" si="252">+O110/K110-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" si="249"/>
+        <f t="shared" si="252"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="T111" s="12">
@@ -14914,95 +14909,95 @@
         <v>2</v>
       </c>
       <c r="AC117" s="4">
-        <f t="shared" ref="AC117:AY117" si="250">AC116*AC46</f>
+        <f t="shared" ref="AC117:AY117" si="253">AC116*AC46</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AE117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AF117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AG117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AH117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AI117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>298261.112605042</v>
       </c>
       <c r="AJ117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AK117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AL117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AM117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AN117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AO117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AP117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AQ117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AR117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AS117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AT117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AU117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AV117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>206380.61592027853</v>
       </c>
       <c r="AW117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>290064.69972083991</v>
       </c>
       <c r="AX117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY117" s="4">
-        <f t="shared" si="250"/>
+        <f t="shared" si="253"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15011,95 +15006,95 @@
         <v>5</v>
       </c>
       <c r="AC118" s="4">
-        <f t="shared" ref="AC118:AY118" si="251">AC117-AC61</f>
+        <f t="shared" ref="AC118:AY118" si="254">AC117-AC61</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AE118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AF118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AG118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AH118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AI118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>256737.112605042</v>
       </c>
       <c r="AJ118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AK118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AL118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AM118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AN118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AO118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AP118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AQ118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AR118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AS118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AT118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>134114.61592027853</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>212403.69972083991</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>377052.05051894463</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="254"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -15108,95 +15103,95 @@
         <v>223</v>
       </c>
       <c r="AC119" s="24">
-        <f t="shared" ref="AC119:AY119" si="252">AC118/AC44</f>
+        <f t="shared" ref="AC119:AY119" si="255">AC118/AC44</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AD119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AE119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AF119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AG119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AH119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AI119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AJ119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AK119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AL119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AM119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AN119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AO119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AP119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AQ119" s="24">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AR119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AS119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AT119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AU119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AV119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="AW119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="AX119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>16.98126691222053</v>
       </c>
       <c r="AY119" s="25">
-        <f t="shared" si="252"/>
+        <f t="shared" si="255"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EB747-AFEF-4DD0-8336-8940CA0DB7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA9D46-BA89-48C0-A206-A0DD528639F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43140" yWindow="225" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-30960" yWindow="630" windowWidth="29895" windowHeight="18795" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,7 @@
     <author>tc={6550F107-B2DD-468B-9840-A88B103B8C6E}</author>
     <author>tc={B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}</author>
     <author>tc={672EF133-CF99-4F62-BC53-D74F59EFAF45}</author>
+    <author>tc={5ABABD65-6006-454E-8377-B6AC9472B498}</author>
     <author>tc={667BC7EE-5E86-47FC-B964-2C031A25E303}</author>
     <author>tc={7492A336-ABB9-4529-8350-AF762E5855FF}</author>
     <author>tc={9D309CA1-66AA-4222-B1F7-ACD53E16B28F}</author>
@@ -385,7 +386,15 @@
 FQ323 Guidance: 54.850-55.80B</t>
       </text>
     </comment>
-    <comment ref="S34" authorId="34" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
+    <comment ref="BH31" authorId="34" shapeId="0" xr:uid="{5ABABD65-6006-454E-8377-B6AC9472B498}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    March 2022 - Nuance deal closes</t>
+      </text>
+    </comment>
+    <comment ref="S34" authorId="35" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -393,7 +402,7 @@
     16.6-16.8B - Q423</t>
       </text>
     </comment>
-    <comment ref="BK40" authorId="35" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
+    <comment ref="BK40" authorId="36" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -401,7 +410,7 @@
     Expect flat OM% y/y</t>
       </text>
     </comment>
-    <comment ref="BK43" authorId="36" shapeId="0" xr:uid="{9D309CA1-66AA-4222-B1F7-ACD53E16B28F}">
+    <comment ref="BK43" authorId="37" shapeId="0" xr:uid="{9D309CA1-66AA-4222-B1F7-ACD53E16B28F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +418,7 @@
     19% guidance - Q423</t>
       </text>
     </comment>
-    <comment ref="R45" authorId="37" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
+    <comment ref="R45" authorId="38" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -417,7 +426,7 @@
     2.69 +23% cc</t>
       </text>
     </comment>
-    <comment ref="V48" authorId="38" shapeId="0" xr:uid="{60BBB455-AF74-4D2F-A66E-A8D4E4D10C30}">
+    <comment ref="V48" authorId="39" shapeId="0" xr:uid="{60BBB455-AF74-4D2F-A66E-A8D4E4D10C30}">
       <text>
         <r>
           <rPr>
@@ -441,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P49" authorId="39" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
+    <comment ref="P49" authorId="40" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -449,7 +458,7 @@
     Bookings +4% y/y</t>
       </text>
     </comment>
-    <comment ref="R51" authorId="40" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
+    <comment ref="R51" authorId="41" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2017,7 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2090,6 +2099,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2640,6 +2655,9 @@
     <text>4/24/23: 54.84B consensus
 FQ323 Guidance: 54.850-55.80B</text>
   </threadedComment>
+  <threadedComment ref="BH31" dT="2024-09-28T03:46:02.83" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{5ABABD65-6006-454E-8377-B6AC9472B498}">
+    <text>March 2022 - Nuance deal closes</text>
+  </threadedComment>
   <threadedComment ref="S34" dT="2023-09-28T18:52:48.38" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
     <text>16.6-16.8B - Q423</text>
   </threadedComment>
@@ -2990,11 +3008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:DW124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W45" sqref="W45"/>
+      <selection pane="bottomRight" activeCell="BJ8" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3675,15 +3693,27 @@
       <c r="AW7" s="20"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="38">
+        <v>9500</v>
+      </c>
+      <c r="BD7" s="38">
+        <v>16200</v>
+      </c>
+      <c r="BE7" s="38">
+        <v>26600</v>
+      </c>
+      <c r="BF7" s="38">
+        <v>38100</v>
+      </c>
+      <c r="BG7" s="38">
+        <v>51700</v>
+      </c>
+      <c r="BH7" s="38">
+        <v>69100</v>
+      </c>
       <c r="BI7" s="5">
         <f>SUM(K7:N7)</f>
         <v>91300</v>
@@ -3771,12 +3801,24 @@
       <c r="AW8" s="20"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
+      <c r="AZ8" s="38">
+        <v>15408</v>
+      </c>
+      <c r="BA8" s="38">
+        <v>17055</v>
+      </c>
+      <c r="BB8" s="38">
+        <v>18612</v>
+      </c>
+      <c r="BC8" s="38">
+        <v>19062</v>
+      </c>
+      <c r="BD8" s="38">
+        <v>21649</v>
+      </c>
+      <c r="BE8" s="38">
+        <v>26129</v>
+      </c>
       <c r="BF8" s="5">
         <v>32622</v>
       </c>
@@ -3871,12 +3913,24 @@
       <c r="AW9" s="20"/>
       <c r="AX9" s="20"/>
       <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
+      <c r="AZ9" s="38">
+        <v>22995</v>
+      </c>
+      <c r="BA9" s="38">
+        <v>24323</v>
+      </c>
+      <c r="BB9" s="38">
+        <v>23538</v>
+      </c>
+      <c r="BC9" s="38">
+        <v>23868</v>
+      </c>
+      <c r="BD9" s="38">
+        <v>25573</v>
+      </c>
+      <c r="BE9" s="38">
+        <v>28316</v>
+      </c>
       <c r="BF9" s="5">
         <v>31769</v>
       </c>
@@ -3971,12 +4025,24 @@
       <c r="AW10" s="20"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
+      <c r="AZ10" s="38">
+        <v>17259</v>
+      </c>
+      <c r="BA10" s="38">
+        <v>16856</v>
+      </c>
+      <c r="BB10" s="38">
+        <v>14826</v>
+      </c>
+      <c r="BC10" s="38">
+        <v>17548</v>
+      </c>
+      <c r="BD10" s="38">
+        <v>18593</v>
+      </c>
+      <c r="BE10" s="38">
+        <v>19518</v>
+      </c>
       <c r="BF10" s="5">
         <v>20395</v>
       </c>
@@ -4071,12 +4137,24 @@
       <c r="AW11" s="20"/>
       <c r="AX11" s="20"/>
       <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="20"/>
+      <c r="AZ11" s="38">
+        <v>6149</v>
+      </c>
+      <c r="BA11" s="38">
+        <v>9093</v>
+      </c>
+      <c r="BB11" s="38">
+        <v>10183</v>
+      </c>
+      <c r="BC11" s="38">
+        <v>9202</v>
+      </c>
+      <c r="BD11" s="38">
+        <v>9051</v>
+      </c>
+      <c r="BE11" s="38">
+        <v>10353</v>
+      </c>
       <c r="BF11" s="5">
         <v>11386</v>
       </c>
@@ -4171,12 +4249,24 @@
       <c r="AW12" s="20"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
+      <c r="AZ12" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="38">
+        <v>2271</v>
+      </c>
+      <c r="BE12" s="38">
+        <v>5259</v>
+      </c>
       <c r="BF12" s="5">
         <v>6754</v>
       </c>
@@ -4271,12 +4361,20 @@
       <c r="AW13" s="20"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
+      <c r="AZ13" s="38">
+        <v>3387</v>
+      </c>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="38">
+        <v>5428</v>
+      </c>
+      <c r="BD13" s="38">
+        <v>6219</v>
+      </c>
+      <c r="BE13" s="38">
+        <v>7012</v>
+      </c>
       <c r="BF13" s="5">
         <v>7628</v>
       </c>
@@ -4371,12 +4469,18 @@
       <c r="AW14" s="20"/>
       <c r="AX14" s="20"/>
       <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="20"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="38">
+        <v>5659</v>
+      </c>
+      <c r="BD14" s="38">
+        <v>5542</v>
+      </c>
+      <c r="BE14" s="38">
+        <v>5846</v>
+      </c>
       <c r="BF14" s="5">
         <v>6124</v>
       </c>
@@ -4471,12 +4575,12 @@
       <c r="AW15" s="20"/>
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="20"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
       <c r="BF15" s="5">
         <v>3070</v>
       </c>
@@ -4571,12 +4675,24 @@
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="20"/>
+      <c r="AZ16" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="38">
+        <v>1982</v>
+      </c>
+      <c r="BB16" s="38">
+        <v>7524</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>7888</v>
+      </c>
+      <c r="BD16" s="5">
+        <v>5062</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>5134</v>
+      </c>
       <c r="BF16" s="5">
         <v>6095</v>
       </c>
@@ -4671,12 +4787,12 @@
       <c r="AW17" s="20"/>
       <c r="AX17" s="20"/>
       <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20"/>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="20"/>
-      <c r="BE17" s="20"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
       <c r="BF17" s="5">
         <v>0</v>
       </c>
@@ -4729,14 +4845,14 @@
       <c r="AW18" s="20"/>
       <c r="AX18" s="20"/>
       <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
       <c r="BH18" s="5"/>
       <c r="BI18" s="5"/>
       <c r="BJ18" s="5"/>
@@ -4800,17 +4916,17 @@
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="21"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
       <c r="BK19" s="20"/>
       <c r="BL19" s="20"/>
       <c r="BM19" s="20"/>
@@ -15867,7 +15983,7 @@
         <v>10.844894848746359</v>
       </c>
       <c r="AX119" s="25">
-        <f t="shared" si="245"/>
+        <f>AX118/AX44</f>
         <v>6.9978956611138807</v>
       </c>
       <c r="AY119" s="25">

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622EA1FE-EDBD-4DA8-B4B9-C123D4C404CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9568D5-6EDA-4F9F-BBD1-BE56B53582F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="510" windowWidth="27210" windowHeight="17880" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-30120" yWindow="1275" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3126,10 +3126,10 @@
   <dimension ref="A1:DW125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z45" sqref="W45:Z45"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5436,11 +5436,11 @@
         <v>28850</v>
       </c>
       <c r="Y26" s="4">
-        <f>+U26*1.1</f>
+        <f t="shared" ref="Y26:Z28" si="8">+U26*1.1</f>
         <v>21527</v>
       </c>
       <c r="Z26" s="4">
-        <f>+V26*1.1</f>
+        <f t="shared" si="8"/>
         <v>22348.7</v>
       </c>
       <c r="AE26" s="4">
@@ -5540,11 +5540,11 @@
         <v>25700</v>
       </c>
       <c r="Y27" s="4">
-        <f>+U27*1.1</f>
+        <f t="shared" si="8"/>
         <v>29378.800000000003</v>
       </c>
       <c r="Z27" s="4">
-        <f>+V27*1.1</f>
+        <f t="shared" si="8"/>
         <v>31366.500000000004</v>
       </c>
       <c r="BG27" s="5"/>
@@ -5553,7 +5553,7 @@
         <v>60080</v>
       </c>
       <c r="BI27" s="5">
-        <f t="shared" ref="BI27:BI34" si="8">SUM(K27:N27)</f>
+        <f t="shared" ref="BI27:BI34" si="9">SUM(K27:N27)</f>
         <v>75030</v>
       </c>
       <c r="BJ27" s="5">
@@ -5635,11 +5635,11 @@
         <v>14050</v>
       </c>
       <c r="Y28" s="4">
-        <f>+U28*1.1</f>
+        <f t="shared" si="8"/>
         <v>17138</v>
       </c>
       <c r="Z28" s="4">
-        <f>+V28*1.1</f>
+        <f t="shared" si="8"/>
         <v>17484.5</v>
       </c>
       <c r="AE28" s="4">
@@ -5657,7 +5657,7 @@
         <v>54093</v>
       </c>
       <c r="BI28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59876</v>
       </c>
       <c r="BJ28" s="5">
@@ -5736,15 +5736,15 @@
         <v>15272</v>
       </c>
       <c r="X30" s="4">
-        <f>+T30*1.11</f>
+        <f t="shared" ref="X30:Z31" si="10">+T30*1.11</f>
         <v>21024.510000000002</v>
       </c>
       <c r="Y30" s="4">
-        <f>+U30*1.11</f>
+        <f t="shared" si="10"/>
         <v>18958.800000000003</v>
       </c>
       <c r="Z30" s="4">
-        <f>+V30*1.11</f>
+        <f t="shared" si="10"/>
         <v>14670.87</v>
       </c>
       <c r="BC30" s="4">
@@ -5767,7 +5767,7 @@
         <v>71074</v>
       </c>
       <c r="BI30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72732</v>
       </c>
       <c r="BJ30" s="5">
@@ -5779,27 +5779,27 @@
         <v>66639.97</v>
       </c>
       <c r="BL30" s="5">
-        <f t="shared" ref="BL30:BQ30" si="9">+BK30*1.03</f>
+        <f t="shared" ref="BL30:BQ30" si="11">+BK30*1.03</f>
         <v>68639.169099999999</v>
       </c>
       <c r="BM30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70698.344173000005</v>
       </c>
       <c r="BN30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72819.294498190007</v>
       </c>
       <c r="BO30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75003.873333135707</v>
       </c>
       <c r="BP30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>77253.989533129774</v>
       </c>
       <c r="BQ30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>79571.609219123668</v>
       </c>
     </row>
@@ -5871,15 +5871,15 @@
         <v>50313</v>
       </c>
       <c r="X31" s="4">
-        <f>+T31*1.11</f>
+        <f t="shared" si="10"/>
         <v>47817.69</v>
       </c>
       <c r="Y31" s="4">
-        <f>+U31*1.11</f>
+        <f t="shared" si="10"/>
         <v>49703.58</v>
       </c>
       <c r="Z31" s="4">
-        <f>+V31*1.11</f>
+        <f t="shared" si="10"/>
         <v>57176.100000000006</v>
       </c>
       <c r="BC31" s="4">
@@ -5902,7 +5902,7 @@
         <v>97014</v>
       </c>
       <c r="BI31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>125538</v>
       </c>
       <c r="BJ31" s="5">
@@ -5918,23 +5918,23 @@
         <v>186228.24000000002</v>
       </c>
       <c r="BM31" s="5">
-        <f t="shared" ref="BM31:BQ31" si="10">+BL31*1.1</f>
+        <f t="shared" ref="BM31:BQ31" si="12">+BL31*1.1</f>
         <v>204851.06400000004</v>
       </c>
       <c r="BN31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>225336.17040000006</v>
       </c>
       <c r="BO31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>247869.78744000007</v>
       </c>
       <c r="BP31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>272656.76618400012</v>
       </c>
       <c r="BQ31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>299922.44280240015</v>
       </c>
     </row>
@@ -5943,43 +5943,43 @@
         <v>8</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:D32" si="11">C30+C31</f>
+        <f t="shared" ref="C32:D32" si="13">C30+C31</f>
         <v>33055</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36906</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" ref="E32" si="12">E30+E31</f>
+        <f t="shared" ref="E32" si="14">E30+E31</f>
         <v>35021</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:G32" si="13">F30+F31</f>
+        <f t="shared" ref="F32:G32" si="15">F30+F31</f>
         <v>38033</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37154</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" ref="H32:L32" si="14">H30+H31</f>
+        <f t="shared" ref="H32:L32" si="16">H30+H31</f>
         <v>43076</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>41706</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>46152</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45317</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>51728</v>
       </c>
       <c r="M32" s="7">
@@ -5987,11 +5987,11 @@
         <v>49360</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" ref="N32:Z32" si="15">N30+N31</f>
+        <f t="shared" ref="N32:Z32" si="17">N30+N31</f>
         <v>51865</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50122</v>
       </c>
       <c r="P32" s="7">
@@ -6003,11 +6003,11 @@
         <v>52857</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56189</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56517</v>
       </c>
       <c r="T32" s="7">
@@ -6015,27 +6015,27 @@
         <v>62020</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>61858</v>
       </c>
       <c r="V32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>64727</v>
       </c>
       <c r="W32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>65585</v>
       </c>
       <c r="X32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>68842.200000000012</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>68662.38</v>
       </c>
       <c r="Z32" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>71846.97</v>
       </c>
       <c r="AC32" s="6">
@@ -6121,59 +6121,59 @@
         <v>85320</v>
       </c>
       <c r="BD32" s="7">
-        <f t="shared" ref="BD32:BJ32" si="16">+BD31+BD30</f>
+        <f t="shared" ref="BD32:BJ32" si="18">+BD31+BD30</f>
         <v>96571</v>
       </c>
       <c r="BE32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>110360</v>
       </c>
       <c r="BF32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>125843</v>
       </c>
       <c r="BG32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>143015</v>
       </c>
       <c r="BH32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>168088</v>
       </c>
       <c r="BI32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>198270</v>
       </c>
       <c r="BJ32" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>211915</v>
       </c>
       <c r="BK32" s="7">
-        <f t="shared" ref="BK32:BQ32" si="17">+BK31+BK30</f>
+        <f t="shared" ref="BK32:BQ32" si="19">+BK31+BK30</f>
         <v>235938.37</v>
       </c>
       <c r="BL32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>254867.40910000002</v>
       </c>
       <c r="BM32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>275549.40817300003</v>
       </c>
       <c r="BN32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>298155.46489819005</v>
       </c>
       <c r="BO32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>322873.66077313578</v>
       </c>
       <c r="BP32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>349910.75571712991</v>
       </c>
       <c r="BQ32" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>379494.05202152382</v>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
         <v>18219</v>
       </c>
       <c r="BI33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19064</v>
       </c>
       <c r="BJ33" s="5">
@@ -6276,27 +6276,27 @@
         <v>16659.9925</v>
       </c>
       <c r="BL33" s="5">
-        <f t="shared" ref="BL33:BQ33" si="18">BL30*0.25</f>
+        <f t="shared" ref="BL33:BQ33" si="20">BL30*0.25</f>
         <v>17159.792275</v>
       </c>
       <c r="BM33" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17674.586043250001</v>
       </c>
       <c r="BN33" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18204.823624547502</v>
       </c>
       <c r="BO33" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18750.968333283927</v>
       </c>
       <c r="BP33" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19313.497383282443</v>
       </c>
       <c r="BQ33" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>19892.902304780917</v>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
         <v>34013</v>
       </c>
       <c r="BI34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43586</v>
       </c>
       <c r="BJ34" s="5">
@@ -6399,27 +6399,27 @@
         <v>59254.439999999995</v>
       </c>
       <c r="BL34" s="5">
-        <f t="shared" ref="BL34:BQ34" si="19">BL31*0.35</f>
+        <f t="shared" ref="BL34:BQ34" si="21">BL31*0.35</f>
         <v>65179.884000000005</v>
       </c>
       <c r="BM34" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71697.872400000007</v>
       </c>
       <c r="BN34" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>78867.659640000013</v>
       </c>
       <c r="BO34" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>86754.425604000018</v>
       </c>
       <c r="BP34" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>95429.868164400032</v>
       </c>
       <c r="BQ34" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>104972.85498084004</v>
       </c>
     </row>
@@ -6440,15 +6440,15 @@
         <v>10975</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" ref="F35" si="20">F33+F34</f>
+        <f t="shared" ref="F35" si="22">F33+F34</f>
         <v>12339</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" ref="G35:H35" si="21">G33+G34</f>
+        <f t="shared" ref="G35:H35" si="23">G33+G34</f>
         <v>11002</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14194</v>
       </c>
       <c r="I35" s="5">
@@ -6456,23 +6456,23 @@
         <v>13045</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" ref="J35:M35" si="22">J33+J34</f>
+        <f t="shared" ref="J35:M35" si="24">J33+J34</f>
         <v>13991</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>13646</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16960</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>15615</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" ref="N35" si="23">N33+N34</f>
+        <f t="shared" ref="N35" si="25">N33+N34</f>
         <v>16429</v>
       </c>
       <c r="O35" s="5">
@@ -6593,31 +6593,31 @@
         <v>33038</v>
       </c>
       <c r="BC35" s="5">
-        <f t="shared" ref="BC35" si="24">BC33+BC34</f>
+        <f t="shared" ref="BC35" si="26">BC33+BC34</f>
         <v>32780</v>
       </c>
       <c r="BD35" s="5">
-        <f t="shared" ref="BD35:BE35" si="25">BD33+BD34</f>
+        <f t="shared" ref="BD35:BE35" si="27">BD33+BD34</f>
         <v>34261</v>
       </c>
       <c r="BE35" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>38353</v>
       </c>
       <c r="BF35" s="5">
-        <f t="shared" ref="BF35:BG35" si="26">BF33+BF34</f>
+        <f t="shared" ref="BF35:BG35" si="28">BF33+BF34</f>
         <v>42910</v>
       </c>
       <c r="BG35" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>46078</v>
       </c>
       <c r="BH35" s="5">
-        <f t="shared" ref="BH35:BI35" si="27">BH33+BH34</f>
+        <f t="shared" ref="BH35:BI35" si="29">BH33+BH34</f>
         <v>52232</v>
       </c>
       <c r="BI35" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>62650</v>
       </c>
       <c r="BJ35" s="5">
@@ -6633,23 +6633,23 @@
         <v>84106.245002999989</v>
       </c>
       <c r="BM35" s="5">
-        <f t="shared" ref="BM35:BQ35" si="28">+BM32-BM36</f>
+        <f t="shared" ref="BM35:BQ35" si="30">+BM32-BM36</f>
         <v>90931.304697090003</v>
       </c>
       <c r="BN35" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>98391.303416402719</v>
       </c>
       <c r="BO35" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>106548.30805513478</v>
       </c>
       <c r="BP35" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>115470.54938665286</v>
       </c>
       <c r="BQ35" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>125233.03716710286</v>
       </c>
     </row>
@@ -6670,15 +6670,15 @@
         <v>24046</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36" si="29">F32-F35</f>
+        <f t="shared" ref="F36" si="31">F32-F35</f>
         <v>25694</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" ref="G36:H36" si="30">G32-G35</f>
+        <f t="shared" ref="G36:H36" si="32">G32-G35</f>
         <v>26152</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>28882</v>
       </c>
       <c r="I36" s="5">
@@ -6686,23 +6686,23 @@
         <v>28661</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36:M36" si="31">J32-J35</f>
+        <f t="shared" ref="J36:M36" si="33">J32-J35</f>
         <v>32161</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>31671</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>34768</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>33745</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36" si="32">N32-N35</f>
+        <f t="shared" ref="N36" si="34">N32-N35</f>
         <v>35436</v>
       </c>
       <c r="O36" s="5">
@@ -6722,27 +6722,27 @@
         <v>39394</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" ref="S36:X36" si="33">+S32-S35</f>
+        <f t="shared" ref="S36:X36" si="35">+S32-S35</f>
         <v>40215</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>42397</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>43353</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>45043</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>45486</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>46842.200000000012</v>
       </c>
       <c r="Y36" s="4">
@@ -6754,135 +6754,135 @@
         <v>49574.409299999999</v>
       </c>
       <c r="AC36" s="4">
-        <f t="shared" ref="AC36:AI36" si="34">AC32-AC35</f>
+        <f t="shared" ref="AC36:AI36" si="36">AC32-AC35</f>
         <v>930</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1481</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2292</v>
       </c>
       <c r="AF36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3120</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3886</v>
       </c>
       <c r="AH36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5060</v>
       </c>
       <c r="AI36" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7483</v>
       </c>
       <c r="AJ36" s="4">
-        <f t="shared" ref="AJ36" si="35">AJ32-AJ35</f>
+        <f t="shared" ref="AJ36" si="37">AJ32-AJ35</f>
         <v>10273</v>
       </c>
       <c r="AK36" s="4">
-        <f t="shared" ref="AK36:BB36" si="36">AK32-AK35</f>
+        <f t="shared" ref="AK36:BB36" si="38">AK32-AK35</f>
         <v>13287</v>
       </c>
       <c r="AL36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16933</v>
       </c>
       <c r="AM36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>19954</v>
       </c>
       <c r="AN36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>21841</v>
       </c>
       <c r="AO36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>23174</v>
       </c>
       <c r="AP36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>26501</v>
       </c>
       <c r="AQ36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>30119</v>
       </c>
       <c r="AR36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>33588</v>
       </c>
       <c r="AS36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>36632</v>
       </c>
       <c r="AT36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>40429</v>
       </c>
       <c r="AU36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>48822</v>
       </c>
       <c r="AV36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>46282</v>
       </c>
       <c r="AW36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50089</v>
       </c>
       <c r="AX36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>54366</v>
       </c>
       <c r="AY36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>56193</v>
       </c>
       <c r="AZ36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>57600</v>
       </c>
       <c r="BA36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>59899</v>
       </c>
       <c r="BB36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>60542</v>
       </c>
       <c r="BC36" s="5">
-        <f t="shared" ref="BC36" si="37">BC32-BC35</f>
+        <f t="shared" ref="BC36" si="39">BC32-BC35</f>
         <v>52540</v>
       </c>
       <c r="BD36" s="5">
-        <f t="shared" ref="BD36:BE36" si="38">BD32-BD35</f>
+        <f t="shared" ref="BD36:BE36" si="40">BD32-BD35</f>
         <v>62310</v>
       </c>
       <c r="BE36" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>72007</v>
       </c>
       <c r="BF36" s="5">
-        <f t="shared" ref="BF36:BG36" si="39">BF32-BF35</f>
+        <f t="shared" ref="BF36:BG36" si="41">BF32-BF35</f>
         <v>82933</v>
       </c>
       <c r="BG36" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>96937</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" ref="BH36:BI36" si="40">BH32-BH35</f>
+        <f t="shared" ref="BH36:BI36" si="42">BH32-BH35</f>
         <v>115856</v>
       </c>
       <c r="BI36" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>135620</v>
       </c>
       <c r="BJ36" s="5">
@@ -6890,31 +6890,31 @@
         <v>146052</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" ref="BK36:BQ36" si="41">+BK32*0.67</f>
+        <f t="shared" ref="BK36:BQ36" si="43">+BK32*0.67</f>
         <v>158078.70790000001</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>170761.16409700003</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>184618.10347591003</v>
       </c>
       <c r="BN36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>199764.16148178733</v>
       </c>
       <c r="BO36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>216325.352718001</v>
       </c>
       <c r="BP36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>234440.20633047706</v>
       </c>
       <c r="BQ36" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>254261.01485442097</v>
       </c>
     </row>
@@ -6986,15 +6986,15 @@
         <v>7544</v>
       </c>
       <c r="X37" s="4">
-        <f>+T37*1.07</f>
+        <f t="shared" ref="X37:Z39" si="44">+T37*1.07</f>
         <v>7641.9400000000005</v>
       </c>
       <c r="Y37" s="4">
-        <f>+U37*1.07</f>
+        <f t="shared" si="44"/>
         <v>8188.71</v>
       </c>
       <c r="Z37" s="4">
-        <f>+V37*1.07</f>
+        <f t="shared" si="44"/>
         <v>8619.92</v>
       </c>
       <c r="AC37" s="4">
@@ -7095,11 +7095,11 @@
         <v>20716</v>
       </c>
       <c r="BI37" s="5">
-        <f t="shared" ref="BI37:BI39" si="42">SUM(K37:N37)</f>
+        <f t="shared" ref="BI37:BI39" si="45">SUM(K37:N37)</f>
         <v>24512</v>
       </c>
       <c r="BJ37" s="5">
-        <f t="shared" ref="BJ37:BJ39" si="43">SUM(O37:R37)</f>
+        <f t="shared" ref="BJ37:BJ39" si="46">SUM(O37:R37)</f>
         <v>27195</v>
       </c>
       <c r="BK37" s="5">
@@ -7107,27 +7107,27 @@
         <v>28010.850000000002</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" ref="BL37:BQ37" si="44">+BK37*1.03</f>
+        <f t="shared" ref="BL37:BQ37" si="47">+BK37*1.03</f>
         <v>28851.175500000001</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>29716.710765000003</v>
       </c>
       <c r="BN37" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>30608.212087950003</v>
       </c>
       <c r="BO37" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>31526.458450588503</v>
       </c>
       <c r="BP37" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>32472.25220410616</v>
       </c>
       <c r="BQ37" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>33446.419770229346</v>
       </c>
     </row>
@@ -7199,15 +7199,15 @@
         <v>5717</v>
       </c>
       <c r="X38" s="4">
-        <f>+T38*1.07</f>
+        <f t="shared" si="44"/>
         <v>6683.22</v>
       </c>
       <c r="Y38" s="4">
-        <f>+U38*1.07</f>
+        <f t="shared" si="44"/>
         <v>6641.4900000000007</v>
       </c>
       <c r="Z38" s="4">
-        <f>+V38*1.07</f>
+        <f t="shared" si="44"/>
         <v>7293.1200000000008</v>
       </c>
       <c r="AC38" s="4">
@@ -7308,11 +7308,11 @@
         <v>20117</v>
       </c>
       <c r="BI38" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>21825</v>
       </c>
       <c r="BJ38" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>22759</v>
       </c>
       <c r="BK38" s="5">
@@ -7320,27 +7320,27 @@
         <v>23441.77</v>
       </c>
       <c r="BL38" s="5">
-        <f t="shared" ref="BL38:BQ38" si="45">+BK38*1.03</f>
+        <f t="shared" ref="BL38:BQ38" si="48">+BK38*1.03</f>
         <v>24145.023100000002</v>
       </c>
       <c r="BM38" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>24869.373793000002</v>
       </c>
       <c r="BN38" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>25615.455006790002</v>
       </c>
       <c r="BO38" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>26383.918656993701</v>
       </c>
       <c r="BP38" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>27175.436216703514</v>
       </c>
       <c r="BQ38" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>27990.699303204619</v>
       </c>
     </row>
@@ -7412,15 +7412,15 @@
         <v>1673</v>
       </c>
       <c r="X39" s="4">
-        <f>+T39*1.07</f>
+        <f t="shared" si="44"/>
         <v>2115.3900000000003</v>
       </c>
       <c r="Y39" s="4">
-        <f>+U39*1.07</f>
+        <f t="shared" si="44"/>
         <v>2045.8400000000001</v>
       </c>
       <c r="Z39" s="4">
-        <f>+V39*1.07</f>
+        <f t="shared" si="44"/>
         <v>2403.2200000000003</v>
       </c>
       <c r="AC39" s="4">
@@ -7521,11 +7521,11 @@
         <v>5107</v>
       </c>
       <c r="BI39" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5900</v>
       </c>
       <c r="BJ39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7575</v>
       </c>
       <c r="BK39" s="5">
@@ -7533,27 +7533,27 @@
         <v>7802.25</v>
       </c>
       <c r="BL39" s="5">
-        <f t="shared" ref="BL39:BQ39" si="46">+BK39*1.03</f>
+        <f t="shared" ref="BL39:BQ39" si="49">+BK39*1.03</f>
         <v>8036.3175000000001</v>
       </c>
       <c r="BM39" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8277.4070250000004</v>
       </c>
       <c r="BN39" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8525.729235750001</v>
       </c>
       <c r="BO39" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8781.5011128225015</v>
       </c>
       <c r="BP39" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>9044.9461462071758</v>
       </c>
       <c r="BQ39" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>9316.2945305933918</v>
       </c>
     </row>
@@ -7562,43 +7562,43 @@
         <v>23</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:D40" si="47">SUM(C37:C39)</f>
+        <f t="shared" ref="C40:D40" si="50">SUM(C37:C39)</f>
         <v>9963</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>10657</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:F40" si="48">SUM(E37:E39)</f>
+        <f t="shared" ref="E40:F40" si="51">SUM(E37:E39)</f>
         <v>11071</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>12287</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" ref="G40:L40" si="49">SUM(G37:G39)</f>
+        <f t="shared" ref="G40:L40" si="52">SUM(G37:G39)</f>
         <v>10276</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>10985</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>11613</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>13066</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>11433</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>12521</v>
       </c>
       <c r="M40" s="5">
@@ -7606,11 +7606,11 @@
         <v>13381</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:O40" si="50">SUM(N37:N39)</f>
+        <f t="shared" ref="N40:O40" si="53">SUM(N37:N39)</f>
         <v>14902</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>13152</v>
       </c>
       <c r="P40" s="5">
@@ -7618,23 +7618,23 @@
         <v>14860</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" ref="Q40:R40" si="51">SUM(Q37:Q39)</f>
+        <f t="shared" ref="Q40:R40" si="54">SUM(Q37:Q39)</f>
         <v>14377</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>15140</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" ref="S40:U40" si="52">SUM(S37:S39)</f>
+        <f t="shared" ref="S40:U40" si="55">SUM(S37:S39)</f>
         <v>13320</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>15365</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>15772</v>
       </c>
       <c r="V40" s="5">
@@ -7660,11 +7660,11 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5">
-        <f t="shared" ref="AC40:AD40" si="53">AC37+AC38+AC39</f>
+        <f t="shared" ref="AC40:AD40" si="56">AC37+AC38+AC39</f>
         <v>537</v>
       </c>
       <c r="AD40" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>831</v>
       </c>
       <c r="AE40" s="5">
@@ -7688,139 +7688,139 @@
         <v>4405</v>
       </c>
       <c r="AJ40" s="5">
-        <f t="shared" ref="AJ40" si="54">AJ37+AJ38+AJ39</f>
+        <f t="shared" ref="AJ40" si="57">AJ37+AJ38+AJ39</f>
         <v>5143</v>
       </c>
       <c r="AK40" s="5">
-        <f t="shared" ref="AK40:BB40" si="55">AK37+AK38+AK39</f>
+        <f t="shared" ref="AK40:BB40" si="58">AK37+AK38+AK39</f>
         <v>6347</v>
       </c>
       <c r="AL40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>6890</v>
       </c>
       <c r="AM40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8925</v>
       </c>
       <c r="AN40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>10121</v>
       </c>
       <c r="AO40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>11264</v>
       </c>
       <c r="AP40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>13284</v>
       </c>
       <c r="AQ40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>21085</v>
       </c>
       <c r="AR40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>19027</v>
       </c>
       <c r="AS40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>20160</v>
       </c>
       <c r="AT40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>21905</v>
       </c>
       <c r="AU40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>26330</v>
       </c>
       <c r="AV40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>25589</v>
       </c>
       <c r="AW40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>25932</v>
       </c>
       <c r="AX40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>27205</v>
       </c>
       <c r="AY40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>28237</v>
       </c>
       <c r="AZ40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>30836</v>
       </c>
       <c r="BA40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>32013</v>
       </c>
       <c r="BB40" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>32370</v>
       </c>
       <c r="BC40" s="5">
-        <f t="shared" ref="BC40:BD40" si="56">SUM(BC37:BC39)</f>
+        <f t="shared" ref="BC40:BD40" si="59">SUM(BC37:BC39)</f>
         <v>31248</v>
       </c>
       <c r="BD40" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>32979</v>
       </c>
       <c r="BE40" s="5">
-        <f t="shared" ref="BE40:BF40" si="57">SUM(BE37:BE39)</f>
+        <f t="shared" ref="BE40:BF40" si="60">SUM(BE37:BE39)</f>
         <v>36949</v>
       </c>
       <c r="BF40" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>39974</v>
       </c>
       <c r="BG40" s="5">
-        <f t="shared" ref="BG40" si="58">SUM(BG37:BG39)</f>
+        <f t="shared" ref="BG40" si="61">SUM(BG37:BG39)</f>
         <v>43978</v>
       </c>
       <c r="BH40" s="5">
-        <f t="shared" ref="BH40:BJ40" si="59">SUM(BH37:BH39)</f>
+        <f t="shared" ref="BH40:BJ40" si="62">SUM(BH37:BH39)</f>
         <v>45940</v>
       </c>
       <c r="BI40" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>52237</v>
       </c>
       <c r="BJ40" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>57529</v>
       </c>
       <c r="BK40" s="5">
-        <f t="shared" ref="BK40" si="60">SUM(BK37:BK39)</f>
+        <f t="shared" ref="BK40" si="63">SUM(BK37:BK39)</f>
         <v>59254.87</v>
       </c>
       <c r="BL40" s="5">
-        <f t="shared" ref="BL40" si="61">SUM(BL37:BL39)</f>
+        <f t="shared" ref="BL40" si="64">SUM(BL37:BL39)</f>
         <v>61032.516100000001</v>
       </c>
       <c r="BM40" s="5">
-        <f t="shared" ref="BM40" si="62">SUM(BM37:BM39)</f>
+        <f t="shared" ref="BM40" si="65">SUM(BM37:BM39)</f>
         <v>62863.491583000003</v>
       </c>
       <c r="BN40" s="5">
-        <f t="shared" ref="BN40" si="63">SUM(BN37:BN39)</f>
+        <f t="shared" ref="BN40" si="66">SUM(BN37:BN39)</f>
         <v>64749.39633049001</v>
       </c>
       <c r="BO40" s="5">
-        <f t="shared" ref="BO40" si="64">SUM(BO37:BO39)</f>
+        <f t="shared" ref="BO40" si="67">SUM(BO37:BO39)</f>
         <v>66691.878220404702</v>
       </c>
       <c r="BP40" s="5">
-        <f t="shared" ref="BP40" si="65">SUM(BP37:BP39)</f>
+        <f t="shared" ref="BP40" si="68">SUM(BP37:BP39)</f>
         <v>68692.634567016852</v>
       </c>
       <c r="BQ40" s="5">
-        <f t="shared" ref="BQ40" si="66">SUM(BQ37:BQ39)</f>
+        <f t="shared" ref="BQ40" si="69">SUM(BQ37:BQ39)</f>
         <v>70753.413604027359</v>
       </c>
     </row>
@@ -7829,43 +7829,43 @@
         <v>24</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:D41" si="67">C36-C40</f>
+        <f t="shared" ref="C41:D41" si="70">C36-C40</f>
         <v>12686</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>13891</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ref="E41:F41" si="68">E36-E40</f>
+        <f t="shared" ref="E41:F41" si="71">E36-E40</f>
         <v>12975</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>13407</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:L41" si="69">G36-G40</f>
+        <f t="shared" ref="G41:L41" si="72">G36-G40</f>
         <v>15876</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>17897</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>17048</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>19095</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>20238</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>22247</v>
       </c>
       <c r="M41" s="5">
@@ -7873,11 +7873,11 @@
         <v>20364</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" ref="N41:O41" si="70">N36-N40</f>
+        <f t="shared" ref="N41:O41" si="73">N36-N40</f>
         <v>20534</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>21518</v>
       </c>
       <c r="P41" s="5">
@@ -7889,19 +7889,19 @@
         <v>22352</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" ref="R41:U41" si="71">R36-R40</f>
+        <f t="shared" ref="R41:U41" si="74">R36-R40</f>
         <v>24254</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>26895</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>27032</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>27581</v>
       </c>
       <c r="V41" s="5">
@@ -7927,11 +7927,11 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5">
-        <f t="shared" ref="AC41:AD41" si="72">AC36-AC40</f>
+        <f t="shared" ref="AC41:AD41" si="75">AC36-AC40</f>
         <v>393</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>650</v>
       </c>
       <c r="AE41" s="5">
@@ -7955,139 +7955,139 @@
         <v>3078</v>
       </c>
       <c r="AJ41" s="5">
-        <f t="shared" ref="AJ41" si="73">AJ36-AJ40</f>
+        <f t="shared" ref="AJ41" si="76">AJ36-AJ40</f>
         <v>5130</v>
       </c>
       <c r="AK41" s="5">
-        <f t="shared" ref="AK41:BB41" si="74">AK36-AK40</f>
+        <f t="shared" ref="AK41:BB41" si="77">AK36-AK40</f>
         <v>6940</v>
       </c>
       <c r="AL41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>10043</v>
       </c>
       <c r="AM41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>11029</v>
       </c>
       <c r="AN41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>11720</v>
       </c>
       <c r="AO41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>11910</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>13217</v>
       </c>
       <c r="AQ41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>9034</v>
       </c>
       <c r="AR41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>14561</v>
       </c>
       <c r="AS41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>16472</v>
       </c>
       <c r="AT41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>18524</v>
       </c>
       <c r="AU41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>22492</v>
       </c>
       <c r="AV41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>20693</v>
       </c>
       <c r="AW41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>24157</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>27161</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>27956</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>26764</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>27886</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>28172</v>
       </c>
       <c r="BC41" s="5">
-        <f t="shared" ref="BC41:BD41" si="75">BC36-BC40</f>
+        <f t="shared" ref="BC41:BD41" si="78">BC36-BC40</f>
         <v>21292</v>
       </c>
       <c r="BD41" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>29331</v>
       </c>
       <c r="BE41" s="5">
-        <f t="shared" ref="BE41:BF41" si="76">BE36-BE40</f>
+        <f t="shared" ref="BE41:BF41" si="79">BE36-BE40</f>
         <v>35058</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>42959</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" ref="BG41" si="77">BG36-BG40</f>
+        <f t="shared" ref="BG41" si="80">BG36-BG40</f>
         <v>52959</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" ref="BH41:BJ41" si="78">BH36-BH40</f>
+        <f t="shared" ref="BH41:BJ41" si="81">BH36-BH40</f>
         <v>69916</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>83383</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>88523</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" ref="BK41" si="79">BK36-BK40</f>
+        <f t="shared" ref="BK41" si="82">BK36-BK40</f>
         <v>98823.837900000013</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" ref="BL41" si="80">BL36-BL40</f>
+        <f t="shared" ref="BL41" si="83">BL36-BL40</f>
         <v>109728.64799700002</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" ref="BM41" si="81">BM36-BM40</f>
+        <f t="shared" ref="BM41" si="84">BM36-BM40</f>
         <v>121754.61189291003</v>
       </c>
       <c r="BN41" s="5">
-        <f t="shared" ref="BN41" si="82">BN36-BN40</f>
+        <f t="shared" ref="BN41" si="85">BN36-BN40</f>
         <v>135014.76515129732</v>
       </c>
       <c r="BO41" s="5">
-        <f t="shared" ref="BO41" si="83">BO36-BO40</f>
+        <f t="shared" ref="BO41" si="86">BO36-BO40</f>
         <v>149633.4744975963</v>
       </c>
       <c r="BP41" s="5">
-        <f t="shared" ref="BP41" si="84">BP36-BP40</f>
+        <f t="shared" ref="BP41" si="87">BP36-BP40</f>
         <v>165747.5717634602</v>
       </c>
       <c r="BQ41" s="5">
-        <f t="shared" ref="BQ41" si="85">BQ36-BQ40</f>
+        <f t="shared" ref="BQ41" si="88">BQ36-BQ40</f>
         <v>183507.60125039361</v>
       </c>
     </row>
@@ -8279,11 +8279,11 @@
         <v>1186</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" ref="BI42" si="86">SUM(K42:N42)</f>
+        <f t="shared" ref="BI42" si="89">SUM(K42:N42)</f>
         <v>333</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" ref="BJ42:BQ42" si="87">+BI62*$BT$50</f>
+        <f t="shared" ref="BJ42:BQ42" si="90">+BI62*$BT$50</f>
         <v>0</v>
       </c>
       <c r="BK42" s="5">
@@ -8291,27 +8291,27 @@
         <v>0</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BN42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BO42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BP42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BQ42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -8320,19 +8320,19 @@
         <v>29</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:D43" si="88">C41+C42</f>
+        <f t="shared" ref="C43:D43" si="91">C41+C42</f>
         <v>12686</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>14085</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:F43" si="89">E41+E42</f>
+        <f t="shared" ref="E43:F43" si="92">E41+E42</f>
         <v>12843</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>13422</v>
       </c>
       <c r="G43" s="5">
@@ -8340,87 +8340,87 @@
         <v>16124</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" ref="H43:Z43" si="90">H41+H42</f>
+        <f t="shared" ref="H43:Z43" si="93">H41+H42</f>
         <v>18337</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>17236</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>19405</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>20524</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>22515</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>20190</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>20487</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>21572</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>20339</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>22673</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>24727</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>27284</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>26526</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>26727</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>27250</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>30269</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>30118.650000000012</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>30218.002199999995</v>
       </c>
       <c r="Z43" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>30975.149299999997</v>
       </c>
       <c r="AC43" s="4">
-        <f t="shared" ref="AC43:AD43" si="91">AC42+AC41</f>
+        <f t="shared" ref="AC43:AD43" si="94">AC42+AC41</f>
         <v>410</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>671</v>
       </c>
       <c r="AE43" s="4">
@@ -8444,79 +8444,79 @@
         <v>3379</v>
       </c>
       <c r="AJ43" s="4">
-        <f t="shared" ref="AJ43" si="92">AJ42+AJ41</f>
+        <f t="shared" ref="AJ43" si="95">AJ42+AJ41</f>
         <v>5314</v>
       </c>
       <c r="AK43" s="4">
-        <f t="shared" ref="AK43:BB43" si="93">AK42+AK41</f>
+        <f t="shared" ref="AK43:BB43" si="96">AK42+AK41</f>
         <v>7413</v>
       </c>
       <c r="AL43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>11731</v>
       </c>
       <c r="AM43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>14119</v>
       </c>
       <c r="AN43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>11684</v>
       </c>
       <c r="AO43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>11605</v>
       </c>
       <c r="AP43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>14794</v>
       </c>
       <c r="AQ43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>12221</v>
       </c>
       <c r="AR43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>16628</v>
       </c>
       <c r="AS43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>18262</v>
       </c>
       <c r="AT43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>20101</v>
       </c>
       <c r="AU43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>23814</v>
       </c>
       <c r="AV43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>20151</v>
       </c>
       <c r="AW43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>25072</v>
       </c>
       <c r="AX43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>28071</v>
       </c>
       <c r="AY43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>28460</v>
       </c>
       <c r="AZ43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>27052</v>
       </c>
       <c r="BA43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>27947</v>
       </c>
       <c r="BB43" s="4">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>28518</v>
       </c>
       <c r="BC43" s="4">
@@ -8540,43 +8540,43 @@
         <v>53036</v>
       </c>
       <c r="BH43" s="5">
-        <f t="shared" ref="BH43:BJ43" si="94">+BH41+BH42</f>
+        <f t="shared" ref="BH43:BJ43" si="97">+BH41+BH42</f>
         <v>71102</v>
       </c>
       <c r="BI43" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>83716</v>
       </c>
       <c r="BJ43" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>88523</v>
       </c>
       <c r="BK43" s="5">
-        <f t="shared" ref="BK43" si="95">+BK41+BK42</f>
+        <f t="shared" ref="BK43" si="98">+BK41+BK42</f>
         <v>98823.837900000013</v>
       </c>
       <c r="BL43" s="5">
-        <f t="shared" ref="BL43" si="96">+BL41+BL42</f>
+        <f t="shared" ref="BL43" si="99">+BL41+BL42</f>
         <v>109728.64799700002</v>
       </c>
       <c r="BM43" s="5">
-        <f t="shared" ref="BM43" si="97">+BM41+BM42</f>
+        <f t="shared" ref="BM43" si="100">+BM41+BM42</f>
         <v>121754.61189291003</v>
       </c>
       <c r="BN43" s="5">
-        <f t="shared" ref="BN43" si="98">+BN41+BN42</f>
+        <f t="shared" ref="BN43" si="101">+BN41+BN42</f>
         <v>135014.76515129732</v>
       </c>
       <c r="BO43" s="5">
-        <f t="shared" ref="BO43" si="99">+BO41+BO42</f>
+        <f t="shared" ref="BO43" si="102">+BO41+BO42</f>
         <v>149633.4744975963</v>
       </c>
       <c r="BP43" s="5">
-        <f t="shared" ref="BP43" si="100">+BP41+BP42</f>
+        <f t="shared" ref="BP43" si="103">+BP41+BP42</f>
         <v>165747.5717634602</v>
       </c>
       <c r="BQ43" s="5">
-        <f t="shared" ref="BQ43" si="101">+BQ41+BQ42</f>
+        <f t="shared" ref="BQ43" si="104">+BQ41+BQ42</f>
         <v>183507.60125039361</v>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
         <v>9831</v>
       </c>
       <c r="BI44" s="5">
-        <f t="shared" ref="BI44" si="102">SUM(K44:N44)</f>
+        <f t="shared" ref="BI44" si="105">SUM(K44:N44)</f>
         <v>10978</v>
       </c>
       <c r="BJ44" s="5">
@@ -8770,27 +8770,27 @@
         <v>18776.529201000001</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" ref="BL44:BQ44" si="103">+BL43*0.15</f>
+        <f t="shared" ref="BL44:BQ44" si="106">+BL43*0.15</f>
         <v>16459.297199550001</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>18263.191783936505</v>
       </c>
       <c r="BN44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>20252.214772694599</v>
       </c>
       <c r="BO44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>22445.021174639445</v>
       </c>
       <c r="BP44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>24862.135764519029</v>
       </c>
       <c r="BQ44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>27526.140187559042</v>
       </c>
     </row>
@@ -8799,19 +8799,19 @@
         <v>31</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" ref="C45:D45" si="104">C43-C44</f>
+        <f t="shared" ref="C45:D45" si="107">C43-C44</f>
         <v>10678</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>11649</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" ref="E45:F45" si="105">E43-E44</f>
+        <f t="shared" ref="E45:F45" si="108">E43-E44</f>
         <v>10752</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>11202</v>
       </c>
       <c r="G45" s="5">
@@ -8819,39 +8819,39 @@
         <v>13893</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" ref="H45:Z45" si="106">H43-H44</f>
+        <f t="shared" ref="H45:Z45" si="109">H43-H44</f>
         <v>15463</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>15457</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>16458</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>20505</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>18765</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>16728</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>16740</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>17556</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>16425</v>
       </c>
       <c r="Q45" s="5">
@@ -8859,47 +8859,47 @@
         <v>18299</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>20081</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>22291</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>21870</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>21939</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>22036</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>24667</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>25600.852500000012</v>
       </c>
       <c r="Y45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>25685.301869999996</v>
       </c>
       <c r="Z45" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>26328.876904999997</v>
       </c>
       <c r="AC45" s="4">
-        <f t="shared" ref="AC45:AD45" si="107">AC43-AC44</f>
+        <f t="shared" ref="AC45:AD45" si="110">AC43-AC44</f>
         <v>279</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>463</v>
       </c>
       <c r="AE45" s="4">
@@ -8923,79 +8923,79 @@
         <v>2195</v>
       </c>
       <c r="AJ45" s="4">
-        <f t="shared" ref="AJ45" si="108">AJ43-AJ44</f>
+        <f t="shared" ref="AJ45" si="111">AJ43-AJ44</f>
         <v>3454</v>
       </c>
       <c r="AK45" s="4">
-        <f t="shared" ref="AK45:BB45" si="109">AK43-AK44</f>
+        <f t="shared" ref="AK45:BB45" si="112">AK43-AK44</f>
         <v>4758</v>
       </c>
       <c r="AL45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>7625</v>
       </c>
       <c r="AM45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>9265</v>
       </c>
       <c r="AN45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>7880</v>
       </c>
       <c r="AO45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>7921</v>
       </c>
       <c r="AP45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>10061</v>
       </c>
       <c r="AQ45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>8193</v>
       </c>
       <c r="AR45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>12254</v>
       </c>
       <c r="AS45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>12599</v>
       </c>
       <c r="AT45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>14065</v>
       </c>
       <c r="AU45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>17681</v>
       </c>
       <c r="AV45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>14899</v>
       </c>
       <c r="AW45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>18819</v>
       </c>
       <c r="AX45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>23150</v>
       </c>
       <c r="AY45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>23171</v>
       </c>
       <c r="AZ45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>21863</v>
       </c>
       <c r="BA45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>22201</v>
       </c>
       <c r="BB45" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>22204</v>
       </c>
       <c r="BC45" s="4">
@@ -9019,43 +9019,43 @@
         <v>44281</v>
       </c>
       <c r="BH45" s="4">
-        <f t="shared" ref="BH45:BJ45" si="110">+BH43-BH44</f>
+        <f t="shared" ref="BH45:BJ45" si="113">+BH43-BH44</f>
         <v>61271</v>
       </c>
       <c r="BI45" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>72738</v>
       </c>
       <c r="BJ45" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>75244.55</v>
       </c>
       <c r="BK45" s="4">
-        <f t="shared" ref="BK45" si="111">+BK43-BK44</f>
+        <f t="shared" ref="BK45" si="114">+BK43-BK44</f>
         <v>80047.308699000016</v>
       </c>
       <c r="BL45" s="4">
-        <f t="shared" ref="BL45" si="112">+BL43-BL44</f>
+        <f t="shared" ref="BL45" si="115">+BL43-BL44</f>
         <v>93269.350797450024</v>
       </c>
       <c r="BM45" s="4">
-        <f t="shared" ref="BM45" si="113">+BM43-BM44</f>
+        <f t="shared" ref="BM45" si="116">+BM43-BM44</f>
         <v>103491.42010897353</v>
       </c>
       <c r="BN45" s="4">
-        <f t="shared" ref="BN45" si="114">+BN43-BN44</f>
+        <f t="shared" ref="BN45" si="117">+BN43-BN44</f>
         <v>114762.55037860273</v>
       </c>
       <c r="BO45" s="4">
-        <f t="shared" ref="BO45" si="115">+BO43-BO44</f>
+        <f t="shared" ref="BO45" si="118">+BO43-BO44</f>
         <v>127188.45332295685</v>
       </c>
       <c r="BP45" s="4">
-        <f t="shared" ref="BP45" si="116">+BP43-BP44</f>
+        <f t="shared" ref="BP45" si="119">+BP43-BP44</f>
         <v>140885.43599894119</v>
       </c>
       <c r="BQ45" s="4">
-        <f t="shared" ref="BQ45" si="117">+BQ43-BQ44</f>
+        <f t="shared" ref="BQ45" si="120">+BQ43-BQ44</f>
         <v>155981.46106283457</v>
       </c>
       <c r="BR45" s="4">
@@ -9063,231 +9063,231 @@
         <v>155981.46106283457</v>
       </c>
       <c r="BS45" s="4">
-        <f t="shared" ref="BS45:DW45" si="118">+BR45*(1+$BT$48)</f>
+        <f t="shared" ref="BS45:DW45" si="121">+BR45*(1+$BT$48)</f>
         <v>155981.46106283457</v>
       </c>
       <c r="BT45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BU45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BV45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BW45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BX45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BY45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="BZ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CA45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CB45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CC45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CD45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CE45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CF45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CG45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CH45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CI45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CJ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CK45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CL45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CM45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CN45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CO45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CP45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CQ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CR45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CS45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CT45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CU45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CV45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CW45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CX45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CY45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="CZ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DA45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DB45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DC45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DD45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DE45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DF45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DG45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DH45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DI45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DJ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DK45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DL45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DM45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DN45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DO45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DP45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DQ45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DR45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DS45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DT45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DU45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DV45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
       <c r="DW45" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>155981.46106283457</v>
       </c>
     </row>
@@ -9296,43 +9296,43 @@
         <v>33</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" ref="C46:D46" si="119">C45/C47</f>
+        <f t="shared" ref="C46:D46" si="122">C45/C47</f>
         <v>1.3849546044098573</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>1.5146274866727343</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" ref="E46:F46" si="120">E45/E47</f>
+        <f t="shared" ref="E46:F46" si="123">E45/E47</f>
         <v>1.4009120521172638</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>1.4643137254901961</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:L46" si="121">G45/G47</f>
+        <f t="shared" ref="G46:L46" si="124">G45/G47</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="K46" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="M46" s="8">
@@ -9348,7 +9348,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" ref="P46:Z46" si="122">P45/P47</f>
+        <f t="shared" ref="P46:Z46" si="125">P45/P47</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="Q46" s="8">
@@ -9356,47 +9356,47 @@
         <v>2.4516345123258305</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="S46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="T46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>2.936161670235546</v>
       </c>
       <c r="V46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>2.9503280224929709</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>3.3021419009370816</v>
       </c>
       <c r="X46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>3.4271556224899613</v>
       </c>
       <c r="Y46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>3.4384607590361438</v>
       </c>
       <c r="Z46" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>3.524615382195448</v>
       </c>
       <c r="AC46" s="11">
-        <f t="shared" ref="AC46:AD46" si="123">AC45/AC47</f>
+        <f t="shared" ref="AC46:AD46" si="126">AC45/AC47</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="AD46" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AE46" s="11">
@@ -9420,79 +9420,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AJ46" s="11">
-        <f t="shared" ref="AJ46" si="124">AJ45/AJ47</f>
+        <f t="shared" ref="AJ46" si="127">AJ45/AJ47</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AK46" s="11">
-        <f t="shared" ref="AK46:BB46" si="125">AK45/AK47</f>
+        <f t="shared" ref="AK46:BB46" si="128">AK45/AK47</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AL46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AM46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AN46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AO46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AP46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AQ46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AR46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AS46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AT46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AU46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AV46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="AW46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="AX46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="AY46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.724077122031507</v>
       </c>
       <c r="AZ46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.581227863046045</v>
       </c>
       <c r="BA46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="BB46" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="BC46" s="11">
@@ -9516,43 +9516,43 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BH46" s="11">
-        <f t="shared" ref="BH46:BJ46" si="126">+BH45/BH47</f>
+        <f t="shared" ref="BH46:BJ46" si="129">+BH45/BH47</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BI46" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BJ46" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>10.06986516778748</v>
       </c>
       <c r="BK46" s="11">
-        <f t="shared" ref="BK46" si="127">+BK45/BK47</f>
+        <f t="shared" ref="BK46" si="130">+BK45/BK47</f>
         <v>10.719066479059959</v>
       </c>
       <c r="BL46" s="11">
-        <f t="shared" ref="BL46" si="128">+BL45/BL47</f>
+        <f t="shared" ref="BL46" si="131">+BL45/BL47</f>
         <v>12.489618800502162</v>
       </c>
       <c r="BM46" s="11">
-        <f t="shared" ref="BM46" si="129">+BM45/BM47</f>
+        <f t="shared" ref="BM46" si="132">+BM45/BM47</f>
         <v>13.858447338083563</v>
       </c>
       <c r="BN46" s="11">
-        <f t="shared" ref="BN46" si="130">+BN45/BN47</f>
+        <f t="shared" ref="BN46" si="133">+BN45/BN47</f>
         <v>15.367754729149038</v>
       </c>
       <c r="BO46" s="11">
-        <f t="shared" ref="BO46" si="131">+BO45/BO47</f>
+        <f t="shared" ref="BO46" si="134">+BO45/BO47</f>
         <v>17.031696739038779</v>
       </c>
       <c r="BP46" s="11">
-        <f t="shared" ref="BP46" si="132">+BP45/BP47</f>
+        <f t="shared" ref="BP46" si="135">+BP45/BP47</f>
         <v>18.86584794602674</v>
       </c>
       <c r="BQ46" s="11">
-        <f t="shared" ref="BQ46" si="133">+BQ45/BQ47</f>
+        <f t="shared" ref="BQ46" si="136">+BQ45/BQ47</f>
         <v>20.887343719706013</v>
       </c>
     </row>
@@ -9745,27 +9745,27 @@
         <v>7467.75</v>
       </c>
       <c r="BL47" s="5">
-        <f t="shared" ref="BL47:BQ47" si="134">+BK47</f>
+        <f t="shared" ref="BL47:BQ47" si="137">+BK47</f>
         <v>7467.75</v>
       </c>
       <c r="BM47" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>7467.75</v>
       </c>
       <c r="BN47" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>7467.75</v>
       </c>
       <c r="BO47" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>7467.75</v>
       </c>
       <c r="BP47" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>7467.75</v>
       </c>
       <c r="BQ47" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>7467.75</v>
       </c>
     </row>
@@ -9794,27 +9794,27 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10">
-        <f t="shared" ref="G49:K49" si="135">G32/C32-1</f>
+        <f t="shared" ref="G49:K49" si="138">G32/C32-1</f>
         <v>0.12400544546967174</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>0.19088546871876866</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>0.21347251071437956</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" ref="L49" si="136">L32/H32-1</f>
+        <f t="shared" ref="L49" si="139">L32/H32-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="M49" s="10">
@@ -9822,15 +9822,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" ref="N49:O49" si="137">N32/J32-1</f>
+        <f t="shared" ref="N49:O49" si="140">N32/J32-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" ref="P49" si="138">P32/L32-1</f>
+        <f t="shared" ref="P49" si="141">P32/L32-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="Q49" s="10">
@@ -9842,157 +9842,160 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" ref="S49:X49" si="139">S32/O32-1</f>
+        <f t="shared" ref="S49:Y49" si="142">S32/O32-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="T49" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="U49" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.16044729904276589</v>
       </c>
       <c r="X49" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="Y49" s="10"/>
+      <c r="Y49" s="10">
+        <f>Y32/U32-1</f>
+        <v>0.1100000000000001</v>
+      </c>
       <c r="Z49" s="10"/>
       <c r="AD49" s="18">
-        <f t="shared" ref="AD49:BD49" si="140">AD32/AC32-1</f>
+        <f t="shared" ref="AD49:BD49" si="143">AD32/AC32-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AE49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AF49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AG49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AH49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AI49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AJ49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AK49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AL49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AM49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AN49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AO49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AP49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AQ49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AR49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AS49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AT49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AU49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AV49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="AW49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="AX49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="AY49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="AZ49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="BA49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="BB49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="BC49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="BD49" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BE49" s="10">
-        <f t="shared" ref="BE49:BI49" si="141">+BE32/BD32-1</f>
+        <f t="shared" ref="BE49:BI49" si="144">+BE32/BD32-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BF49" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BG49" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BH49" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BI49" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BJ49" s="10">
@@ -10000,31 +10003,31 @@
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="BK49" s="10">
-        <f t="shared" ref="BK49:BQ49" si="142">+BK32/BJ32-1</f>
+        <f t="shared" ref="BK49:BQ49" si="145">+BK32/BJ32-1</f>
         <v>0.11336323525942005</v>
       </c>
       <c r="BL49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.0228744057187606E-2</v>
       </c>
       <c r="BM49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.1148072819640982E-2</v>
       </c>
       <c r="BN49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.2039939316425947E-2</v>
       </c>
       <c r="BO49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.2903715628308783E-2</v>
       </c>
       <c r="BP49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.3738930203388406E-2</v>
       </c>
       <c r="BQ49" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>8.4545261387475756E-2</v>
       </c>
       <c r="BS49" s="3" t="s">
@@ -10108,47 +10111,47 @@
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18">
-        <f t="shared" ref="M51" si="143">M77/I77-1</f>
+        <f t="shared" ref="M51" si="146">M77/I77-1</f>
         <v>0.12477838234395056</v>
       </c>
       <c r="N51" s="18">
-        <f t="shared" ref="N51" si="144">N77/J77-1</f>
+        <f t="shared" ref="N51" si="147">N77/J77-1</f>
         <v>9.666749733807567E-2</v>
       </c>
       <c r="O51" s="18">
-        <f t="shared" ref="O51:P51" si="145">O77/K77-1</f>
+        <f t="shared" ref="O51:P51" si="148">O77/K77-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="P51" s="18">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="Q51" s="18">
-        <f t="shared" ref="Q51:W51" si="146">Q77/M77-1</f>
+        <f t="shared" ref="Q51:W51" si="149">Q77/M77-1</f>
         <v>7.6231112077399743E-2</v>
       </c>
       <c r="R51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.11165509833085441</v>
       </c>
       <c r="S51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.11507072905331883</v>
       </c>
       <c r="T51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.16171200726795543</v>
       </c>
       <c r="U51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.13211787581121692</v>
       </c>
       <c r="V51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.11839146674595358</v>
       </c>
       <c r="W51" s="18">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>0.13216638204440101</v>
       </c>
       <c r="BE51" s="10"/>
@@ -10181,67 +10184,67 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="12">
-        <f t="shared" ref="G52:J53" si="147">G26/C26-1</f>
+        <f t="shared" ref="G52:J53" si="150">G26/C26-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" ref="K52:K53" si="148">K26/G26-1</f>
+        <f t="shared" ref="K52:K53" si="151">K26/G26-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" ref="L52:L53" si="149">L26/H26-1</f>
+        <f t="shared" ref="L52:L53" si="152">L26/H26-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:M53" si="150">M26/I26-1</f>
+        <f t="shared" ref="M52:M53" si="153">M26/I26-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" ref="N52" si="151">N26/J26-1</f>
+        <f t="shared" ref="N52" si="154">N26/J26-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" ref="O52" si="152">O26/K26-1</f>
+        <f t="shared" ref="O52" si="155">O26/K26-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" ref="P52" si="153">P26/L26-1</f>
+        <f t="shared" ref="P52" si="156">P26/L26-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" ref="Q52:V52" si="154">Q26/M26-1</f>
+        <f t="shared" ref="Q52:V52" si="157">Q26/M26-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.5320983905253569</v>
       </c>
       <c r="T52" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.13216092224444176</v>
       </c>
       <c r="U52" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.11726421557433198</v>
       </c>
       <c r="V52" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="157"/>
         <v>0.1107648570335138</v>
       </c>
       <c r="W52" s="12">
@@ -10278,67 +10281,67 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="152"/>
         <v>0.25518800082186144</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="153"/>
         <v>0.25592009525069459</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ref="N53:Q53" si="155">N27/J27-1</f>
+        <f t="shared" ref="N53:Q53" si="158">N27/J27-1</f>
         <v>0.19735251798561149</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>0.20180936613055822</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>0.17356905112675292</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>0.16295359983146374</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ref="R53:V53" si="156">R27/N27-1</f>
+        <f t="shared" ref="R53:V53" si="159">R27/N27-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>-1.5350553505535047E-2</v>
       </c>
       <c r="T53" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>0.20327320066951837</v>
       </c>
       <c r="U53" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>0.20954666908201625</v>
       </c>
       <c r="V53" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>0.1884716375609552</v>
       </c>
       <c r="W53" s="12">
@@ -10370,67 +10373,67 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="12">
-        <f t="shared" ref="G54:V54" si="157">G28/C28-1</f>
+        <f t="shared" ref="G54:V54" si="160">G28/C28-1</f>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.11874808223381406</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>-2.5437677689660321E-3</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>-0.18482679645004296</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>-9.0784421283598427E-2</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>-3.8448240094046016E-2</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>-0.15406540654065404</v>
       </c>
       <c r="T54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.1864156774601391</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.17496229260935148</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="160"/>
         <v>0.14311398777418205</v>
       </c>
       <c r="W54" s="12">
@@ -10458,265 +10461,265 @@
         <v>22</v>
       </c>
       <c r="C55" s="9">
-        <f t="shared" ref="C55:Z55" si="158">C36/C32</f>
+        <f t="shared" ref="C55:Z55" si="161">C36/C32</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68661660146769077</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.70388114334930285</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68721526878626582</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69684954064829263</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="L55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="N55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68323532247180174</v>
       </c>
       <c r="O55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="P55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="T55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="U55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="W55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69354273080734929</v>
       </c>
       <c r="X55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.68042857433376625</v>
       </c>
       <c r="Y55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69</v>
       </c>
       <c r="Z55" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="161"/>
         <v>0.69</v>
       </c>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9">
-        <f t="shared" ref="AC55:BQ55" si="159">AC36/AC32</f>
+        <f t="shared" ref="AC55:BQ55" si="162">AC36/AC32</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="AD55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AE55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AF55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AG55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AH55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AI55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.86299158113251062</v>
       </c>
       <c r="AJ55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AK55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AL55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AM55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AN55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AO55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AP55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AQ55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AR55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.84417412285111093</v>
       </c>
       <c r="AS55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AT55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AU55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AV55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="AW55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="AX55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="AY55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="AZ55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="BA55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="BB55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.64695447745244705</v>
       </c>
       <c r="BC55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="BD55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="BE55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BF55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="BG55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BH55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BI55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BJ55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BK55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BL55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BM55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BN55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BO55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BP55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
       <c r="BQ55" s="9">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>0.67</v>
       </c>
     </row>
@@ -10725,87 +10728,87 @@
         <v>455</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:W56" si="160">+C41/C32</f>
+        <f t="shared" ref="C56:W56" si="163">+C41/C32</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.37638866309001245</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.35250966266137301</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.41374154966198645</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.46583822520393381</v>
       </c>
       <c r="X56" s="9"/>
@@ -10833,91 +10836,91 @@
       <c r="AT56" s="9"/>
       <c r="AU56" s="9"/>
       <c r="AV56" s="9">
-        <f t="shared" ref="AV56:BQ56" si="161">AV41/AV32</f>
+        <f t="shared" ref="AV56:BQ56" si="164">AV41/AV32</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.37920323372624554</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.41885445720422676</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.43053228494172352</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.44186127163251976</v>
       </c>
       <c r="BN56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.45283344109557166</v>
       </c>
       <c r="BO56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.46344280341509458</v>
       </c>
       <c r="BP56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.47368527275981076</v>
       </c>
       <c r="BQ56" s="9">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>0.48355857034614491</v>
       </c>
     </row>
@@ -10926,87 +10929,87 @@
         <v>89</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:W57" si="162">+C44/C43</f>
+        <f t="shared" ref="C57:W57" si="165">+C44/C43</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.13836516993301909</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.15673228990565524</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.18300102624248643</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.1913394495412844</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>0.18507383791998414</v>
       </c>
       <c r="X57" s="9"/>
@@ -11015,167 +11018,167 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9">
-        <f t="shared" ref="AC57:BQ57" si="163">+AC44/AC43</f>
+        <f t="shared" ref="AC57:BQ57" si="166">+AC44/AC43</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="AD57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AE57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AF57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AG57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AH57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AI57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.35039952648712636</v>
       </c>
       <c r="AJ57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AK57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AL57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AM57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AN57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AO57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AP57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AQ57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AR57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.26305027664180902</v>
       </c>
       <c r="AS57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AT57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AU57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AV57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="AW57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="AX57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="AY57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="AZ57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.22140402552773686</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.14605886052901645</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.18999999999999997</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
       <c r="BN57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
       <c r="BO57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
       <c r="BP57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
       <c r="BQ57" s="9">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>0.15</v>
       </c>
     </row>
@@ -11184,87 +11187,87 @@
         <v>156</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:W58" si="164">(C30-C33)/C30</f>
+        <f t="shared" ref="C58:W58" si="167">(C30-C33)/C30</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.72796494111202414</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.75918884664131814</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.7736297391488014</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.73603593228146957</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.65550644790216139</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.74717731588401337</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>0.78431115767417492</v>
       </c>
       <c r="X58" s="9"/>
@@ -11299,63 +11302,63 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
       <c r="BC58" s="9">
-        <f t="shared" ref="BC58:BQ58" si="165">(BC30-BC33)/BC30</f>
+        <f t="shared" ref="BC58:BQ58" si="168">(BC30-BC33)/BC30</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.76218833743398473</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>0.75</v>
       </c>
       <c r="BT58" s="1"/>
@@ -11365,87 +11368,87 @@
         <v>157</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ref="C59:W59" si="166">(C31-C34)/C31</f>
+        <f t="shared" ref="C59:W59" si="169">(C31-C34)/C31</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.60366736368023166</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.59926581514633415</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.65656402468577335</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.67435826662986476</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.67299900721779493</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="T59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="U59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="W59" s="9">
-        <f t="shared" si="166"/>
+        <f t="shared" si="169"/>
         <v>0.66599089698487468</v>
       </c>
       <c r="X59" s="9"/>
@@ -11480,63 +11483,63 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
       <c r="BC59" s="9">
-        <f t="shared" ref="BC59:BQ59" si="167">(BC31-BC34)/BC31</f>
+        <f t="shared" ref="BC59:BQ59" si="170">(BC31-BC34)/BC31</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="BD59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.41739926739926742</v>
       </c>
       <c r="BE59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BF59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BG59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BH59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BI59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BJ59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BK59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BL59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BM59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="BN59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BO59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BP59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BQ59" s="9">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>0.65</v>
       </c>
       <c r="BT59" s="1"/>
@@ -11629,63 +11632,63 @@
         <v>82</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:H62" si="168">+G63-G74</f>
+        <f t="shared" ref="G62:H62" si="171">+G63-G74</f>
         <v>77528</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>75239</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" ref="I62:U62" si="169">+I63-I74</f>
+        <f t="shared" ref="I62:U62" si="172">+I63-I74</f>
         <v>72744</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>78172</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>83720</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>79105</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>61674</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>61867</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>65479</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>58489</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>65632</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>73904</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>83872</v>
       </c>
       <c r="T62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>20165</v>
       </c>
       <c r="U62" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>29386</v>
       </c>
       <c r="V62" s="5">
@@ -11700,87 +11703,87 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AG62" s="4">
-        <f t="shared" ref="AG62:AU62" si="170">AG63</f>
+        <f t="shared" ref="AG62:AU62" si="173">AG63</f>
         <v>3614</v>
       </c>
       <c r="AH62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>4750</v>
       </c>
       <c r="AI62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>6940</v>
       </c>
       <c r="AJ62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>11312</v>
       </c>
       <c r="AK62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>18630</v>
       </c>
       <c r="AL62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>31608</v>
       </c>
       <c r="AM62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>41524</v>
       </c>
       <c r="AN62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>45741</v>
       </c>
       <c r="AO62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>52843</v>
       </c>
       <c r="AP62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>62740</v>
       </c>
       <c r="AQ62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>72802</v>
       </c>
       <c r="AR62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>48755</v>
       </c>
       <c r="AS62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>43393</v>
       </c>
       <c r="AT62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>33528</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>30250</v>
       </c>
       <c r="AV62" s="4">
-        <f t="shared" ref="AV62:BA62" si="171">AV63-AV74</f>
+        <f t="shared" ref="AV62:BA62" si="174">AV63-AV74</f>
         <v>30634</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>38603</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>51716</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>60872</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>72266</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" si="171"/>
+        <f t="shared" si="174"/>
         <v>77661</v>
       </c>
       <c r="BI62" s="5"/>
@@ -12906,158 +12909,158 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7">
-        <f t="shared" ref="G71:H71" si="172">SUM(G63:G70)</f>
+        <f t="shared" ref="G71:H71" si="175">SUM(G63:G70)</f>
         <v>301001</v>
       </c>
       <c r="H71" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>304137</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" ref="I71:K71" si="173">SUM(I63:I70)</f>
+        <f t="shared" ref="I71:K71" si="176">SUM(I63:I70)</f>
         <v>308879</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>333779</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>335418</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" ref="L71" si="174">SUM(L63:L70)</f>
+        <f t="shared" ref="L71" si="177">SUM(L63:L70)</f>
         <v>340389</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" ref="M71:W71" si="175">SUM(M63:M70)</f>
+        <f t="shared" ref="M71:W71" si="178">SUM(M63:M70)</f>
         <v>344607</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>364840</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>359784</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>364552</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>380088</v>
       </c>
       <c r="R71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>411976</v>
       </c>
       <c r="S71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>445785</v>
       </c>
       <c r="T71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>470558</v>
       </c>
       <c r="U71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>484275</v>
       </c>
       <c r="V71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>512163</v>
       </c>
       <c r="W71" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>523013</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AG71" s="6">
-        <f t="shared" ref="AG71:BA71" si="176">SUM(AG63:AG70)</f>
+        <f t="shared" ref="AG71:BA71" si="179">SUM(AG63:AG70)</f>
         <v>5363</v>
       </c>
       <c r="AH71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>7210</v>
       </c>
       <c r="AI71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>10093</v>
       </c>
       <c r="AJ71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>14387</v>
       </c>
       <c r="AK71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>22357</v>
       </c>
       <c r="AL71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>37156</v>
       </c>
       <c r="AM71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>52150</v>
       </c>
       <c r="AN71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>59257</v>
       </c>
       <c r="AO71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>67646</v>
       </c>
       <c r="AP71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>79571</v>
       </c>
       <c r="AQ71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>92389</v>
       </c>
       <c r="AR71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>70815</v>
       </c>
       <c r="AS71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>69597</v>
       </c>
       <c r="AT71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>63171</v>
       </c>
       <c r="AU71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>72793</v>
       </c>
       <c r="AV71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>77888</v>
       </c>
       <c r="AW71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>86113</v>
       </c>
       <c r="AX71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>108704</v>
       </c>
       <c r="AY71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>121271</v>
       </c>
       <c r="AZ71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>142431</v>
       </c>
       <c r="BA71" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>172384</v>
       </c>
       <c r="BG71" s="7"/>
@@ -14315,154 +14318,154 @@
         <v>301001</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" ref="H82" si="177">SUM(H73:H81)</f>
+        <f t="shared" ref="H82" si="180">SUM(H73:H81)</f>
         <v>304137</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" ref="I82:L82" si="178">SUM(I73:I81)</f>
+        <f t="shared" ref="I82:L82" si="181">SUM(I73:I81)</f>
         <v>308879</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>333779</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>335418</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>340389</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" ref="M82:S82" si="179">SUM(M73:M81)</f>
+        <f t="shared" ref="M82:S82" si="182">SUM(M73:M81)</f>
         <v>344607</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>364840</v>
       </c>
       <c r="O82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>359784</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>364552</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>380088</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>411976</v>
       </c>
       <c r="S82" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>445785</v>
       </c>
       <c r="T82" s="7">
-        <f t="shared" ref="T82:W82" si="180">SUM(T73:T81)</f>
+        <f t="shared" ref="T82:W82" si="183">SUM(T73:T81)</f>
         <v>470558</v>
       </c>
       <c r="U82" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>484275</v>
       </c>
       <c r="V82" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>512163</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>523013</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AG82" s="6">
-        <f t="shared" ref="AG82:BA82" si="181">SUM(AG73:AG81)</f>
+        <f t="shared" ref="AG82:BA82" si="184">SUM(AG73:AG81)</f>
         <v>5363</v>
       </c>
       <c r="AH82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>7210</v>
       </c>
       <c r="AI82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>10093</v>
       </c>
       <c r="AJ82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>14387</v>
       </c>
       <c r="AK82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>22357</v>
       </c>
       <c r="AL82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>37156</v>
       </c>
       <c r="AM82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>52150</v>
       </c>
       <c r="AN82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>59257</v>
       </c>
       <c r="AO82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>67646</v>
       </c>
       <c r="AP82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>79571</v>
       </c>
       <c r="AQ82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>92389</v>
       </c>
       <c r="AR82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>70815</v>
       </c>
       <c r="AS82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>69597</v>
       </c>
       <c r="AT82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>63171</v>
       </c>
       <c r="AU82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>72793</v>
       </c>
       <c r="AV82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>77888</v>
       </c>
       <c r="AW82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>86113</v>
       </c>
       <c r="AX82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>108704</v>
       </c>
       <c r="AY82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>121271</v>
       </c>
       <c r="AZ82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>142431</v>
       </c>
       <c r="BA82" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>172384</v>
       </c>
       <c r="BG82" s="7"/>
@@ -14479,71 +14482,71 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
-        <f t="shared" ref="G84:W84" si="182">G45</f>
+        <f t="shared" ref="G84:W84" si="185">G45</f>
         <v>13893</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>15463</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>15457</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>16458</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>20505</v>
       </c>
       <c r="L84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>18765</v>
       </c>
       <c r="M84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>16728</v>
       </c>
       <c r="N84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>16740</v>
       </c>
       <c r="O84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>17556</v>
       </c>
       <c r="P84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>16425</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>18299</v>
       </c>
       <c r="R84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>20081</v>
       </c>
       <c r="S84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>22291</v>
       </c>
       <c r="T84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>21870</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>21939</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>22036</v>
       </c>
       <c r="W84" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>24667</v>
       </c>
       <c r="X84" s="5"/>
@@ -14964,71 +14967,71 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5">
-        <f t="shared" ref="G91:H91" si="183">SUM(G85:G90)</f>
+        <f t="shared" ref="G91:H91" si="186">SUM(G85:G90)</f>
         <v>19335</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>12516</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" ref="I91:K91" si="184">SUM(I85:I90)</f>
+        <f t="shared" ref="I91:K91" si="187">SUM(I85:I90)</f>
         <v>22179</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>22710</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>24540</v>
       </c>
       <c r="L91" s="5">
-        <f t="shared" ref="L91" si="185">SUM(L85:L90)</f>
+        <f t="shared" ref="L91" si="188">SUM(L85:L90)</f>
         <v>14480</v>
       </c>
       <c r="M91" s="5">
-        <f t="shared" ref="M91:Q91" si="186">SUM(M85:M90)</f>
+        <f t="shared" ref="M91:Q91" si="189">SUM(M85:M90)</f>
         <v>25386</v>
       </c>
       <c r="N91" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>24629</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>23198</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>11173</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>24441</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" ref="R91:W91" si="187">SUM(R85:R90)</f>
+        <f t="shared" ref="R91:W91" si="190">SUM(R85:R90)</f>
         <v>28770</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>30583</v>
       </c>
       <c r="T91" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>18853</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>31917</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>37195</v>
       </c>
       <c r="W91" s="5">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>34180</v>
       </c>
       <c r="X91" s="5"/>
@@ -15339,71 +15342,71 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5">
-        <f t="shared" ref="G97:H97" si="188">SUM(G93:G96)</f>
+        <f t="shared" ref="G97:H97" si="191">SUM(G93:G96)</f>
         <v>-5371</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>-1669</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" ref="I97:L97" si="189">SUM(I93:I96)</f>
+        <f t="shared" ref="I97:L97" si="192">SUM(I93:I96)</f>
         <v>-9684</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>-10853</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>-3250</v>
       </c>
       <c r="L97" s="5">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>-1161</v>
       </c>
       <c r="M97" s="5">
-        <f t="shared" ref="M97:W97" si="190">SUM(M93:M96)</f>
+        <f t="shared" ref="M97:W97" si="193">SUM(M93:M96)</f>
         <v>-16171</v>
       </c>
       <c r="N97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-9729</v>
       </c>
       <c r="O97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-3132</v>
       </c>
       <c r="P97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-7150</v>
       </c>
       <c r="Q97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-3264</v>
       </c>
       <c r="R97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-9134</v>
       </c>
       <c r="S97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>503</v>
       </c>
       <c r="T97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-71925</v>
       </c>
       <c r="U97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-10700</v>
       </c>
       <c r="V97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-14848</v>
       </c>
       <c r="W97" s="5">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>-15201</v>
       </c>
       <c r="BG97" s="5"/>
@@ -15762,23 +15765,23 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5">
-        <f t="shared" ref="G104:H104" si="191">SUM(G99:G103)</f>
+        <f t="shared" ref="G104:H104" si="194">SUM(G99:G103)</f>
         <v>-10289</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>-13634</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" ref="I104:K104" si="192">SUM(I99:I103)</f>
+        <f t="shared" ref="I104:K104" si="195">SUM(I99:I103)</f>
         <v>-13192</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>-11371</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>-16276</v>
       </c>
       <c r="L104" s="5">
@@ -15802,31 +15805,31 @@
         <v>-11349</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" ref="Q104:W104" si="193">SUM(Q99:Q103)</f>
+        <f t="shared" ref="Q104:W104" si="196">SUM(Q99:Q103)</f>
         <v>-10290</v>
       </c>
       <c r="R104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>-11413</v>
       </c>
       <c r="S104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>14761</v>
       </c>
       <c r="T104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>-10147</v>
       </c>
       <c r="U104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>-18808</v>
       </c>
       <c r="V104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>-23563</v>
       </c>
       <c r="W104" s="5">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>-16576</v>
       </c>
       <c r="BG104" s="5"/>
@@ -15895,23 +15898,23 @@
         <v>67</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" ref="G106:H106" si="194">G104+G105+G97+G91</f>
+        <f t="shared" ref="G106:H106" si="197">G104+G105+G97+G91</f>
         <v>3629</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>-2773</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" ref="I106:K106" si="195">I104+I105+I97+I91</f>
+        <f t="shared" ref="I106:K106" si="198">I104+I105+I97+I91</f>
         <v>-730</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>522</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>4941</v>
       </c>
       <c r="L106" s="5">
@@ -15935,31 +15938,31 @@
         <v>-7238</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" ref="Q106:W106" si="196">Q104+Q105+Q97+Q91</f>
+        <f t="shared" ref="Q106:W106" si="199">Q104+Q105+Q97+Q91</f>
         <v>10916</v>
       </c>
       <c r="R106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>8142</v>
       </c>
       <c r="S106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>45748</v>
       </c>
       <c r="T106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>-63147</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>2329</v>
       </c>
       <c r="V106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>-1319</v>
       </c>
       <c r="W106" s="5">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>2525</v>
       </c>
     </row>
@@ -15968,23 +15971,23 @@
         <v>72</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" ref="G108:K108" si="197">G91+G93</f>
+        <f t="shared" ref="G108:K108" si="200">G91+G93</f>
         <v>14428</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>8342</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>17090</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>16258</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>18730</v>
       </c>
       <c r="L108" s="5">
@@ -15992,11 +15995,11 @@
         <v>8615</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" ref="M108:N108" si="198">M91+M93</f>
+        <f t="shared" ref="M108:N108" si="201">M91+M93</f>
         <v>20046</v>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>17758</v>
       </c>
       <c r="O108" s="5">
@@ -16008,31 +16011,31 @@
         <v>4899</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" ref="Q108:W108" si="199">Q91+Q93</f>
+        <f t="shared" ref="Q108:W108" si="202">Q91+Q93</f>
         <v>17834</v>
       </c>
       <c r="R108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>19827</v>
       </c>
       <c r="S108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>20666</v>
       </c>
       <c r="T108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>9118</v>
       </c>
       <c r="U108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>20965</v>
       </c>
       <c r="V108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>23322</v>
       </c>
       <c r="W108" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>19257</v>
       </c>
     </row>
@@ -16041,55 +16044,55 @@
         <v>103</v>
       </c>
       <c r="K109" s="4">
-        <f t="shared" ref="K109:P109" si="200">SUM(H108:K108)</f>
+        <f t="shared" ref="K109:P109" si="203">SUM(H108:K108)</f>
         <v>60420</v>
       </c>
       <c r="L109" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>60693</v>
       </c>
       <c r="M109" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>63649</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>65149</v>
       </c>
       <c r="O109" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>63334</v>
       </c>
       <c r="P109" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>59618</v>
       </c>
       <c r="Q109" s="4">
-        <f t="shared" ref="Q109:W109" si="201">SUM(N108:Q108)</f>
+        <f t="shared" ref="Q109:W109" si="204">SUM(N108:Q108)</f>
         <v>57406</v>
       </c>
       <c r="R109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>59475</v>
       </c>
       <c r="S109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>63226</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>67445</v>
       </c>
       <c r="U109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>70576</v>
       </c>
       <c r="V109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>74071</v>
       </c>
       <c r="W109" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>72662</v>
       </c>
     </row>
@@ -16098,31 +16101,31 @@
         <v>463</v>
       </c>
       <c r="O110" s="12">
-        <f t="shared" ref="O110:U110" si="202">+O109/K109-1</f>
+        <f t="shared" ref="O110:U110" si="205">+O109/K109-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="P110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="Q110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="R110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="S110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="T110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0.13128585326579212</v>
       </c>
       <c r="U110" s="12">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>0.22941852768003335</v>
       </c>
       <c r="V110" s="12">
@@ -16139,39 +16142,39 @@
         <v>464</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" ref="K111:S111" si="203">SUM(H93:K93)</f>
+        <f t="shared" ref="K111:S111" si="206">SUM(H93:K93)</f>
         <v>-21525</v>
       </c>
       <c r="L111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-23216</v>
       </c>
       <c r="M111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-23467</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-23886</v>
       </c>
       <c r="O111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-24359</v>
       </c>
       <c r="P111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-24768</v>
       </c>
       <c r="Q111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-26035</v>
       </c>
       <c r="R111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-28107</v>
       </c>
       <c r="S111" s="4">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>-31741</v>
       </c>
       <c r="T111" s="4">
@@ -16196,23 +16199,23 @@
         <v>463</v>
       </c>
       <c r="O112" s="12">
-        <f t="shared" ref="O112:S112" si="204">+O111/K111-1</f>
+        <f t="shared" ref="O112:S112" si="207">+O111/K111-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="P112" s="12">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="Q112" s="12">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="R112" s="12">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="S112" s="12">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="T112" s="12">
@@ -16436,95 +16439,95 @@
         <v>2</v>
       </c>
       <c r="AG118" s="4">
-        <f t="shared" ref="AG118:BC118" si="205">AG117*AG47</f>
+        <f t="shared" ref="AG118:BC118" si="208">AG117*AG47</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AH118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AI118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AJ118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AK118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AL118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AM118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>298261.112605042</v>
       </c>
       <c r="AN118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AO118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AP118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AQ118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AR118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AS118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AT118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AU118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AV118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>151214.58181818182</v>
       </c>
       <c r="AW118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>242693.07615855773</v>
       </c>
       <c r="AX118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>213717.28455478634</v>
       </c>
       <c r="AY118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>198199.0335202195</v>
       </c>
       <c r="AZ118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>206380.61592027853</v>
       </c>
       <c r="BA118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>290064.69972083991</v>
       </c>
       <c r="BB118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BC118" s="4">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -16533,95 +16536,95 @@
         <v>5</v>
       </c>
       <c r="AG119" s="4">
-        <f t="shared" ref="AG119:BC119" si="206">AG118-AG62</f>
+        <f t="shared" ref="AG119:BC119" si="209">AG118-AG62</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AH119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AI119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AJ119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AK119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AL119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AM119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>256737.112605042</v>
       </c>
       <c r="AN119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AO119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AP119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AQ119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AR119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AS119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AT119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AU119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AV119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>120580.58181818182</v>
       </c>
       <c r="AW119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>204090.07615855773</v>
       </c>
       <c r="AX119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>162001.28455478634</v>
       </c>
       <c r="AY119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>137327.0335202195</v>
       </c>
       <c r="AZ119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>134114.61592027853</v>
       </c>
       <c r="BA119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>212403.69972083991</v>
       </c>
       <c r="BB119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BC119" s="4">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -16630,95 +16633,95 @@
         <v>223</v>
       </c>
       <c r="AG120" s="24">
-        <f t="shared" ref="AG120:BC120" si="207">AG119/AG45</f>
+        <f t="shared" ref="AG120:BC120" si="210">AG119/AG45</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AH120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AI120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AJ120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AK120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AL120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AM120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AN120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AO120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AP120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AQ120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AR120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AS120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AT120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AU120" s="24">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AV120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="AW120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>10.844894848746359</v>
       </c>
       <c r="AX120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="AY120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="AZ120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="BA120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="BB120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>16.98126691222053</v>
       </c>
       <c r="BC120" s="25">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>24.376806374951329</v>
       </c>
     </row>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9568D5-6EDA-4F9F-BBD1-BE56B53582F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632B391-C5E6-4025-92A7-6183C5E5FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30120" yWindow="1275" windowWidth="26610" windowHeight="13410" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2218,16 +2218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36221</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58118</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>39413</xdr:rowOff>
+      <xdr:rowOff>21896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36221</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58118</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>67988</xdr:rowOff>
+      <xdr:rowOff>50471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2242,8 +2242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15532411" y="39413"/>
-          <a:ext cx="0" cy="19571247"/>
+          <a:off x="16966635" y="21896"/>
+          <a:ext cx="0" cy="19218713"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2804,14 +2804,14 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="13">
       <c r="B2" s="17" t="s">
         <v>130</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" ht="13">
       <c r="B11" s="17" t="s">
         <v>126</v>
       </c>
@@ -3126,22 +3126,22 @@
   <dimension ref="A1:DW125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Q86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomRight" activeCell="T93" sqref="Q93:T93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
     <col min="3" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="14" width="9.85546875" style="2" customWidth="1"/>
-    <col min="15" max="26" width="9.85546875" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" customWidth="1"/>
-    <col min="59" max="62" width="9.140625" style="2"/>
-    <col min="72" max="72" width="10.7109375" customWidth="1"/>
+    <col min="7" max="14" width="9.81640625" style="2" customWidth="1"/>
+    <col min="15" max="26" width="9.81640625" customWidth="1"/>
+    <col min="33" max="33" width="9.54296875" customWidth="1"/>
+    <col min="59" max="62" width="9.1796875" style="2"/>
+    <col min="72" max="72" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69">
@@ -3620,7 +3620,7 @@
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
     </row>
-    <row r="5" spans="1:69" s="19" customFormat="1">
+    <row r="5" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B5" s="19" t="s">
         <v>151</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="BP5" s="20"/>
       <c r="BQ5" s="20"/>
     </row>
-    <row r="6" spans="1:69" s="19" customFormat="1">
+    <row r="6" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3749,7 +3749,7 @@
       <c r="BP6" s="20"/>
       <c r="BQ6" s="20"/>
     </row>
-    <row r="7" spans="1:69" s="19" customFormat="1">
+    <row r="7" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="BP7" s="20"/>
       <c r="BQ7" s="20"/>
     </row>
-    <row r="8" spans="1:69" s="19" customFormat="1">
+    <row r="8" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B8" t="s">
         <v>462</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="BP8" s="20"/>
       <c r="BQ8" s="20"/>
     </row>
-    <row r="9" spans="1:69" s="19" customFormat="1">
+    <row r="9" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B9" t="s">
         <v>471</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="BP9" s="20"/>
       <c r="BQ9" s="20"/>
     </row>
-    <row r="10" spans="1:69" s="19" customFormat="1">
+    <row r="10" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B10" t="s">
         <v>110</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="BP10" s="20"/>
       <c r="BQ10" s="20"/>
     </row>
-    <row r="11" spans="1:69" s="19" customFormat="1">
+    <row r="11" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B11" t="s">
         <v>412</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="BP11" s="20"/>
       <c r="BQ11" s="20"/>
     </row>
-    <row r="12" spans="1:69" s="19" customFormat="1">
+    <row r="12" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="BP12" s="20"/>
       <c r="BQ12" s="20"/>
     </row>
-    <row r="13" spans="1:69" s="19" customFormat="1">
+    <row r="13" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B13" t="s">
         <v>457</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="BP13" s="20"/>
       <c r="BQ13" s="20"/>
     </row>
-    <row r="14" spans="1:69" s="19" customFormat="1">
+    <row r="14" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B14" t="s">
         <v>458</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="BP14" s="20"/>
       <c r="BQ14" s="20"/>
     </row>
-    <row r="15" spans="1:69" s="19" customFormat="1">
+    <row r="15" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B15" t="s">
         <v>111</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="BP15" s="20"/>
       <c r="BQ15" s="20"/>
     </row>
-    <row r="16" spans="1:69" s="19" customFormat="1">
+    <row r="16" spans="1:69" s="19" customFormat="1" ht="13">
       <c r="B16" t="s">
         <v>459</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="BP16" s="20"/>
       <c r="BQ16" s="20"/>
     </row>
-    <row r="17" spans="2:69" s="19" customFormat="1">
+    <row r="17" spans="2:69" s="19" customFormat="1" ht="13">
       <c r="B17" t="s">
         <v>472</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="BP17" s="20"/>
       <c r="BQ17" s="20"/>
     </row>
-    <row r="18" spans="2:69" s="19" customFormat="1">
+    <row r="18" spans="2:69" s="19" customFormat="1" ht="13">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="BP18" s="20"/>
       <c r="BQ18" s="20"/>
     </row>
-    <row r="19" spans="2:69" s="19" customFormat="1">
+    <row r="19" spans="2:69" s="19" customFormat="1" ht="13">
       <c r="B19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -5135,7 +5135,7 @@
       <c r="BP19" s="20"/>
       <c r="BQ19" s="20"/>
     </row>
-    <row r="20" spans="2:69" s="19" customFormat="1">
+    <row r="20" spans="2:69" s="19" customFormat="1" ht="13">
       <c r="B20" t="s">
         <v>469</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="BP20" s="20"/>
       <c r="BQ20" s="20"/>
     </row>
-    <row r="21" spans="2:69">
+    <row r="21" spans="2:69" ht="13">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="2:69">
+    <row r="22" spans="2:69" ht="13">
       <c r="B22" s="19" t="s">
         <v>153</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="2:69">
+    <row r="24" spans="2:69" ht="13">
       <c r="B24" s="19" t="s">
         <v>412</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>299922.44280240015</v>
       </c>
     </row>
-    <row r="32" spans="2:69" s="6" customFormat="1">
+    <row r="32" spans="2:69" s="6" customFormat="1" ht="13">
       <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>155981.46106283457</v>
       </c>
     </row>
-    <row r="46" spans="2:127" s="3" customFormat="1">
+    <row r="46" spans="2:127" s="3" customFormat="1" ht="13">
       <c r="B46" s="6" t="s">
         <v>33</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:72" s="3" customFormat="1">
+    <row r="49" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B49" s="6" t="s">
         <v>34</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" ref="S49:Y49" si="142">S32/O32-1</f>
+        <f t="shared" ref="S49:X49" si="142">S32/O32-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="T49" s="10">
@@ -10037,7 +10037,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:72" s="3" customFormat="1">
+    <row r="50" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B50" s="6" t="s">
         <v>104</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="2:72" s="3" customFormat="1">
+    <row r="51" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B51" s="6" t="s">
         <v>158</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>1960781.0577362834</v>
       </c>
     </row>
-    <row r="52" spans="2:72" s="3" customFormat="1">
+    <row r="52" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B52" s="6" t="s">
         <v>415</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>262.48742406108209</v>
       </c>
     </row>
-    <row r="53" spans="2:72" s="3" customFormat="1">
+    <row r="53" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B53" s="6" t="s">
         <v>413</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="BS53"/>
       <c r="BT53" s="12"/>
     </row>
-    <row r="54" spans="2:72" s="3" customFormat="1">
+    <row r="54" spans="2:72" s="3" customFormat="1" ht="13">
       <c r="B54" s="6" t="s">
         <v>414</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="BI70" s="5"/>
       <c r="BJ70" s="5"/>
     </row>
-    <row r="71" spans="2:62" s="6" customFormat="1">
+    <row r="71" spans="2:62" s="6" customFormat="1" ht="13">
       <c r="B71" s="6" t="s">
         <v>41</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="BI81" s="5"/>
       <c r="BJ81" s="5"/>
     </row>
-    <row r="82" spans="2:62" s="6" customFormat="1">
+    <row r="82" spans="2:62" s="6" customFormat="1" ht="13">
       <c r="B82" s="6" t="s">
         <v>71</v>
       </c>
@@ -15119,6 +15119,9 @@
       <c r="W93" s="4">
         <v>-14923</v>
       </c>
+      <c r="X93" s="4">
+        <v>-15804</v>
+      </c>
       <c r="BG93" s="5"/>
       <c r="BH93" s="5"/>
       <c r="BI93" s="5"/>
@@ -16337,7 +16340,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="117" spans="2:55">
+    <row r="117" spans="2:55" ht="13">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>436539.84856262838</v>
       </c>
     </row>
-    <row r="120" spans="2:55">
+    <row r="120" spans="2:55" ht="13">
       <c r="B120" t="s">
         <v>223</v>
       </c>
@@ -16725,7 +16728,7 @@
         <v>24.376806374951329</v>
       </c>
     </row>
-    <row r="123" spans="2:55">
+    <row r="123" spans="2:55" ht="13">
       <c r="AG123">
         <f>2023-1994</f>
         <v>29</v>
@@ -16798,7 +16801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:55">
+    <row r="124" spans="2:55" ht="13">
       <c r="AG124" s="4">
         <f>AG118*1.17^29</f>
         <v>1968287.8584171364</v>
@@ -16892,7 +16895,7 @@
         <v>1967776.1368191752</v>
       </c>
     </row>
-    <row r="125" spans="2:55">
+    <row r="125" spans="2:55" ht="13">
       <c r="AG125" s="12">
         <v>0.17</v>
       </c>
@@ -16982,7 +16985,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17056,7 +17059,7 @@
       <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -17169,7 +17172,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -17235,7 +17238,7 @@
       <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2">
@@ -17305,7 +17308,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="13">
       <c r="B15" s="23" t="s">
         <v>202</v>
       </c>
@@ -18050,14 +18053,14 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" ht="13">
       <c r="B178" s="26"/>
       <c r="C178" s="27"/>
       <c r="D178" s="26"/>
       <c r="E178" s="27"/>
       <c r="F178" s="26"/>
     </row>
-    <row r="179" spans="2:6" ht="13.5" thickBot="1">
+    <row r="179" spans="2:6" ht="13" thickBot="1">
       <c r="B179" s="28" t="s">
         <v>349</v>
       </c>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1597D6A-6468-4E37-B4E7-D40A32D1C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB7252-78FA-43AD-B15E-958FF7FCC87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48090" yWindow="3510" windowWidth="18285" windowHeight="15345" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="43500" yWindow="2590" windowWidth="22310" windowHeight="13390" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,7 @@
     <author>tc={8F896F81-6E53-40A7-B585-0CF468064875}</author>
     <author>tc={1708469E-E4B0-42B4-A74A-7F2EA54BA260}</author>
     <author>Martin Shkreli</author>
+    <author>tc={D7F9B206-8C01-4F90-A64E-F20C90D4999F}</author>
     <author>tc={A0430351-424E-4888-96FD-79404C358012}</author>
     <author>tc={7E9BCCA4-1A9A-4F06-8F56-AD948C1F9AEB}</author>
     <author>tc={4186E1B7-27BA-4064-8D1E-8ED4CB51C8F1}</author>
@@ -94,6 +95,7 @@
     <author>tc={21797C47-1950-4375-853A-A1712EF01174}</author>
     <author>tc={AA439B2E-FC6E-4E0D-A042-CA20F999D88F}</author>
     <author>tc={1CD8F411-765D-4154-9E6A-8137C38BB816}</author>
+    <author>tc={BBA0104C-8A16-4A96-9E2C-AD8EE02A03E1}</author>
     <author>tc={06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}</author>
     <author>tc={575D0825-4C80-4173-A064-BC46798AA03A}</author>
     <author>tc={D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}</author>
@@ -104,6 +106,7 @@
     <author>tc={730404D6-8355-478B-BCFF-9D938DC1FD29}</author>
     <author>tc={DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}</author>
     <author>tc={3513708C-C4BB-45CB-8048-7F460E607C81}</author>
+    <author>tc={1BD8C4AA-87BE-4895-8BF4-FDA372A05357}</author>
     <author>tc={76D53B89-C9A8-4A1F-A500-58B63D0047E4}</author>
     <author>tc={48B23987-2CE7-423E-ACAE-6D661625B256}</author>
     <author>tc={6A8206A7-827A-4B9C-8CF5-46B679BA4558}</author>
@@ -333,7 +336,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA27" authorId="24" shapeId="0" xr:uid="{A0430351-424E-4888-96FD-79404C358012}">
+    <comment ref="Y27" authorId="24" shapeId="0" xr:uid="{D7F9B206-8C01-4F90-A64E-F20C90D4999F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Recast from 19570</t>
+      </text>
+    </comment>
+    <comment ref="AA27" authorId="25" shapeId="0" xr:uid="{A0430351-424E-4888-96FD-79404C358012}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -341,7 +352,7 @@
     Q4 guidance: 20.3-20.6</t>
       </text>
     </comment>
-    <comment ref="AB27" authorId="25" shapeId="0" xr:uid="{7E9BCCA4-1A9A-4F06-8F56-AD948C1F9AEB}">
+    <comment ref="AB27" authorId="26" shapeId="0" xr:uid="{7E9BCCA4-1A9A-4F06-8F56-AD948C1F9AEB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -349,7 +360,7 @@
     Q1 guidance: 28.7-29.0B</t>
       </text>
     </comment>
-    <comment ref="AC27" authorId="26" shapeId="0" xr:uid="{4186E1B7-27BA-4064-8D1E-8ED4CB51C8F1}">
+    <comment ref="AC27" authorId="27" shapeId="0" xr:uid="{4186E1B7-27BA-4064-8D1E-8ED4CB51C8F1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -357,7 +368,7 @@
     Q2 guidance: 29.4-29.7B</t>
       </text>
     </comment>
-    <comment ref="BN27" authorId="27" shapeId="0" xr:uid="{6C2A9AED-575A-4447-8CAD-2E4A869395ED}">
+    <comment ref="BN27" authorId="28" shapeId="0" xr:uid="{6C2A9AED-575A-4447-8CAD-2E4A869395ED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -366,7 +377,7 @@
 LinkedIn $15B</t>
       </text>
     </comment>
-    <comment ref="O28" authorId="28" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
+    <comment ref="O28" authorId="29" shapeId="0" xr:uid="{1194B53B-11DF-4936-8FD7-77F49319A1C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -374,7 +385,7 @@
     16964 old</t>
       </text>
     </comment>
-    <comment ref="T28" authorId="29" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
+    <comment ref="T28" authorId="30" shapeId="0" xr:uid="{B7D8227E-9C6A-4B9D-BCEB-E38F55E93FBB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -383,7 +394,7 @@
 Grew from Nuance</t>
       </text>
     </comment>
-    <comment ref="U28" authorId="30" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
+    <comment ref="U28" authorId="31" shapeId="0" xr:uid="{C7BC1CA5-759B-43A0-833B-88C4CD54B000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -391,7 +402,7 @@
     Q223 guidance: 21.7-22.0B</t>
       </text>
     </comment>
-    <comment ref="V28" authorId="31" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
+    <comment ref="V28" authorId="32" shapeId="0" xr:uid="{21797C47-1950-4375-853A-A1712EF01174}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -399,7 +410,7 @@
     Guidance: 23.6-23.9B</t>
       </text>
     </comment>
-    <comment ref="W28" authorId="32" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
+    <comment ref="W28" authorId="33" shapeId="0" xr:uid="{AA439B2E-FC6E-4E0D-A042-CA20F999D88F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -408,7 +419,7 @@
 Recast from 24,259</t>
       </text>
     </comment>
-    <comment ref="X28" authorId="33" shapeId="0" xr:uid="{1CD8F411-765D-4154-9E6A-8137C38BB816}">
+    <comment ref="X28" authorId="34" shapeId="0" xr:uid="{1CD8F411-765D-4154-9E6A-8137C38BB816}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -416,7 +427,15 @@
     Was 25,880</t>
       </text>
     </comment>
-    <comment ref="AA28" authorId="34" shapeId="0" xr:uid="{06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}">
+    <comment ref="Y28" authorId="35" shapeId="0" xr:uid="{BBA0104C-8A16-4A96-9E2C-AD8EE02A03E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Recast from 26708</t>
+      </text>
+    </comment>
+    <comment ref="AA28" authorId="36" shapeId="0" xr:uid="{06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -424,7 +443,7 @@
     Q4 guidance: 28.6-28.9</t>
       </text>
     </comment>
-    <comment ref="AB28" authorId="35" shapeId="0" xr:uid="{575D0825-4C80-4173-A064-BC46798AA03A}">
+    <comment ref="AB28" authorId="37" shapeId="0" xr:uid="{575D0825-4C80-4173-A064-BC46798AA03A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -432,7 +451,7 @@
     Q1 guidance: 25.50-25.85B</t>
       </text>
     </comment>
-    <comment ref="AC28" authorId="36" shapeId="0" xr:uid="{D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}">
+    <comment ref="AC28" authorId="38" shapeId="0" xr:uid="{D794CECC-1BAE-4B21-8F7F-C698B1CC85A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -440,7 +459,7 @@
     Q2 guidance: 25.9-26.2B</t>
       </text>
     </comment>
-    <comment ref="B29" authorId="37" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
+    <comment ref="B29" authorId="39" shapeId="0" xr:uid="{EC9B7190-CE1A-4E78-A2EF-A3F3AADAB339}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -448,7 +467,7 @@
     Windows, Gaming, Devices, Search and News Advertising</t>
       </text>
     </comment>
-    <comment ref="O29" authorId="38" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
+    <comment ref="O29" authorId="40" shapeId="0" xr:uid="{F728FAC2-51F0-4023-AB40-41F83CEF5C89}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -456,7 +475,7 @@
     13314 prior</t>
       </text>
     </comment>
-    <comment ref="T29" authorId="39" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
+    <comment ref="T29" authorId="41" shapeId="0" xr:uid="{A9249A39-B9EC-4BC7-B87E-1B27108C92D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -466,7 +485,7 @@
 Surface "execution challenges" on new product launches</t>
       </text>
     </comment>
-    <comment ref="U29" authorId="40" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
+    <comment ref="U29" authorId="42" shapeId="0" xr:uid="{246E0C01-DF1D-4F91-A337-4DE00EFEDDC8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -474,7 +493,7 @@
     FQ223 guidance: 11.9-12.3B</t>
       </text>
     </comment>
-    <comment ref="V29" authorId="41" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
+    <comment ref="V29" authorId="43" shapeId="0" xr:uid="{730404D6-8355-478B-BCFF-9D938DC1FD29}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -483,7 +502,7 @@
 Xandr acquisition benefit</t>
       </text>
     </comment>
-    <comment ref="W29" authorId="42" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
+    <comment ref="W29" authorId="44" shapeId="0" xr:uid="{DCFC0E54-F0B5-4901-BBC6-12237E7E3B9E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -492,7 +511,7 @@
 Was 13666, recast to 11278</t>
       </text>
     </comment>
-    <comment ref="X29" authorId="43" shapeId="0" xr:uid="{3513708C-C4BB-45CB-8048-7F460E607C81}">
+    <comment ref="X29" authorId="45" shapeId="0" xr:uid="{3513708C-C4BB-45CB-8048-7F460E607C81}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -500,7 +519,15 @@
     Was 16,891</t>
       </text>
     </comment>
-    <comment ref="AA29" authorId="44" shapeId="0" xr:uid="{76D53B89-C9A8-4A1F-A500-58B63D0047E4}">
+    <comment ref="Y29" authorId="46" shapeId="0" xr:uid="{1BD8C4AA-87BE-4895-8BF4-FDA372A05357}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Recast from 15580</t>
+      </text>
+    </comment>
+    <comment ref="AA29" authorId="47" shapeId="0" xr:uid="{76D53B89-C9A8-4A1F-A500-58B63D0047E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -508,7 +535,7 @@
     Q4 guidance: 14.9-15.3</t>
       </text>
     </comment>
-    <comment ref="AB29" authorId="45" shapeId="0" xr:uid="{48B23987-2CE7-423E-ACAE-6D661625B256}">
+    <comment ref="AB29" authorId="48" shapeId="0" xr:uid="{48B23987-2CE7-423E-ACAE-6D661625B256}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -516,7 +543,7 @@
     Q1 guidance: 13.85B-14.25B</t>
       </text>
     </comment>
-    <comment ref="AC29" authorId="46" shapeId="0" xr:uid="{6A8206A7-827A-4B9C-8CF5-46B679BA4558}">
+    <comment ref="AC29" authorId="49" shapeId="0" xr:uid="{6A8206A7-827A-4B9C-8CF5-46B679BA4558}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +551,7 @@
     Q2 guidance:: 12.4B-12.8B </t>
       </text>
     </comment>
-    <comment ref="AI29" authorId="47" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
+    <comment ref="AI29" authorId="50" shapeId="0" xr:uid="{1C31850E-87A1-42A5-A544-D7C66ECB0D78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -532,7 +559,7 @@
     Hardware 254m</t>
       </text>
     </comment>
-    <comment ref="AJ29" authorId="48" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
+    <comment ref="AJ29" authorId="51" shapeId="0" xr:uid="{6CD6DA57-15E4-4617-9E8A-DE627D4291F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -540,7 +567,7 @@
     Hardware 233m</t>
       </text>
     </comment>
-    <comment ref="AK29" authorId="49" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
+    <comment ref="AK29" authorId="52" shapeId="0" xr:uid="{530E3A34-4790-4FEE-B8A2-EEE361836B57}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -548,7 +575,7 @@
     Hardware 203m</t>
       </text>
     </comment>
-    <comment ref="T33" authorId="50" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
+    <comment ref="T33" authorId="53" shapeId="0" xr:uid="{6550F107-B2DD-468B-9840-A88B103B8C6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -557,7 +584,7 @@
 US weaker than expected</t>
       </text>
     </comment>
-    <comment ref="U33" authorId="51" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
+    <comment ref="U33" authorId="54" shapeId="0" xr:uid="{B0B4B47A-77DB-4469-A3F3-BA8FF53995B8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -566,7 +593,7 @@
 Q223 guidance: 50.5-51.5B</t>
       </text>
     </comment>
-    <comment ref="V33" authorId="52" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
+    <comment ref="V33" authorId="55" shapeId="0" xr:uid="{672EF133-CF99-4F62-BC53-D74F59EFAF45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -575,7 +602,7 @@
 FQ323 Guidance: 54.850-55.80B</t>
       </text>
     </comment>
-    <comment ref="BL33" authorId="53" shapeId="0" xr:uid="{5ABABD65-6006-454E-8377-B6AC9472B498}">
+    <comment ref="BL33" authorId="56" shapeId="0" xr:uid="{5ABABD65-6006-454E-8377-B6AC9472B498}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -583,7 +610,7 @@
     March 2022 - Nuance deal closes</t>
       </text>
     </comment>
-    <comment ref="W36" authorId="54" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
+    <comment ref="W36" authorId="57" shapeId="0" xr:uid="{667BC7EE-5E86-47FC-B964-2C031A25E303}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -591,7 +618,7 @@
     16.6-16.8B - Q423</t>
       </text>
     </comment>
-    <comment ref="AB41" authorId="55" shapeId="0" xr:uid="{E1D462E3-FE87-45D3-BF08-737DAD82C45D}">
+    <comment ref="AB41" authorId="58" shapeId="0" xr:uid="{E1D462E3-FE87-45D3-BF08-737DAD82C45D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -599,7 +626,7 @@
     Q1 guidance: 16.4-16.5B</t>
       </text>
     </comment>
-    <comment ref="BO42" authorId="56" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
+    <comment ref="BO42" authorId="59" shapeId="0" xr:uid="{7492A336-ABB9-4529-8350-AF762E5855FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -607,7 +634,7 @@
     Expect flat OM% y/y</t>
       </text>
     </comment>
-    <comment ref="V47" authorId="57" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
+    <comment ref="V47" authorId="60" shapeId="0" xr:uid="{48518769-DF2C-4CE7-8344-8EDB6814ABC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -639,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="58" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
+    <comment ref="T51" authorId="61" shapeId="0" xr:uid="{207240C6-AA0E-47C1-A8DC-C70F3CF7F6CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -647,7 +674,7 @@
     Bookings +4% y/y</t>
       </text>
     </comment>
-    <comment ref="V53" authorId="59" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
+    <comment ref="V53" authorId="62" shapeId="0" xr:uid="{615EEB63-0CBB-48DD-AEFA-DCC9511390CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -2348,16 +2375,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>58118</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44979</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>58118</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44979</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>50471</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2372,8 +2399,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16966635" y="21896"/>
-          <a:ext cx="0" cy="19218713"/>
+          <a:off x="20443807" y="0"/>
+          <a:ext cx="0" cy="19385127"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2832,6 +2859,9 @@
     <text>18000-18300 guidance Q423
 Recast from 18,592</text>
   </threadedComment>
+  <threadedComment ref="Y27" dT="2025-04-30T20:34:20.77" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{D7F9B206-8C01-4F90-A64E-F20C90D4999F}">
+    <text>Recast from 19570</text>
+  </threadedComment>
   <threadedComment ref="AA27" dT="2024-09-22T15:24:08.93" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{A0430351-424E-4888-96FD-79404C358012}">
     <text>Q4 guidance: 20.3-20.6</text>
   </threadedComment>
@@ -2864,6 +2894,9 @@
   </threadedComment>
   <threadedComment ref="X28" dT="2025-03-17T12:16:31.21" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{1CD8F411-765D-4154-9E6A-8137C38BB816}">
     <text>Was 25,880</text>
+  </threadedComment>
+  <threadedComment ref="Y28" dT="2025-04-30T20:33:43.84" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{BBA0104C-8A16-4A96-9E2C-AD8EE02A03E1}">
+    <text>Recast from 26708</text>
   </threadedComment>
   <threadedComment ref="AA28" dT="2024-09-22T15:24:17.65" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{06B3106E-8D95-4ED7-A96C-DF96D1DF1BC4}">
     <text>Q4 guidance: 28.6-28.9</text>
@@ -2898,6 +2931,9 @@
   </threadedComment>
   <threadedComment ref="X29" dT="2025-03-17T12:16:50.27" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{3513708C-C4BB-45CB-8048-7F460E607C81}">
     <text>Was 16,891</text>
+  </threadedComment>
+  <threadedComment ref="Y29" dT="2025-04-30T20:33:20.63" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{1BD8C4AA-87BE-4895-8BF4-FDA372A05357}">
+    <text>Recast from 15580</text>
   </threadedComment>
   <threadedComment ref="AA29" dT="2024-09-22T15:24:28.39" personId="{2ADAC7E3-86EF-4E60-96A3-ED0BEE011F1E}" id="{76D53B89-C9A8-4A1F-A500-58B63D0047E4}">
     <text>Q4 guidance: 14.9-15.3</text>
@@ -2961,14 +2997,14 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="13">
       <c r="B2" s="17" t="s">
         <v>130</v>
       </c>
@@ -3062,7 +3098,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" ht="13">
       <c r="B11" s="17" t="s">
         <v>126</v>
       </c>
@@ -3283,23 +3319,23 @@
   <dimension ref="A1:EA126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BR38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BZ54" sqref="BZ54"/>
+      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
     <col min="3" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="18" width="9.85546875" style="2" customWidth="1"/>
-    <col min="19" max="30" width="9.85546875" customWidth="1"/>
-    <col min="37" max="59" width="9.5703125" customWidth="1"/>
-    <col min="63" max="66" width="9.140625" style="2"/>
-    <col min="76" max="76" width="10.7109375" customWidth="1"/>
-    <col min="78" max="78" width="10.28515625" customWidth="1"/>
+    <col min="11" max="18" width="9.81640625" style="2" customWidth="1"/>
+    <col min="19" max="30" width="9.81640625" customWidth="1"/>
+    <col min="37" max="59" width="9.54296875" customWidth="1"/>
+    <col min="63" max="66" width="9.1796875" style="2"/>
+    <col min="76" max="76" width="10.7265625" customWidth="1"/>
+    <col min="78" max="78" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73">
@@ -3784,7 +3820,9 @@
       <c r="AB4" s="2">
         <v>298</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="2">
+        <v>315</v>
+      </c>
       <c r="AD4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
@@ -3804,7 +3842,7 @@
       <c r="BT4" s="2"/>
       <c r="BU4" s="2"/>
     </row>
-    <row r="5" spans="1:73" s="19" customFormat="1">
+    <row r="5" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B5" s="19" t="s">
         <v>151</v>
       </c>
@@ -3834,7 +3872,7 @@
         <v>0.16</v>
       </c>
       <c r="T5" s="21">
-        <f t="shared" ref="T5:AB5" si="1">+T4/P4-1</f>
+        <f t="shared" ref="T5:AC5" si="1">+T4/P4-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="U5" s="21">
@@ -3869,7 +3907,10 @@
         <f t="shared" si="1"/>
         <v>0.3423423423423424</v>
       </c>
-      <c r="AC5" s="20"/>
+      <c r="AC5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.34042553191489366</v>
+      </c>
       <c r="AD5" s="20"/>
       <c r="BA5" s="20"/>
       <c r="BB5" s="20"/>
@@ -3893,7 +3934,7 @@
       <c r="BT5" s="20"/>
       <c r="BU5" s="20"/>
     </row>
-    <row r="6" spans="1:73" s="19" customFormat="1">
+    <row r="6" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3944,7 +3985,7 @@
       <c r="BT6" s="20"/>
       <c r="BU6" s="20"/>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:73" ht="13">
       <c r="B7" t="s">
         <v>475</v>
       </c>
@@ -3983,7 +4024,7 @@
       <c r="BT7" s="2"/>
       <c r="BU7" s="2"/>
     </row>
-    <row r="8" spans="1:73" s="19" customFormat="1">
+    <row r="8" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -4053,8 +4094,7 @@
         <v>40900</v>
       </c>
       <c r="AC8" s="7">
-        <f>+Y8*1.2</f>
-        <v>42120</v>
+        <v>42400</v>
       </c>
       <c r="AD8" s="7">
         <f>+Z8*1.2</f>
@@ -4098,7 +4138,7 @@
       </c>
       <c r="BP8" s="7">
         <f>SUM(AA8:AD8)</f>
-        <v>166080</v>
+        <v>166360</v>
       </c>
       <c r="BQ8" s="2"/>
       <c r="BR8" s="20"/>
@@ -4106,7 +4146,7 @@
       <c r="BT8" s="20"/>
       <c r="BU8" s="20"/>
     </row>
-    <row r="9" spans="1:73" s="19" customFormat="1">
+    <row r="9" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B9" t="s">
         <v>462</v>
       </c>
@@ -4242,7 +4282,7 @@
       <c r="BT9" s="20"/>
       <c r="BU9" s="20"/>
     </row>
-    <row r="10" spans="1:73" s="19" customFormat="1">
+    <row r="10" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B10" t="s">
         <v>471</v>
       </c>
@@ -4378,7 +4418,7 @@
       <c r="BT10" s="20"/>
       <c r="BU10" s="20"/>
     </row>
-    <row r="11" spans="1:73" s="19" customFormat="1">
+    <row r="11" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B11" t="s">
         <v>110</v>
       </c>
@@ -4514,7 +4554,7 @@
       <c r="BT11" s="20"/>
       <c r="BU11" s="20"/>
     </row>
-    <row r="12" spans="1:73" s="19" customFormat="1">
+    <row r="12" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B12" t="s">
         <v>412</v>
       </c>
@@ -4650,7 +4690,7 @@
       <c r="BT12" s="20"/>
       <c r="BU12" s="20"/>
     </row>
-    <row r="13" spans="1:73" s="19" customFormat="1">
+    <row r="13" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B13" t="s">
         <v>87</v>
       </c>
@@ -4786,7 +4826,7 @@
       <c r="BT13" s="20"/>
       <c r="BU13" s="20"/>
     </row>
-    <row r="14" spans="1:73" s="19" customFormat="1">
+    <row r="14" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B14" t="s">
         <v>457</v>
       </c>
@@ -4918,7 +4958,7 @@
       <c r="BT14" s="20"/>
       <c r="BU14" s="20"/>
     </row>
-    <row r="15" spans="1:73" s="19" customFormat="1">
+    <row r="15" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B15" t="s">
         <v>458</v>
       </c>
@@ -5048,7 +5088,7 @@
       <c r="BT15" s="20"/>
       <c r="BU15" s="20"/>
     </row>
-    <row r="16" spans="1:73" s="19" customFormat="1">
+    <row r="16" spans="1:73" s="19" customFormat="1" ht="13">
       <c r="B16" t="s">
         <v>111</v>
       </c>
@@ -5172,7 +5212,7 @@
       <c r="BT16" s="20"/>
       <c r="BU16" s="20"/>
     </row>
-    <row r="17" spans="2:73" s="19" customFormat="1">
+    <row r="17" spans="2:73" s="19" customFormat="1" ht="13">
       <c r="B17" t="s">
         <v>459</v>
       </c>
@@ -5306,7 +5346,7 @@
       <c r="BT17" s="20"/>
       <c r="BU17" s="20"/>
     </row>
-    <row r="18" spans="2:73" s="19" customFormat="1">
+    <row r="18" spans="2:73" s="19" customFormat="1" ht="13">
       <c r="B18" t="s">
         <v>472</v>
       </c>
@@ -5377,7 +5417,7 @@
       <c r="BT18" s="20"/>
       <c r="BU18" s="20"/>
     </row>
-    <row r="19" spans="2:73" s="19" customFormat="1">
+    <row r="19" spans="2:73" s="19" customFormat="1" ht="13">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -5501,7 +5541,7 @@
       <c r="BT19" s="20"/>
       <c r="BU19" s="20"/>
     </row>
-    <row r="20" spans="2:73" s="19" customFormat="1">
+    <row r="20" spans="2:73" s="19" customFormat="1" ht="13">
       <c r="B20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -5553,7 +5593,7 @@
       <c r="BT20" s="20"/>
       <c r="BU20" s="20"/>
     </row>
-    <row r="21" spans="2:73" s="19" customFormat="1">
+    <row r="21" spans="2:73" s="19" customFormat="1" ht="13">
       <c r="B21" t="s">
         <v>469</v>
       </c>
@@ -5612,7 +5652,7 @@
       </c>
       <c r="AC21" s="21">
         <f t="shared" si="9"/>
-        <v>0.19999999999999996</v>
+        <v>0.20797720797720798</v>
       </c>
       <c r="AD21" s="20"/>
       <c r="BA21" s="20"/>
@@ -5656,7 +5696,7 @@
       </c>
       <c r="BP21" s="21">
         <f>BP8/BO8-1</f>
-        <v>0.20873362445414845</v>
+        <v>0.21077147016011644</v>
       </c>
       <c r="BQ21" s="20"/>
       <c r="BR21" s="20"/>
@@ -5664,7 +5704,7 @@
       <c r="BT21" s="20"/>
       <c r="BU21" s="20"/>
     </row>
-    <row r="22" spans="2:73">
+    <row r="22" spans="2:73" ht="13">
       <c r="B22" t="s">
         <v>87</v>
       </c>
@@ -5690,7 +5730,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="23" spans="2:73">
+    <row r="23" spans="2:73" ht="13">
       <c r="B23" s="19" t="s">
         <v>153</v>
       </c>
@@ -5748,7 +5788,9 @@
       <c r="AB23" s="2">
         <v>86.3</v>
       </c>
-      <c r="AC23" s="2"/>
+      <c r="AC23" s="2">
+        <v>87.7</v>
+      </c>
       <c r="AD23" s="2"/>
     </row>
     <row r="24" spans="2:73">
@@ -5765,7 +5807,7 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="2:73">
+    <row r="25" spans="2:73" ht="13">
       <c r="B25" s="19" t="s">
         <v>412</v>
       </c>
@@ -5861,7 +5903,7 @@
         <v>25854</v>
       </c>
       <c r="Y27" s="4">
-        <v>19570</v>
+        <v>27113</v>
       </c>
       <c r="Z27" s="4">
         <v>20317</v>
@@ -5873,11 +5915,10 @@
         <v>29437</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" ref="AC27:AD29" si="11">+Y27*1.1</f>
-        <v>21527</v>
+        <v>29944</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AC27:AD29" si="11">+Z27*1.1</f>
         <v>22348.7</v>
       </c>
       <c r="AI27" s="4">
@@ -5969,7 +6010,7 @@
         <v>21525</v>
       </c>
       <c r="Y28" s="4">
-        <v>26708</v>
+        <v>22141</v>
       </c>
       <c r="Z28" s="4">
         <v>28515</v>
@@ -5981,8 +6022,7 @@
         <v>25544</v>
       </c>
       <c r="AC28" s="4">
-        <f t="shared" si="11"/>
-        <v>29378.800000000003</v>
+        <v>26751</v>
       </c>
       <c r="AD28" s="4">
         <f t="shared" si="11"/>
@@ -6068,7 +6108,7 @@
         <v>14641</v>
       </c>
       <c r="Y29" s="4">
-        <v>15580</v>
+        <v>12604</v>
       </c>
       <c r="Z29" s="4">
         <v>15895</v>
@@ -6080,8 +6120,7 @@
         <v>14651</v>
       </c>
       <c r="AC29" s="4">
-        <f t="shared" si="11"/>
-        <v>17138</v>
+        <v>13371</v>
       </c>
       <c r="AD29" s="4">
         <f t="shared" si="11"/>
@@ -6196,11 +6235,10 @@
         <v>16219</v>
       </c>
       <c r="AC31" s="4">
-        <f t="shared" ref="AC31:AD32" si="13">+Y31*1.11</f>
-        <v>18958.800000000003</v>
+        <v>15319</v>
       </c>
       <c r="AD31" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AC31:AD32" si="13">+Z31*1.11</f>
         <v>14670.87</v>
       </c>
       <c r="BG31" s="4">
@@ -6236,27 +6274,27 @@
       </c>
       <c r="BP31" s="5">
         <f>SUM(AA31:AD31)</f>
-        <v>65120.670000000006</v>
+        <v>61480.87</v>
       </c>
       <c r="BQ31" s="5">
         <f>+BP31*1.07</f>
-        <v>69679.116900000008</v>
+        <v>65784.530900000012</v>
       </c>
       <c r="BR31" s="5">
         <f>+BQ31*1.07</f>
-        <v>74556.65508300002</v>
+        <v>70389.448063000018</v>
       </c>
       <c r="BS31" s="5">
         <f t="shared" ref="BS31:BU31" si="14">+BR31*1.03</f>
-        <v>76793.354735490022</v>
+        <v>72501.131504890014</v>
       </c>
       <c r="BT31" s="5">
         <f t="shared" si="14"/>
-        <v>79097.155377554722</v>
+        <v>74676.165450036715</v>
       </c>
       <c r="BU31" s="5">
         <f t="shared" si="14"/>
-        <v>81470.070038881371</v>
+        <v>76916.450413537823</v>
       </c>
     </row>
     <row r="32" spans="2:73" s="4" customFormat="1">
@@ -6342,8 +6380,7 @@
         <v>53413</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" si="13"/>
-        <v>49703.58</v>
+        <v>54747</v>
       </c>
       <c r="AD32" s="4">
         <f t="shared" si="13"/>
@@ -6382,30 +6419,30 @@
       </c>
       <c r="BP32" s="5">
         <f>SUM(AA32:AD32)</f>
-        <v>210605.68000000002</v>
+        <v>215649.1</v>
       </c>
       <c r="BQ32" s="5">
         <f>+BP32*1.2</f>
-        <v>252726.81600000002</v>
+        <v>258778.91999999998</v>
       </c>
       <c r="BR32" s="5">
         <f>+BQ32*1.2</f>
-        <v>303272.17920000001</v>
+        <v>310534.70399999997</v>
       </c>
       <c r="BS32" s="5">
         <f>+BR32*1.15</f>
-        <v>348763.00607999996</v>
+        <v>357114.90959999996</v>
       </c>
       <c r="BT32" s="5">
         <f t="shared" ref="BT32:BU32" si="15">+BS32*1.1</f>
-        <v>383639.30668799998</v>
+        <v>392826.40055999998</v>
       </c>
       <c r="BU32" s="5">
         <f t="shared" si="15"/>
-        <v>422003.2373568</v>
-      </c>
-    </row>
-    <row r="33" spans="2:131" s="6" customFormat="1">
+        <v>432109.04061600001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:131" s="6" customFormat="1" ht="13">
       <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
@@ -6515,7 +6552,7 @@
       </c>
       <c r="AC33" s="7">
         <f t="shared" si="22"/>
-        <v>68662.38</v>
+        <v>70066</v>
       </c>
       <c r="AD33" s="7">
         <f t="shared" si="22"/>
@@ -6637,27 +6674,27 @@
       </c>
       <c r="BP33" s="7">
         <f t="shared" si="24"/>
-        <v>275726.35000000003</v>
+        <v>277129.97000000003</v>
       </c>
       <c r="BQ33" s="7">
         <f t="shared" si="24"/>
-        <v>322405.93290000001</v>
+        <v>324563.4509</v>
       </c>
       <c r="BR33" s="7">
         <f t="shared" si="24"/>
-        <v>377828.83428300003</v>
+        <v>380924.15206300002</v>
       </c>
       <c r="BS33" s="7">
         <f t="shared" si="24"/>
-        <v>425556.36081549001</v>
+        <v>429616.04110488994</v>
       </c>
       <c r="BT33" s="7">
         <f t="shared" si="24"/>
-        <v>462736.46206555469</v>
+        <v>467502.56601003668</v>
       </c>
       <c r="BU33" s="7">
         <f t="shared" si="24"/>
-        <v>503473.30739568139</v>
+        <v>509025.49102953786</v>
       </c>
     </row>
     <row r="34" spans="2:131" s="4" customFormat="1">
@@ -6743,8 +6780,7 @@
         <v>3856</v>
       </c>
       <c r="AC34" s="4">
-        <f>+AC36-AC35</f>
-        <v>7119.3378000000084</v>
+        <v>3037</v>
       </c>
       <c r="AD34" s="4">
         <f>+AD36-AD35</f>
@@ -6783,27 +6819,27 @@
       </c>
       <c r="BP34" s="5">
         <f>SUM(AA34:AD34)</f>
-        <v>18295.89850000001</v>
+        <v>14213.560700000002</v>
       </c>
       <c r="BQ34" s="5">
         <f t="shared" ref="BQ34:BU34" si="25">BQ31*0.25</f>
-        <v>17419.779225000002</v>
+        <v>16446.132725000003</v>
       </c>
       <c r="BR34" s="5">
         <f t="shared" si="25"/>
-        <v>18639.163770750005</v>
+        <v>17597.362015750005</v>
       </c>
       <c r="BS34" s="5">
         <f t="shared" si="25"/>
-        <v>19198.338683872505</v>
+        <v>18125.282876222504</v>
       </c>
       <c r="BT34" s="5">
         <f t="shared" si="25"/>
-        <v>19774.28884438868</v>
+        <v>18669.041362509179</v>
       </c>
       <c r="BU34" s="5">
         <f t="shared" si="25"/>
-        <v>20367.517509720343</v>
+        <v>19229.112603384456</v>
       </c>
     </row>
     <row r="35" spans="2:131" s="4" customFormat="1">
@@ -6889,8 +6925,7 @@
         <v>17943</v>
       </c>
       <c r="AC35" s="4">
-        <f>+Y35</f>
-        <v>14166</v>
+        <v>18882</v>
       </c>
       <c r="AD35" s="4">
         <f>+Z35</f>
@@ -6929,27 +6964,27 @@
       </c>
       <c r="BP35" s="5">
         <f>SUM(AA35:AD35)</f>
-        <v>67160</v>
+        <v>71876</v>
       </c>
       <c r="BQ35" s="5">
         <f t="shared" ref="BQ35:BU35" si="26">BQ32*0.35</f>
-        <v>88454.385600000009</v>
+        <v>90572.621999999988</v>
       </c>
       <c r="BR35" s="5">
         <f t="shared" si="26"/>
-        <v>106145.26272</v>
+        <v>108687.14639999998</v>
       </c>
       <c r="BS35" s="5">
         <f t="shared" si="26"/>
-        <v>122067.05212799998</v>
+        <v>124990.21835999997</v>
       </c>
       <c r="BT35" s="5">
         <f t="shared" si="26"/>
-        <v>134273.75734079999</v>
+        <v>137489.240196</v>
       </c>
       <c r="BU35" s="5">
         <f t="shared" si="26"/>
-        <v>147701.13307488</v>
+        <v>151238.1642156</v>
       </c>
     </row>
     <row r="36" spans="2:131" s="4" customFormat="1">
@@ -6957,43 +6992,43 @@
         <v>21</v>
       </c>
       <c r="C36" s="5">
-        <f>+C34+C35</f>
+        <f t="shared" ref="C36:I36" si="27">+C34+C35</f>
         <v>9905</v>
       </c>
       <c r="D36" s="5">
-        <f>+D34+D35</f>
+        <f t="shared" si="27"/>
         <v>12423</v>
       </c>
       <c r="E36" s="5">
-        <f>+E34+E35</f>
+        <f t="shared" si="27"/>
         <v>10170</v>
       </c>
       <c r="F36" s="5">
-        <f>+F34+F35</f>
+        <f t="shared" si="27"/>
         <v>10412</v>
       </c>
       <c r="G36" s="5">
-        <f>+G34+G35</f>
+        <f t="shared" si="27"/>
         <v>10406</v>
       </c>
       <c r="H36" s="5">
-        <f>+H34+H35</f>
+        <f t="shared" si="27"/>
         <v>12358</v>
       </c>
       <c r="I36" s="5">
-        <f>+I34+I35</f>
+        <f t="shared" si="27"/>
         <v>10975</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36" si="27">J34+J35</f>
+        <f t="shared" ref="J36" si="28">J34+J35</f>
         <v>12339</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36:L36" si="28">K34+K35</f>
+        <f t="shared" ref="K36:L36" si="29">K34+K35</f>
         <v>11002</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14194</v>
       </c>
       <c r="M36" s="5">
@@ -7001,23 +7036,23 @@
         <v>13045</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36:Q36" si="29">N34+N35</f>
+        <f t="shared" ref="N36:Q36" si="30">N34+N35</f>
         <v>13991</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13646</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16960</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15615</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" ref="R36" si="30">R34+R35</f>
+        <f t="shared" ref="R36" si="31">R34+R35</f>
         <v>16429</v>
       </c>
       <c r="S36" s="5">
@@ -7061,8 +7096,8 @@
         <v>21799</v>
       </c>
       <c r="AC36" s="4">
-        <f>+AC33-AC37</f>
-        <v>21285.337800000008</v>
+        <f>+AC34+AC35</f>
+        <v>21919</v>
       </c>
       <c r="AD36" s="4">
         <f>+AD33-AD37</f>
@@ -7147,31 +7182,31 @@
         <v>33038</v>
       </c>
       <c r="BG36" s="5">
-        <f t="shared" ref="BG36" si="31">BG34+BG35</f>
+        <f t="shared" ref="BG36" si="32">BG34+BG35</f>
         <v>32780</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" ref="BH36:BI36" si="32">BH34+BH35</f>
+        <f t="shared" ref="BH36:BI36" si="33">BH34+BH35</f>
         <v>34261</v>
       </c>
       <c r="BI36" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>38353</v>
       </c>
       <c r="BJ36" s="5">
-        <f t="shared" ref="BJ36:BK36" si="33">BJ34+BJ35</f>
+        <f t="shared" ref="BJ36:BK36" si="34">BJ34+BJ35</f>
         <v>42910</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>46078</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" ref="BL36:BM36" si="34">BL34+BL35</f>
+        <f t="shared" ref="BL36:BM36" si="35">BL34+BL35</f>
         <v>52232</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>62650</v>
       </c>
       <c r="BN36" s="5">
@@ -7184,27 +7219,27 @@
       </c>
       <c r="BP36" s="5">
         <f>BP34+BP35</f>
-        <v>85455.89850000001</v>
+        <v>86089.560700000002</v>
       </c>
       <c r="BQ36" s="5">
-        <f t="shared" ref="BQ36:BU36" si="35">+BQ33-BQ37</f>
-        <v>106393.957857</v>
+        <f t="shared" ref="BQ36:BU36" si="36">+BQ33-BQ37</f>
+        <v>107105.93879699998</v>
       </c>
       <c r="BR36" s="5">
-        <f t="shared" si="35"/>
-        <v>124683.51531339</v>
+        <f t="shared" si="36"/>
+        <v>125704.97018079</v>
       </c>
       <c r="BS36" s="5">
-        <f t="shared" si="35"/>
-        <v>140433.59906911169</v>
+        <f t="shared" si="36"/>
+        <v>141773.29356461368</v>
       </c>
       <c r="BT36" s="5">
-        <f t="shared" si="35"/>
-        <v>152703.03248163301</v>
+        <f t="shared" si="36"/>
+        <v>154275.8467833121</v>
       </c>
       <c r="BU36" s="5">
-        <f t="shared" si="35"/>
-        <v>166146.19144057482</v>
+        <f t="shared" si="36"/>
+        <v>167978.41203974746</v>
       </c>
     </row>
     <row r="37" spans="2:131" s="4" customFormat="1">
@@ -7212,43 +7247,43 @@
         <v>22</v>
       </c>
       <c r="C37" s="5">
-        <f>+C33-C36</f>
+        <f t="shared" ref="C37:I37" si="37">+C33-C36</f>
         <v>19179</v>
       </c>
       <c r="D37" s="5">
-        <f>+D33-D36</f>
+        <f t="shared" si="37"/>
         <v>20048</v>
       </c>
       <c r="E37" s="5">
-        <f>+E33-E36</f>
+        <f t="shared" si="37"/>
         <v>20401</v>
       </c>
       <c r="F37" s="5">
-        <f>+F33-F36</f>
+        <f t="shared" si="37"/>
         <v>23305</v>
       </c>
       <c r="G37" s="5">
-        <f>+G33-G36</f>
+        <f t="shared" si="37"/>
         <v>22649</v>
       </c>
       <c r="H37" s="5">
-        <f>+H33-H36</f>
+        <f t="shared" si="37"/>
         <v>24548</v>
       </c>
       <c r="I37" s="5">
-        <f>+I33-I36</f>
+        <f t="shared" si="37"/>
         <v>24046</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ref="J37" si="36">J33-J36</f>
+        <f t="shared" ref="J37" si="38">J33-J36</f>
         <v>25694</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" ref="K37:L37" si="37">K33-K36</f>
+        <f t="shared" ref="K37:L37" si="39">K33-K36</f>
         <v>26152</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>28882</v>
       </c>
       <c r="M37" s="5">
@@ -7256,23 +7291,23 @@
         <v>28661</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:Q37" si="38">N33-N36</f>
+        <f t="shared" ref="N37:Q37" si="40">N33-N36</f>
         <v>32161</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>31671</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>34768</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>33745</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37" si="39">R33-R36</f>
+        <f t="shared" ref="R37" si="41">R33-R36</f>
         <v>35436</v>
       </c>
       <c r="S37" s="5">
@@ -7292,167 +7327,167 @@
         <v>39394</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" ref="W37:AB37" si="40">+W33-W36</f>
+        <f t="shared" ref="W37:AC37" si="42">+W33-W36</f>
         <v>40215</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>42397</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>43353</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>45043</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>45486</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>47833</v>
       </c>
       <c r="AC37" s="4">
-        <f>+AC33*0.69</f>
-        <v>47377.042199999996</v>
+        <f t="shared" si="42"/>
+        <v>48147</v>
       </c>
       <c r="AD37" s="4">
         <f>+AD33*0.69</f>
         <v>49574.409299999999</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" ref="AG37:AM37" si="41">AG33-AG36</f>
+        <f t="shared" ref="AG37:AM37" si="43">AG33-AG36</f>
         <v>930</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1481</v>
       </c>
       <c r="AI37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2292</v>
       </c>
       <c r="AJ37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3120</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3886</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5060</v>
       </c>
       <c r="AM37" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7483</v>
       </c>
       <c r="AN37" s="4">
-        <f t="shared" ref="AN37" si="42">AN33-AN36</f>
+        <f t="shared" ref="AN37" si="44">AN33-AN36</f>
         <v>10273</v>
       </c>
       <c r="AO37" s="4">
-        <f t="shared" ref="AO37:BF37" si="43">AO33-AO36</f>
+        <f t="shared" ref="AO37:BF37" si="45">AO33-AO36</f>
         <v>13287</v>
       </c>
       <c r="AP37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>16933</v>
       </c>
       <c r="AQ37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>19954</v>
       </c>
       <c r="AR37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>21841</v>
       </c>
       <c r="AS37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>23174</v>
       </c>
       <c r="AT37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>26501</v>
       </c>
       <c r="AU37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>30119</v>
       </c>
       <c r="AV37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>33588</v>
       </c>
       <c r="AW37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>36632</v>
       </c>
       <c r="AX37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>40429</v>
       </c>
       <c r="AY37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>48822</v>
       </c>
       <c r="AZ37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>46282</v>
       </c>
       <c r="BA37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>50089</v>
       </c>
       <c r="BB37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>54366</v>
       </c>
       <c r="BC37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>56193</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>57600</v>
       </c>
       <c r="BE37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>59899</v>
       </c>
       <c r="BF37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>60542</v>
       </c>
       <c r="BG37" s="5">
-        <f t="shared" ref="BG37" si="44">BG33-BG36</f>
+        <f t="shared" ref="BG37" si="46">BG33-BG36</f>
         <v>52540</v>
       </c>
       <c r="BH37" s="5">
-        <f t="shared" ref="BH37:BI37" si="45">BH33-BH36</f>
+        <f t="shared" ref="BH37:BI37" si="47">BH33-BH36</f>
         <v>62310</v>
       </c>
       <c r="BI37" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>72007</v>
       </c>
       <c r="BJ37" s="5">
-        <f t="shared" ref="BJ37:BK37" si="46">BJ33-BJ36</f>
+        <f t="shared" ref="BJ37:BK37" si="48">BJ33-BJ36</f>
         <v>82933</v>
       </c>
       <c r="BK37" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>96937</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" ref="BL37:BM37" si="47">BL33-BL36</f>
+        <f t="shared" ref="BL37:BM37" si="49">BL33-BL36</f>
         <v>115856</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>135620</v>
       </c>
       <c r="BN37" s="5">
@@ -7465,27 +7500,27 @@
       </c>
       <c r="BP37" s="5">
         <f>BP33-BP36</f>
-        <v>190270.45150000002</v>
+        <v>191040.40930000003</v>
       </c>
       <c r="BQ37" s="5">
-        <f t="shared" ref="BQ37:BU37" si="48">+BQ33*0.67</f>
-        <v>216011.97504300001</v>
+        <f t="shared" ref="BQ37:BU37" si="50">+BQ33*0.67</f>
+        <v>217457.51210300002</v>
       </c>
       <c r="BR37" s="5">
-        <f t="shared" si="48"/>
-        <v>253145.31896961003</v>
+        <f t="shared" si="50"/>
+        <v>255219.18188221002</v>
       </c>
       <c r="BS37" s="5">
-        <f t="shared" si="48"/>
-        <v>285122.76174637832</v>
+        <f t="shared" si="50"/>
+        <v>287842.74754027626</v>
       </c>
       <c r="BT37" s="5">
-        <f t="shared" si="48"/>
-        <v>310033.42958392168</v>
+        <f t="shared" si="50"/>
+        <v>313226.71922672458</v>
       </c>
       <c r="BU37" s="5">
-        <f t="shared" si="48"/>
-        <v>337327.11595510656</v>
+        <f t="shared" si="50"/>
+        <v>341047.0789897904</v>
       </c>
     </row>
     <row r="38" spans="2:131" s="4" customFormat="1">
@@ -7571,11 +7606,10 @@
         <v>7917</v>
       </c>
       <c r="AC38" s="4">
-        <f t="shared" ref="AC38:AD40" si="49">+Y38*1.07</f>
-        <v>8188.71</v>
+        <v>8198</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="AC38:AD40" si="51">+Z38*1.07</f>
         <v>8619.92</v>
       </c>
       <c r="AG38" s="4">
@@ -7676,11 +7710,11 @@
         <v>20716</v>
       </c>
       <c r="BM38" s="5">
-        <f t="shared" ref="BM38:BM40" si="50">SUM(O38:R38)</f>
+        <f t="shared" ref="BM38:BM40" si="52">SUM(O38:R38)</f>
         <v>24512</v>
       </c>
       <c r="BN38" s="5">
-        <f t="shared" ref="BN38:BN40" si="51">SUM(S38:V38)</f>
+        <f t="shared" ref="BN38:BN40" si="53">SUM(S38:V38)</f>
         <v>27195</v>
       </c>
       <c r="BO38" s="5">
@@ -7689,27 +7723,27 @@
       </c>
       <c r="BP38" s="5">
         <f>SUM(AA38:AD38)</f>
-        <v>32269.629999999997</v>
+        <v>32278.92</v>
       </c>
       <c r="BQ38" s="5">
-        <f t="shared" ref="BQ38:BU38" si="52">+BP38*1.03</f>
-        <v>33237.7189</v>
+        <f t="shared" ref="BQ38:BU38" si="54">+BP38*1.03</f>
+        <v>33247.287599999996</v>
       </c>
       <c r="BR38" s="5">
-        <f t="shared" si="52"/>
-        <v>34234.850467000004</v>
+        <f t="shared" si="54"/>
+        <v>34244.706227999995</v>
       </c>
       <c r="BS38" s="5">
-        <f t="shared" si="52"/>
-        <v>35261.895981010006</v>
+        <f t="shared" si="54"/>
+        <v>35272.047414839995</v>
       </c>
       <c r="BT38" s="5">
-        <f t="shared" si="52"/>
-        <v>36319.752860440305</v>
+        <f t="shared" si="54"/>
+        <v>36330.208837285194</v>
       </c>
       <c r="BU38" s="5">
-        <f t="shared" si="52"/>
-        <v>37409.345446253516</v>
+        <f t="shared" si="54"/>
+        <v>37420.115102403754</v>
       </c>
     </row>
     <row r="39" spans="2:131" s="4" customFormat="1">
@@ -7795,11 +7829,10 @@
         <v>6440</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="49"/>
-        <v>6641.4900000000007</v>
+        <v>6212</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>7293.1200000000008</v>
       </c>
       <c r="AG39" s="4">
@@ -7900,11 +7933,11 @@
         <v>20117</v>
       </c>
       <c r="BM39" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>21825</v>
       </c>
       <c r="BN39" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>22759</v>
       </c>
       <c r="BO39" s="5">
@@ -7913,27 +7946,27 @@
       </c>
       <c r="BP39" s="5">
         <f>SUM(AA39:AD39)</f>
-        <v>26091.61</v>
+        <v>25662.120000000003</v>
       </c>
       <c r="BQ39" s="5">
-        <f t="shared" ref="BQ39:BU39" si="53">+BP39*1.03</f>
-        <v>26874.3583</v>
+        <f t="shared" ref="BQ39:BU39" si="55">+BP39*1.03</f>
+        <v>26431.983600000003</v>
       </c>
       <c r="BR39" s="5">
-        <f t="shared" si="53"/>
-        <v>27680.589049000002</v>
+        <f t="shared" si="55"/>
+        <v>27224.943108000003</v>
       </c>
       <c r="BS39" s="5">
-        <f t="shared" si="53"/>
-        <v>28511.006720470003</v>
+        <f t="shared" si="55"/>
+        <v>28041.691401240005</v>
       </c>
       <c r="BT39" s="5">
-        <f t="shared" si="53"/>
-        <v>29366.336922084105</v>
+        <f t="shared" si="55"/>
+        <v>28882.942143277207</v>
       </c>
       <c r="BU39" s="5">
-        <f t="shared" si="53"/>
-        <v>30247.32702974663</v>
+        <f t="shared" si="55"/>
+        <v>29749.430407575524</v>
       </c>
     </row>
     <row r="40" spans="2:131" s="4" customFormat="1">
@@ -8019,11 +8052,10 @@
         <v>1823</v>
       </c>
       <c r="AC40" s="4">
-        <f t="shared" si="49"/>
-        <v>2045.8400000000001</v>
+        <v>1737</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2403.2200000000003</v>
       </c>
       <c r="AG40" s="4">
@@ -8124,11 +8156,11 @@
         <v>5107</v>
       </c>
       <c r="BM40" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5900</v>
       </c>
       <c r="BN40" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>7575</v>
       </c>
       <c r="BO40" s="5">
@@ -8137,27 +8169,27 @@
       </c>
       <c r="BP40" s="5">
         <f>SUM(AA40:AD40)</f>
-        <v>7945.06</v>
+        <v>7636.22</v>
       </c>
       <c r="BQ40" s="5">
-        <f t="shared" ref="BQ40:BU40" si="54">+BP40*1.03</f>
-        <v>8183.4118000000008</v>
+        <f t="shared" ref="BQ40:BU40" si="56">+BP40*1.03</f>
+        <v>7865.3066000000008</v>
       </c>
       <c r="BR40" s="5">
-        <f t="shared" si="54"/>
-        <v>8428.9141540000019</v>
+        <f t="shared" si="56"/>
+        <v>8101.2657980000013</v>
       </c>
       <c r="BS40" s="5">
-        <f t="shared" si="54"/>
-        <v>8681.7815786200026</v>
+        <f t="shared" si="56"/>
+        <v>8344.3037719400018</v>
       </c>
       <c r="BT40" s="5">
-        <f t="shared" si="54"/>
-        <v>8942.2350259786035</v>
+        <f t="shared" si="56"/>
+        <v>8594.6328850982027</v>
       </c>
       <c r="BU40" s="5">
-        <f t="shared" si="54"/>
-        <v>9210.5020767579626</v>
+        <f t="shared" si="56"/>
+        <v>8852.4718716511488</v>
       </c>
     </row>
     <row r="41" spans="2:131" s="4" customFormat="1">
@@ -8165,59 +8197,59 @@
         <v>23</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:D41" si="55">SUM(C38:C40)</f>
+        <f t="shared" ref="C41:D41" si="57">SUM(C38:C40)</f>
         <v>9224</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9790</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ref="E41:F41" si="56">SUM(E38:E40)</f>
+        <f t="shared" ref="E41:F41" si="58">SUM(E38:E40)</f>
         <v>10060</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10900</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:H41" si="57">SUM(G38:G40)</f>
+        <f t="shared" ref="G41:H41" si="59">SUM(G38:G40)</f>
         <v>9963</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10657</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" ref="I41:J41" si="58">SUM(I38:I40)</f>
+        <f t="shared" ref="I41:J41" si="60">SUM(I38:I40)</f>
         <v>11071</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>12287</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:P41" si="59">SUM(K38:K40)</f>
+        <f t="shared" ref="K41:P41" si="61">SUM(K38:K40)</f>
         <v>10276</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10985</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>11613</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13066</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>11433</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>12521</v>
       </c>
       <c r="Q41" s="5">
@@ -8225,11 +8257,11 @@
         <v>13381</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" ref="R41:S41" si="60">SUM(R38:R40)</f>
+        <f t="shared" ref="R41:S41" si="62">SUM(R38:R40)</f>
         <v>14902</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>13152</v>
       </c>
       <c r="T41" s="5">
@@ -8237,23 +8269,23 @@
         <v>14860</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" ref="U41:V41" si="61">SUM(U38:U40)</f>
+        <f t="shared" ref="U41:V41" si="63">SUM(U38:U40)</f>
         <v>14377</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>15140</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:Y41" si="62">SUM(W38:W40)</f>
+        <f t="shared" ref="W41:Y41" si="64">SUM(W38:W40)</f>
         <v>13320</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15365</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>15772</v>
       </c>
       <c r="Z41" s="5">
@@ -8270,7 +8302,7 @@
       </c>
       <c r="AC41" s="5">
         <f>SUM(AC38:AC40)</f>
-        <v>16876.04</v>
+        <v>16147</v>
       </c>
       <c r="AD41" s="5">
         <f>SUM(AD38:AD40)</f>
@@ -8279,11 +8311,11 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5">
-        <f t="shared" ref="AG41:AH41" si="63">AG38+AG39+AG40</f>
+        <f t="shared" ref="AG41:AH41" si="65">AG38+AG39+AG40</f>
         <v>537</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>831</v>
       </c>
       <c r="AI41" s="5">
@@ -8307,140 +8339,140 @@
         <v>4405</v>
       </c>
       <c r="AN41" s="5">
-        <f t="shared" ref="AN41" si="64">AN38+AN39+AN40</f>
+        <f t="shared" ref="AN41" si="66">AN38+AN39+AN40</f>
         <v>5143</v>
       </c>
       <c r="AO41" s="5">
-        <f t="shared" ref="AO41:BF41" si="65">AO38+AO39+AO40</f>
+        <f t="shared" ref="AO41:BF41" si="67">AO38+AO39+AO40</f>
         <v>6347</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6890</v>
       </c>
       <c r="AQ41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8925</v>
       </c>
       <c r="AR41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10121</v>
       </c>
       <c r="AS41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>11264</v>
       </c>
       <c r="AT41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>13284</v>
       </c>
       <c r="AU41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>21085</v>
       </c>
       <c r="AV41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>19027</v>
       </c>
       <c r="AW41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>20160</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>21905</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>26330</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>25589</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>25932</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>27205</v>
       </c>
       <c r="BC41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>28237</v>
       </c>
       <c r="BD41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>30836</v>
       </c>
       <c r="BE41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>32013</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>32370</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" ref="BG41:BH41" si="66">SUM(BG38:BG40)</f>
+        <f t="shared" ref="BG41:BH41" si="68">SUM(BG38:BG40)</f>
         <v>31248</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>32979</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" ref="BI41:BJ41" si="67">SUM(BI38:BI40)</f>
+        <f t="shared" ref="BI41:BJ41" si="69">SUM(BI38:BI40)</f>
         <v>36949</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>39974</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" ref="BK41" si="68">SUM(BK38:BK40)</f>
+        <f t="shared" ref="BK41" si="70">SUM(BK38:BK40)</f>
         <v>43978</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" ref="BL41:BN41" si="69">SUM(BL38:BL40)</f>
+        <f t="shared" ref="BL41:BN41" si="71">SUM(BL38:BL40)</f>
         <v>45940</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>52237</v>
       </c>
       <c r="BN41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>57529</v>
       </c>
       <c r="BO41" s="5">
-        <f t="shared" ref="BO41" si="70">SUM(BO38:BO40)</f>
+        <f t="shared" ref="BO41" si="72">SUM(BO38:BO40)</f>
         <v>61575</v>
       </c>
       <c r="BP41" s="5">
-        <f t="shared" ref="BP41" si="71">SUM(BP38:BP40)</f>
-        <v>66306.3</v>
+        <f t="shared" ref="BP41" si="73">SUM(BP38:BP40)</f>
+        <v>65577.259999999995</v>
       </c>
       <c r="BQ41" s="5">
-        <f t="shared" ref="BQ41" si="72">SUM(BQ38:BQ40)</f>
-        <v>68295.489000000001</v>
+        <f t="shared" ref="BQ41" si="74">SUM(BQ38:BQ40)</f>
+        <v>67544.577799999999</v>
       </c>
       <c r="BR41" s="5">
-        <f t="shared" ref="BR41" si="73">SUM(BR38:BR40)</f>
-        <v>70344.353670000011</v>
+        <f t="shared" ref="BR41" si="75">SUM(BR38:BR40)</f>
+        <v>69570.91513400001</v>
       </c>
       <c r="BS41" s="5">
-        <f t="shared" ref="BS41" si="74">SUM(BS38:BS40)</f>
-        <v>72454.684280100017</v>
+        <f t="shared" ref="BS41" si="76">SUM(BS38:BS40)</f>
+        <v>71658.042588020005</v>
       </c>
       <c r="BT41" s="5">
-        <f t="shared" ref="BT41" si="75">SUM(BT38:BT40)</f>
-        <v>74628.324808503021</v>
+        <f t="shared" ref="BT41" si="77">SUM(BT38:BT40)</f>
+        <v>73807.783865660604</v>
       </c>
       <c r="BU41" s="5">
-        <f t="shared" ref="BU41" si="76">SUM(BU38:BU40)</f>
-        <v>76867.174552758108</v>
+        <f t="shared" ref="BU41" si="78">SUM(BU38:BU40)</f>
+        <v>76022.01738163043</v>
       </c>
     </row>
     <row r="42" spans="2:131" s="4" customFormat="1">
@@ -8448,59 +8480,59 @@
         <v>24</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:D42" si="77">C37-C41</f>
+        <f t="shared" ref="C42:D42" si="79">C37-C41</f>
         <v>9955</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10258</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:F42" si="78">E37-E41</f>
+        <f t="shared" ref="E42:F42" si="80">E37-E41</f>
         <v>10341</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12405</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" ref="G42:H42" si="79">G37-G41</f>
+        <f t="shared" ref="G42:H42" si="81">G37-G41</f>
         <v>12686</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>13891</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" ref="I42:J42" si="80">I37-I41</f>
+        <f t="shared" ref="I42:J42" si="82">I37-I41</f>
         <v>12975</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>13407</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42:P42" si="81">K37-K41</f>
+        <f t="shared" ref="K42:P42" si="83">K37-K41</f>
         <v>15876</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>17897</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>17048</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19095</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>20238</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>22247</v>
       </c>
       <c r="Q42" s="5">
@@ -8508,11 +8540,11 @@
         <v>20364</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" ref="R42:S42" si="82">R37-R41</f>
+        <f t="shared" ref="R42:S42" si="84">R37-R41</f>
         <v>20534</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>21518</v>
       </c>
       <c r="T42" s="5">
@@ -8524,19 +8556,19 @@
         <v>22352</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42:Y42" si="83">V37-V41</f>
+        <f t="shared" ref="V42:Y42" si="85">V37-V41</f>
         <v>24254</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26895</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>27032</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>27581</v>
       </c>
       <c r="Z42" s="5">
@@ -8553,7 +8585,7 @@
       </c>
       <c r="AC42" s="5">
         <f>AC37-AC41</f>
-        <v>30501.002199999995</v>
+        <v>32000</v>
       </c>
       <c r="AD42" s="5">
         <f>AD37-AD41</f>
@@ -8562,11 +8594,11 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5">
-        <f t="shared" ref="AG42:AH42" si="84">AG37-AG41</f>
+        <f t="shared" ref="AG42:AH42" si="86">AG37-AG41</f>
         <v>393</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>650</v>
       </c>
       <c r="AI42" s="5">
@@ -8590,140 +8622,140 @@
         <v>3078</v>
       </c>
       <c r="AN42" s="5">
-        <f t="shared" ref="AN42" si="85">AN37-AN41</f>
+        <f t="shared" ref="AN42" si="87">AN37-AN41</f>
         <v>5130</v>
       </c>
       <c r="AO42" s="5">
-        <f t="shared" ref="AO42:BF42" si="86">AO37-AO41</f>
+        <f t="shared" ref="AO42:BF42" si="88">AO37-AO41</f>
         <v>6940</v>
       </c>
       <c r="AP42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>10043</v>
       </c>
       <c r="AQ42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>11029</v>
       </c>
       <c r="AR42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>11720</v>
       </c>
       <c r="AS42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>11910</v>
       </c>
       <c r="AT42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>13217</v>
       </c>
       <c r="AU42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>9034</v>
       </c>
       <c r="AV42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>14561</v>
       </c>
       <c r="AW42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>16472</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>18524</v>
       </c>
       <c r="AY42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>22492</v>
       </c>
       <c r="AZ42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>20693</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>24157</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>27161</v>
       </c>
       <c r="BC42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>27956</v>
       </c>
       <c r="BD42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>26764</v>
       </c>
       <c r="BE42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>27886</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>28172</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" ref="BG42:BH42" si="87">BG37-BG41</f>
+        <f t="shared" ref="BG42:BH42" si="89">BG37-BG41</f>
         <v>21292</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>29331</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" ref="BI42:BJ42" si="88">BI37-BI41</f>
+        <f t="shared" ref="BI42:BJ42" si="90">BI37-BI41</f>
         <v>35058</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>42959</v>
       </c>
       <c r="BK42" s="5">
-        <f t="shared" ref="BK42" si="89">BK37-BK41</f>
+        <f t="shared" ref="BK42" si="91">BK37-BK41</f>
         <v>52959</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" ref="BL42:BN42" si="90">BL37-BL41</f>
+        <f t="shared" ref="BL42:BN42" si="92">BL37-BL41</f>
         <v>69916</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>83383</v>
       </c>
       <c r="BN42" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>88523</v>
       </c>
       <c r="BO42" s="5">
-        <f t="shared" ref="BO42" si="91">BO37-BO41</f>
+        <f t="shared" ref="BO42" si="93">BO37-BO41</f>
         <v>109433</v>
       </c>
       <c r="BP42" s="5">
-        <f t="shared" ref="BP42" si="92">BP37-BP41</f>
-        <v>123964.15150000002</v>
+        <f t="shared" ref="BP42" si="94">BP37-BP41</f>
+        <v>125463.14930000003</v>
       </c>
       <c r="BQ42" s="5">
-        <f t="shared" ref="BQ42" si="93">BQ37-BQ41</f>
-        <v>147716.48604300001</v>
+        <f t="shared" ref="BQ42" si="95">BQ37-BQ41</f>
+        <v>149912.93430300002</v>
       </c>
       <c r="BR42" s="5">
-        <f t="shared" ref="BR42" si="94">BR37-BR41</f>
-        <v>182800.96529961002</v>
+        <f t="shared" ref="BR42" si="96">BR37-BR41</f>
+        <v>185648.26674821001</v>
       </c>
       <c r="BS42" s="5">
-        <f t="shared" ref="BS42" si="95">BS37-BS41</f>
-        <v>212668.07746627831</v>
+        <f t="shared" ref="BS42" si="97">BS37-BS41</f>
+        <v>216184.70495225626</v>
       </c>
       <c r="BT42" s="5">
-        <f t="shared" ref="BT42" si="96">BT37-BT41</f>
-        <v>235405.10477541864</v>
+        <f t="shared" ref="BT42" si="98">BT37-BT41</f>
+        <v>239418.93536106398</v>
       </c>
       <c r="BU42" s="5">
-        <f t="shared" ref="BU42" si="97">BU37-BU41</f>
-        <v>260459.94140234846</v>
+        <f t="shared" ref="BU42" si="99">BU37-BU41</f>
+        <v>265025.06160815997</v>
       </c>
     </row>
     <row r="43" spans="2:131">
@@ -8809,12 +8841,11 @@
         <v>-2288</v>
       </c>
       <c r="AC43" s="4">
-        <f>+AB43</f>
-        <v>-2288</v>
+        <v>-623</v>
       </c>
       <c r="AD43" s="4">
         <f>+AC43</f>
-        <v>-2288</v>
+        <v>-623</v>
       </c>
       <c r="AG43">
         <f>31-14</f>
@@ -8925,11 +8956,11 @@
         <v>1186</v>
       </c>
       <c r="BM43" s="5">
-        <f t="shared" ref="BM43" si="98">SUM(O43:R43)</f>
+        <f t="shared" ref="BM43" si="100">SUM(O43:R43)</f>
         <v>333</v>
       </c>
       <c r="BN43" s="5">
-        <f t="shared" ref="BN43" si="99">SUM(S43:V43)</f>
+        <f t="shared" ref="BN43" si="101">SUM(S43:V43)</f>
         <v>788</v>
       </c>
       <c r="BO43" s="5">
@@ -8938,7 +8969,7 @@
       </c>
       <c r="BP43" s="5">
         <f>SUM(AA43:AD43)</f>
-        <v>-7147</v>
+        <v>-3817</v>
       </c>
       <c r="BQ43" s="5">
         <f>+BP63*$BZ$52</f>
@@ -8966,35 +8997,35 @@
         <v>29</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:D44" si="100">C42+C43</f>
+        <f t="shared" ref="C44:D44" si="102">C42+C43</f>
         <v>10221</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>10385</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:F44" si="101">E42+E43</f>
+        <f t="shared" ref="E44:F44" si="103">E42+E43</f>
         <v>10486</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>12596</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" ref="G44:H44" si="102">G42+G43</f>
+        <f t="shared" ref="G44:H44" si="104">G42+G43</f>
         <v>12686</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>14085</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44:J44" si="103">I42+I43</f>
+        <f t="shared" ref="I44:J44" si="105">I42+I43</f>
         <v>12843</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>13422</v>
       </c>
       <c r="K44" s="5">
@@ -9002,87 +9033,87 @@
         <v>16124</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" ref="L44:AD44" si="104">L42+L43</f>
+        <f t="shared" ref="L44:AD44" si="106">L42+L43</f>
         <v>18337</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>17236</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>19405</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>20524</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>22515</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>20190</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>20487</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>21572</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>20339</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>22673</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>24727</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>27284</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>26526</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>26727</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>27250</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>30269</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>29365</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="104"/>
-        <v>28213.002199999995</v>
+        <f t="shared" si="106"/>
+        <v>31377</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="104"/>
-        <v>28970.149299999997</v>
+        <f t="shared" si="106"/>
+        <v>30635.149299999997</v>
       </c>
       <c r="AG44" s="4">
-        <f t="shared" ref="AG44:AH44" si="105">AG43+AG42</f>
+        <f t="shared" ref="AG44:AH44" si="107">AG43+AG42</f>
         <v>410</v>
       </c>
       <c r="AH44" s="4">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>671</v>
       </c>
       <c r="AI44" s="4">
@@ -9106,79 +9137,79 @@
         <v>3379</v>
       </c>
       <c r="AN44" s="4">
-        <f t="shared" ref="AN44" si="106">AN43+AN42</f>
+        <f t="shared" ref="AN44" si="108">AN43+AN42</f>
         <v>5314</v>
       </c>
       <c r="AO44" s="4">
-        <f t="shared" ref="AO44:BF44" si="107">AO43+AO42</f>
+        <f t="shared" ref="AO44:BF44" si="109">AO43+AO42</f>
         <v>7413</v>
       </c>
       <c r="AP44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>11731</v>
       </c>
       <c r="AQ44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>14119</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>11684</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>11605</v>
       </c>
       <c r="AT44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>14794</v>
       </c>
       <c r="AU44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>12221</v>
       </c>
       <c r="AV44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>16628</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>18262</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>20101</v>
       </c>
       <c r="AY44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>23814</v>
       </c>
       <c r="AZ44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>20151</v>
       </c>
       <c r="BA44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>25072</v>
       </c>
       <c r="BB44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>28071</v>
       </c>
       <c r="BC44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>28460</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>27052</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>27947</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>28518</v>
       </c>
       <c r="BG44" s="4">
@@ -9202,44 +9233,44 @@
         <v>53036</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" ref="BL44:BN44" si="108">+BL42+BL43</f>
+        <f t="shared" ref="BL44:BN44" si="110">+BL42+BL43</f>
         <v>71102</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>83716</v>
       </c>
       <c r="BN44" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>89311</v>
       </c>
       <c r="BO44" s="5">
-        <f t="shared" ref="BO44" si="109">+BO42+BO43</f>
+        <f t="shared" ref="BO44" si="111">+BO42+BO43</f>
         <v>107787</v>
       </c>
       <c r="BP44" s="5">
-        <f t="shared" ref="BP44" si="110">+BP42+BP43</f>
-        <v>116817.15150000002</v>
+        <f t="shared" ref="BP44" si="112">+BP42+BP43</f>
+        <v>121646.14930000003</v>
       </c>
       <c r="BQ44" s="5">
-        <f t="shared" ref="BQ44" si="111">+BQ42+BQ43</f>
-        <v>147716.48604300001</v>
+        <f t="shared" ref="BQ44" si="113">+BQ42+BQ43</f>
+        <v>149912.93430300002</v>
       </c>
       <c r="BR44" s="5">
-        <f t="shared" ref="BR44" si="112">+BR42+BR43</f>
-        <v>182800.96529961002</v>
+        <f t="shared" ref="BR44" si="114">+BR42+BR43</f>
+        <v>185648.26674821001</v>
       </c>
       <c r="BS44" s="5">
-        <f t="shared" ref="BS44" si="113">+BS42+BS43</f>
-        <v>212668.07746627831</v>
+        <f t="shared" ref="BS44" si="115">+BS42+BS43</f>
+        <v>216184.70495225626</v>
       </c>
       <c r="BT44" s="5">
-        <f t="shared" ref="BT44" si="114">+BT42+BT43</f>
-        <v>235405.10477541864</v>
+        <f t="shared" ref="BT44" si="116">+BT42+BT43</f>
+        <v>239418.93536106398</v>
       </c>
       <c r="BU44" s="5">
-        <f t="shared" ref="BU44" si="115">+BU42+BU43</f>
-        <v>260459.94140234846</v>
+        <f t="shared" ref="BU44" si="117">+BU42+BU43</f>
+        <v>265025.06160815997</v>
       </c>
     </row>
     <row r="45" spans="2:131" s="4" customFormat="1">
@@ -9325,12 +9356,11 @@
         <v>5257</v>
       </c>
       <c r="AC45" s="4">
-        <f>+AC44*0.15</f>
-        <v>4231.9503299999988</v>
+        <v>5553</v>
       </c>
       <c r="AD45" s="4">
         <f>+AD44*0.15</f>
-        <v>4345.5223949999991</v>
+        <v>4595.2723949999991</v>
       </c>
       <c r="AG45" s="4">
         <v>131</v>
@@ -9431,11 +9461,11 @@
         <v>9831</v>
       </c>
       <c r="BM45" s="5">
-        <f t="shared" ref="BM45" si="116">SUM(O45:R45)</f>
+        <f t="shared" ref="BM45" si="118">SUM(O45:R45)</f>
         <v>10978</v>
       </c>
       <c r="BN45" s="5">
-        <f t="shared" ref="BN45" si="117">SUM(S45:V45)</f>
+        <f t="shared" ref="BN45" si="119">SUM(S45:V45)</f>
         <v>16950</v>
       </c>
       <c r="BO45" s="5">
@@ -9444,27 +9474,27 @@
       </c>
       <c r="BP45" s="5">
         <f>SUM(AA45:AD45)</f>
-        <v>19436.472725</v>
+        <v>21007.272395</v>
       </c>
       <c r="BQ45" s="5">
-        <f t="shared" ref="BQ45:BU45" si="118">+BQ44*0.15</f>
-        <v>22157.472906450002</v>
+        <f t="shared" ref="BQ45:BU45" si="120">+BQ44*0.15</f>
+        <v>22486.94014545</v>
       </c>
       <c r="BR45" s="5">
-        <f t="shared" si="118"/>
-        <v>27420.144794941501</v>
+        <f t="shared" si="120"/>
+        <v>27847.240012231501</v>
       </c>
       <c r="BS45" s="5">
-        <f t="shared" si="118"/>
-        <v>31900.211619941743</v>
+        <f t="shared" si="120"/>
+        <v>32427.705742838436</v>
       </c>
       <c r="BT45" s="5">
-        <f t="shared" si="118"/>
-        <v>35310.765716312795</v>
+        <f t="shared" si="120"/>
+        <v>35912.840304159596</v>
       </c>
       <c r="BU45" s="5">
-        <f t="shared" si="118"/>
-        <v>39068.991210352266</v>
+        <f t="shared" si="120"/>
+        <v>39753.759241223997</v>
       </c>
     </row>
     <row r="46" spans="2:131" s="4" customFormat="1">
@@ -9472,35 +9502,35 @@
         <v>31</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:D46" si="119">C44-C45</f>
+        <f t="shared" ref="C46:D46" si="121">C44-C45</f>
         <v>8824</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>8420</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46:F46" si="120">E44-E45</f>
+        <f t="shared" ref="E46:F46" si="122">E44-E45</f>
         <v>8809</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>13187</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46:H46" si="121">G44-G45</f>
+        <f t="shared" ref="G46:H46" si="123">G44-G45</f>
         <v>10678</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>11649</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ref="I46:J46" si="122">I44-I45</f>
+        <f t="shared" ref="I46:J46" si="124">I44-I45</f>
         <v>10752</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>11202</v>
       </c>
       <c r="K46" s="5">
@@ -9508,39 +9538,39 @@
         <v>13893</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" ref="L46:AD46" si="123">L44-L45</f>
+        <f t="shared" ref="L46:AD46" si="125">L44-L45</f>
         <v>15463</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>15457</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>16458</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>20505</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>18765</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>16728</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>16740</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>17556</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>16425</v>
       </c>
       <c r="U46" s="5">
@@ -9548,47 +9578,47 @@
         <v>18299</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>20081</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>22291</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>21870</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>21939</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>22036</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>24667</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>24108</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="123"/>
-        <v>23981.051869999996</v>
+        <f t="shared" si="125"/>
+        <v>25824</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="123"/>
-        <v>24624.626904999997</v>
+        <f t="shared" si="125"/>
+        <v>26039.876904999997</v>
       </c>
       <c r="AG46" s="4">
-        <f t="shared" ref="AG46:AH46" si="124">AG44-AG45</f>
+        <f t="shared" ref="AG46:AH46" si="126">AG44-AG45</f>
         <v>279</v>
       </c>
       <c r="AH46" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>463</v>
       </c>
       <c r="AI46" s="4">
@@ -9612,79 +9642,79 @@
         <v>2195</v>
       </c>
       <c r="AN46" s="4">
-        <f t="shared" ref="AN46" si="125">AN44-AN45</f>
+        <f t="shared" ref="AN46" si="127">AN44-AN45</f>
         <v>3454</v>
       </c>
       <c r="AO46" s="4">
-        <f t="shared" ref="AO46:BF46" si="126">AO44-AO45</f>
+        <f t="shared" ref="AO46:BF46" si="128">AO44-AO45</f>
         <v>4758</v>
       </c>
       <c r="AP46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7625</v>
       </c>
       <c r="AQ46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9265</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7880</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7921</v>
       </c>
       <c r="AT46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>10061</v>
       </c>
       <c r="AU46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>8193</v>
       </c>
       <c r="AV46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>12254</v>
       </c>
       <c r="AW46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>12599</v>
       </c>
       <c r="AX46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>14065</v>
       </c>
       <c r="AY46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>17681</v>
       </c>
       <c r="AZ46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>14899</v>
       </c>
       <c r="BA46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>18819</v>
       </c>
       <c r="BB46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>23150</v>
       </c>
       <c r="BC46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>23171</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>21863</v>
       </c>
       <c r="BE46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>22201</v>
       </c>
       <c r="BF46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>22204</v>
       </c>
       <c r="BG46" s="4">
@@ -9708,336 +9738,336 @@
         <v>44281</v>
       </c>
       <c r="BL46" s="4">
-        <f t="shared" ref="BL46:BN46" si="127">+BL44-BL45</f>
+        <f t="shared" ref="BL46:BN46" si="129">+BL44-BL45</f>
         <v>61271</v>
       </c>
       <c r="BM46" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>72738</v>
       </c>
       <c r="BN46" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>72361</v>
       </c>
       <c r="BO46" s="4">
-        <f t="shared" ref="BO46" si="128">+BO44-BO45</f>
+        <f t="shared" ref="BO46" si="130">+BO44-BO45</f>
         <v>88136</v>
       </c>
       <c r="BP46" s="4">
-        <f t="shared" ref="BP46" si="129">+BP44-BP45</f>
-        <v>97380.678775000022</v>
+        <f t="shared" ref="BP46" si="131">+BP44-BP45</f>
+        <v>100638.87690500004</v>
       </c>
       <c r="BQ46" s="4">
-        <f t="shared" ref="BQ46" si="130">+BQ44-BQ45</f>
-        <v>125559.01313655001</v>
+        <f t="shared" ref="BQ46" si="132">+BQ44-BQ45</f>
+        <v>127425.99415755001</v>
       </c>
       <c r="BR46" s="4">
-        <f t="shared" ref="BR46" si="131">+BR44-BR45</f>
-        <v>155380.82050466852</v>
+        <f t="shared" ref="BR46" si="133">+BR44-BR45</f>
+        <v>157801.02673597849</v>
       </c>
       <c r="BS46" s="4">
-        <f t="shared" ref="BS46" si="132">+BS44-BS45</f>
-        <v>180767.86584633656</v>
+        <f t="shared" ref="BS46" si="134">+BS44-BS45</f>
+        <v>183756.99920941782</v>
       </c>
       <c r="BT46" s="4">
-        <f t="shared" ref="BT46" si="133">+BT44-BT45</f>
-        <v>200094.33905910584</v>
+        <f t="shared" ref="BT46" si="135">+BT44-BT45</f>
+        <v>203506.09505690439</v>
       </c>
       <c r="BU46" s="4">
-        <f t="shared" ref="BU46" si="134">+BU44-BU45</f>
-        <v>221390.95019199618</v>
+        <f t="shared" ref="BU46" si="136">+BU44-BU45</f>
+        <v>225271.30236693597</v>
       </c>
       <c r="BV46" s="4">
-        <f>+BU46*(1+$BZ$50)</f>
-        <v>225818.7691958361</v>
+        <f t="shared" ref="BV46:DA46" si="137">+BU46*(1+$BZ$50)</f>
+        <v>229776.72841427469</v>
       </c>
       <c r="BW46" s="4">
-        <f>+BV46*(1+$BZ$50)</f>
-        <v>230335.14457975281</v>
+        <f t="shared" si="137"/>
+        <v>234372.26298256021</v>
       </c>
       <c r="BX46" s="4">
-        <f>+BW46*(1+$BZ$50)</f>
-        <v>234941.84747134786</v>
+        <f t="shared" si="137"/>
+        <v>239059.7082422114</v>
       </c>
       <c r="BY46" s="4">
-        <f>+BX46*(1+$BZ$50)</f>
-        <v>239640.68442077484</v>
+        <f t="shared" si="137"/>
+        <v>243840.90240705563</v>
       </c>
       <c r="BZ46" s="4">
-        <f>+BY46*(1+$BZ$50)</f>
-        <v>244433.49810919035</v>
+        <f t="shared" si="137"/>
+        <v>248717.72045519674</v>
       </c>
       <c r="CA46" s="4">
-        <f>+BZ46*(1+$BZ$50)</f>
-        <v>249322.16807137415</v>
+        <f t="shared" si="137"/>
+        <v>253692.0748643007</v>
       </c>
       <c r="CB46" s="4">
-        <f>+CA46*(1+$BZ$50)</f>
-        <v>254308.61143280164</v>
+        <f t="shared" si="137"/>
+        <v>258765.91636158671</v>
       </c>
       <c r="CC46" s="4">
-        <f>+CB46*(1+$BZ$50)</f>
-        <v>259394.78366145768</v>
+        <f t="shared" si="137"/>
+        <v>263941.23468881845</v>
       </c>
       <c r="CD46" s="4">
-        <f>+CC46*(1+$BZ$50)</f>
-        <v>264582.67933468684</v>
+        <f t="shared" si="137"/>
+        <v>269220.05938259483</v>
       </c>
       <c r="CE46" s="4">
-        <f>+CD46*(1+$BZ$50)</f>
-        <v>269874.33292138058</v>
+        <f t="shared" si="137"/>
+        <v>274604.46057024674</v>
       </c>
       <c r="CF46" s="4">
-        <f>+CE46*(1+$BZ$50)</f>
-        <v>275271.81957980822</v>
+        <f t="shared" si="137"/>
+        <v>280096.5497816517</v>
       </c>
       <c r="CG46" s="4">
-        <f>+CF46*(1+$BZ$50)</f>
-        <v>280777.25597140437</v>
+        <f t="shared" si="137"/>
+        <v>285698.48077728471</v>
       </c>
       <c r="CH46" s="4">
-        <f>+CG46*(1+$BZ$50)</f>
-        <v>286392.80109083245</v>
+        <f t="shared" si="137"/>
+        <v>291412.45039283042</v>
       </c>
       <c r="CI46" s="4">
-        <f>+CH46*(1+$BZ$50)</f>
-        <v>292120.65711264912</v>
+        <f t="shared" si="137"/>
+        <v>297240.69940068701</v>
       </c>
       <c r="CJ46" s="4">
-        <f>+CI46*(1+$BZ$50)</f>
-        <v>297963.07025490212</v>
+        <f t="shared" si="137"/>
+        <v>303185.51338870073</v>
       </c>
       <c r="CK46" s="4">
-        <f>+CJ46*(1+$BZ$50)</f>
-        <v>303922.33166000014</v>
+        <f t="shared" si="137"/>
+        <v>309249.22365647473</v>
       </c>
       <c r="CL46" s="4">
-        <f>+CK46*(1+$BZ$50)</f>
-        <v>310000.77829320013</v>
+        <f t="shared" si="137"/>
+        <v>315434.20812960423</v>
       </c>
       <c r="CM46" s="4">
-        <f>+CL46*(1+$BZ$50)</f>
-        <v>316200.79385906411</v>
+        <f t="shared" si="137"/>
+        <v>321742.89229219634</v>
       </c>
       <c r="CN46" s="4">
-        <f>+CM46*(1+$BZ$50)</f>
-        <v>322524.80973624543</v>
+        <f t="shared" si="137"/>
+        <v>328177.75013804028</v>
       </c>
       <c r="CO46" s="4">
-        <f>+CN46*(1+$BZ$50)</f>
-        <v>328975.30593097035</v>
+        <f t="shared" si="137"/>
+        <v>334741.30514080112</v>
       </c>
       <c r="CP46" s="4">
-        <f>+CO46*(1+$BZ$50)</f>
-        <v>335554.81204958976</v>
+        <f t="shared" si="137"/>
+        <v>341436.13124361716</v>
       </c>
       <c r="CQ46" s="4">
-        <f>+CP46*(1+$BZ$50)</f>
-        <v>342265.90829058154</v>
+        <f t="shared" si="137"/>
+        <v>348264.8538684895</v>
       </c>
       <c r="CR46" s="4">
-        <f>+CQ46*(1+$BZ$50)</f>
-        <v>349111.2264563932</v>
+        <f t="shared" si="137"/>
+        <v>355230.15094585932</v>
       </c>
       <c r="CS46" s="4">
-        <f>+CR46*(1+$BZ$50)</f>
-        <v>356093.45098552108</v>
+        <f t="shared" si="137"/>
+        <v>362334.75396477652</v>
       </c>
       <c r="CT46" s="4">
-        <f>+CS46*(1+$BZ$50)</f>
-        <v>363215.32000523148</v>
+        <f t="shared" si="137"/>
+        <v>369581.44904407207</v>
       </c>
       <c r="CU46" s="4">
-        <f>+CT46*(1+$BZ$50)</f>
-        <v>370479.62640533614</v>
+        <f t="shared" si="137"/>
+        <v>376973.07802495355</v>
       </c>
       <c r="CV46" s="4">
-        <f>+CU46*(1+$BZ$50)</f>
-        <v>377889.21893344284</v>
+        <f t="shared" si="137"/>
+        <v>384512.53958545264</v>
       </c>
       <c r="CW46" s="4">
-        <f>+CV46*(1+$BZ$50)</f>
-        <v>385447.00331211172</v>
+        <f t="shared" si="137"/>
+        <v>392202.7903771617</v>
       </c>
       <c r="CX46" s="4">
-        <f>+CW46*(1+$BZ$50)</f>
-        <v>393155.94337835396</v>
+        <f t="shared" si="137"/>
+        <v>400046.84618470492</v>
       </c>
       <c r="CY46" s="4">
-        <f>+CX46*(1+$BZ$50)</f>
-        <v>401019.06224592106</v>
+        <f t="shared" si="137"/>
+        <v>408047.78310839902</v>
       </c>
       <c r="CZ46" s="4">
-        <f>+CY46*(1+$BZ$50)</f>
-        <v>409039.44349083951</v>
+        <f t="shared" si="137"/>
+        <v>416208.738770567</v>
       </c>
       <c r="DA46" s="4">
-        <f>+CZ46*(1+$BZ$50)</f>
-        <v>417220.23236065631</v>
+        <f t="shared" si="137"/>
+        <v>424532.91354597837</v>
       </c>
       <c r="DB46" s="4">
-        <f>+DA46*(1+$BZ$50)</f>
-        <v>425564.63700786943</v>
+        <f t="shared" ref="DB46:EA46" si="138">+DA46*(1+$BZ$50)</f>
+        <v>433023.57181689795</v>
       </c>
       <c r="DC46" s="4">
-        <f>+DB46*(1+$BZ$50)</f>
-        <v>434075.92974802683</v>
+        <f t="shared" si="138"/>
+        <v>441684.04325323593</v>
       </c>
       <c r="DD46" s="4">
-        <f>+DC46*(1+$BZ$50)</f>
-        <v>442757.44834298739</v>
+        <f t="shared" si="138"/>
+        <v>450517.72411830066</v>
       </c>
       <c r="DE46" s="4">
-        <f>+DD46*(1+$BZ$50)</f>
-        <v>451612.59730984713</v>
+        <f t="shared" si="138"/>
+        <v>459528.07860066666</v>
       </c>
       <c r="DF46" s="4">
-        <f>+DE46*(1+$BZ$50)</f>
-        <v>460644.84925604408</v>
+        <f t="shared" si="138"/>
+        <v>468718.64017268002</v>
       </c>
       <c r="DG46" s="4">
-        <f>+DF46*(1+$BZ$50)</f>
-        <v>469857.74624116498</v>
+        <f t="shared" si="138"/>
+        <v>478093.01297613361</v>
       </c>
       <c r="DH46" s="4">
-        <f>+DG46*(1+$BZ$50)</f>
-        <v>479254.9011659883</v>
+        <f t="shared" si="138"/>
+        <v>487654.8732356563</v>
       </c>
       <c r="DI46" s="4">
-        <f>+DH46*(1+$BZ$50)</f>
-        <v>488839.99918930809</v>
+        <f t="shared" si="138"/>
+        <v>497407.97070036945</v>
       </c>
       <c r="DJ46" s="4">
-        <f>+DI46*(1+$BZ$50)</f>
-        <v>498616.79917309427</v>
+        <f t="shared" si="138"/>
+        <v>507356.13011437684</v>
       </c>
       <c r="DK46" s="4">
-        <f>+DJ46*(1+$BZ$50)</f>
-        <v>508589.13515655615</v>
+        <f t="shared" si="138"/>
+        <v>517503.2527166644</v>
       </c>
       <c r="DL46" s="4">
-        <f>+DK46*(1+$BZ$50)</f>
-        <v>518760.9178596873</v>
+        <f t="shared" si="138"/>
+        <v>527853.31777099764</v>
       </c>
       <c r="DM46" s="4">
-        <f>+DL46*(1+$BZ$50)</f>
-        <v>529136.1362168811</v>
+        <f t="shared" si="138"/>
+        <v>538410.38412641757</v>
       </c>
       <c r="DN46" s="4">
-        <f>+DM46*(1+$BZ$50)</f>
-        <v>539718.8589412187</v>
+        <f t="shared" si="138"/>
+        <v>549178.59180894599</v>
       </c>
       <c r="DO46" s="4">
-        <f>+DN46*(1+$BZ$50)</f>
-        <v>550513.23612004309</v>
+        <f t="shared" si="138"/>
+        <v>560162.16364512488</v>
       </c>
       <c r="DP46" s="4">
-        <f>+DO46*(1+$BZ$50)</f>
-        <v>561523.50084244402</v>
+        <f t="shared" si="138"/>
+        <v>571365.40691802744</v>
       </c>
       <c r="DQ46" s="4">
-        <f>+DP46*(1+$BZ$50)</f>
-        <v>572753.97085929289</v>
+        <f t="shared" si="138"/>
+        <v>582792.71505638794</v>
       </c>
       <c r="DR46" s="4">
-        <f>+DQ46*(1+$BZ$50)</f>
-        <v>584209.05027647875</v>
+        <f t="shared" si="138"/>
+        <v>594448.56935751566</v>
       </c>
       <c r="DS46" s="4">
-        <f>+DR46*(1+$BZ$50)</f>
-        <v>595893.23128200835</v>
+        <f t="shared" si="138"/>
+        <v>606337.54074466601</v>
       </c>
       <c r="DT46" s="4">
-        <f>+DS46*(1+$BZ$50)</f>
-        <v>607811.09590764856</v>
+        <f t="shared" si="138"/>
+        <v>618464.29155955929</v>
       </c>
       <c r="DU46" s="4">
-        <f>+DT46*(1+$BZ$50)</f>
-        <v>619967.31782580155</v>
+        <f t="shared" si="138"/>
+        <v>630833.57739075052</v>
       </c>
       <c r="DV46" s="4">
-        <f>+DU46*(1+$BZ$50)</f>
-        <v>632366.66418231756</v>
+        <f t="shared" si="138"/>
+        <v>643450.24893856549</v>
       </c>
       <c r="DW46" s="4">
-        <f>+DV46*(1+$BZ$50)</f>
-        <v>645013.99746596394</v>
+        <f t="shared" si="138"/>
+        <v>656319.25391733681</v>
       </c>
       <c r="DX46" s="4">
-        <f>+DW46*(1+$BZ$50)</f>
-        <v>657914.27741528326</v>
+        <f t="shared" si="138"/>
+        <v>669445.63899568352</v>
       </c>
       <c r="DY46" s="4">
-        <f>+DX46*(1+$BZ$50)</f>
-        <v>671072.56296358898</v>
+        <f t="shared" si="138"/>
+        <v>682834.55177559715</v>
       </c>
       <c r="DZ46" s="4">
-        <f>+DY46*(1+$BZ$50)</f>
-        <v>684494.0142228608</v>
+        <f t="shared" si="138"/>
+        <v>696491.24281110906</v>
       </c>
       <c r="EA46" s="4">
-        <f>+DZ46*(1+$BZ$50)</f>
-        <v>698183.89450731804</v>
-      </c>
-    </row>
-    <row r="47" spans="2:131" s="3" customFormat="1">
+        <f t="shared" si="138"/>
+        <v>710421.0676673312</v>
+      </c>
+    </row>
+    <row r="47" spans="2:131" s="3" customFormat="1" ht="13">
       <c r="B47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" ref="C47:D47" si="135">C46/C48</f>
+        <f t="shared" ref="C47:D47" si="139">C46/C48</f>
         <v>1.1362348699459182</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1.0839340885684861</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" ref="E47:F47" si="136">E46/E48</f>
+        <f t="shared" ref="E47:F47" si="140">E46/E48</f>
         <v>1.1375258264462811</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>1.7059508408796895</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" ref="G47:H47" si="137">G46/G48</f>
+        <f t="shared" ref="G47:H47" si="141">G46/G48</f>
         <v>1.3849546044098573</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>1.5146274866727343</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" ref="I47:J47" si="138">I46/I48</f>
+        <f t="shared" ref="I47:J47" si="142">I46/I48</f>
         <v>1.4009120521172638</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>1.4643137254901961</v>
       </c>
       <c r="K47" s="8">
-        <f t="shared" ref="K47:P47" si="139">K46/K48</f>
+        <f t="shared" ref="K47:P47" si="143">K46/K48</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="Q47" s="8">
@@ -10053,7 +10083,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="T47" s="8">
-        <f t="shared" ref="T47:AD47" si="140">T46/T48</f>
+        <f t="shared" ref="T47:AD47" si="144">T46/T48</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="U47" s="8">
@@ -10061,47 +10091,47 @@
         <v>2.4516345123258305</v>
       </c>
       <c r="V47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="X47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="Y47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>2.936161670235546</v>
       </c>
       <c r="Z47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>2.9503280224929709</v>
       </c>
       <c r="AA47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3.3021419009370816</v>
       </c>
       <c r="AB47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>3.2281735404392071</v>
       </c>
       <c r="AC47" s="8">
-        <f t="shared" si="140"/>
-        <v>3.2111745942688801</v>
+        <f t="shared" si="144"/>
+        <v>3.4611982308001608</v>
       </c>
       <c r="AD47" s="8">
-        <f t="shared" si="140"/>
-        <v>3.297352290439207</v>
+        <f t="shared" si="144"/>
+        <v>3.4901322751641866</v>
       </c>
       <c r="AG47" s="11">
-        <f t="shared" ref="AG47:AH47" si="141">AG46/AG48</f>
+        <f t="shared" ref="AG47:AH47" si="145">AG46/AG48</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="AH47" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AI47" s="11">
@@ -10125,79 +10155,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AN47" s="11">
-        <f t="shared" ref="AN47" si="142">AN46/AN48</f>
+        <f t="shared" ref="AN47" si="146">AN46/AN48</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AO47" s="11">
-        <f t="shared" ref="AO47:BF47" si="143">AO46/AO48</f>
+        <f t="shared" ref="AO47:BF47" si="147">AO46/AO48</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AP47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AQ47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AV47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AW47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AX47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AY47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AZ47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="BC47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.724077122031507</v>
       </c>
       <c r="BD47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.581227863046045</v>
       </c>
       <c r="BE47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="BG47" s="11">
@@ -10221,44 +10251,44 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" ref="BL47:BN47" si="144">+BL46/BL48</f>
+        <f t="shared" ref="BL47:BN47" si="148">+BL46/BL48</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>9.6839640001338285</v>
       </c>
       <c r="BO47" s="11">
-        <f t="shared" ref="BO47" si="145">+BO46/BO48</f>
+        <f t="shared" ref="BO47" si="149">+BO46/BO48</f>
         <v>11.802216196310804</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" ref="BP47" si="146">+BP46/BP48</f>
-        <v>13.038853688826407</v>
+        <f t="shared" ref="BP47" si="150">+BP46/BP48</f>
+        <v>13.48143026188882</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" ref="BQ47" si="147">+BQ46/BQ48</f>
-        <v>16.811811359248846</v>
+        <f t="shared" ref="BQ47" si="151">+BQ46/BQ48</f>
+        <v>17.069791581721368</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" ref="BR47" si="148">+BR46/BR48</f>
-        <v>20.804822990515969</v>
+        <f t="shared" ref="BR47" si="152">+BR46/BR48</f>
+        <v>21.1387845594077</v>
       </c>
       <c r="BS47" s="11">
-        <f t="shared" ref="BS47" si="149">+BS46/BS48</f>
-        <v>24.20403907696814</v>
+        <f t="shared" ref="BS47" si="153">+BS46/BS48</f>
+        <v>24.61580699389388</v>
       </c>
       <c r="BT47" s="11">
-        <f t="shared" ref="BT47" si="150">+BT46/BT48</f>
-        <v>26.791770644588048</v>
+        <f t="shared" ref="BT47" si="154">+BT46/BT48</f>
+        <v>27.26136571425377</v>
       </c>
       <c r="BU47" s="11">
-        <f t="shared" ref="BU47" si="151">+BU46/BU48</f>
-        <v>29.643295198767646</v>
+        <f t="shared" ref="BU47" si="155">+BU46/BU48</f>
+        <v>30.176999647278762</v>
       </c>
     </row>
     <row r="48" spans="2:131" s="4" customFormat="1">
@@ -10344,12 +10374,11 @@
         <v>7468</v>
       </c>
       <c r="AC48" s="4">
-        <f>+AB48</f>
-        <v>7468</v>
+        <v>7461</v>
       </c>
       <c r="AD48" s="4">
         <f>+AC48</f>
-        <v>7468</v>
+        <v>7461</v>
       </c>
       <c r="AG48" s="4">
         <v>537</v>
@@ -10462,27 +10491,27 @@
       </c>
       <c r="BP48" s="5">
         <f>AVERAGE(AA48:AD48)</f>
-        <v>7468.5</v>
+        <v>7465</v>
       </c>
       <c r="BQ48" s="5">
-        <f t="shared" ref="BQ48:BU48" si="152">+BP48</f>
-        <v>7468.5</v>
+        <f t="shared" ref="BQ48:BU48" si="156">+BP48</f>
+        <v>7465</v>
       </c>
       <c r="BR48" s="5">
-        <f t="shared" si="152"/>
-        <v>7468.5</v>
+        <f t="shared" si="156"/>
+        <v>7465</v>
       </c>
       <c r="BS48" s="5">
-        <f t="shared" si="152"/>
-        <v>7468.5</v>
+        <f t="shared" si="156"/>
+        <v>7465</v>
       </c>
       <c r="BT48" s="5">
-        <f t="shared" si="152"/>
-        <v>7468.5</v>
+        <f t="shared" si="156"/>
+        <v>7465</v>
       </c>
       <c r="BU48" s="5">
-        <f t="shared" si="152"/>
-        <v>7468.5</v>
+        <f t="shared" si="156"/>
+        <v>7465</v>
       </c>
     </row>
     <row r="49" spans="2:78">
@@ -10495,7 +10524,7 @@
       <c r="BT49" s="2"/>
       <c r="BU49" s="2"/>
     </row>
-    <row r="50" spans="2:78" s="3" customFormat="1">
+    <row r="50" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B50" s="6" t="s">
         <v>34</v>
       </c>
@@ -10504,43 +10533,43 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10">
-        <f t="shared" ref="G50:J50" si="153">G33/C33-1</f>
+        <f t="shared" ref="G50:J50" si="157">G33/C33-1</f>
         <v>0.13653555219364599</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.13658341289150311</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.14556278826338698</v>
       </c>
       <c r="J50" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.12800664353293589</v>
       </c>
       <c r="K50" s="10">
-        <f t="shared" ref="K50:O50" si="154">K33/G33-1</f>
+        <f t="shared" ref="K50:O50" si="158">K33/G33-1</f>
         <v>0.12400544546967174</v>
       </c>
       <c r="L50" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.19088546871876866</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.21347251071437956</v>
       </c>
       <c r="O50" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" ref="P50" si="155">P33/L33-1</f>
+        <f t="shared" ref="P50" si="159">P33/L33-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="Q50" s="10">
@@ -10548,15 +10577,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="R50" s="10">
-        <f t="shared" ref="R50:S50" si="156">R33/N33-1</f>
+        <f t="shared" ref="R50:S50" si="160">R33/N33-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="T50" s="10">
-        <f t="shared" ref="T50" si="157">T33/P33-1</f>
+        <f t="shared" ref="T50" si="161">T33/P33-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="U50" s="10">
@@ -10568,163 +10597,163 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" ref="W50:AB50" si="158">W33/S33-1</f>
+        <f t="shared" ref="W50:AB50" si="162">W33/S33-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="X50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="Z50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="AA50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.16044729904276589</v>
       </c>
       <c r="AB50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>0.12273460174137374</v>
       </c>
       <c r="AC50" s="10">
         <f>AC33/Y33-1</f>
-        <v>0.1100000000000001</v>
+        <v>0.13269100197225914</v>
       </c>
       <c r="AD50" s="10">
         <f>AD33/Z33-1</f>
         <v>0.1100000000000001</v>
       </c>
       <c r="AH50" s="18">
-        <f t="shared" ref="AH50:BH50" si="159">AH33/AG33-1</f>
+        <f t="shared" ref="AH50:BH50" si="163">AH33/AG33-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AI50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AJ50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AK50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AL50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AM50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AN50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AO50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AP50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AQ50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AR50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AS50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AT50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AU50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AV50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AW50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AX50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AY50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AZ50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="BA50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="BB50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="BC50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="BD50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="BE50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="BF50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="BG50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="BH50" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BI50" s="10">
-        <f t="shared" ref="BI50:BM50" si="160">+BI33/BH33-1</f>
+        <f t="shared" ref="BI50:BM50" si="164">+BI33/BH33-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BJ50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BK50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BL50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BM50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BN50" s="10">
@@ -10732,32 +10761,32 @@
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="BO50" s="10">
-        <f t="shared" ref="BO50:BU50" si="161">+BO33/BN33-1</f>
+        <f t="shared" ref="BO50:BU50" si="165">+BO33/BN33-1</f>
         <v>0.1566996201307127</v>
       </c>
       <c r="BP50" s="10">
-        <f t="shared" si="161"/>
-        <v>0.12485354231770307</v>
+        <f t="shared" si="165"/>
+        <v>0.13057975212343265</v>
       </c>
       <c r="BQ50" s="10">
-        <f t="shared" si="161"/>
-        <v>0.16929677885338124</v>
+        <f t="shared" si="165"/>
+        <v>0.17115969413196264</v>
       </c>
       <c r="BR50" s="10">
-        <f t="shared" si="161"/>
-        <v>0.17190409892422931</v>
+        <f t="shared" si="165"/>
+        <v>0.17365079464959554</v>
       </c>
       <c r="BS50" s="10">
-        <f t="shared" si="161"/>
-        <v>0.12632049807173074</v>
+        <f t="shared" si="165"/>
+        <v>0.12782568072458922</v>
       </c>
       <c r="BT50" s="10">
-        <f t="shared" si="161"/>
-        <v>8.736821881552137E-2</v>
+        <f t="shared" si="165"/>
+        <v>8.8186942013873226E-2</v>
       </c>
       <c r="BU50" s="10">
-        <f t="shared" si="161"/>
-        <v>8.8034656158899383E-2</v>
+        <f t="shared" si="165"/>
+        <v>8.8818603444007049E-2</v>
       </c>
       <c r="BY50" t="s">
         <v>98</v>
@@ -10766,7 +10795,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="3" customFormat="1">
+    <row r="51" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B51" s="6" t="s">
         <v>104</v>
       </c>
@@ -10810,6 +10839,9 @@
       <c r="AB51" s="18">
         <v>0.12</v>
       </c>
+      <c r="AC51" s="10">
+        <v>0.15</v>
+      </c>
       <c r="BI51" s="10"/>
       <c r="BJ51" s="10"/>
       <c r="BK51" s="10"/>
@@ -10832,7 +10864,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="3" customFormat="1">
+    <row r="52" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B52" s="6" t="s">
         <v>158</v>
       </c>
@@ -10851,51 +10883,51 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18">
-        <f t="shared" ref="Q52" si="162">Q78/M78-1</f>
+        <f t="shared" ref="Q52" si="166">Q78/M78-1</f>
         <v>0.12477838234395056</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" ref="R52" si="163">R78/N78-1</f>
+        <f t="shared" ref="R52" si="167">R78/N78-1</f>
         <v>9.666749733807567E-2</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S52:T52" si="164">S78/O78-1</f>
+        <f t="shared" ref="S52:T52" si="168">S78/O78-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="T52" s="18">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="U52" s="18">
-        <f t="shared" ref="U52:AB52" si="165">U78/Q78-1</f>
+        <f t="shared" ref="U52:AB52" si="169">U78/Q78-1</f>
         <v>7.6231112077399743E-2</v>
       </c>
       <c r="V52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.11165509833085441</v>
       </c>
       <c r="W52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.11507072905331883</v>
       </c>
       <c r="X52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.16171200726795543</v>
       </c>
       <c r="Y52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.13211787581121692</v>
       </c>
       <c r="Z52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.11839146674595358</v>
       </c>
       <c r="AA52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>0.13216638204440101</v>
       </c>
       <c r="AB52" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>4.368510231567968E-2</v>
       </c>
       <c r="BI52" s="10"/>
@@ -10918,7 +10950,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="3" customFormat="1">
+    <row r="53" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B53" s="6" t="s">
         <v>415</v>
       </c>
@@ -10931,83 +10963,83 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:N54" si="166">K27/G27-1</f>
+        <f t="shared" ref="K53:N54" si="170">K27/G27-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O54" si="167">O27/K27-1</f>
+        <f t="shared" ref="O53:O54" si="171">O27/K27-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ref="P53:P54" si="168">P27/L27-1</f>
+        <f t="shared" ref="P53:P54" si="172">P27/L27-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" ref="Q53:Q54" si="169">Q27/M27-1</f>
+        <f t="shared" ref="Q53:Q54" si="173">Q27/M27-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ref="R53" si="170">R27/N27-1</f>
+        <f t="shared" ref="R53" si="174">R27/N27-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53" si="171">S27/O27-1</f>
+        <f t="shared" ref="S53" si="175">S27/O27-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="T53" s="12">
-        <f t="shared" ref="T53" si="172">T27/P27-1</f>
+        <f t="shared" ref="T53" si="176">T27/P27-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="U53" s="12">
-        <f t="shared" ref="U53:Z53" si="173">U27/Q27-1</f>
+        <f t="shared" ref="U53:Z53" si="177">U27/Q27-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="V53" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.5320983905253569</v>
       </c>
       <c r="X53" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.52064463004352435</v>
       </c>
       <c r="Y53" s="12">
-        <f t="shared" si="173"/>
-        <v>0.11726421557433198</v>
+        <f t="shared" si="177"/>
+        <v>0.54789906371317643</v>
       </c>
       <c r="Z53" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.1107648570335138</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AB55" si="174">AA27/W27-1</f>
+        <f t="shared" ref="AA53:AB55" si="178">AA27/W27-1</f>
         <v>0.12253230793625614</v>
       </c>
       <c r="AB53" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.13858590546917315</v>
       </c>
       <c r="AC53" s="12">
-        <f t="shared" ref="AC53:AD53" si="175">AC27/Y27-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="AC53:AD53" si="179">AC27/Y27-1</f>
+        <v>0.10441485634197623</v>
       </c>
       <c r="AD53" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI53" s="10"/>
@@ -11028,10 +11060,10 @@
       </c>
       <c r="BZ53" s="4">
         <f>NPV(BZ51,BN46:EA46)+Main!L5-Main!L6</f>
-        <v>3318463.2931642765</v>
-      </c>
-    </row>
-    <row r="54" spans="2:78" s="3" customFormat="1">
+        <v>3373848.3988617393</v>
+      </c>
+    </row>
+    <row r="54" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B54" s="6" t="s">
         <v>413</v>
       </c>
@@ -11044,83 +11076,83 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.25518800082186144</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0.25592009525069459</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" ref="R54:U54" si="176">R28/N28-1</f>
+        <f t="shared" ref="R54:U54" si="180">R28/N28-1</f>
         <v>0.19735251798561149</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.20180936613055822</v>
       </c>
       <c r="T54" s="12">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.17356905112675292</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>0.16295359983146374</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" ref="V54:Z54" si="177">V28/R28-1</f>
+        <f t="shared" ref="V54:Z54" si="181">V28/R28-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>-1.5350553505535047E-2</v>
       </c>
       <c r="X54" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>7.904035707644308E-4</v>
       </c>
       <c r="Y54" s="12">
-        <f t="shared" si="177"/>
-        <v>0.20954666908201625</v>
+        <f t="shared" si="181"/>
+        <v>2.7172682396630066E-3</v>
       </c>
       <c r="Z54" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0.1884716375609552</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.20381751861290165</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.18671312427409981</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AD54" si="178">AC28/Y28-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="AC54:AD54" si="182">AC28/Y28-1</f>
+        <v>0.20821101124610442</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI54" s="10"/>
@@ -11143,10 +11175,10 @@
       </c>
       <c r="BZ54" s="1">
         <f>+BZ53/Main!L3</f>
-        <v>446.39107120011516</v>
-      </c>
-    </row>
-    <row r="55" spans="2:78" s="3" customFormat="1">
+        <v>453.84133190112999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:78" s="3" customFormat="1" ht="13">
       <c r="B55" s="6" t="s">
         <v>414</v>
       </c>
@@ -11159,83 +11191,83 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="12">
-        <f t="shared" ref="K55:Z55" si="179">K29/G29-1</f>
+        <f t="shared" ref="K55:Z55" si="183">K29/G29-1</f>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.11874808223381406</v>
       </c>
       <c r="R55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>-2.5437677689660321E-3</v>
       </c>
       <c r="T55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>-0.18482679645004296</v>
       </c>
       <c r="U55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>-9.0784421283598427E-2</v>
       </c>
       <c r="V55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>-3.8448240094046016E-2</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>-0.15406540654065404</v>
       </c>
       <c r="X55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>2.8376764767858331E-2</v>
       </c>
       <c r="Y55" s="12">
-        <f t="shared" si="179"/>
-        <v>0.17496229260935148</v>
+        <f t="shared" si="183"/>
+        <v>-4.9472096530920107E-2</v>
       </c>
       <c r="Z55" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.14311398777418205</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.16829225039900697</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>6.8301345536503355E-4</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" ref="AC55:AD55" si="180">AC29/Y29-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="AC55:AD55" si="184">AC29/Y29-1</f>
+        <v>6.0853697238971716E-2</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI55" s="10"/>
@@ -11259,278 +11291,278 @@
         <v>22</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="181">C37/C33</f>
+        <f t="shared" ref="C56:D56" si="185">C37/C33</f>
         <v>0.65943474075092834</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.61741246034923469</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56" si="182">E37/E33</f>
+        <f t="shared" ref="E56" si="186">E37/E33</f>
         <v>0.66733178502502366</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9">
-        <f t="shared" ref="G56:AD56" si="183">G37/G33</f>
+        <f t="shared" ref="G56:AD56" si="187">G37/G33</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68661660146769077</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.70388114334930285</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68721526878626582</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69684954064829263</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68323532247180174</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69354273080734929</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.68693991268382348</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="183"/>
-        <v>0.69</v>
+        <f t="shared" si="187"/>
+        <v>0.6871663859789342</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.69</v>
       </c>
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9">
-        <f t="shared" ref="AG56:BU56" si="184">AG37/AG33</f>
+        <f t="shared" ref="AG56:BU56" si="188">AG37/AG33</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AI56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AJ56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AK56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.86299158113251062</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.84417412285111093</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.64695447745244705</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BN56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BO56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.69764443827971379</v>
       </c>
       <c r="BP56" s="9">
-        <f t="shared" si="184"/>
-        <v>0.69006988813365133</v>
+        <f t="shared" si="188"/>
+        <v>0.68935311940458843</v>
       </c>
       <c r="BQ56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67</v>
       </c>
       <c r="BR56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67</v>
       </c>
       <c r="BS56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67</v>
       </c>
       <c r="BT56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67</v>
       </c>
       <c r="BU56" s="9">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0.67</v>
       </c>
     </row>
@@ -11539,112 +11571,112 @@
         <v>455</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:D57" si="185">+C42/C33</f>
+        <f t="shared" ref="C57:D57" si="189">+C42/C33</f>
         <v>0.34228441754916794</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>0.3159126605278556</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" ref="E57" si="186">+E42/E33</f>
+        <f t="shared" ref="E57" si="190">+E42/E33</f>
         <v>0.3382617513329626</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9">
-        <f t="shared" ref="G57:AB57" si="187">+G42/G33</f>
+        <f t="shared" ref="G57:AB57" si="191">+G42/G33</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.37638866309001245</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.35250966266137301</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.41374154966198645</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="X57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="Z57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="AA57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.46583822520393381</v>
       </c>
       <c r="AB57" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>0.45457548253676472</v>
       </c>
       <c r="AC57" s="9">
-        <f t="shared" ref="AC57:AD57" si="188">+AC42/AC33</f>
-        <v>0.4442170836490083</v>
+        <f t="shared" ref="AC57:AD57" si="192">+AC42/AC33</f>
+        <v>0.45671224274255701</v>
       </c>
       <c r="AD57" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>0.43506565830124772</v>
       </c>
       <c r="AE57" s="9"/>
@@ -11669,92 +11701,92 @@
       <c r="AX57" s="9"/>
       <c r="AY57" s="9"/>
       <c r="AZ57" s="9">
-        <f t="shared" ref="AZ57:BU57" si="189">AZ42/AZ33</f>
+        <f t="shared" ref="AZ57:BU57" si="193">AZ42/AZ33</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.37920323372624554</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BN57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="BO57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>0.44644299573273716</v>
       </c>
       <c r="BP57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.44959123964757086</v>
+        <f t="shared" si="193"/>
+        <v>0.45272313672895076</v>
       </c>
       <c r="BQ57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.45816925487167426</v>
+        <f t="shared" si="193"/>
+        <v>0.46189099199955547</v>
       </c>
       <c r="BR57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.48381952014464064</v>
+        <f t="shared" si="193"/>
+        <v>0.48736281420534905</v>
       </c>
       <c r="BS57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.49974127295088316</v>
+        <f t="shared" si="193"/>
+        <v>0.50320445297217187</v>
       </c>
       <c r="BT57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.50872391538938078</v>
+        <f t="shared" si="193"/>
+        <v>0.51212325400567738</v>
       </c>
       <c r="BU57" s="9">
-        <f t="shared" si="189"/>
-        <v>0.51732621685473412</v>
+        <f t="shared" si="193"/>
+        <v>0.52065184608363946</v>
       </c>
     </row>
     <row r="58" spans="2:78">
@@ -11762,278 +11794,278 @@
         <v>89</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:D58" si="190">+C45/C44</f>
+        <f t="shared" ref="C58:D58" si="194">+C45/C44</f>
         <v>0.13667938557871051</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>0.18921521425132404</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" ref="E58" si="191">+E45/E44</f>
+        <f t="shared" ref="E58" si="195">+E45/E44</f>
         <v>0.15992752241083349</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9">
-        <f t="shared" ref="G58:AB58" si="192">+G45/G44</f>
+        <f t="shared" ref="G58:AB58" si="196">+G45/G44</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.13836516993301909</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.15673228990565524</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18300102624248643</v>
       </c>
       <c r="X58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.1913394495412844</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.18507383791998414</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>0.17902264600715137</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" ref="AC58:AD58" si="193">+AC45/AC44</f>
-        <v>0.15</v>
+        <f t="shared" ref="AC58:AD58" si="197">+AC45/AC44</f>
+        <v>0.17697676642126398</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>0.15</v>
       </c>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9">
-        <f t="shared" ref="AG58:BU58" si="194">+AG45/AG44</f>
+        <f t="shared" ref="AG58:BU58" si="198">+AG45/AG44</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="AH58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AI58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AJ58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AK58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AL58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AM58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.35039952648712636</v>
       </c>
       <c r="AN58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AO58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AP58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AQ58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AR58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AS58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AT58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AU58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AV58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.26305027664180902</v>
       </c>
       <c r="AW58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AX58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AY58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.22140402552773686</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.14605886052901645</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.18978625253328257</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.18231326597827197</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="194"/>
-        <v>0.16638372426843498</v>
+        <f t="shared" si="198"/>
+        <v>0.1726916348432247</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="BR58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="BS58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="BT58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="BU58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
     </row>
@@ -12042,112 +12074,112 @@
         <v>156</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ref="C59:D59" si="195">(C31-C34)/C31</f>
+        <f t="shared" ref="C59:D59" si="199">(C31-C34)/C31</f>
         <v>0.78906295161570028</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>0.63715395523768414</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" ref="E59" si="196">(E31-E34)/E31</f>
+        <f t="shared" ref="E59" si="200">(E31-E34)/E31</f>
         <v>0.77725271879854996</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f t="shared" ref="G59:AB59" si="197">(G31-G34)/G31</f>
+        <f t="shared" ref="G59:AB59" si="201">(G31-G34)/G31</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.72796494111202414</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.75918884664131814</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.7736297391488014</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.73603593228146957</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="T59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.65550644790216139</v>
       </c>
       <c r="U59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.74717731588401337</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="W59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="X59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="Y59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="Z59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="AA59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.78431115767417492</v>
       </c>
       <c r="AB59" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>0.76225414637153954</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" ref="AC59:AD59" si="198">(AC31-AC34)/AC31</f>
-        <v>0.62448373314766714</v>
+        <f t="shared" ref="AC59:AD59" si="202">(AC31-AC34)/AC31</f>
+        <v>0.80174946145309745</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>0.72554042807277264</v>
       </c>
       <c r="AE59" s="9"/>
@@ -12179,63 +12211,63 @@
       <c r="BE59" s="9"/>
       <c r="BF59" s="9"/>
       <c r="BG59" s="9">
-        <f t="shared" ref="BG59:BU59" si="199">(BG31-BG34)/BG31</f>
+        <f t="shared" ref="BG59:BU59" si="203">(BG31-BG34)/BG31</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="BH59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.76218833743398473</v>
       </c>
       <c r="BI59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BJ59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BK59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BL59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BM59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BN59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BO59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.76422274713229277</v>
       </c>
       <c r="BP59" s="9">
-        <f t="shared" si="199"/>
-        <v>0.7190462183512546</v>
+        <f t="shared" si="203"/>
+        <v>0.76881327964291979</v>
       </c>
       <c r="BQ59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75</v>
       </c>
       <c r="BR59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75</v>
       </c>
       <c r="BS59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75</v>
       </c>
       <c r="BT59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75</v>
       </c>
       <c r="BU59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>0.75</v>
       </c>
       <c r="BX59" s="1"/>
@@ -12245,112 +12277,112 @@
         <v>157</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" ref="C60:D60" si="200">(C32-C35)/C32</f>
+        <f t="shared" ref="C60:D60" si="204">(C32-C35)/C32</f>
         <v>0.46915570640644888</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0.59771105094757571</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" ref="E60" si="201">(E32-E35)/E32</f>
+        <f t="shared" ref="E60" si="205">(E32-E35)/E32</f>
         <v>0.55504860146796275</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9">
-        <f t="shared" ref="G60:AB60" si="202">(G32-G35)/G32</f>
+        <f t="shared" ref="G60:AB60" si="206">(G32-G35)/G32</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.60366736368023166</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.59926581514633415</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.65656402468577335</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="T60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.67435826662986476</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.67299900721779493</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="W60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="X60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="Z60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="AA60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.66599089698487468</v>
       </c>
       <c r="AB60" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>0.66407054462396797</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AD60" si="203">(AC32-AC35)/AC32</f>
-        <v>0.71499034878372947</v>
+        <f t="shared" ref="AC60:AD60" si="207">(AC32-AC35)/AC32</f>
+        <v>0.65510438928160453</v>
       </c>
       <c r="AD60" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="207"/>
         <v>0.68088064768321033</v>
       </c>
       <c r="AE60" s="9"/>
@@ -12382,63 +12414,63 @@
       <c r="BE60" s="9"/>
       <c r="BF60" s="9"/>
       <c r="BG60" s="9">
-        <f t="shared" ref="BG60:BU60" si="204">(BG32-BG35)/BG32</f>
+        <f t="shared" ref="BG60:BU60" si="208">(BG32-BG35)/BG32</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="BH60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.41739926739926742</v>
       </c>
       <c r="BI60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BJ60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BK60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BL60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BM60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BN60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BO60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.67373259624394921</v>
       </c>
       <c r="BP60" s="9">
-        <f t="shared" si="204"/>
-        <v>0.68111021507112257</v>
+        <f t="shared" si="208"/>
+        <v>0.66669928137886969</v>
       </c>
       <c r="BQ60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="BR60" s="9">
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
-      <c r="BR60" s="9">
-        <f t="shared" si="204"/>
+      <c r="BS60" s="9">
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
-      <c r="BS60" s="9">
-        <f t="shared" si="204"/>
+      <c r="BT60" s="9">
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
-      <c r="BT60" s="9">
-        <f t="shared" si="204"/>
-        <v>0.65</v>
-      </c>
       <c r="BU60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>0.65</v>
       </c>
       <c r="BX60" s="1"/>
@@ -12535,79 +12567,79 @@
         <v>82</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" ref="G63:H63" si="205">+G64-G75</f>
+        <f t="shared" ref="G63:H63" si="209">+G64-G75</f>
         <v>69825</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>64290</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ref="I63:J63" si="206">+I64-I75</f>
+        <f t="shared" ref="I63:J63" si="210">+I64-I75</f>
         <v>73676</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>76165</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" ref="K63:L63" si="207">+K64-K75</f>
+        <f t="shared" ref="K63:L63" si="211">+K64-K75</f>
         <v>77528</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>75239</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:Y63" si="208">+M64-M75</f>
+        <f t="shared" ref="M63:Y63" si="212">+M64-M75</f>
         <v>72744</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>78172</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>83720</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>79105</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>61674</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>61867</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>65479</v>
       </c>
       <c r="T63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>58489</v>
       </c>
       <c r="U63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>65632</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>73904</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>83872</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>20165</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>29386</v>
       </c>
       <c r="Z63" s="5">
@@ -12625,87 +12657,87 @@
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AK63" s="4">
-        <f t="shared" ref="AK63:AY63" si="209">AK64</f>
+        <f t="shared" ref="AK63:AY63" si="213">AK64</f>
         <v>3614</v>
       </c>
       <c r="AL63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>4750</v>
       </c>
       <c r="AM63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>6940</v>
       </c>
       <c r="AN63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>11312</v>
       </c>
       <c r="AO63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>18630</v>
       </c>
       <c r="AP63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>31608</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>41524</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>45741</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>52843</v>
       </c>
       <c r="AT63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>62740</v>
       </c>
       <c r="AU63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>72802</v>
       </c>
       <c r="AV63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>48755</v>
       </c>
       <c r="AW63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>43393</v>
       </c>
       <c r="AX63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>33528</v>
       </c>
       <c r="AY63" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>30250</v>
       </c>
       <c r="AZ63" s="4">
-        <f t="shared" ref="AZ63:BE63" si="210">AZ64-AZ75</f>
+        <f t="shared" ref="AZ63:BE63" si="214">AZ64-AZ75</f>
         <v>30634</v>
       </c>
       <c r="BA63" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>38603</v>
       </c>
       <c r="BB63" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>51716</v>
       </c>
       <c r="BC63" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>60872</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>72266</v>
       </c>
       <c r="BE63" s="4">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>77661</v>
       </c>
       <c r="BM63" s="5"/>
@@ -13952,7 +13984,7 @@
       <c r="BM71" s="5"/>
       <c r="BN71" s="5"/>
     </row>
-    <row r="72" spans="2:66" s="6" customFormat="1">
+    <row r="72" spans="2:66" s="6" customFormat="1" ht="13">
       <c r="B72" s="6" t="s">
         <v>41</v>
       </c>
@@ -13961,177 +13993,177 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7">
-        <f t="shared" ref="G72:H72" si="211">SUM(G64:G71)</f>
+        <f t="shared" ref="G72:H72" si="215">SUM(G64:G71)</f>
         <v>278955</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>286556</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" ref="I72:J72" si="212">SUM(I64:I71)</f>
+        <f t="shared" ref="I72:J72" si="216">SUM(I64:I71)</f>
         <v>285449</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>301311</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" ref="K72:L72" si="213">SUM(K64:K71)</f>
+        <f t="shared" ref="K72:L72" si="217">SUM(K64:K71)</f>
         <v>301001</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>304137</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" ref="M72:O72" si="214">SUM(M64:M71)</f>
+        <f t="shared" ref="M72:O72" si="218">SUM(M64:M71)</f>
         <v>308879</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>333779</v>
       </c>
       <c r="O72" s="7">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>335418</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" ref="P72" si="215">SUM(P64:P71)</f>
+        <f t="shared" ref="P72" si="219">SUM(P64:P71)</f>
         <v>340389</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" ref="Q72:AB72" si="216">SUM(Q64:Q71)</f>
+        <f t="shared" ref="Q72:AB72" si="220">SUM(Q64:Q71)</f>
         <v>344607</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>364840</v>
       </c>
       <c r="S72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>359784</v>
       </c>
       <c r="T72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>364552</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>380088</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>411976</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>445785</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>470558</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>484275</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>512163</v>
       </c>
       <c r="AA72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>523013</v>
       </c>
       <c r="AB72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>533898</v>
       </c>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AK72" s="6">
-        <f t="shared" ref="AK72:BE72" si="217">SUM(AK64:AK71)</f>
+        <f t="shared" ref="AK72:BE72" si="221">SUM(AK64:AK71)</f>
         <v>5363</v>
       </c>
       <c r="AL72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>7210</v>
       </c>
       <c r="AM72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>10093</v>
       </c>
       <c r="AN72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>14387</v>
       </c>
       <c r="AO72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>22357</v>
       </c>
       <c r="AP72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>37156</v>
       </c>
       <c r="AQ72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>52150</v>
       </c>
       <c r="AR72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>59257</v>
       </c>
       <c r="AS72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>67646</v>
       </c>
       <c r="AT72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>79571</v>
       </c>
       <c r="AU72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>92389</v>
       </c>
       <c r="AV72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>70815</v>
       </c>
       <c r="AW72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>69597</v>
       </c>
       <c r="AX72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>63171</v>
       </c>
       <c r="AY72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>72793</v>
       </c>
       <c r="AZ72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>77888</v>
       </c>
       <c r="BA72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>86113</v>
       </c>
       <c r="BB72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>108704</v>
       </c>
       <c r="BC72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>121271</v>
       </c>
       <c r="BD72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>142431</v>
       </c>
       <c r="BE72" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>172384</v>
       </c>
       <c r="BK72" s="7"/>
@@ -15526,7 +15558,7 @@
       <c r="BM82" s="5"/>
       <c r="BN82" s="5"/>
     </row>
-    <row r="83" spans="2:66" s="6" customFormat="1">
+    <row r="83" spans="2:66" s="6" customFormat="1" ht="13">
       <c r="B83" s="6" t="s">
         <v>71</v>
       </c>
@@ -15547,7 +15579,7 @@
         <v>285449</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" ref="J83" si="218">SUM(J74:J82)</f>
+        <f t="shared" ref="J83" si="222">SUM(J74:J82)</f>
         <v>301311</v>
       </c>
       <c r="K83" s="7">
@@ -15555,157 +15587,157 @@
         <v>301001</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" ref="L83" si="219">SUM(L74:L82)</f>
+        <f t="shared" ref="L83" si="223">SUM(L74:L82)</f>
         <v>304137</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" ref="M83:P83" si="220">SUM(M74:M82)</f>
+        <f t="shared" ref="M83:P83" si="224">SUM(M74:M82)</f>
         <v>308879</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="224"/>
         <v>333779</v>
       </c>
       <c r="O83" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="224"/>
         <v>335418</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="224"/>
         <v>340389</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" ref="Q83:W83" si="221">SUM(Q74:Q82)</f>
+        <f t="shared" ref="Q83:W83" si="225">SUM(Q74:Q82)</f>
         <v>344607</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>364840</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>359784</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>364552</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>380088</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>411976</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="221"/>
+        <f t="shared" si="225"/>
         <v>445785</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" ref="X83:AB83" si="222">SUM(X74:X82)</f>
+        <f t="shared" ref="X83:AB83" si="226">SUM(X74:X82)</f>
         <v>470558</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="226"/>
         <v>484275</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="226"/>
         <v>512163</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="226"/>
         <v>523013</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="222"/>
+        <f t="shared" si="226"/>
         <v>533898</v>
       </c>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
       <c r="AK83" s="6">
-        <f t="shared" ref="AK83:BE83" si="223">SUM(AK74:AK82)</f>
+        <f t="shared" ref="AK83:BE83" si="227">SUM(AK74:AK82)</f>
         <v>5363</v>
       </c>
       <c r="AL83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>7210</v>
       </c>
       <c r="AM83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>10093</v>
       </c>
       <c r="AN83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>14387</v>
       </c>
       <c r="AO83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>22357</v>
       </c>
       <c r="AP83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>37156</v>
       </c>
       <c r="AQ83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>52150</v>
       </c>
       <c r="AR83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>59257</v>
       </c>
       <c r="AS83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>67646</v>
       </c>
       <c r="AT83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>79571</v>
       </c>
       <c r="AU83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>92389</v>
       </c>
       <c r="AV83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>70815</v>
       </c>
       <c r="AW83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>69597</v>
       </c>
       <c r="AX83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>63171</v>
       </c>
       <c r="AY83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>72793</v>
       </c>
       <c r="AZ83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>77888</v>
       </c>
       <c r="BA83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>86113</v>
       </c>
       <c r="BB83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>108704</v>
       </c>
       <c r="BC83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>121271</v>
       </c>
       <c r="BD83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>142431</v>
       </c>
       <c r="BE83" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="227"/>
         <v>172384</v>
       </c>
       <c r="BK83" s="7"/>
@@ -15722,91 +15754,91 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:H85" si="224">G46</f>
+        <f t="shared" ref="G85:H85" si="228">G46</f>
         <v>10678</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="228"/>
         <v>11649</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" ref="I85:J85" si="225">I46</f>
+        <f t="shared" ref="I85:J85" si="229">I46</f>
         <v>10752</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v>11202</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" ref="K85:AB85" si="226">K46</f>
+        <f t="shared" ref="K85:AB85" si="230">K46</f>
         <v>13893</v>
       </c>
       <c r="L85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>15463</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>15457</v>
       </c>
       <c r="N85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>16458</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>20505</v>
       </c>
       <c r="P85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>18765</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>16728</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>16740</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>17556</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>16425</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>18299</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>20081</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>22291</v>
       </c>
       <c r="X85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>21870</v>
       </c>
       <c r="Y85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>21939</v>
       </c>
       <c r="Z85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>22036</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>24667</v>
       </c>
       <c r="AB85" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>24108</v>
       </c>
       <c r="AC85" s="5"/>
@@ -16321,91 +16353,91 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5">
-        <f t="shared" ref="G92:H92" si="227">SUM(G86:G91)</f>
+        <f t="shared" ref="G92:H92" si="231">SUM(G86:G91)</f>
         <v>13818</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>10680</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" ref="I92:J92" si="228">SUM(I86:I91)</f>
+        <f t="shared" ref="I92:J92" si="232">SUM(I86:I91)</f>
         <v>17504</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="232"/>
         <v>18673</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" ref="K92:L92" si="229">SUM(K86:K91)</f>
+        <f t="shared" ref="K92:L92" si="233">SUM(K86:K91)</f>
         <v>19335</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="233"/>
         <v>12516</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" ref="M92:O92" si="230">SUM(M86:M91)</f>
+        <f t="shared" ref="M92:O92" si="234">SUM(M86:M91)</f>
         <v>22179</v>
       </c>
       <c r="N92" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>22710</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>24540</v>
       </c>
       <c r="P92" s="5">
-        <f t="shared" ref="P92" si="231">SUM(P86:P91)</f>
+        <f t="shared" ref="P92" si="235">SUM(P86:P91)</f>
         <v>14480</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" ref="Q92:U92" si="232">SUM(Q86:Q91)</f>
+        <f t="shared" ref="Q92:U92" si="236">SUM(Q86:Q91)</f>
         <v>25386</v>
       </c>
       <c r="R92" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>24629</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>23198</v>
       </c>
       <c r="T92" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>11173</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>24441</v>
       </c>
       <c r="V92" s="5">
-        <f t="shared" ref="V92:AB92" si="233">SUM(V86:V91)</f>
+        <f t="shared" ref="V92:AB92" si="237">SUM(V86:V91)</f>
         <v>28770</v>
       </c>
       <c r="W92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>30583</v>
       </c>
       <c r="X92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>18853</v>
       </c>
       <c r="Y92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>31917</v>
       </c>
       <c r="Z92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>37195</v>
       </c>
       <c r="AA92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>34180</v>
       </c>
       <c r="AB92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>22291</v>
       </c>
       <c r="AC92" s="5"/>
@@ -16790,97 +16822,97 @@
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5">
-        <f t="shared" ref="D98" si="234">SUM(D94:D97)</f>
+        <f t="shared" ref="D98" si="238">SUM(D94:D97)</f>
         <v>-4200</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5">
-        <f t="shared" ref="G98:H98" si="235">SUM(G94:G97)</f>
+        <f t="shared" ref="G98:H98" si="239">SUM(G94:G97)</f>
         <v>-1776</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>-6036</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" ref="I98:J98" si="236">SUM(I94:I97)</f>
+        <f t="shared" ref="I98:J98" si="240">SUM(I94:I97)</f>
         <v>51</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="240"/>
         <v>-4462</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:L98" si="237">SUM(K94:K97)</f>
+        <f t="shared" ref="K98:L98" si="241">SUM(K94:K97)</f>
         <v>-5371</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-1669</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" ref="M98:P98" si="238">SUM(M94:M97)</f>
+        <f t="shared" ref="M98:P98" si="242">SUM(M94:M97)</f>
         <v>-9684</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>-10853</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>-3250</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>-1161</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" ref="Q98:AB98" si="239">SUM(Q94:Q97)</f>
+        <f t="shared" ref="Q98:AB98" si="243">SUM(Q94:Q97)</f>
         <v>-16171</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-9729</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-3132</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-7150</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-3264</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-9134</v>
       </c>
       <c r="W98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>503</v>
       </c>
       <c r="X98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-71925</v>
       </c>
       <c r="Y98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-10700</v>
       </c>
       <c r="Z98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-14848</v>
       </c>
       <c r="AA98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-15201</v>
       </c>
       <c r="AB98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>-14112</v>
       </c>
       <c r="BK98" s="5"/>
@@ -17319,7 +17351,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5">
-        <f t="shared" ref="G105:H105" si="240">SUM(G100:G104)</f>
+        <f t="shared" ref="G105" si="244">SUM(G100:G104)</f>
         <v>-10209</v>
       </c>
       <c r="H105" s="5">
@@ -17335,23 +17367,23 @@
         <v>-12262</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" ref="K105:L105" si="241">SUM(K100:K104)</f>
+        <f t="shared" ref="K105:L105" si="245">SUM(K100:K104)</f>
         <v>-10289</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>-13634</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" ref="M105:O105" si="242">SUM(M100:M104)</f>
+        <f t="shared" ref="M105:O105" si="246">SUM(M100:M104)</f>
         <v>-13192</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-11371</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-16276</v>
       </c>
       <c r="P105" s="5">
@@ -17375,35 +17407,35 @@
         <v>-11349</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" ref="U105:AB105" si="243">SUM(U100:U104)</f>
+        <f t="shared" ref="U105:AB105" si="247">SUM(U100:U104)</f>
         <v>-10290</v>
       </c>
       <c r="V105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-11413</v>
       </c>
       <c r="W105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>14761</v>
       </c>
       <c r="X105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-10147</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-18808</v>
       </c>
       <c r="Z105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-23563</v>
       </c>
       <c r="AA105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-16576</v>
       </c>
       <c r="AB105" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-11243</v>
       </c>
       <c r="BK105" s="5"/>
@@ -17487,39 +17519,39 @@
         <v>67</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:H107" si="244">G105+G106+G98+G92</f>
+        <f t="shared" ref="G107:H107" si="248">G105+G106+G98+G92</f>
         <v>1761</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>-4253</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" ref="I107:J107" si="245">I105+I106+I98+I92</f>
+        <f t="shared" ref="I107:J107" si="249">I105+I106+I98+I92</f>
         <v>2846</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>1866</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" ref="K107:L107" si="246">K105+K106+K98+K92</f>
+        <f t="shared" ref="K107:L107" si="250">K105+K106+K98+K92</f>
         <v>3629</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-2773</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:O107" si="247">M105+M106+M98+M92</f>
+        <f t="shared" ref="M107:O107" si="251">M105+M106+M98+M92</f>
         <v>-730</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>522</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>4941</v>
       </c>
       <c r="P107" s="5">
@@ -17543,35 +17575,35 @@
         <v>-7238</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" ref="U107:AB107" si="248">U105+U106+U98+U92</f>
+        <f t="shared" ref="U107:AB107" si="252">U105+U106+U98+U92</f>
         <v>10916</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>8142</v>
       </c>
       <c r="W107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>45748</v>
       </c>
       <c r="X107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>-63147</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>2329</v>
       </c>
       <c r="Z107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>-1319</v>
       </c>
       <c r="AA107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>2525</v>
       </c>
       <c r="AB107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>-3358</v>
       </c>
     </row>
@@ -17580,39 +17612,39 @@
         <v>72</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" ref="G109:J109" si="249">G92+G94</f>
+        <f t="shared" ref="G109:J109" si="253">G92+G94</f>
         <v>10433</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>7135</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>13737</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>13929</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" ref="K109:O109" si="250">K92+K94</f>
+        <f t="shared" ref="K109:O109" si="254">K92+K94</f>
         <v>14428</v>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>8342</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>17090</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>16258</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>18730</v>
       </c>
       <c r="P109" s="5">
@@ -17620,11 +17652,11 @@
         <v>8615</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" ref="Q109:R109" si="251">Q92+Q94</f>
+        <f t="shared" ref="Q109:R109" si="255">Q92+Q94</f>
         <v>20046</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="255"/>
         <v>17758</v>
       </c>
       <c r="S109" s="5">
@@ -17636,35 +17668,35 @@
         <v>4899</v>
       </c>
       <c r="U109" s="5">
-        <f t="shared" ref="U109:AB109" si="252">U92+U94</f>
+        <f t="shared" ref="U109:AB109" si="256">U92+U94</f>
         <v>17834</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>19827</v>
       </c>
       <c r="W109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>20666</v>
       </c>
       <c r="X109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>9118</v>
       </c>
       <c r="Y109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>20965</v>
       </c>
       <c r="Z109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>23322</v>
       </c>
       <c r="AA109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>19257</v>
       </c>
       <c r="AB109" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="256"/>
         <v>6487</v>
       </c>
     </row>
@@ -17673,79 +17705,79 @@
         <v>103</v>
       </c>
       <c r="J110" s="4">
-        <f t="shared" ref="J110" si="253">SUM(G109:J109)</f>
+        <f t="shared" ref="J110" si="257">SUM(G109:J109)</f>
         <v>45234</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110" si="254">SUM(H109:K109)</f>
+        <f t="shared" ref="K110" si="258">SUM(H109:K109)</f>
         <v>49229</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" ref="L110" si="255">SUM(I109:L109)</f>
+        <f t="shared" ref="L110" si="259">SUM(I109:L109)</f>
         <v>50436</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" ref="M110" si="256">SUM(J109:M109)</f>
+        <f t="shared" ref="M110" si="260">SUM(J109:M109)</f>
         <v>53789</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" ref="N110" si="257">SUM(K109:N109)</f>
+        <f t="shared" ref="N110" si="261">SUM(K109:N109)</f>
         <v>56118</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" ref="O110:T110" si="258">SUM(L109:O109)</f>
+        <f t="shared" ref="O110:T110" si="262">SUM(L109:O109)</f>
         <v>60420</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>60693</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>63649</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>65149</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>63334</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>59618</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" ref="U110:AB110" si="259">SUM(R109:U109)</f>
+        <f t="shared" ref="U110:AB110" si="263">SUM(R109:U109)</f>
         <v>57406</v>
       </c>
       <c r="V110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>59475</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>63226</v>
       </c>
       <c r="X110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>67445</v>
       </c>
       <c r="Y110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>70576</v>
       </c>
       <c r="Z110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>74071</v>
       </c>
       <c r="AA110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>72662</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>70031</v>
       </c>
     </row>
@@ -17754,51 +17786,51 @@
         <v>463</v>
       </c>
       <c r="N111" s="12">
-        <f t="shared" ref="N111" si="260">+N110/J110-1</f>
+        <f t="shared" ref="N111" si="264">+N110/J110-1</f>
         <v>0.24061546624220709</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111" si="261">+O110/K110-1</f>
+        <f t="shared" ref="O111" si="265">+O110/K110-1</f>
         <v>0.22732535700501733</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" ref="P111" si="262">+P110/L110-1</f>
+        <f t="shared" ref="P111" si="266">+P110/L110-1</f>
         <v>0.20336664287413742</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" ref="Q111" si="263">+Q110/M110-1</f>
+        <f t="shared" ref="Q111" si="267">+Q110/M110-1</f>
         <v>0.18330885497034699</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" ref="R111" si="264">+R110/N110-1</f>
+        <f t="shared" ref="R111" si="268">+R110/N110-1</f>
         <v>0.16092875726148481</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" ref="S111:Y111" si="265">+S110/O110-1</f>
+        <f t="shared" ref="S111:Y111" si="269">+S110/O110-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="T111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="U111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="V111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="W111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="X111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>0.13128585326579212</v>
       </c>
       <c r="Y111" s="12">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>0.22941852768003335</v>
       </c>
       <c r="Z111" s="12">
@@ -17819,59 +17851,59 @@
         <v>464</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" ref="J112" si="266">SUM(G94:J94)</f>
+        <f t="shared" ref="J112" si="270">SUM(G94:J94)</f>
         <v>-15441</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" ref="K112" si="267">SUM(H94:K94)</f>
+        <f t="shared" ref="K112" si="271">SUM(H94:K94)</f>
         <v>-16963</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" ref="L112" si="268">SUM(I94:L94)</f>
+        <f t="shared" ref="L112" si="272">SUM(I94:L94)</f>
         <v>-17592</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" ref="M112" si="269">SUM(J94:M94)</f>
+        <f t="shared" ref="M112" si="273">SUM(J94:M94)</f>
         <v>-18914</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" ref="N112" si="270">SUM(K94:N94)</f>
+        <f t="shared" ref="N112" si="274">SUM(K94:N94)</f>
         <v>-20622</v>
       </c>
       <c r="O112" s="4">
-        <f t="shared" ref="O112:W112" si="271">SUM(L94:O94)</f>
+        <f t="shared" ref="O112:W112" si="275">SUM(L94:O94)</f>
         <v>-21525</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-23216</v>
       </c>
       <c r="Q112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-23467</v>
       </c>
       <c r="R112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-23886</v>
       </c>
       <c r="S112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-24359</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-24768</v>
       </c>
       <c r="U112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-26035</v>
       </c>
       <c r="V112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-28107</v>
       </c>
       <c r="W112" s="4">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>-31741</v>
       </c>
       <c r="X112" s="4">
@@ -17900,43 +17932,43 @@
         <v>463</v>
       </c>
       <c r="N113" s="12">
-        <f t="shared" ref="N113" si="272">+N112/J112-1</f>
+        <f t="shared" ref="N113" si="276">+N112/J112-1</f>
         <v>0.33553526326015159</v>
       </c>
       <c r="O113" s="12">
-        <f t="shared" ref="O113" si="273">+O112/K112-1</f>
+        <f t="shared" ref="O113" si="277">+O112/K112-1</f>
         <v>0.26893827742734189</v>
       </c>
       <c r="P113" s="12">
-        <f t="shared" ref="P113" si="274">+P112/L112-1</f>
+        <f t="shared" ref="P113" si="278">+P112/L112-1</f>
         <v>0.31969076853115053</v>
       </c>
       <c r="Q113" s="12">
-        <f t="shared" ref="Q113" si="275">+Q112/M112-1</f>
+        <f t="shared" ref="Q113" si="279">+Q112/M112-1</f>
         <v>0.24072115892989321</v>
       </c>
       <c r="R113" s="12">
-        <f t="shared" ref="R113" si="276">+R112/N112-1</f>
+        <f t="shared" ref="R113" si="280">+R112/N112-1</f>
         <v>0.15827756764620315</v>
       </c>
       <c r="S113" s="12">
-        <f t="shared" ref="S113:W113" si="277">+S112/O112-1</f>
+        <f t="shared" ref="S113:W113" si="281">+S112/O112-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="T113" s="12">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="U113" s="12">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="V113" s="12">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="W113" s="12">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="X113" s="12">
@@ -18062,7 +18094,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="118" spans="2:59">
+    <row r="118" spans="2:59" ht="13">
       <c r="B118" t="s">
         <v>0</v>
       </c>
@@ -18164,95 +18196,95 @@
         <v>2</v>
       </c>
       <c r="AK119" s="4">
-        <f t="shared" ref="AK119:BG119" si="278">AK118*AK48</f>
+        <f t="shared" ref="AK119:BG119" si="282">AK118*AK48</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AL119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AM119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AN119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AO119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AP119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AQ119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>298261.112605042</v>
       </c>
       <c r="AR119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AS119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AT119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AU119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AV119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AW119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AX119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AY119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AZ119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>151214.58181818182</v>
       </c>
       <c r="BA119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>242693.07615855773</v>
       </c>
       <c r="BB119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>213717.28455478634</v>
       </c>
       <c r="BC119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>198199.0335202195</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>206380.61592027853</v>
       </c>
       <c r="BE119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>290064.69972083991</v>
       </c>
       <c r="BF119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BG119" s="4">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -18261,196 +18293,196 @@
         <v>5</v>
       </c>
       <c r="AK120" s="4">
-        <f t="shared" ref="AK120:BG120" si="279">AK119-AK63</f>
+        <f t="shared" ref="AK120:BG120" si="283">AK119-AK63</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AL120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AM120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AN120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AO120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AP120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AQ120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>256737.112605042</v>
       </c>
       <c r="AR120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AS120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AT120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AU120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AV120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AW120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AX120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AY120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AZ120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>120580.58181818182</v>
       </c>
       <c r="BA120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>204090.07615855773</v>
       </c>
       <c r="BB120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>162001.28455478634</v>
       </c>
       <c r="BC120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>137327.0335202195</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>134114.61592027853</v>
       </c>
       <c r="BE120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>212403.69972083991</v>
       </c>
       <c r="BF120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BG120" s="4">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>436539.84856262838</v>
       </c>
     </row>
-    <row r="121" spans="2:59">
+    <row r="121" spans="2:59" ht="13">
       <c r="B121" t="s">
         <v>223</v>
       </c>
       <c r="AK121" s="24">
-        <f t="shared" ref="AK121:BG121" si="280">AK120/AK46</f>
+        <f t="shared" ref="AK121:BG121" si="284">AK120/AK46</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AL121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AM121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AN121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AO121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AP121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AQ121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AR121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AS121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AT121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AU121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AV121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AW121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AX121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AY121" s="24">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AZ121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="BA121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>10.844894848746359</v>
       </c>
       <c r="BB121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="BC121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="BD121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="BE121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="BF121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>16.98126691222053</v>
       </c>
       <c r="BG121" s="25">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>24.376806374951329</v>
       </c>
     </row>
-    <row r="124" spans="2:59">
+    <row r="124" spans="2:59" ht="13">
       <c r="AK124">
         <f>2023-1994</f>
         <v>29</v>
@@ -18523,7 +18555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="2:59">
+    <row r="125" spans="2:59" ht="13">
       <c r="AK125" s="4">
         <f>AK119*1.17^29</f>
         <v>1968287.8584171364</v>
@@ -18617,7 +18649,7 @@
         <v>1967776.1368191752</v>
       </c>
     </row>
-    <row r="126" spans="2:59">
+    <row r="126" spans="2:59" ht="13">
       <c r="AK126" s="12">
         <v>0.17</v>
       </c>
@@ -18707,7 +18739,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -18781,7 +18813,7 @@
       <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -18894,7 +18926,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -18960,7 +18992,7 @@
       <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2">
@@ -19030,7 +19062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="13">
       <c r="B15" s="23" t="s">
         <v>202</v>
       </c>
@@ -19775,14 +19807,14 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" ht="13">
       <c r="B178" s="26"/>
       <c r="C178" s="27"/>
       <c r="D178" s="26"/>
       <c r="E178" s="27"/>
       <c r="F178" s="26"/>
     </row>
-    <row r="179" spans="2:6" ht="13.5" thickBot="1">
+    <row r="179" spans="2:6" ht="13" thickBot="1">
       <c r="B179" s="28" t="s">
         <v>349</v>
       </c>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB7252-78FA-43AD-B15E-958FF7FCC87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7949B030-9B81-4A3F-8453-17F8339B479D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43500" yWindow="2590" windowWidth="22310" windowHeight="13390" activeTab="1" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
+    <workbookView xWindow="-26475" yWindow="2295" windowWidth="25965" windowHeight="16125" xr2:uid="{AF5D6250-CC2E-478D-A72E-6EAEA79B8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="479">
   <si>
     <t>Price</t>
   </si>
@@ -2108,12 +2108,6 @@
     <t>365 Consumer &amp; Cloud</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>AI ARR</t>
   </si>
   <si>
@@ -2127,6 +2121,9 @@
   </si>
   <si>
     <t>FQ419</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -2993,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F630B22-A151-4F95-B31A-D44A037C9EC9}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3012,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>385</v>
+        <v>461.89</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -3029,7 +3026,7 @@
         <v>7433.9822350000004</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -3044,7 +3041,7 @@
       </c>
       <c r="L4" s="4">
         <f>L2*L3</f>
-        <v>2862083.1604750003</v>
+        <v>3433682.0545241502</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -3055,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="4">
-        <v>94206</v>
+        <v>95653</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -3069,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>45117</v>
+        <v>42881</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -3081,7 +3078,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>2812994.1604750003</v>
+        <v>3380910.0545241502</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -3318,11 +3315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F54F587-D152-4A1D-9598-E8BABDD84FA8}">
   <dimension ref="A1:EA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="bottomRight" activeCell="AC86" sqref="AC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3569,16 +3566,16 @@
     </row>
     <row r="3" spans="1:73">
       <c r="C3" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>81</v>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="7" spans="1:73" ht="13">
       <c r="B7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -5918,7 +5915,7 @@
         <v>29944</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" ref="AC27:AD29" si="11">+Z27*1.1</f>
+        <f t="shared" ref="AD27:AD29" si="11">+Z27*1.1</f>
         <v>22348.7</v>
       </c>
       <c r="AI27" s="4">
@@ -6238,7 +6235,7 @@
         <v>15319</v>
       </c>
       <c r="AD31" s="4">
-        <f t="shared" ref="AC31:AD32" si="13">+Z31*1.11</f>
+        <f t="shared" ref="AD31:AD32" si="13">+Z31*1.11</f>
         <v>14670.87</v>
       </c>
       <c r="BG31" s="4">
@@ -7076,27 +7073,27 @@
         <v>16302</v>
       </c>
       <c r="X36" s="4">
-        <f>+X34+X35</f>
+        <f t="shared" ref="X36:AC36" si="32">+X34+X35</f>
         <v>19623</v>
       </c>
       <c r="Y36" s="4">
-        <f>+Y34+Y35</f>
+        <f t="shared" si="32"/>
         <v>18505</v>
       </c>
       <c r="Z36" s="4">
-        <f>+Z34+Z35</f>
+        <f t="shared" si="32"/>
         <v>19684</v>
       </c>
       <c r="AA36" s="4">
-        <f>+AA34+AA35</f>
+        <f t="shared" si="32"/>
         <v>20099</v>
       </c>
       <c r="AB36" s="4">
-        <f>+AB34+AB35</f>
+        <f t="shared" si="32"/>
         <v>21799</v>
       </c>
       <c r="AC36" s="4">
-        <f>+AC34+AC35</f>
+        <f t="shared" si="32"/>
         <v>21919</v>
       </c>
       <c r="AD36" s="4">
@@ -7182,31 +7179,31 @@
         <v>33038</v>
       </c>
       <c r="BG36" s="5">
-        <f t="shared" ref="BG36" si="32">BG34+BG35</f>
+        <f t="shared" ref="BG36" si="33">BG34+BG35</f>
         <v>32780</v>
       </c>
       <c r="BH36" s="5">
-        <f t="shared" ref="BH36:BI36" si="33">BH34+BH35</f>
+        <f t="shared" ref="BH36:BI36" si="34">BH34+BH35</f>
         <v>34261</v>
       </c>
       <c r="BI36" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>38353</v>
       </c>
       <c r="BJ36" s="5">
-        <f t="shared" ref="BJ36:BK36" si="34">BJ34+BJ35</f>
+        <f t="shared" ref="BJ36:BK36" si="35">BJ34+BJ35</f>
         <v>42910</v>
       </c>
       <c r="BK36" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>46078</v>
       </c>
       <c r="BL36" s="5">
-        <f t="shared" ref="BL36:BM36" si="35">BL34+BL35</f>
+        <f t="shared" ref="BL36:BM36" si="36">BL34+BL35</f>
         <v>52232</v>
       </c>
       <c r="BM36" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>62650</v>
       </c>
       <c r="BN36" s="5">
@@ -7222,23 +7219,23 @@
         <v>86089.560700000002</v>
       </c>
       <c r="BQ36" s="5">
-        <f t="shared" ref="BQ36:BU36" si="36">+BQ33-BQ37</f>
+        <f t="shared" ref="BQ36:BU36" si="37">+BQ33-BQ37</f>
         <v>107105.93879699998</v>
       </c>
       <c r="BR36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>125704.97018079</v>
       </c>
       <c r="BS36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>141773.29356461368</v>
       </c>
       <c r="BT36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>154275.8467833121</v>
       </c>
       <c r="BU36" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>167978.41203974746</v>
       </c>
     </row>
@@ -7247,43 +7244,43 @@
         <v>22</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" ref="C37:I37" si="37">+C33-C36</f>
+        <f t="shared" ref="C37:I37" si="38">+C33-C36</f>
         <v>19179</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20048</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20401</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>23305</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>22649</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24548</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>24046</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" ref="J37" si="38">J33-J36</f>
+        <f t="shared" ref="J37" si="39">J33-J36</f>
         <v>25694</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" ref="K37:L37" si="39">K33-K36</f>
+        <f t="shared" ref="K37:L37" si="40">K33-K36</f>
         <v>26152</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>28882</v>
       </c>
       <c r="M37" s="5">
@@ -7291,23 +7288,23 @@
         <v>28661</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:Q37" si="40">N33-N36</f>
+        <f t="shared" ref="N37:Q37" si="41">N33-N36</f>
         <v>32161</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>31671</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>34768</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33745</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37" si="41">R33-R36</f>
+        <f t="shared" ref="R37" si="42">R33-R36</f>
         <v>35436</v>
       </c>
       <c r="S37" s="5">
@@ -7327,31 +7324,31 @@
         <v>39394</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" ref="W37:AC37" si="42">+W33-W36</f>
+        <f t="shared" ref="W37:AC37" si="43">+W33-W36</f>
         <v>40215</v>
       </c>
       <c r="X37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>42397</v>
       </c>
       <c r="Y37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>43353</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45043</v>
       </c>
       <c r="AA37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>45486</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>47833</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>48147</v>
       </c>
       <c r="AD37" s="4">
@@ -7359,135 +7356,135 @@
         <v>49574.409299999999</v>
       </c>
       <c r="AG37" s="4">
-        <f t="shared" ref="AG37:AM37" si="43">AG33-AG36</f>
+        <f t="shared" ref="AG37:AM37" si="44">AG33-AG36</f>
         <v>930</v>
       </c>
       <c r="AH37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1481</v>
       </c>
       <c r="AI37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2292</v>
       </c>
       <c r="AJ37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3120</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3886</v>
       </c>
       <c r="AL37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5060</v>
       </c>
       <c r="AM37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7483</v>
       </c>
       <c r="AN37" s="4">
-        <f t="shared" ref="AN37" si="44">AN33-AN36</f>
+        <f t="shared" ref="AN37" si="45">AN33-AN36</f>
         <v>10273</v>
       </c>
       <c r="AO37" s="4">
-        <f t="shared" ref="AO37:BF37" si="45">AO33-AO36</f>
+        <f t="shared" ref="AO37:BF37" si="46">AO33-AO36</f>
         <v>13287</v>
       </c>
       <c r="AP37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>16933</v>
       </c>
       <c r="AQ37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>19954</v>
       </c>
       <c r="AR37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21841</v>
       </c>
       <c r="AS37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23174</v>
       </c>
       <c r="AT37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26501</v>
       </c>
       <c r="AU37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>30119</v>
       </c>
       <c r="AV37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>33588</v>
       </c>
       <c r="AW37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>36632</v>
       </c>
       <c r="AX37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>40429</v>
       </c>
       <c r="AY37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>48822</v>
       </c>
       <c r="AZ37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>46282</v>
       </c>
       <c r="BA37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>50089</v>
       </c>
       <c r="BB37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>54366</v>
       </c>
       <c r="BC37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>56193</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>57600</v>
       </c>
       <c r="BE37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59899</v>
       </c>
       <c r="BF37" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>60542</v>
       </c>
       <c r="BG37" s="5">
-        <f t="shared" ref="BG37" si="46">BG33-BG36</f>
+        <f t="shared" ref="BG37" si="47">BG33-BG36</f>
         <v>52540</v>
       </c>
       <c r="BH37" s="5">
-        <f t="shared" ref="BH37:BI37" si="47">BH33-BH36</f>
+        <f t="shared" ref="BH37:BI37" si="48">BH33-BH36</f>
         <v>62310</v>
       </c>
       <c r="BI37" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>72007</v>
       </c>
       <c r="BJ37" s="5">
-        <f t="shared" ref="BJ37:BK37" si="48">BJ33-BJ36</f>
+        <f t="shared" ref="BJ37:BK37" si="49">BJ33-BJ36</f>
         <v>82933</v>
       </c>
       <c r="BK37" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>96937</v>
       </c>
       <c r="BL37" s="5">
-        <f t="shared" ref="BL37:BM37" si="49">BL33-BL36</f>
+        <f t="shared" ref="BL37:BM37" si="50">BL33-BL36</f>
         <v>115856</v>
       </c>
       <c r="BM37" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>135620</v>
       </c>
       <c r="BN37" s="5">
@@ -7503,23 +7500,23 @@
         <v>191040.40930000003</v>
       </c>
       <c r="BQ37" s="5">
-        <f t="shared" ref="BQ37:BU37" si="50">+BQ33*0.67</f>
+        <f t="shared" ref="BQ37:BU37" si="51">+BQ33*0.67</f>
         <v>217457.51210300002</v>
       </c>
       <c r="BR37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>255219.18188221002</v>
       </c>
       <c r="BS37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>287842.74754027626</v>
       </c>
       <c r="BT37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>313226.71922672458</v>
       </c>
       <c r="BU37" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>341047.0789897904</v>
       </c>
     </row>
@@ -7609,7 +7606,7 @@
         <v>8198</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" ref="AC38:AD40" si="51">+Z38*1.07</f>
+        <f t="shared" ref="AD38:AD40" si="52">+Z38*1.07</f>
         <v>8619.92</v>
       </c>
       <c r="AG38" s="4">
@@ -7710,11 +7707,11 @@
         <v>20716</v>
       </c>
       <c r="BM38" s="5">
-        <f t="shared" ref="BM38:BM40" si="52">SUM(O38:R38)</f>
+        <f t="shared" ref="BM38:BM40" si="53">SUM(O38:R38)</f>
         <v>24512</v>
       </c>
       <c r="BN38" s="5">
-        <f t="shared" ref="BN38:BN40" si="53">SUM(S38:V38)</f>
+        <f t="shared" ref="BN38:BN40" si="54">SUM(S38:V38)</f>
         <v>27195</v>
       </c>
       <c r="BO38" s="5">
@@ -7726,23 +7723,23 @@
         <v>32278.92</v>
       </c>
       <c r="BQ38" s="5">
-        <f t="shared" ref="BQ38:BU38" si="54">+BP38*1.03</f>
+        <f t="shared" ref="BQ38:BU38" si="55">+BP38*1.03</f>
         <v>33247.287599999996</v>
       </c>
       <c r="BR38" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>34244.706227999995</v>
       </c>
       <c r="BS38" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>35272.047414839995</v>
       </c>
       <c r="BT38" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>36330.208837285194</v>
       </c>
       <c r="BU38" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>37420.115102403754</v>
       </c>
     </row>
@@ -7832,7 +7829,7 @@
         <v>6212</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>7293.1200000000008</v>
       </c>
       <c r="AG39" s="4">
@@ -7933,11 +7930,11 @@
         <v>20117</v>
       </c>
       <c r="BM39" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21825</v>
       </c>
       <c r="BN39" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>22759</v>
       </c>
       <c r="BO39" s="5">
@@ -7949,23 +7946,23 @@
         <v>25662.120000000003</v>
       </c>
       <c r="BQ39" s="5">
-        <f t="shared" ref="BQ39:BU39" si="55">+BP39*1.03</f>
+        <f t="shared" ref="BQ39:BU39" si="56">+BP39*1.03</f>
         <v>26431.983600000003</v>
       </c>
       <c r="BR39" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>27224.943108000003</v>
       </c>
       <c r="BS39" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>28041.691401240005</v>
       </c>
       <c r="BT39" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>28882.942143277207</v>
       </c>
       <c r="BU39" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>29749.430407575524</v>
       </c>
     </row>
@@ -8055,7 +8052,7 @@
         <v>1737</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2403.2200000000003</v>
       </c>
       <c r="AG40" s="4">
@@ -8156,11 +8153,11 @@
         <v>5107</v>
       </c>
       <c r="BM40" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5900</v>
       </c>
       <c r="BN40" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7575</v>
       </c>
       <c r="BO40" s="5">
@@ -8172,23 +8169,23 @@
         <v>7636.22</v>
       </c>
       <c r="BQ40" s="5">
-        <f t="shared" ref="BQ40:BU40" si="56">+BP40*1.03</f>
+        <f t="shared" ref="BQ40:BU40" si="57">+BP40*1.03</f>
         <v>7865.3066000000008</v>
       </c>
       <c r="BR40" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8101.2657980000013</v>
       </c>
       <c r="BS40" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8344.3037719400018</v>
       </c>
       <c r="BT40" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8594.6328850982027</v>
       </c>
       <c r="BU40" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8852.4718716511488</v>
       </c>
     </row>
@@ -8197,59 +8194,59 @@
         <v>23</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:D41" si="57">SUM(C38:C40)</f>
+        <f t="shared" ref="C41:D41" si="58">SUM(C38:C40)</f>
         <v>9224</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9790</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ref="E41:F41" si="58">SUM(E38:E40)</f>
+        <f t="shared" ref="E41:F41" si="59">SUM(E38:E40)</f>
         <v>10060</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>10900</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:H41" si="59">SUM(G38:G40)</f>
+        <f t="shared" ref="G41:H41" si="60">SUM(G38:G40)</f>
         <v>9963</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>10657</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" ref="I41:J41" si="60">SUM(I38:I40)</f>
+        <f t="shared" ref="I41:J41" si="61">SUM(I38:I40)</f>
         <v>11071</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12287</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" ref="K41:P41" si="61">SUM(K38:K40)</f>
+        <f t="shared" ref="K41:P41" si="62">SUM(K38:K40)</f>
         <v>10276</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>10985</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>11613</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>13066</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>11433</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>12521</v>
       </c>
       <c r="Q41" s="5">
@@ -8257,11 +8254,11 @@
         <v>13381</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" ref="R41:S41" si="62">SUM(R38:R40)</f>
+        <f t="shared" ref="R41:S41" si="63">SUM(R38:R40)</f>
         <v>14902</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>13152</v>
       </c>
       <c r="T41" s="5">
@@ -8269,23 +8266,23 @@
         <v>14860</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" ref="U41:V41" si="63">SUM(U38:U40)</f>
+        <f t="shared" ref="U41:V41" si="64">SUM(U38:U40)</f>
         <v>14377</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15140</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" ref="W41:Y41" si="64">SUM(W38:W40)</f>
+        <f t="shared" ref="W41:Y41" si="65">SUM(W38:W40)</f>
         <v>13320</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>15365</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>15772</v>
       </c>
       <c r="Z41" s="5">
@@ -8311,11 +8308,11 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5">
-        <f t="shared" ref="AG41:AH41" si="65">AG38+AG39+AG40</f>
+        <f t="shared" ref="AG41:AH41" si="66">AG38+AG39+AG40</f>
         <v>537</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>831</v>
       </c>
       <c r="AI41" s="5">
@@ -8339,139 +8336,139 @@
         <v>4405</v>
       </c>
       <c r="AN41" s="5">
-        <f t="shared" ref="AN41" si="66">AN38+AN39+AN40</f>
+        <f t="shared" ref="AN41" si="67">AN38+AN39+AN40</f>
         <v>5143</v>
       </c>
       <c r="AO41" s="5">
-        <f t="shared" ref="AO41:BF41" si="67">AO38+AO39+AO40</f>
+        <f t="shared" ref="AO41:BF41" si="68">AO38+AO39+AO40</f>
         <v>6347</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>6890</v>
       </c>
       <c r="AQ41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8925</v>
       </c>
       <c r="AR41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>10121</v>
       </c>
       <c r="AS41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>11264</v>
       </c>
       <c r="AT41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>13284</v>
       </c>
       <c r="AU41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>21085</v>
       </c>
       <c r="AV41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>19027</v>
       </c>
       <c r="AW41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>20160</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>21905</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>26330</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>25589</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>25932</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>27205</v>
       </c>
       <c r="BC41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>28237</v>
       </c>
       <c r="BD41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>30836</v>
       </c>
       <c r="BE41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>32013</v>
       </c>
       <c r="BF41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>32370</v>
       </c>
       <c r="BG41" s="5">
-        <f t="shared" ref="BG41:BH41" si="68">SUM(BG38:BG40)</f>
+        <f t="shared" ref="BG41:BH41" si="69">SUM(BG38:BG40)</f>
         <v>31248</v>
       </c>
       <c r="BH41" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>32979</v>
       </c>
       <c r="BI41" s="5">
-        <f t="shared" ref="BI41:BJ41" si="69">SUM(BI38:BI40)</f>
+        <f t="shared" ref="BI41:BJ41" si="70">SUM(BI38:BI40)</f>
         <v>36949</v>
       </c>
       <c r="BJ41" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>39974</v>
       </c>
       <c r="BK41" s="5">
-        <f t="shared" ref="BK41" si="70">SUM(BK38:BK40)</f>
+        <f t="shared" ref="BK41" si="71">SUM(BK38:BK40)</f>
         <v>43978</v>
       </c>
       <c r="BL41" s="5">
-        <f t="shared" ref="BL41:BN41" si="71">SUM(BL38:BL40)</f>
+        <f t="shared" ref="BL41:BN41" si="72">SUM(BL38:BL40)</f>
         <v>45940</v>
       </c>
       <c r="BM41" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>52237</v>
       </c>
       <c r="BN41" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>57529</v>
       </c>
       <c r="BO41" s="5">
-        <f t="shared" ref="BO41" si="72">SUM(BO38:BO40)</f>
+        <f t="shared" ref="BO41" si="73">SUM(BO38:BO40)</f>
         <v>61575</v>
       </c>
       <c r="BP41" s="5">
-        <f t="shared" ref="BP41" si="73">SUM(BP38:BP40)</f>
+        <f t="shared" ref="BP41" si="74">SUM(BP38:BP40)</f>
         <v>65577.259999999995</v>
       </c>
       <c r="BQ41" s="5">
-        <f t="shared" ref="BQ41" si="74">SUM(BQ38:BQ40)</f>
+        <f t="shared" ref="BQ41" si="75">SUM(BQ38:BQ40)</f>
         <v>67544.577799999999</v>
       </c>
       <c r="BR41" s="5">
-        <f t="shared" ref="BR41" si="75">SUM(BR38:BR40)</f>
+        <f t="shared" ref="BR41" si="76">SUM(BR38:BR40)</f>
         <v>69570.91513400001</v>
       </c>
       <c r="BS41" s="5">
-        <f t="shared" ref="BS41" si="76">SUM(BS38:BS40)</f>
+        <f t="shared" ref="BS41" si="77">SUM(BS38:BS40)</f>
         <v>71658.042588020005</v>
       </c>
       <c r="BT41" s="5">
-        <f t="shared" ref="BT41" si="77">SUM(BT38:BT40)</f>
+        <f t="shared" ref="BT41" si="78">SUM(BT38:BT40)</f>
         <v>73807.783865660604</v>
       </c>
       <c r="BU41" s="5">
-        <f t="shared" ref="BU41" si="78">SUM(BU38:BU40)</f>
+        <f t="shared" ref="BU41" si="79">SUM(BU38:BU40)</f>
         <v>76022.01738163043</v>
       </c>
     </row>
@@ -8480,59 +8477,59 @@
         <v>24</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:D42" si="79">C37-C41</f>
+        <f t="shared" ref="C42:D42" si="80">C37-C41</f>
         <v>9955</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10258</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" ref="E42:F42" si="80">E37-E41</f>
+        <f t="shared" ref="E42:F42" si="81">E37-E41</f>
         <v>10341</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>12405</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" ref="G42:H42" si="81">G37-G41</f>
+        <f t="shared" ref="G42:H42" si="82">G37-G41</f>
         <v>12686</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>13891</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" ref="I42:J42" si="82">I37-I41</f>
+        <f t="shared" ref="I42:J42" si="83">I37-I41</f>
         <v>12975</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>13407</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42:P42" si="83">K37-K41</f>
+        <f t="shared" ref="K42:P42" si="84">K37-K41</f>
         <v>15876</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>17897</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>17048</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>19095</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>20238</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>22247</v>
       </c>
       <c r="Q42" s="5">
@@ -8540,11 +8537,11 @@
         <v>20364</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" ref="R42:S42" si="84">R37-R41</f>
+        <f t="shared" ref="R42:S42" si="85">R37-R41</f>
         <v>20534</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>21518</v>
       </c>
       <c r="T42" s="5">
@@ -8556,19 +8553,19 @@
         <v>22352</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42:Y42" si="85">V37-V41</f>
+        <f t="shared" ref="V42:Y42" si="86">V37-V41</f>
         <v>24254</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>26895</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>27032</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>27581</v>
       </c>
       <c r="Z42" s="5">
@@ -8594,11 +8591,11 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5">
-        <f t="shared" ref="AG42:AH42" si="86">AG37-AG41</f>
+        <f t="shared" ref="AG42:AH42" si="87">AG37-AG41</f>
         <v>393</v>
       </c>
       <c r="AH42" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>650</v>
       </c>
       <c r="AI42" s="5">
@@ -8622,139 +8619,139 @@
         <v>3078</v>
       </c>
       <c r="AN42" s="5">
-        <f t="shared" ref="AN42" si="87">AN37-AN41</f>
+        <f t="shared" ref="AN42" si="88">AN37-AN41</f>
         <v>5130</v>
       </c>
       <c r="AO42" s="5">
-        <f t="shared" ref="AO42:BF42" si="88">AO37-AO41</f>
+        <f t="shared" ref="AO42:BF42" si="89">AO37-AO41</f>
         <v>6940</v>
       </c>
       <c r="AP42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>10043</v>
       </c>
       <c r="AQ42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11029</v>
       </c>
       <c r="AR42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11720</v>
       </c>
       <c r="AS42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11910</v>
       </c>
       <c r="AT42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13217</v>
       </c>
       <c r="AU42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9034</v>
       </c>
       <c r="AV42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>14561</v>
       </c>
       <c r="AW42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>16472</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18524</v>
       </c>
       <c r="AY42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>22492</v>
       </c>
       <c r="AZ42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>20693</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>24157</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>27161</v>
       </c>
       <c r="BC42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>27956</v>
       </c>
       <c r="BD42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>26764</v>
       </c>
       <c r="BE42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>27886</v>
       </c>
       <c r="BF42" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>28172</v>
       </c>
       <c r="BG42" s="5">
-        <f t="shared" ref="BG42:BH42" si="89">BG37-BG41</f>
+        <f t="shared" ref="BG42:BH42" si="90">BG37-BG41</f>
         <v>21292</v>
       </c>
       <c r="BH42" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>29331</v>
       </c>
       <c r="BI42" s="5">
-        <f t="shared" ref="BI42:BJ42" si="90">BI37-BI41</f>
+        <f t="shared" ref="BI42:BJ42" si="91">BI37-BI41</f>
         <v>35058</v>
       </c>
       <c r="BJ42" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>42959</v>
       </c>
       <c r="BK42" s="5">
-        <f t="shared" ref="BK42" si="91">BK37-BK41</f>
+        <f t="shared" ref="BK42" si="92">BK37-BK41</f>
         <v>52959</v>
       </c>
       <c r="BL42" s="5">
-        <f t="shared" ref="BL42:BN42" si="92">BL37-BL41</f>
+        <f t="shared" ref="BL42:BN42" si="93">BL37-BL41</f>
         <v>69916</v>
       </c>
       <c r="BM42" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>83383</v>
       </c>
       <c r="BN42" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>88523</v>
       </c>
       <c r="BO42" s="5">
-        <f t="shared" ref="BO42" si="93">BO37-BO41</f>
+        <f t="shared" ref="BO42" si="94">BO37-BO41</f>
         <v>109433</v>
       </c>
       <c r="BP42" s="5">
-        <f t="shared" ref="BP42" si="94">BP37-BP41</f>
+        <f t="shared" ref="BP42" si="95">BP37-BP41</f>
         <v>125463.14930000003</v>
       </c>
       <c r="BQ42" s="5">
-        <f t="shared" ref="BQ42" si="95">BQ37-BQ41</f>
+        <f t="shared" ref="BQ42" si="96">BQ37-BQ41</f>
         <v>149912.93430300002</v>
       </c>
       <c r="BR42" s="5">
-        <f t="shared" ref="BR42" si="96">BR37-BR41</f>
+        <f t="shared" ref="BR42" si="97">BR37-BR41</f>
         <v>185648.26674821001</v>
       </c>
       <c r="BS42" s="5">
-        <f t="shared" ref="BS42" si="97">BS37-BS41</f>
+        <f t="shared" ref="BS42" si="98">BS37-BS41</f>
         <v>216184.70495225626</v>
       </c>
       <c r="BT42" s="5">
-        <f t="shared" ref="BT42" si="98">BT37-BT41</f>
+        <f t="shared" ref="BT42" si="99">BT37-BT41</f>
         <v>239418.93536106398</v>
       </c>
       <c r="BU42" s="5">
-        <f t="shared" ref="BU42" si="99">BU37-BU41</f>
+        <f t="shared" ref="BU42" si="100">BU37-BU41</f>
         <v>265025.06160815997</v>
       </c>
     </row>
@@ -8956,11 +8953,11 @@
         <v>1186</v>
       </c>
       <c r="BM43" s="5">
-        <f t="shared" ref="BM43" si="100">SUM(O43:R43)</f>
+        <f t="shared" ref="BM43" si="101">SUM(O43:R43)</f>
         <v>333</v>
       </c>
       <c r="BN43" s="5">
-        <f t="shared" ref="BN43" si="101">SUM(S43:V43)</f>
+        <f t="shared" ref="BN43" si="102">SUM(S43:V43)</f>
         <v>788</v>
       </c>
       <c r="BO43" s="5">
@@ -8997,35 +8994,35 @@
         <v>29</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:D44" si="102">C42+C43</f>
+        <f t="shared" ref="C44:D44" si="103">C42+C43</f>
         <v>10221</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>10385</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:F44" si="103">E42+E43</f>
+        <f t="shared" ref="E44:F44" si="104">E42+E43</f>
         <v>10486</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>12596</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" ref="G44:H44" si="104">G42+G43</f>
+        <f t="shared" ref="G44:H44" si="105">G42+G43</f>
         <v>12686</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>14085</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44:J44" si="105">I42+I43</f>
+        <f t="shared" ref="I44:J44" si="106">I42+I43</f>
         <v>12843</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>13422</v>
       </c>
       <c r="K44" s="5">
@@ -9033,87 +9030,87 @@
         <v>16124</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" ref="L44:AD44" si="106">L42+L43</f>
+        <f t="shared" ref="L44:AD44" si="107">L42+L43</f>
         <v>18337</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>17236</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>19405</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>20524</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>22515</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>20190</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>20487</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>21572</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>20339</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>22673</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>24727</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>27284</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>26526</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>26727</v>
       </c>
       <c r="Z44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>27250</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>30269</v>
       </c>
       <c r="AB44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>29365</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>31377</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>30635.149299999997</v>
       </c>
       <c r="AG44" s="4">
-        <f t="shared" ref="AG44:AH44" si="107">AG43+AG42</f>
+        <f t="shared" ref="AG44:AH44" si="108">AG43+AG42</f>
         <v>410</v>
       </c>
       <c r="AH44" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>671</v>
       </c>
       <c r="AI44" s="4">
@@ -9137,79 +9134,79 @@
         <v>3379</v>
       </c>
       <c r="AN44" s="4">
-        <f t="shared" ref="AN44" si="108">AN43+AN42</f>
+        <f t="shared" ref="AN44" si="109">AN43+AN42</f>
         <v>5314</v>
       </c>
       <c r="AO44" s="4">
-        <f t="shared" ref="AO44:BF44" si="109">AO43+AO42</f>
+        <f t="shared" ref="AO44:BF44" si="110">AO43+AO42</f>
         <v>7413</v>
       </c>
       <c r="AP44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11731</v>
       </c>
       <c r="AQ44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14119</v>
       </c>
       <c r="AR44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11684</v>
       </c>
       <c r="AS44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11605</v>
       </c>
       <c r="AT44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14794</v>
       </c>
       <c r="AU44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12221</v>
       </c>
       <c r="AV44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>16628</v>
       </c>
       <c r="AW44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>18262</v>
       </c>
       <c r="AX44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>20101</v>
       </c>
       <c r="AY44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>23814</v>
       </c>
       <c r="AZ44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>20151</v>
       </c>
       <c r="BA44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>25072</v>
       </c>
       <c r="BB44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>28071</v>
       </c>
       <c r="BC44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>28460</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27052</v>
       </c>
       <c r="BE44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27947</v>
       </c>
       <c r="BF44" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>28518</v>
       </c>
       <c r="BG44" s="4">
@@ -9233,43 +9230,43 @@
         <v>53036</v>
       </c>
       <c r="BL44" s="5">
-        <f t="shared" ref="BL44:BN44" si="110">+BL42+BL43</f>
+        <f t="shared" ref="BL44:BN44" si="111">+BL42+BL43</f>
         <v>71102</v>
       </c>
       <c r="BM44" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>83716</v>
       </c>
       <c r="BN44" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>89311</v>
       </c>
       <c r="BO44" s="5">
-        <f t="shared" ref="BO44" si="111">+BO42+BO43</f>
+        <f t="shared" ref="BO44" si="112">+BO42+BO43</f>
         <v>107787</v>
       </c>
       <c r="BP44" s="5">
-        <f t="shared" ref="BP44" si="112">+BP42+BP43</f>
+        <f t="shared" ref="BP44" si="113">+BP42+BP43</f>
         <v>121646.14930000003</v>
       </c>
       <c r="BQ44" s="5">
-        <f t="shared" ref="BQ44" si="113">+BQ42+BQ43</f>
+        <f t="shared" ref="BQ44" si="114">+BQ42+BQ43</f>
         <v>149912.93430300002</v>
       </c>
       <c r="BR44" s="5">
-        <f t="shared" ref="BR44" si="114">+BR42+BR43</f>
+        <f t="shared" ref="BR44" si="115">+BR42+BR43</f>
         <v>185648.26674821001</v>
       </c>
       <c r="BS44" s="5">
-        <f t="shared" ref="BS44" si="115">+BS42+BS43</f>
+        <f t="shared" ref="BS44" si="116">+BS42+BS43</f>
         <v>216184.70495225626</v>
       </c>
       <c r="BT44" s="5">
-        <f t="shared" ref="BT44" si="116">+BT42+BT43</f>
+        <f t="shared" ref="BT44" si="117">+BT42+BT43</f>
         <v>239418.93536106398</v>
       </c>
       <c r="BU44" s="5">
-        <f t="shared" ref="BU44" si="117">+BU42+BU43</f>
+        <f t="shared" ref="BU44" si="118">+BU42+BU43</f>
         <v>265025.06160815997</v>
       </c>
     </row>
@@ -9461,11 +9458,11 @@
         <v>9831</v>
       </c>
       <c r="BM45" s="5">
-        <f t="shared" ref="BM45" si="118">SUM(O45:R45)</f>
+        <f t="shared" ref="BM45" si="119">SUM(O45:R45)</f>
         <v>10978</v>
       </c>
       <c r="BN45" s="5">
-        <f t="shared" ref="BN45" si="119">SUM(S45:V45)</f>
+        <f t="shared" ref="BN45" si="120">SUM(S45:V45)</f>
         <v>16950</v>
       </c>
       <c r="BO45" s="5">
@@ -9477,23 +9474,23 @@
         <v>21007.272395</v>
       </c>
       <c r="BQ45" s="5">
-        <f t="shared" ref="BQ45:BU45" si="120">+BQ44*0.15</f>
+        <f t="shared" ref="BQ45:BU45" si="121">+BQ44*0.15</f>
         <v>22486.94014545</v>
       </c>
       <c r="BR45" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>27847.240012231501</v>
       </c>
       <c r="BS45" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>32427.705742838436</v>
       </c>
       <c r="BT45" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>35912.840304159596</v>
       </c>
       <c r="BU45" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>39753.759241223997</v>
       </c>
     </row>
@@ -9502,35 +9499,35 @@
         <v>31</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:D46" si="121">C44-C45</f>
+        <f t="shared" ref="C46:D46" si="122">C44-C45</f>
         <v>8824</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>8420</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46:F46" si="122">E44-E45</f>
+        <f t="shared" ref="E46:F46" si="123">E44-E45</f>
         <v>8809</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>13187</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46:H46" si="123">G44-G45</f>
+        <f t="shared" ref="G46:H46" si="124">G44-G45</f>
         <v>10678</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>11649</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ref="I46:J46" si="124">I44-I45</f>
+        <f t="shared" ref="I46:J46" si="125">I44-I45</f>
         <v>10752</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>11202</v>
       </c>
       <c r="K46" s="5">
@@ -9538,39 +9535,39 @@
         <v>13893</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" ref="L46:AD46" si="125">L44-L45</f>
+        <f t="shared" ref="L46:AD46" si="126">L44-L45</f>
         <v>15463</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>15457</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>16458</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>20505</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>18765</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>16728</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>16740</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>17556</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>16425</v>
       </c>
       <c r="U46" s="5">
@@ -9578,47 +9575,47 @@
         <v>18299</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>20081</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22291</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>21870</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>21939</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>22036</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>24667</v>
       </c>
       <c r="AB46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>24108</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>25824</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>26039.876904999997</v>
       </c>
       <c r="AG46" s="4">
-        <f t="shared" ref="AG46:AH46" si="126">AG44-AG45</f>
+        <f t="shared" ref="AG46:AH46" si="127">AG44-AG45</f>
         <v>279</v>
       </c>
       <c r="AH46" s="4">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>463</v>
       </c>
       <c r="AI46" s="4">
@@ -9642,79 +9639,79 @@
         <v>2195</v>
       </c>
       <c r="AN46" s="4">
-        <f t="shared" ref="AN46" si="127">AN44-AN45</f>
+        <f t="shared" ref="AN46" si="128">AN44-AN45</f>
         <v>3454</v>
       </c>
       <c r="AO46" s="4">
-        <f t="shared" ref="AO46:BF46" si="128">AO44-AO45</f>
+        <f t="shared" ref="AO46:BF46" si="129">AO44-AO45</f>
         <v>4758</v>
       </c>
       <c r="AP46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>7625</v>
       </c>
       <c r="AQ46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9265</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>7880</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>7921</v>
       </c>
       <c r="AT46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>10061</v>
       </c>
       <c r="AU46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>8193</v>
       </c>
       <c r="AV46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>12254</v>
       </c>
       <c r="AW46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>12599</v>
       </c>
       <c r="AX46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>14065</v>
       </c>
       <c r="AY46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>17681</v>
       </c>
       <c r="AZ46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>14899</v>
       </c>
       <c r="BA46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>18819</v>
       </c>
       <c r="BB46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>23150</v>
       </c>
       <c r="BC46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>23171</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>21863</v>
       </c>
       <c r="BE46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>22201</v>
       </c>
       <c r="BF46" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>22204</v>
       </c>
       <c r="BG46" s="4">
@@ -9738,275 +9735,275 @@
         <v>44281</v>
       </c>
       <c r="BL46" s="4">
-        <f t="shared" ref="BL46:BN46" si="129">+BL44-BL45</f>
+        <f t="shared" ref="BL46:BN46" si="130">+BL44-BL45</f>
         <v>61271</v>
       </c>
       <c r="BM46" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>72738</v>
       </c>
       <c r="BN46" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>72361</v>
       </c>
       <c r="BO46" s="4">
-        <f t="shared" ref="BO46" si="130">+BO44-BO45</f>
+        <f t="shared" ref="BO46" si="131">+BO44-BO45</f>
         <v>88136</v>
       </c>
       <c r="BP46" s="4">
-        <f t="shared" ref="BP46" si="131">+BP44-BP45</f>
+        <f t="shared" ref="BP46" si="132">+BP44-BP45</f>
         <v>100638.87690500004</v>
       </c>
       <c r="BQ46" s="4">
-        <f t="shared" ref="BQ46" si="132">+BQ44-BQ45</f>
+        <f t="shared" ref="BQ46" si="133">+BQ44-BQ45</f>
         <v>127425.99415755001</v>
       </c>
       <c r="BR46" s="4">
-        <f t="shared" ref="BR46" si="133">+BR44-BR45</f>
+        <f t="shared" ref="BR46" si="134">+BR44-BR45</f>
         <v>157801.02673597849</v>
       </c>
       <c r="BS46" s="4">
-        <f t="shared" ref="BS46" si="134">+BS44-BS45</f>
+        <f t="shared" ref="BS46" si="135">+BS44-BS45</f>
         <v>183756.99920941782</v>
       </c>
       <c r="BT46" s="4">
-        <f t="shared" ref="BT46" si="135">+BT44-BT45</f>
+        <f t="shared" ref="BT46" si="136">+BT44-BT45</f>
         <v>203506.09505690439</v>
       </c>
       <c r="BU46" s="4">
-        <f t="shared" ref="BU46" si="136">+BU44-BU45</f>
+        <f t="shared" ref="BU46" si="137">+BU44-BU45</f>
         <v>225271.30236693597</v>
       </c>
       <c r="BV46" s="4">
-        <f t="shared" ref="BV46:DA46" si="137">+BU46*(1+$BZ$50)</f>
+        <f t="shared" ref="BV46:DA46" si="138">+BU46*(1+$BZ$50)</f>
         <v>229776.72841427469</v>
       </c>
       <c r="BW46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>234372.26298256021</v>
       </c>
       <c r="BX46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>239059.7082422114</v>
       </c>
       <c r="BY46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>243840.90240705563</v>
       </c>
       <c r="BZ46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>248717.72045519674</v>
       </c>
       <c r="CA46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>253692.0748643007</v>
       </c>
       <c r="CB46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>258765.91636158671</v>
       </c>
       <c r="CC46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>263941.23468881845</v>
       </c>
       <c r="CD46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>269220.05938259483</v>
       </c>
       <c r="CE46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>274604.46057024674</v>
       </c>
       <c r="CF46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>280096.5497816517</v>
       </c>
       <c r="CG46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>285698.48077728471</v>
       </c>
       <c r="CH46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>291412.45039283042</v>
       </c>
       <c r="CI46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>297240.69940068701</v>
       </c>
       <c r="CJ46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>303185.51338870073</v>
       </c>
       <c r="CK46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>309249.22365647473</v>
       </c>
       <c r="CL46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>315434.20812960423</v>
       </c>
       <c r="CM46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>321742.89229219634</v>
       </c>
       <c r="CN46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>328177.75013804028</v>
       </c>
       <c r="CO46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>334741.30514080112</v>
       </c>
       <c r="CP46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>341436.13124361716</v>
       </c>
       <c r="CQ46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>348264.8538684895</v>
       </c>
       <c r="CR46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>355230.15094585932</v>
       </c>
       <c r="CS46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>362334.75396477652</v>
       </c>
       <c r="CT46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>369581.44904407207</v>
       </c>
       <c r="CU46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>376973.07802495355</v>
       </c>
       <c r="CV46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>384512.53958545264</v>
       </c>
       <c r="CW46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>392202.7903771617</v>
       </c>
       <c r="CX46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>400046.84618470492</v>
       </c>
       <c r="CY46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>408047.78310839902</v>
       </c>
       <c r="CZ46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>416208.738770567</v>
       </c>
       <c r="DA46" s="4">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>424532.91354597837</v>
       </c>
       <c r="DB46" s="4">
-        <f t="shared" ref="DB46:EA46" si="138">+DA46*(1+$BZ$50)</f>
+        <f t="shared" ref="DB46:EA46" si="139">+DA46*(1+$BZ$50)</f>
         <v>433023.57181689795</v>
       </c>
       <c r="DC46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>441684.04325323593</v>
       </c>
       <c r="DD46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>450517.72411830066</v>
       </c>
       <c r="DE46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>459528.07860066666</v>
       </c>
       <c r="DF46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>468718.64017268002</v>
       </c>
       <c r="DG46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>478093.01297613361</v>
       </c>
       <c r="DH46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>487654.8732356563</v>
       </c>
       <c r="DI46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>497407.97070036945</v>
       </c>
       <c r="DJ46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>507356.13011437684</v>
       </c>
       <c r="DK46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>517503.2527166644</v>
       </c>
       <c r="DL46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>527853.31777099764</v>
       </c>
       <c r="DM46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>538410.38412641757</v>
       </c>
       <c r="DN46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>549178.59180894599</v>
       </c>
       <c r="DO46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>560162.16364512488</v>
       </c>
       <c r="DP46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>571365.40691802744</v>
       </c>
       <c r="DQ46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>582792.71505638794</v>
       </c>
       <c r="DR46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>594448.56935751566</v>
       </c>
       <c r="DS46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>606337.54074466601</v>
       </c>
       <c r="DT46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>618464.29155955929</v>
       </c>
       <c r="DU46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>630833.57739075052</v>
       </c>
       <c r="DV46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>643450.24893856549</v>
       </c>
       <c r="DW46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>656319.25391733681</v>
       </c>
       <c r="DX46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>669445.63899568352</v>
       </c>
       <c r="DY46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>682834.55177559715</v>
       </c>
       <c r="DZ46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>696491.24281110906</v>
       </c>
       <c r="EA46" s="4">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>710421.0676673312</v>
       </c>
     </row>
@@ -10015,59 +10012,59 @@
         <v>33</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" ref="C47:D47" si="139">C46/C48</f>
+        <f t="shared" ref="C47:D47" si="140">C46/C48</f>
         <v>1.1362348699459182</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1.0839340885684861</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" ref="E47:F47" si="140">E46/E48</f>
+        <f t="shared" ref="E47:F47" si="141">E46/E48</f>
         <v>1.1375258264462811</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1.7059508408796895</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" ref="G47:H47" si="141">G46/G48</f>
+        <f t="shared" ref="G47:H47" si="142">G46/G48</f>
         <v>1.3849546044098573</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>1.5146274866727343</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" ref="I47:J47" si="142">I46/I48</f>
+        <f t="shared" ref="I47:J47" si="143">I46/I48</f>
         <v>1.4009120521172638</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>1.4643137254901961</v>
       </c>
       <c r="K47" s="8">
-        <f t="shared" ref="K47:P47" si="143">K46/K48</f>
+        <f t="shared" ref="K47:P47" si="144">K46/K48</f>
         <v>1.8191698310855047</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.0303308823529411</v>
       </c>
       <c r="M47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.0346189285244174</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.1709537000395724</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.7097925201532971</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>2.4837855724685638</v>
       </c>
       <c r="Q47" s="8">
@@ -10083,7 +10080,7 @@
         <v>2.3454909819639278</v>
       </c>
       <c r="T47" s="8">
-        <f t="shared" ref="T47:AD47" si="144">T46/T48</f>
+        <f t="shared" ref="T47:AD47" si="145">T46/T48</f>
         <v>2.1979124849458049</v>
       </c>
       <c r="U47" s="8">
@@ -10091,47 +10088,47 @@
         <v>2.4516345123258305</v>
       </c>
       <c r="V47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2.6892995848399623</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2.9872688287322435</v>
       </c>
       <c r="X47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2.9284949116229244</v>
       </c>
       <c r="Y47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2.936161670235546</v>
       </c>
       <c r="Z47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2.9503280224929709</v>
       </c>
       <c r="AA47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.3021419009370816</v>
       </c>
       <c r="AB47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.2281735404392071</v>
       </c>
       <c r="AC47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.4611982308001608</v>
       </c>
       <c r="AD47" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>3.4901322751641866</v>
       </c>
       <c r="AG47" s="11">
-        <f t="shared" ref="AG47:AH47" si="145">AG46/AG48</f>
+        <f t="shared" ref="AG47:AH47" si="146">AG46/AG48</f>
         <v>0.51955307262569828</v>
       </c>
       <c r="AH47" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.82238010657193605</v>
       </c>
       <c r="AI47" s="11">
@@ -10155,79 +10152,79 @@
         <v>3.4296875</v>
       </c>
       <c r="AN47" s="11">
-        <f t="shared" ref="AN47" si="146">AN46/AN48</f>
+        <f t="shared" ref="AN47" si="147">AN46/AN48</f>
         <v>2.6326219512195124</v>
       </c>
       <c r="AO47" s="11">
-        <f t="shared" ref="AO47:BF47" si="147">AO46/AO48</f>
+        <f t="shared" ref="AO47:BF47" si="148">AO46/AO48</f>
         <v>1.7747109287579261</v>
       </c>
       <c r="AP47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.4924642787238207</v>
       </c>
       <c r="AQ47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.7537384062085937</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.4137064944384643</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.4264361606338916</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.92455430986950926</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.75206535707729028</v>
       </c>
       <c r="AV47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.123601687144691</v>
       </c>
       <c r="AW47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.1963726141866868</v>
       </c>
       <c r="AX47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.4227189965607931</v>
       </c>
       <c r="AY47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.867053854276663</v>
       </c>
       <c r="AZ47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>1.6561805246776344</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.1080990254284755</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.6940532991970207</v>
       </c>
       <c r="BC47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.724077122031507</v>
       </c>
       <c r="BD47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.581227863046045</v>
       </c>
       <c r="BE47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.6432908679604714</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>2.6900896535013326</v>
       </c>
       <c r="BG47" s="11">
@@ -10251,43 +10248,43 @@
         <v>5.7635038396459715</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" ref="BL47:BN47" si="148">+BL46/BL48</f>
+        <f t="shared" ref="BL47:BN47" si="149">+BL46/BL48</f>
         <v>8.0537609674345241</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9.6463099263974534</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9.6839640001338285</v>
       </c>
       <c r="BO47" s="11">
-        <f t="shared" ref="BO47" si="149">+BO46/BO48</f>
+        <f t="shared" ref="BO47" si="150">+BO46/BO48</f>
         <v>11.802216196310804</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" ref="BP47" si="150">+BP46/BP48</f>
+        <f t="shared" ref="BP47" si="151">+BP46/BP48</f>
         <v>13.48143026188882</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" ref="BQ47" si="151">+BQ46/BQ48</f>
+        <f t="shared" ref="BQ47" si="152">+BQ46/BQ48</f>
         <v>17.069791581721368</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" ref="BR47" si="152">+BR46/BR48</f>
+        <f t="shared" ref="BR47" si="153">+BR46/BR48</f>
         <v>21.1387845594077</v>
       </c>
       <c r="BS47" s="11">
-        <f t="shared" ref="BS47" si="153">+BS46/BS48</f>
+        <f t="shared" ref="BS47" si="154">+BS46/BS48</f>
         <v>24.61580699389388</v>
       </c>
       <c r="BT47" s="11">
-        <f t="shared" ref="BT47" si="154">+BT46/BT48</f>
+        <f t="shared" ref="BT47" si="155">+BT46/BT48</f>
         <v>27.26136571425377</v>
       </c>
       <c r="BU47" s="11">
-        <f t="shared" ref="BU47" si="155">+BU46/BU48</f>
+        <f t="shared" ref="BU47" si="156">+BU46/BU48</f>
         <v>30.176999647278762</v>
       </c>
     </row>
@@ -10494,23 +10491,23 @@
         <v>7465</v>
       </c>
       <c r="BQ48" s="5">
-        <f t="shared" ref="BQ48:BU48" si="156">+BP48</f>
+        <f t="shared" ref="BQ48:BU48" si="157">+BP48</f>
         <v>7465</v>
       </c>
       <c r="BR48" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7465</v>
       </c>
       <c r="BS48" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7465</v>
       </c>
       <c r="BT48" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7465</v>
       </c>
       <c r="BU48" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7465</v>
       </c>
     </row>
@@ -10533,43 +10530,43 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10">
-        <f t="shared" ref="G50:J50" si="157">G33/C33-1</f>
+        <f t="shared" ref="G50:J50" si="158">G33/C33-1</f>
         <v>0.13653555219364599</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13658341289150311</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.14556278826338698</v>
       </c>
       <c r="J50" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12800664353293589</v>
       </c>
       <c r="K50" s="10">
-        <f t="shared" ref="K50:O50" si="158">K33/G33-1</f>
+        <f t="shared" ref="K50:O50" si="159">K33/G33-1</f>
         <v>0.12400544546967174</v>
       </c>
       <c r="L50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.16718148810491518</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.19088546871876866</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.21347251071437956</v>
       </c>
       <c r="O50" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.21970716477364483</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" ref="P50" si="159">P33/L33-1</f>
+        <f t="shared" ref="P50" si="160">P33/L33-1</f>
         <v>0.2008543040208004</v>
       </c>
       <c r="Q50" s="10">
@@ -10577,15 +10574,15 @@
         <v>0.18352275451973332</v>
       </c>
       <c r="R50" s="10">
-        <f t="shared" ref="R50:S50" si="160">R33/N33-1</f>
+        <f t="shared" ref="R50:S50" si="161">R33/N33-1</f>
         <v>0.12378661813139202</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.1060308493501334</v>
       </c>
       <c r="T50" s="10">
-        <f t="shared" ref="T50" si="161">T33/P33-1</f>
+        <f t="shared" ref="T50" si="162">T33/P33-1</f>
         <v>1.9699195793380753E-2</v>
       </c>
       <c r="U50" s="10">
@@ -10597,27 +10594,27 @@
         <v>8.3370288248336921E-2</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" ref="W50:AB50" si="162">W33/S33-1</f>
+        <f t="shared" ref="W50:AB50" si="163">W33/S33-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="X50" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="Z50" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="AA50" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.16044729904276589</v>
       </c>
       <c r="AB50" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.12273460174137374</v>
       </c>
       <c r="AC50" s="10">
@@ -10629,131 +10626,131 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="AH50" s="18">
-        <f t="shared" ref="AH50:BH50" si="163">AH33/AG33-1</f>
+        <f t="shared" ref="AH50:BH50" si="164">AH33/AG33-1</f>
         <v>0.55790363482671168</v>
       </c>
       <c r="AI50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.49701573521432452</v>
       </c>
       <c r="AJ50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.36027546212395789</v>
       </c>
       <c r="AK50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.23874233946176382</v>
       </c>
       <c r="AL50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.27704882770488282</v>
       </c>
       <c r="AM50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.46050193700522146</v>
       </c>
       <c r="AN50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.30988351977857231</v>
       </c>
       <c r="AO50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.27522451135763348</v>
       </c>
       <c r="AP50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.36336647334990335</v>
       </c>
       <c r="AQ50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.16250569706790907</v>
       </c>
       <c r="AR50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.10193413486670155</v>
       </c>
       <c r="AS50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.12132352941176472</v>
       </c>
       <c r="AT50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.13474352194606021</v>
       </c>
       <c r="AU50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.14440612669711372</v>
       </c>
       <c r="AV50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.0168318175648068E-2</v>
       </c>
       <c r="AW50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.11294862772695291</v>
       </c>
       <c r="AX50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.15446456799602548</v>
       </c>
       <c r="AY50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.18187864324556946</v>
       </c>
       <c r="AZ50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-3.2820258192651441E-2</v>
       </c>
       <c r="BA50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>6.9254068484008391E-2</v>
       </c>
       <c r="BB50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.11937455988733126</v>
       </c>
       <c r="BC50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.4044007263057026E-2</v>
       </c>
       <c r="BD50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.5966252051598442E-2</v>
       </c>
       <c r="BE50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.11540289534868786</v>
       </c>
       <c r="BF50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.7700874091647165E-2</v>
       </c>
       <c r="BG50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-8.8266723658901425E-2</v>
       </c>
       <c r="BH50" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.1318682606657291</v>
       </c>
       <c r="BI50" s="10">
-        <f t="shared" ref="BI50:BM50" si="164">+BI33/BH33-1</f>
+        <f t="shared" ref="BI50:BM50" si="165">+BI33/BH33-1</f>
         <v>0.14278613662486661</v>
       </c>
       <c r="BJ50" s="10">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.14029539688292858</v>
       </c>
       <c r="BK50" s="10">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.13645574247276371</v>
       </c>
       <c r="BL50" s="10">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="BM50" s="10">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="BN50" s="10">
@@ -10761,31 +10758,31 @@
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="BO50" s="10">
-        <f t="shared" ref="BO50:BU50" si="165">+BO33/BN33-1</f>
+        <f t="shared" ref="BO50:BU50" si="166">+BO33/BN33-1</f>
         <v>0.1566996201307127</v>
       </c>
       <c r="BP50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.13057975212343265</v>
       </c>
       <c r="BQ50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.17115969413196264</v>
       </c>
       <c r="BR50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.17365079464959554</v>
       </c>
       <c r="BS50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.12782568072458922</v>
       </c>
       <c r="BT50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>8.8186942013873226E-2</v>
       </c>
       <c r="BU50" s="10">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>8.8818603444007049E-2</v>
       </c>
       <c r="BY50" t="s">
@@ -10883,51 +10880,51 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18">
-        <f t="shared" ref="Q52" si="166">Q78/M78-1</f>
+        <f t="shared" ref="Q52" si="167">Q78/M78-1</f>
         <v>0.12477838234395056</v>
       </c>
       <c r="R52" s="18">
-        <f t="shared" ref="R52" si="167">R78/N78-1</f>
+        <f t="shared" ref="R52" si="168">R78/N78-1</f>
         <v>9.666749733807567E-2</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S52:T52" si="168">S78/O78-1</f>
+        <f t="shared" ref="S52:T52" si="169">S78/O78-1</f>
         <v>7.5508960136535519E-2</v>
       </c>
       <c r="T52" s="18">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>7.7701324485300205E-2</v>
       </c>
       <c r="U52" s="18">
-        <f t="shared" ref="U52:AB52" si="169">U78/Q78-1</f>
+        <f t="shared" ref="U52:AB52" si="170">U78/Q78-1</f>
         <v>7.6231112077399743E-2</v>
       </c>
       <c r="V52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.11165509833085441</v>
       </c>
       <c r="W52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.11507072905331883</v>
       </c>
       <c r="X52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.16171200726795543</v>
       </c>
       <c r="Y52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.13211787581121692</v>
       </c>
       <c r="Z52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.11839146674595358</v>
       </c>
       <c r="AA52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.13216638204440101</v>
       </c>
       <c r="AB52" s="18">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4.368510231567968E-2</v>
       </c>
       <c r="BI52" s="10"/>
@@ -10963,83 +10960,83 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="12">
-        <f t="shared" ref="K53:N54" si="170">K27/G27-1</f>
+        <f t="shared" ref="K53:N54" si="171">K27/G27-1</f>
         <v>0.11212422135957389</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.12912227295788936</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.15404922081239891</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.25008509189925121</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" ref="O53:O54" si="171">O27/K27-1</f>
+        <f t="shared" ref="O53:O54" si="172">O27/K27-1</f>
         <v>0.22079714262521311</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ref="P53:P54" si="172">P27/L27-1</f>
+        <f t="shared" ref="P53:P54" si="173">P27/L27-1</f>
         <v>0.19343967647719618</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" ref="Q53:Q54" si="173">Q27/M27-1</f>
+        <f t="shared" ref="Q53:Q54" si="174">Q27/M27-1</f>
         <v>0.16506788665879579</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ref="R53" si="174">R27/N27-1</f>
+        <f t="shared" ref="R53" si="175">R27/N27-1</f>
         <v>0.12994350282485878</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" ref="S53" si="175">S27/O27-1</f>
+        <f t="shared" ref="S53" si="176">S27/O27-1</f>
         <v>9.4820134317441296E-2</v>
       </c>
       <c r="T53" s="12">
-        <f t="shared" ref="T53" si="176">T27/P27-1</f>
+        <f t="shared" ref="T53" si="177">T27/P27-1</f>
         <v>6.6892570281124497E-2</v>
       </c>
       <c r="U53" s="12">
-        <f t="shared" ref="U53:Z53" si="177">U27/Q27-1</f>
+        <f t="shared" ref="U53:Z53" si="178">U27/Q27-1</f>
         <v>0.10937994806510853</v>
       </c>
       <c r="V53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.10186746987951811</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.5320983905253569</v>
       </c>
       <c r="X53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.52064463004352435</v>
       </c>
       <c r="Y53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.54789906371317643</v>
       </c>
       <c r="Z53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.1107648570335138</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AB55" si="178">AA27/W27-1</f>
+        <f t="shared" ref="AA53:AB55" si="179">AA27/W27-1</f>
         <v>0.12253230793625614</v>
       </c>
       <c r="AB53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.13858590546917315</v>
       </c>
       <c r="AC53" s="12">
-        <f t="shared" ref="AC53:AD53" si="179">AC27/Y27-1</f>
+        <f t="shared" ref="AC53:AD53" si="180">AC27/Y27-1</f>
         <v>0.10441485634197623</v>
       </c>
       <c r="AD53" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI53" s="10"/>
@@ -11060,7 +11057,7 @@
       </c>
       <c r="BZ53" s="4">
         <f>NPV(BZ51,BN46:EA46)+Main!L5-Main!L6</f>
-        <v>3373848.3988617393</v>
+        <v>3377531.3988617393</v>
       </c>
     </row>
     <row r="54" spans="2:78" s="3" customFormat="1" ht="13">
@@ -11076,83 +11073,83 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.19741816505301979</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.23017945909512183</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.23100724696685937</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.29945404233041661</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.25518800082186144</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25592009525069459</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" ref="R54:U54" si="180">R28/N28-1</f>
+        <f t="shared" ref="R54:U54" si="181">R28/N28-1</f>
         <v>0.19735251798561149</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.20180936613055822</v>
       </c>
       <c r="T54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.17356905112675292</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.16295359983146374</v>
       </c>
       <c r="V54" s="12">
-        <f t="shared" ref="V54:Z54" si="181">V28/R28-1</f>
+        <f t="shared" ref="V54:Z54" si="182">V28/R28-1</f>
         <v>0.15328782926360307</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>-1.5350553505535047E-2</v>
       </c>
       <c r="X54" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>7.904035707644308E-4</v>
       </c>
       <c r="Y54" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>2.7172682396630066E-3</v>
       </c>
       <c r="Z54" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.1884716375609552</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.20381751861290165</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.18671312427409981</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" ref="AC54:AD54" si="182">AC28/Y28-1</f>
+        <f t="shared" ref="AC54:AD54" si="183">AC28/Y28-1</f>
         <v>0.20821101124610442</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI54" s="10"/>
@@ -11175,7 +11172,7 @@
       </c>
       <c r="BZ54" s="1">
         <f>+BZ53/Main!L3</f>
-        <v>453.84133190112999</v>
+        <v>454.33675950420655</v>
       </c>
     </row>
     <row r="55" spans="2:78" s="3" customFormat="1" ht="13">
@@ -11191,83 +11188,83 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="12">
-        <f t="shared" ref="K55:Z55" si="183">K29/G29-1</f>
+        <f t="shared" ref="K55:Z55" si="184">K29/G29-1</f>
         <v>6.4313302793496785E-2</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.14465218378623868</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.18541420387378382</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>9.1092176607281194E-2</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.12802768166089962</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.15493982277476515</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.11874808223381406</v>
       </c>
       <c r="R55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>2.6622178049126699E-2</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-2.5437677689660321E-3</v>
       </c>
       <c r="T55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-0.18482679645004296</v>
       </c>
       <c r="U55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-9.0784421283598427E-2</v>
       </c>
       <c r="V55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-3.8448240094046016E-2</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-0.15406540654065404</v>
       </c>
       <c r="X55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>2.8376764767858331E-2</v>
       </c>
       <c r="Y55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-4.9472096530920107E-2</v>
       </c>
       <c r="Z55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.14311398777418205</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.16829225039900697</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>6.8301345536503355E-4</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" ref="AC55:AD55" si="184">AC29/Y29-1</f>
+        <f t="shared" ref="AC55:AD55" si="185">AC29/Y29-1</f>
         <v>6.0853697238971716E-2</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BI55" s="10"/>
@@ -11291,278 +11288,278 @@
         <v>22</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:D56" si="185">C37/C33</f>
+        <f t="shared" ref="C56:D56" si="186">C37/C33</f>
         <v>0.65943474075092834</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.61741246034923469</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" ref="E56" si="186">E37/E33</f>
+        <f t="shared" ref="E56" si="187">E37/E33</f>
         <v>0.66733178502502366</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9">
-        <f t="shared" ref="G56:AD56" si="187">G37/G33</f>
+        <f t="shared" ref="G56:AD56" si="188">G37/G33</f>
         <v>0.6851913477537438</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.66514929821709212</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68661660146769077</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.67557121447164303</v>
       </c>
       <c r="K56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.70388114334930285</v>
       </c>
       <c r="L56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.67048936762930633</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68721526878626582</v>
       </c>
       <c r="N56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69684954064829263</v>
       </c>
       <c r="O56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.6988768012004325</v>
       </c>
       <c r="P56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.67213114754098358</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68365072933549431</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68323532247180174</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69171222217788597</v>
       </c>
       <c r="T56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.66845507801391546</v>
       </c>
       <c r="U56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69487485101311086</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.70109807969531401</v>
       </c>
       <c r="W56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.71155581506449384</v>
       </c>
       <c r="X56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68360206385037081</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.70084710142584628</v>
       </c>
       <c r="Z56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69589197707293715</v>
       </c>
       <c r="AA56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69354273080734929</v>
       </c>
       <c r="AB56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.68693991268382348</v>
       </c>
       <c r="AC56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.6871663859789342</v>
       </c>
       <c r="AD56" s="9">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69</v>
       </c>
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="9">
-        <f t="shared" ref="AG56:BU56" si="188">AG37/AG33</f>
+        <f t="shared" ref="AG56:BU56" si="189">AG37/AG33</f>
         <v>0.78613693998309386</v>
       </c>
       <c r="AH56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.8035811177428106</v>
       </c>
       <c r="AI56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.8307357738310982</v>
       </c>
       <c r="AJ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.83133493205435649</v>
       </c>
       <c r="AK56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.83587868358786832</v>
       </c>
       <c r="AL56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.85228229745662798</v>
       </c>
       <c r="AM56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.86299158113251062</v>
       </c>
       <c r="AN56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.90447261841873572</v>
       </c>
       <c r="AO56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.91735708367854185</v>
       </c>
       <c r="AP56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.85749734136830913</v>
       </c>
       <c r="AQ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.86922808851716327</v>
       </c>
       <c r="AR56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.86341714104996836</v>
       </c>
       <c r="AS56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.8169927727833598</v>
       </c>
       <c r="AT56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.82334482865753256</v>
       </c>
       <c r="AU56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.81767340844305691</v>
       </c>
       <c r="AV56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.84417412285111093</v>
       </c>
       <c r="AW56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.82724357526760306</v>
       </c>
       <c r="AX56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.79083369195258402</v>
       </c>
       <c r="AY56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.80804369414101296</v>
       </c>
       <c r="AZ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.79199822030562828</v>
       </c>
       <c r="BA56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.80162921707957235</v>
       </c>
       <c r="BB56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.77729007906438097</v>
       </c>
       <c r="BC56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.76221803236439101</v>
       </c>
       <c r="BD56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.7398938971598864</v>
       </c>
       <c r="BE56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.68981838701876019</v>
       </c>
       <c r="BF56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.64695447745244705</v>
       </c>
       <c r="BG56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.61579934364744493</v>
       </c>
       <c r="BH56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.64522475691460168</v>
       </c>
       <c r="BI56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.65247372236317502</v>
       </c>
       <c r="BJ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.65901957200638894</v>
       </c>
       <c r="BK56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67781001992797962</v>
       </c>
       <c r="BL56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.68925800771024703</v>
       </c>
       <c r="BM56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.68401674484289099</v>
       </c>
       <c r="BN56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.68920085883491022</v>
       </c>
       <c r="BO56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.69764443827971379</v>
       </c>
       <c r="BP56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.68935311940458843</v>
       </c>
       <c r="BQ56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67</v>
       </c>
       <c r="BR56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67</v>
       </c>
       <c r="BS56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67</v>
       </c>
       <c r="BT56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67</v>
       </c>
       <c r="BU56" s="9">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0.67</v>
       </c>
     </row>
@@ -11571,112 +11568,112 @@
         <v>455</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" ref="C57:D57" si="189">+C42/C33</f>
+        <f t="shared" ref="C57:D57" si="190">+C42/C33</f>
         <v>0.34228441754916794</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>0.3159126605278556</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" ref="E57" si="190">+E42/E33</f>
+        <f t="shared" ref="E57" si="191">+E42/E33</f>
         <v>0.3382617513329626</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9">
-        <f t="shared" ref="G57:AB57" si="191">+G42/G33</f>
+        <f t="shared" ref="G57:AB57" si="192">+G42/G33</f>
         <v>0.38378460142187265</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37638866309001245</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.37049199051997372</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.35250966266137301</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.42730257845723207</v>
       </c>
       <c r="L57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.41547497446373849</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.40876612477820939</v>
       </c>
       <c r="N57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.41374154966198645</v>
       </c>
       <c r="O57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.44658737339188381</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.43007655428394681</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.41256077795786061</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.3959124650535043</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.42931247755476637</v>
       </c>
       <c r="T57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.3867328947617874</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.42287681858599618</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.4316503230169606</v>
       </c>
       <c r="W57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.47587451563246458</v>
       </c>
       <c r="X57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.43585940019348596</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.44587603866921011</v>
       </c>
       <c r="Z57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.43142737960974553</v>
       </c>
       <c r="AA57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.46583822520393381</v>
       </c>
       <c r="AB57" s="9">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0.45457548253676472</v>
       </c>
       <c r="AC57" s="9">
-        <f t="shared" ref="AC57:AD57" si="192">+AC42/AC33</f>
+        <f t="shared" ref="AC57:AD57" si="193">+AC42/AC33</f>
         <v>0.45671224274255701</v>
       </c>
       <c r="AD57" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>0.43506565830124772</v>
       </c>
       <c r="AE57" s="9"/>
@@ -11701,91 +11698,91 @@
       <c r="AX57" s="9"/>
       <c r="AY57" s="9"/>
       <c r="AZ57" s="9">
-        <f t="shared" ref="AZ57:BU57" si="193">AZ42/AZ33</f>
+        <f t="shared" ref="AZ57:BU57" si="194">AZ42/AZ33</f>
         <v>0.35410784263394768</v>
       </c>
       <c r="BA57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.38661097240893672</v>
       </c>
       <c r="BB57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.38833049769097694</v>
       </c>
       <c r="BC57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.37920323372624554</v>
       </c>
       <c r="BD57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.34379375457616668</v>
       </c>
       <c r="BE57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.32114518673776099</v>
       </c>
       <c r="BF57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.30104723231459712</v>
       </c>
       <c r="BG57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.24955461790904829</v>
       </c>
       <c r="BH57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.30372472067183731</v>
       </c>
       <c r="BI57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.31766944545125048</v>
       </c>
       <c r="BJ57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.3413698020549415</v>
       </c>
       <c r="BK57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.37030381428521486</v>
       </c>
       <c r="BL57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.41594878872971303</v>
       </c>
       <c r="BM57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.4205527815604983</v>
       </c>
       <c r="BN57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.41772880636104098</v>
       </c>
       <c r="BO57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.44644299573273716</v>
       </c>
       <c r="BP57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.45272313672895076</v>
       </c>
       <c r="BQ57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.46189099199955547</v>
       </c>
       <c r="BR57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.48736281420534905</v>
       </c>
       <c r="BS57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.50320445297217187</v>
       </c>
       <c r="BT57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.51212325400567738</v>
       </c>
       <c r="BU57" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.52065184608363946</v>
       </c>
     </row>
@@ -11794,278 +11791,278 @@
         <v>89</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" ref="C58:D58" si="194">+C45/C44</f>
+        <f t="shared" ref="C58:D58" si="195">+C45/C44</f>
         <v>0.13667938557871051</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.18921521425132404</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" ref="E58" si="195">+E45/E44</f>
+        <f t="shared" ref="E58" si="196">+E45/E44</f>
         <v>0.15992752241083349</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9">
-        <f t="shared" ref="G58:AB58" si="196">+G45/G44</f>
+        <f t="shared" ref="G58:AB58" si="197">+G45/G44</f>
         <v>0.15828472331704241</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.17294994675186368</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.16281242700303666</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.16540008940545373</v>
       </c>
       <c r="K58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.13836516993301909</v>
       </c>
       <c r="L58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.15673228990565524</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="N58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.15186807523834064</v>
       </c>
       <c r="O58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="P58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.18289647093278666</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.18616725384758021</v>
       </c>
       <c r="T58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.19243817296818919</v>
       </c>
       <c r="U58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.19291668504388479</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.18789177821814212</v>
       </c>
       <c r="W58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.18300102624248643</v>
       </c>
       <c r="X58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.17552589911784663</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.17914468514984846</v>
       </c>
       <c r="Z58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.1913394495412844</v>
       </c>
       <c r="AA58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.18507383791998414</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.17902264600715137</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" ref="AC58:AD58" si="197">+AC45/AC44</f>
+        <f t="shared" ref="AC58:AD58" si="198">+AC45/AC44</f>
         <v>0.17697676642126398</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>0.15</v>
       </c>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="9">
-        <f t="shared" ref="AG58:BU58" si="198">+AG45/AG44</f>
+        <f t="shared" ref="AG58:BU58" si="199">+AG45/AG44</f>
         <v>0.31951219512195123</v>
       </c>
       <c r="AH58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.30998509687034276</v>
       </c>
       <c r="AI58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31988472622478387</v>
       </c>
       <c r="AJ58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31977159172019987</v>
       </c>
       <c r="AK58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31788079470198677</v>
       </c>
       <c r="AL58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.32263895164934481</v>
       </c>
       <c r="AM58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.35039952648712636</v>
       </c>
       <c r="AN58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.35001881821603315</v>
       </c>
       <c r="AO58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.35815459328207205</v>
       </c>
       <c r="AP58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.35001278663370555</v>
       </c>
       <c r="AQ58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.34379205326156242</v>
       </c>
       <c r="AR58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.32557343375556319</v>
       </c>
       <c r="AS58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31744937526928046</v>
       </c>
       <c r="AT58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31992699743139108</v>
       </c>
       <c r="AU58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.32959659602323871</v>
       </c>
       <c r="AV58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.26305027664180902</v>
       </c>
       <c r="AW58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.31009747015660938</v>
       </c>
       <c r="AX58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.30028356798169248</v>
       </c>
       <c r="AY58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.25753758293440832</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.26063222668850183</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.24940172303765157</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.17530547540166008</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.18583977512297961</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.19181576223569421</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.20560346369914481</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.22140402552773686</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.1415560136139207</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.14605886052901645</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.5456763722103416</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.16507655177615205</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.13826615285083402</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.13113383343685794</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.18978625253328257</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.18231326597827197</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.1726916348432247</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BR58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BS58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BT58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
       <c r="BU58" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.15</v>
       </c>
     </row>
@@ -12074,112 +12071,112 @@
         <v>156</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ref="C59:D59" si="199">(C31-C34)/C31</f>
+        <f t="shared" ref="C59:D59" si="200">(C31-C34)/C31</f>
         <v>0.78906295161570028</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.63715395523768414</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" ref="E59" si="200">(E31-E34)/E31</f>
+        <f t="shared" ref="E59" si="201">(E31-E34)/E31</f>
         <v>0.77725271879854996</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9">
-        <f t="shared" ref="G59:AB59" si="201">(G31-G34)/G31</f>
+        <f t="shared" ref="G59:AB59" si="202">(G31-G34)/G31</f>
         <v>0.79039827498731607</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.72796494111202414</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.78728498519311951</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.75918884664131814</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.77238499019173579</v>
       </c>
       <c r="L59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.68869475847893113</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.74651810584958223</v>
       </c>
       <c r="N59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.7736297391488014</v>
       </c>
       <c r="O59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.77199206301485179</v>
       </c>
       <c r="P59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.69531738774724483</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.73603593228146957</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.75735130318556476</v>
       </c>
       <c r="S59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.72670097198399086</v>
       </c>
       <c r="T59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.65550644790216139</v>
       </c>
       <c r="U59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.74717731588401337</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.77030795704028954</v>
       </c>
       <c r="W59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.77270679111683294</v>
       </c>
       <c r="X59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.68512750118789922</v>
       </c>
       <c r="Y59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.74596018735363001</v>
       </c>
       <c r="Z59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.89120072633729286</v>
       </c>
       <c r="AA59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.78431115767417492</v>
       </c>
       <c r="AB59" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.76225414637153954</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" ref="AC59:AD59" si="202">(AC31-AC34)/AC31</f>
+        <f t="shared" ref="AC59:AD59" si="203">(AC31-AC34)/AC31</f>
         <v>0.80174946145309745</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.72554042807277264</v>
       </c>
       <c r="AE59" s="9"/>
@@ -12211,63 +12208,63 @@
       <c r="BE59" s="9"/>
       <c r="BF59" s="9"/>
       <c r="BG59" s="9">
-        <f t="shared" ref="BG59:BU59" si="203">(BG31-BG34)/BG31</f>
+        <f t="shared" ref="BG59:BU59" si="204">(BG31-BG34)/BG31</f>
         <v>0.70927774706513613</v>
       </c>
       <c r="BH59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.76218833743398473</v>
       </c>
       <c r="BI59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.76091911251686128</v>
       </c>
       <c r="BJ59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75369689264254036</v>
       </c>
       <c r="BK59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.76459781602269217</v>
       </c>
       <c r="BL59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.74366153586402906</v>
       </c>
       <c r="BM59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.73788703734257277</v>
       </c>
       <c r="BN59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.72481800336944935</v>
       </c>
       <c r="BO59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.76422274713229277</v>
       </c>
       <c r="BP59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.76881327964291979</v>
       </c>
       <c r="BQ59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BR59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BS59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BT59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BU59" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="BX59" s="1"/>
@@ -12277,112 +12274,112 @@
         <v>157</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" ref="C60:D60" si="204">(C32-C35)/C32</f>
+        <f t="shared" ref="C60:D60" si="205">(C32-C35)/C32</f>
         <v>0.46915570640644888</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.59771105094757571</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" ref="E60" si="205">(E32-E35)/E32</f>
+        <f t="shared" ref="E60" si="206">(E32-E35)/E32</f>
         <v>0.55504860146796275</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9">
-        <f t="shared" ref="G60:AB60" si="206">(G32-G35)/G32</f>
+        <f t="shared" ref="G60:AB60" si="207">(G32-G35)/G32</f>
         <v>0.58922890032972752</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.60366736368023166</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.60318537859007837</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.59926581514633415</v>
       </c>
       <c r="K60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.65317783710364852</v>
       </c>
       <c r="L60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.65548780487804881</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.64692143518704948</v>
       </c>
       <c r="N60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.64341882854413168</v>
       </c>
       <c r="O60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.65648748518441047</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.65656402468577335</v>
       </c>
       <c r="Q60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.65521660311308372</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.64398832168450859</v>
       </c>
       <c r="S60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.67569296995433525</v>
       </c>
       <c r="T60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.67435826662986476</v>
       </c>
       <c r="U60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.67299900721779493</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.67144600366076879</v>
       </c>
       <c r="W60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.68837538431506518</v>
       </c>
       <c r="X60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.68293135866663568</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.68363928714993971</v>
       </c>
       <c r="Z60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.64577751892836344</v>
       </c>
       <c r="AA60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.66599089698487468</v>
       </c>
       <c r="AB60" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.66407054462396797</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60:AD60" si="207">(AC32-AC35)/AC32</f>
+        <f t="shared" ref="AC60:AD60" si="208">(AC32-AC35)/AC32</f>
         <v>0.65510438928160453</v>
       </c>
       <c r="AD60" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.68088064768321033</v>
       </c>
       <c r="AE60" s="9"/>
@@ -12414,63 +12411,63 @@
       <c r="BE60" s="9"/>
       <c r="BF60" s="9"/>
       <c r="BG60" s="9">
-        <f t="shared" ref="BG60:BU60" si="208">(BG32-BG35)/BG32</f>
+        <f t="shared" ref="BG60:BU60" si="209">(BG32-BG35)/BG32</f>
         <v>0.37442270551683599</v>
       </c>
       <c r="BH60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.41739926739926742</v>
       </c>
       <c r="BI60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.4999672938970412</v>
       </c>
       <c r="BJ60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.55437146585471941</v>
       </c>
       <c r="BK60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.59904766985888447</v>
       </c>
       <c r="BL60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.64940111736450412</v>
       </c>
       <c r="BM60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65280632159186858</v>
       </c>
       <c r="BN60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.67354771220519505</v>
       </c>
       <c r="BO60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.67373259624394921</v>
       </c>
       <c r="BP60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.66669928137886969</v>
       </c>
       <c r="BQ60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="BR60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65</v>
       </c>
       <c r="BS60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65</v>
       </c>
       <c r="BT60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65</v>
       </c>
       <c r="BU60" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.65</v>
       </c>
       <c r="BX60" s="1"/>
@@ -12567,79 +12564,79 @@
         <v>82</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" ref="G63:H63" si="209">+G64-G75</f>
+        <f t="shared" ref="G63:H63" si="210">+G64-G75</f>
         <v>69825</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>64290</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ref="I63:J63" si="210">+I64-I75</f>
+        <f t="shared" ref="I63:J63" si="211">+I64-I75</f>
         <v>73676</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>76165</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" ref="K63:L63" si="211">+K64-K75</f>
+        <f t="shared" ref="K63:L63" si="212">+K64-K75</f>
         <v>77528</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>75239</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ref="M63:Y63" si="212">+M64-M75</f>
+        <f t="shared" ref="M63:Y63" si="213">+M64-M75</f>
         <v>72744</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>78172</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>83720</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>79105</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>61674</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>61867</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>65479</v>
       </c>
       <c r="T63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>58489</v>
       </c>
       <c r="U63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>65632</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>73904</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>83872</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>20165</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>29386</v>
       </c>
       <c r="Z63" s="5">
@@ -12654,90 +12651,93 @@
         <f>+AB64-AB75</f>
         <v>42166</v>
       </c>
-      <c r="AC63" s="5"/>
+      <c r="AC63" s="5">
+        <f>+AC64-AC75</f>
+        <v>52772</v>
+      </c>
       <c r="AD63" s="5"/>
       <c r="AK63" s="4">
-        <f t="shared" ref="AK63:AY63" si="213">AK64</f>
+        <f t="shared" ref="AK63:AY63" si="214">AK64</f>
         <v>3614</v>
       </c>
       <c r="AL63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>4750</v>
       </c>
       <c r="AM63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>6940</v>
       </c>
       <c r="AN63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>11312</v>
       </c>
       <c r="AO63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>18630</v>
       </c>
       <c r="AP63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>31608</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>41524</v>
       </c>
       <c r="AR63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>45741</v>
       </c>
       <c r="AS63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>52843</v>
       </c>
       <c r="AT63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>62740</v>
       </c>
       <c r="AU63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>72802</v>
       </c>
       <c r="AV63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>48755</v>
       </c>
       <c r="AW63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>43393</v>
       </c>
       <c r="AX63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>33528</v>
       </c>
       <c r="AY63" s="4">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>30250</v>
       </c>
       <c r="AZ63" s="4">
-        <f t="shared" ref="AZ63:BE63" si="214">AZ64-AZ75</f>
+        <f t="shared" ref="AZ63:BE63" si="215">AZ64-AZ75</f>
         <v>30634</v>
       </c>
       <c r="BA63" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>38603</v>
       </c>
       <c r="BB63" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>51716</v>
       </c>
       <c r="BC63" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>60872</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>72266</v>
       </c>
       <c r="BE63" s="4">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>77661</v>
       </c>
       <c r="BM63" s="5"/>
@@ -12846,6 +12846,10 @@
         <f>71555+15581</f>
         <v>87136</v>
       </c>
+      <c r="AC64" s="5">
+        <f>28828+50790+16035</f>
+        <v>95653</v>
+      </c>
       <c r="AK64" s="4">
         <f>3614</f>
         <v>3614</v>
@@ -13007,6 +13011,9 @@
       <c r="AB65" s="4">
         <v>48188</v>
       </c>
+      <c r="AC65" s="4">
+        <v>51700</v>
+      </c>
       <c r="AK65" s="4">
         <v>475</v>
       </c>
@@ -13149,6 +13156,9 @@
       <c r="AB66" s="4">
         <v>909</v>
       </c>
+      <c r="AC66" s="4">
+        <v>848</v>
+      </c>
       <c r="AK66" s="4">
         <v>102</v>
       </c>
@@ -13291,6 +13301,9 @@
       <c r="AB67" s="4">
         <v>26428</v>
       </c>
+      <c r="AC67" s="4">
+        <v>24478</v>
+      </c>
       <c r="AK67" s="4">
         <v>121</v>
       </c>
@@ -13448,6 +13461,9 @@
       <c r="AB68" s="4">
         <v>166902</v>
       </c>
+      <c r="AC68" s="4">
+        <v>183939</v>
+      </c>
       <c r="AK68" s="4">
         <v>930</v>
       </c>
@@ -13589,6 +13605,9 @@
       </c>
       <c r="AB69" s="4">
         <v>22816</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>24475</v>
       </c>
       <c r="AK69" s="4">
         <v>0</v>
@@ -13754,6 +13773,10 @@
         <f>119191+25385</f>
         <v>144576</v>
       </c>
+      <c r="AC70" s="4">
+        <f>119329+23968</f>
+        <v>143297</v>
+      </c>
       <c r="AK70" s="4">
         <v>0</v>
       </c>
@@ -13909,6 +13932,9 @@
       <c r="AB71" s="4">
         <v>36943</v>
       </c>
+      <c r="AC71" s="4">
+        <v>38234</v>
+      </c>
       <c r="AK71" s="4">
         <v>121</v>
       </c>
@@ -13993,177 +14019,180 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7">
-        <f t="shared" ref="G72:H72" si="215">SUM(G64:G71)</f>
+        <f t="shared" ref="G72:H72" si="216">SUM(G64:G71)</f>
         <v>278955</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>286556</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" ref="I72:J72" si="216">SUM(I64:I71)</f>
+        <f t="shared" ref="I72:J72" si="217">SUM(I64:I71)</f>
         <v>285449</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>301311</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" ref="K72:L72" si="217">SUM(K64:K71)</f>
+        <f t="shared" ref="K72:L72" si="218">SUM(K64:K71)</f>
         <v>301001</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>304137</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" ref="M72:O72" si="218">SUM(M64:M71)</f>
+        <f t="shared" ref="M72:O72" si="219">SUM(M64:M71)</f>
         <v>308879</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>333779</v>
       </c>
       <c r="O72" s="7">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>335418</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" ref="P72" si="219">SUM(P64:P71)</f>
+        <f t="shared" ref="P72" si="220">SUM(P64:P71)</f>
         <v>340389</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" ref="Q72:AB72" si="220">SUM(Q64:Q71)</f>
+        <f t="shared" ref="Q72:AC72" si="221">SUM(Q64:Q71)</f>
         <v>344607</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>364840</v>
       </c>
       <c r="S72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>359784</v>
       </c>
       <c r="T72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>364552</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>380088</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>411976</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>445785</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>470558</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>484275</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>512163</v>
       </c>
       <c r="AA72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>523013</v>
       </c>
       <c r="AB72" s="7">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>533898</v>
       </c>
-      <c r="AC72" s="7"/>
+      <c r="AC72" s="7">
+        <f t="shared" si="221"/>
+        <v>562624</v>
+      </c>
       <c r="AD72" s="7"/>
       <c r="AK72" s="6">
-        <f t="shared" ref="AK72:BE72" si="221">SUM(AK64:AK71)</f>
+        <f t="shared" ref="AK72:BE72" si="222">SUM(AK64:AK71)</f>
         <v>5363</v>
       </c>
       <c r="AL72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>7210</v>
       </c>
       <c r="AM72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>10093</v>
       </c>
       <c r="AN72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>14387</v>
       </c>
       <c r="AO72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>22357</v>
       </c>
       <c r="AP72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>37156</v>
       </c>
       <c r="AQ72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>52150</v>
       </c>
       <c r="AR72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>59257</v>
       </c>
       <c r="AS72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>67646</v>
       </c>
       <c r="AT72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>79571</v>
       </c>
       <c r="AU72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>92389</v>
       </c>
       <c r="AV72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>70815</v>
       </c>
       <c r="AW72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>69597</v>
       </c>
       <c r="AX72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>63171</v>
       </c>
       <c r="AY72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>72793</v>
       </c>
       <c r="AZ72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>77888</v>
       </c>
       <c r="BA72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>86113</v>
       </c>
       <c r="BB72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>108704</v>
       </c>
       <c r="BC72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>121271</v>
       </c>
       <c r="BD72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>142431</v>
       </c>
       <c r="BE72" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>172384</v>
       </c>
       <c r="BK72" s="7"/>
@@ -14249,6 +14278,9 @@
       </c>
       <c r="AB74" s="4">
         <v>22608</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>26250</v>
       </c>
       <c r="AK74" s="4">
         <v>324</v>
@@ -14415,6 +14447,10 @@
         <f>0+39722+5248</f>
         <v>44970</v>
       </c>
+      <c r="AC75" s="4">
+        <f>2999+39882</f>
+        <v>42881</v>
+      </c>
       <c r="AK75" s="4">
         <v>0</v>
       </c>
@@ -14561,6 +14597,9 @@
       </c>
       <c r="AB76" s="4">
         <v>9176</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>10579</v>
       </c>
       <c r="AK76" s="4">
         <v>96</v>
@@ -14726,6 +14765,10 @@
         <f>24389+6056+2513</f>
         <v>32958</v>
       </c>
+      <c r="AC77" s="4">
+        <f>6805+25061+2522</f>
+        <v>34388</v>
+      </c>
       <c r="AK77" s="4">
         <v>305</v>
       </c>
@@ -14893,6 +14936,10 @@
         <f>45508+2537</f>
         <v>48045</v>
       </c>
+      <c r="AC78" s="4">
+        <f>44636+2840</f>
+        <v>47476</v>
+      </c>
       <c r="AK78" s="4">
         <v>0</v>
       </c>
@@ -15048,6 +15095,9 @@
       <c r="AB79" s="4">
         <v>20286</v>
       </c>
+      <c r="AC79" s="4">
+        <v>22937</v>
+      </c>
       <c r="AK79" s="4">
         <v>188</v>
       </c>
@@ -15191,6 +15241,9 @@
       <c r="AB80" s="4">
         <v>17254</v>
       </c>
+      <c r="AC80" s="4">
+        <v>17686</v>
+      </c>
       <c r="AK80" s="4">
         <v>0</v>
       </c>
@@ -15333,6 +15386,9 @@
       <c r="AB81" s="4">
         <v>35906</v>
       </c>
+      <c r="AC81" s="4">
+        <v>38536</v>
+      </c>
       <c r="AK81" s="4">
         <v>0</v>
       </c>
@@ -15488,6 +15544,9 @@
       </c>
       <c r="AB82" s="4">
         <v>302695</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>321891</v>
       </c>
       <c r="AK82" s="4">
         <v>4450</v>
@@ -15579,7 +15638,7 @@
         <v>285449</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" ref="J83" si="222">SUM(J74:J82)</f>
+        <f t="shared" ref="J83" si="223">SUM(J74:J82)</f>
         <v>301311</v>
       </c>
       <c r="K83" s="7">
@@ -15587,157 +15646,160 @@
         <v>301001</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" ref="L83" si="223">SUM(L74:L82)</f>
+        <f t="shared" ref="L83" si="224">SUM(L74:L82)</f>
         <v>304137</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" ref="M83:P83" si="224">SUM(M74:M82)</f>
+        <f t="shared" ref="M83:P83" si="225">SUM(M74:M82)</f>
         <v>308879</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>333779</v>
       </c>
       <c r="O83" s="7">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>335418</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>340389</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" ref="Q83:W83" si="225">SUM(Q74:Q82)</f>
+        <f t="shared" ref="Q83:W83" si="226">SUM(Q74:Q82)</f>
         <v>344607</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>364840</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>359784</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>364552</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>380088</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>411976</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>445785</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" ref="X83:AB83" si="226">SUM(X74:X82)</f>
+        <f t="shared" ref="X83:AC83" si="227">SUM(X74:X82)</f>
         <v>470558</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>484275</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>512163</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>523013</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>533898</v>
       </c>
-      <c r="AC83" s="7"/>
+      <c r="AC83" s="7">
+        <f t="shared" si="227"/>
+        <v>562624</v>
+      </c>
       <c r="AD83" s="7"/>
       <c r="AK83" s="6">
-        <f t="shared" ref="AK83:BE83" si="227">SUM(AK74:AK82)</f>
+        <f t="shared" ref="AK83:BE83" si="228">SUM(AK74:AK82)</f>
         <v>5363</v>
       </c>
       <c r="AL83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>7210</v>
       </c>
       <c r="AM83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>10093</v>
       </c>
       <c r="AN83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>14387</v>
       </c>
       <c r="AO83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>22357</v>
       </c>
       <c r="AP83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>37156</v>
       </c>
       <c r="AQ83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>52150</v>
       </c>
       <c r="AR83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>59257</v>
       </c>
       <c r="AS83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>67646</v>
       </c>
       <c r="AT83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>79571</v>
       </c>
       <c r="AU83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>92389</v>
       </c>
       <c r="AV83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>70815</v>
       </c>
       <c r="AW83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>69597</v>
       </c>
       <c r="AX83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>63171</v>
       </c>
       <c r="AY83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>72793</v>
       </c>
       <c r="AZ83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>77888</v>
       </c>
       <c r="BA83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>86113</v>
       </c>
       <c r="BB83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>108704</v>
       </c>
       <c r="BC83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>121271</v>
       </c>
       <c r="BD83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>142431</v>
       </c>
       <c r="BE83" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>172384</v>
       </c>
       <c r="BK83" s="7"/>
@@ -15754,91 +15816,91 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
-        <f t="shared" ref="G85:H85" si="228">G46</f>
+        <f t="shared" ref="G85:H85" si="229">G46</f>
         <v>10678</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>11649</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" ref="I85:J85" si="229">I46</f>
+        <f t="shared" ref="I85:J85" si="230">I46</f>
         <v>10752</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>11202</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" ref="K85:AB85" si="230">K46</f>
+        <f t="shared" ref="K85:AB85" si="231">K46</f>
         <v>13893</v>
       </c>
       <c r="L85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>15463</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>15457</v>
       </c>
       <c r="N85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16458</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>20505</v>
       </c>
       <c r="P85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>18765</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16728</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16740</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>17556</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16425</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>18299</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>20081</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>22291</v>
       </c>
       <c r="X85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>21870</v>
       </c>
       <c r="Y85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>21939</v>
       </c>
       <c r="Z85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>22036</v>
       </c>
       <c r="AA85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>24667</v>
       </c>
       <c r="AB85" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>24108</v>
       </c>
       <c r="AC85" s="5"/>
@@ -16353,91 +16415,91 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5">
-        <f t="shared" ref="G92:H92" si="231">SUM(G86:G91)</f>
+        <f t="shared" ref="G92:H92" si="232">SUM(G86:G91)</f>
         <v>13818</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>10680</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" ref="I92:J92" si="232">SUM(I86:I91)</f>
+        <f t="shared" ref="I92:J92" si="233">SUM(I86:I91)</f>
         <v>17504</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>18673</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" ref="K92:L92" si="233">SUM(K86:K91)</f>
+        <f t="shared" ref="K92:L92" si="234">SUM(K86:K91)</f>
         <v>19335</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>12516</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" ref="M92:O92" si="234">SUM(M86:M91)</f>
+        <f t="shared" ref="M92:O92" si="235">SUM(M86:M91)</f>
         <v>22179</v>
       </c>
       <c r="N92" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>22710</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>24540</v>
       </c>
       <c r="P92" s="5">
-        <f t="shared" ref="P92" si="235">SUM(P86:P91)</f>
+        <f t="shared" ref="P92" si="236">SUM(P86:P91)</f>
         <v>14480</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" ref="Q92:U92" si="236">SUM(Q86:Q91)</f>
+        <f t="shared" ref="Q92:U92" si="237">SUM(Q86:Q91)</f>
         <v>25386</v>
       </c>
       <c r="R92" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>24629</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>23198</v>
       </c>
       <c r="T92" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>11173</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>24441</v>
       </c>
       <c r="V92" s="5">
-        <f t="shared" ref="V92:AB92" si="237">SUM(V86:V91)</f>
+        <f t="shared" ref="V92:AB92" si="238">SUM(V86:V91)</f>
         <v>28770</v>
       </c>
       <c r="W92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>30583</v>
       </c>
       <c r="X92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>18853</v>
       </c>
       <c r="Y92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>31917</v>
       </c>
       <c r="Z92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>37195</v>
       </c>
       <c r="AA92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>34180</v>
       </c>
       <c r="AB92" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>22291</v>
       </c>
       <c r="AC92" s="5"/>
@@ -16822,97 +16884,97 @@
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5">
-        <f t="shared" ref="D98" si="238">SUM(D94:D97)</f>
+        <f t="shared" ref="D98" si="239">SUM(D94:D97)</f>
         <v>-4200</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5">
-        <f t="shared" ref="G98:H98" si="239">SUM(G94:G97)</f>
+        <f t="shared" ref="G98:H98" si="240">SUM(G94:G97)</f>
         <v>-1776</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-6036</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" ref="I98:J98" si="240">SUM(I94:I97)</f>
+        <f t="shared" ref="I98:J98" si="241">SUM(I94:I97)</f>
         <v>51</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-4462</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:L98" si="241">SUM(K94:K97)</f>
+        <f t="shared" ref="K98:L98" si="242">SUM(K94:K97)</f>
         <v>-5371</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-1669</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" ref="M98:P98" si="242">SUM(M94:M97)</f>
+        <f t="shared" ref="M98:P98" si="243">SUM(M94:M97)</f>
         <v>-9684</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-10853</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-3250</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-1161</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" ref="Q98:AB98" si="243">SUM(Q94:Q97)</f>
+        <f t="shared" ref="Q98:AB98" si="244">SUM(Q94:Q97)</f>
         <v>-16171</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-9729</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-3132</v>
       </c>
       <c r="T98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-7150</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-3264</v>
       </c>
       <c r="V98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-9134</v>
       </c>
       <c r="W98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>503</v>
       </c>
       <c r="X98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-71925</v>
       </c>
       <c r="Y98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-10700</v>
       </c>
       <c r="Z98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-14848</v>
       </c>
       <c r="AA98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-15201</v>
       </c>
       <c r="AB98" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-14112</v>
       </c>
       <c r="BK98" s="5"/>
@@ -17351,7 +17413,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5">
-        <f t="shared" ref="G105" si="244">SUM(G100:G104)</f>
+        <f t="shared" ref="G105" si="245">SUM(G100:G104)</f>
         <v>-10209</v>
       </c>
       <c r="H105" s="5">
@@ -17367,23 +17429,23 @@
         <v>-12262</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" ref="K105:L105" si="245">SUM(K100:K104)</f>
+        <f t="shared" ref="K105:L105" si="246">SUM(K100:K104)</f>
         <v>-10289</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>-13634</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" ref="M105:O105" si="246">SUM(M100:M104)</f>
+        <f t="shared" ref="M105:O105" si="247">SUM(M100:M104)</f>
         <v>-13192</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-11371</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-16276</v>
       </c>
       <c r="P105" s="5">
@@ -17407,35 +17469,35 @@
         <v>-11349</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" ref="U105:AB105" si="247">SUM(U100:U104)</f>
+        <f t="shared" ref="U105:AB105" si="248">SUM(U100:U104)</f>
         <v>-10290</v>
       </c>
       <c r="V105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-11413</v>
       </c>
       <c r="W105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>14761</v>
       </c>
       <c r="X105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-10147</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-18808</v>
       </c>
       <c r="Z105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-23563</v>
       </c>
       <c r="AA105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-16576</v>
       </c>
       <c r="AB105" s="5">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>-11243</v>
       </c>
       <c r="BK105" s="5"/>
@@ -17519,39 +17581,39 @@
         <v>67</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" ref="G107:H107" si="248">G105+G106+G98+G92</f>
+        <f t="shared" ref="G107:H107" si="249">G105+G106+G98+G92</f>
         <v>1761</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>-4253</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" ref="I107:J107" si="249">I105+I106+I98+I92</f>
+        <f t="shared" ref="I107:J107" si="250">I105+I106+I98+I92</f>
         <v>2846</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1866</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" ref="K107:L107" si="250">K105+K106+K98+K92</f>
+        <f t="shared" ref="K107:L107" si="251">K105+K106+K98+K92</f>
         <v>3629</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>-2773</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" ref="M107:O107" si="251">M105+M106+M98+M92</f>
+        <f t="shared" ref="M107:O107" si="252">M105+M106+M98+M92</f>
         <v>-730</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>522</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>4941</v>
       </c>
       <c r="P107" s="5">
@@ -17575,35 +17637,35 @@
         <v>-7238</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" ref="U107:AB107" si="252">U105+U106+U98+U92</f>
+        <f t="shared" ref="U107:AB107" si="253">U105+U106+U98+U92</f>
         <v>10916</v>
       </c>
       <c r="V107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>8142</v>
       </c>
       <c r="W107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>45748</v>
       </c>
       <c r="X107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>-63147</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>2329</v>
       </c>
       <c r="Z107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>-1319</v>
       </c>
       <c r="AA107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>2525</v>
       </c>
       <c r="AB107" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>-3358</v>
       </c>
     </row>
@@ -17612,39 +17674,39 @@
         <v>72</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" ref="G109:J109" si="253">G92+G94</f>
+        <f t="shared" ref="G109:J109" si="254">G92+G94</f>
         <v>10433</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>7135</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>13737</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>13929</v>
       </c>
       <c r="K109" s="5">
-        <f t="shared" ref="K109:O109" si="254">K92+K94</f>
+        <f t="shared" ref="K109:O109" si="255">K92+K94</f>
         <v>14428</v>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>8342</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>17090</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>16258</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>18730</v>
       </c>
       <c r="P109" s="5">
@@ -17652,11 +17714,11 @@
         <v>8615</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" ref="Q109:R109" si="255">Q92+Q94</f>
+        <f t="shared" ref="Q109:R109" si="256">Q92+Q94</f>
         <v>20046</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>17758</v>
       </c>
       <c r="S109" s="5">
@@ -17668,35 +17730,35 @@
         <v>4899</v>
       </c>
       <c r="U109" s="5">
-        <f t="shared" ref="U109:AB109" si="256">U92+U94</f>
+        <f t="shared" ref="U109:AB109" si="257">U92+U94</f>
         <v>17834</v>
       </c>
       <c r="V109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>19827</v>
       </c>
       <c r="W109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>20666</v>
       </c>
       <c r="X109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>9118</v>
       </c>
       <c r="Y109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>20965</v>
       </c>
       <c r="Z109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>23322</v>
       </c>
       <c r="AA109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>19257</v>
       </c>
       <c r="AB109" s="5">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>6487</v>
       </c>
     </row>
@@ -17705,79 +17767,79 @@
         <v>103</v>
       </c>
       <c r="J110" s="4">
-        <f t="shared" ref="J110" si="257">SUM(G109:J109)</f>
+        <f t="shared" ref="J110" si="258">SUM(G109:J109)</f>
         <v>45234</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" ref="K110" si="258">SUM(H109:K109)</f>
+        <f t="shared" ref="K110" si="259">SUM(H109:K109)</f>
         <v>49229</v>
       </c>
       <c r="L110" s="4">
-        <f t="shared" ref="L110" si="259">SUM(I109:L109)</f>
+        <f t="shared" ref="L110" si="260">SUM(I109:L109)</f>
         <v>50436</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" ref="M110" si="260">SUM(J109:M109)</f>
+        <f t="shared" ref="M110" si="261">SUM(J109:M109)</f>
         <v>53789</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" ref="N110" si="261">SUM(K109:N109)</f>
+        <f t="shared" ref="N110" si="262">SUM(K109:N109)</f>
         <v>56118</v>
       </c>
       <c r="O110" s="4">
-        <f t="shared" ref="O110:T110" si="262">SUM(L109:O109)</f>
+        <f t="shared" ref="O110:T110" si="263">SUM(L109:O109)</f>
         <v>60420</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>60693</v>
       </c>
       <c r="Q110" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>63649</v>
       </c>
       <c r="R110" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>65149</v>
       </c>
       <c r="S110" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>63334</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>59618</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" ref="U110:AB110" si="263">SUM(R109:U109)</f>
+        <f t="shared" ref="U110:AB110" si="264">SUM(R109:U109)</f>
         <v>57406</v>
       </c>
       <c r="V110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>59475</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>63226</v>
       </c>
       <c r="X110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>67445</v>
       </c>
       <c r="Y110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>70576</v>
       </c>
       <c r="Z110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>74071</v>
       </c>
       <c r="AA110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>72662</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>70031</v>
       </c>
     </row>
@@ -17786,51 +17848,51 @@
         <v>463</v>
       </c>
       <c r="N111" s="12">
-        <f t="shared" ref="N111" si="264">+N110/J110-1</f>
+        <f t="shared" ref="N111" si="265">+N110/J110-1</f>
         <v>0.24061546624220709</v>
       </c>
       <c r="O111" s="12">
-        <f t="shared" ref="O111" si="265">+O110/K110-1</f>
+        <f t="shared" ref="O111" si="266">+O110/K110-1</f>
         <v>0.22732535700501733</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" ref="P111" si="266">+P110/L110-1</f>
+        <f t="shared" ref="P111" si="267">+P110/L110-1</f>
         <v>0.20336664287413742</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" ref="Q111" si="267">+Q110/M110-1</f>
+        <f t="shared" ref="Q111" si="268">+Q110/M110-1</f>
         <v>0.18330885497034699</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" ref="R111" si="268">+R110/N110-1</f>
+        <f t="shared" ref="R111" si="269">+R110/N110-1</f>
         <v>0.16092875726148481</v>
       </c>
       <c r="S111" s="12">
-        <f t="shared" ref="S111:Y111" si="269">+S110/O110-1</f>
+        <f t="shared" ref="S111:Y111" si="270">+S110/O110-1</f>
         <v>4.8229063224098034E-2</v>
       </c>
       <c r="T111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>-1.7712092004020241E-2</v>
       </c>
       <c r="U111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>-9.8084808873666551E-2</v>
       </c>
       <c r="V111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>-8.7092664507513518E-2</v>
       </c>
       <c r="W111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>-1.7052452079451275E-3</v>
       </c>
       <c r="X111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.13128585326579212</v>
       </c>
       <c r="Y111" s="12">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>0.22941852768003335</v>
       </c>
       <c r="Z111" s="12">
@@ -17851,59 +17913,59 @@
         <v>464</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" ref="J112" si="270">SUM(G94:J94)</f>
+        <f t="shared" ref="J112" si="271">SUM(G94:J94)</f>
         <v>-15441</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" ref="K112" si="271">SUM(H94:K94)</f>
+        <f t="shared" ref="K112" si="272">SUM(H94:K94)</f>
         <v>-16963</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" ref="L112" si="272">SUM(I94:L94)</f>
+        <f t="shared" ref="L112" si="273">SUM(I94:L94)</f>
         <v>-17592</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" ref="M112" si="273">SUM(J94:M94)</f>
+        <f t="shared" ref="M112" si="274">SUM(J94:M94)</f>
         <v>-18914</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" ref="N112" si="274">SUM(K94:N94)</f>
+        <f t="shared" ref="N112" si="275">SUM(K94:N94)</f>
         <v>-20622</v>
       </c>
       <c r="O112" s="4">
-        <f t="shared" ref="O112:W112" si="275">SUM(L94:O94)</f>
+        <f t="shared" ref="O112:W112" si="276">SUM(L94:O94)</f>
         <v>-21525</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-23216</v>
       </c>
       <c r="Q112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-23467</v>
       </c>
       <c r="R112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-23886</v>
       </c>
       <c r="S112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-24359</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-24768</v>
       </c>
       <c r="U112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-26035</v>
       </c>
       <c r="V112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-28107</v>
       </c>
       <c r="W112" s="4">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>-31741</v>
       </c>
       <c r="X112" s="4">
@@ -17932,43 +17994,43 @@
         <v>463</v>
       </c>
       <c r="N113" s="12">
-        <f t="shared" ref="N113" si="276">+N112/J112-1</f>
+        <f t="shared" ref="N113" si="277">+N112/J112-1</f>
         <v>0.33553526326015159</v>
       </c>
       <c r="O113" s="12">
-        <f t="shared" ref="O113" si="277">+O112/K112-1</f>
+        <f t="shared" ref="O113" si="278">+O112/K112-1</f>
         <v>0.26893827742734189</v>
       </c>
       <c r="P113" s="12">
-        <f t="shared" ref="P113" si="278">+P112/L112-1</f>
+        <f t="shared" ref="P113" si="279">+P112/L112-1</f>
         <v>0.31969076853115053</v>
       </c>
       <c r="Q113" s="12">
-        <f t="shared" ref="Q113" si="279">+Q112/M112-1</f>
+        <f t="shared" ref="Q113" si="280">+Q112/M112-1</f>
         <v>0.24072115892989321</v>
       </c>
       <c r="R113" s="12">
-        <f t="shared" ref="R113" si="280">+R112/N112-1</f>
+        <f t="shared" ref="R113" si="281">+R112/N112-1</f>
         <v>0.15827756764620315</v>
       </c>
       <c r="S113" s="12">
-        <f t="shared" ref="S113:W113" si="281">+S112/O112-1</f>
+        <f t="shared" ref="S113:W113" si="282">+S112/O112-1</f>
         <v>0.13166085946573758</v>
       </c>
       <c r="T113" s="12">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>6.6850447966919413E-2</v>
       </c>
       <c r="U113" s="12">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.10943026377466225</v>
       </c>
       <c r="V113" s="12">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.17671439336850048</v>
       </c>
       <c r="W113" s="12">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.3030502073155712</v>
       </c>
       <c r="X113" s="12">
@@ -18196,95 +18258,95 @@
         <v>2</v>
       </c>
       <c r="AK119" s="4">
-        <f t="shared" ref="AK119:BG119" si="282">AK118*AK48</f>
+        <f t="shared" ref="AK119:BG119" si="283">AK118*AK48</f>
         <v>20734.741379310344</v>
       </c>
       <c r="AL119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>36544.838709677417</v>
       </c>
       <c r="AM119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>49327.24832214765</v>
       </c>
       <c r="AN119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>114885.89743906935</v>
       </c>
       <c r="AO119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>184709.73040305718</v>
       </c>
       <c r="AP119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>372704.58101536665</v>
       </c>
       <c r="AQ119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>298261.112605042</v>
       </c>
       <c r="AR119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>266298.08220699872</v>
       </c>
       <c r="AS119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>222567.08981033842</v>
       </c>
       <c r="AT119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>236906.16184222695</v>
       </c>
       <c r="AU119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>252642.2008830022</v>
       </c>
       <c r="AV119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>260731.99813293503</v>
       </c>
       <c r="AW119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>247113.52251981141</v>
       </c>
       <c r="AX119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>265170.46442666667</v>
       </c>
       <c r="AY119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>298326.78203723987</v>
       </c>
       <c r="AZ119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>151214.58181818182</v>
       </c>
       <c r="BA119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>242693.07615855773</v>
       </c>
       <c r="BB119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>213717.28455478634</v>
       </c>
       <c r="BC119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>198199.0335202195</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>206380.61592027853</v>
       </c>
       <c r="BE119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>290064.69972083991</v>
       </c>
       <c r="BF119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BG119" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -18293,95 +18355,95 @@
         <v>5</v>
       </c>
       <c r="AK120" s="4">
-        <f t="shared" ref="AK120:BG120" si="283">AK119-AK63</f>
+        <f t="shared" ref="AK120:BG120" si="284">AK119-AK63</f>
         <v>17120.741379310344</v>
       </c>
       <c r="AL120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>31794.838709677417</v>
       </c>
       <c r="AM120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>42387.24832214765</v>
       </c>
       <c r="AN120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>103573.89743906935</v>
       </c>
       <c r="AO120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>166079.73040305718</v>
       </c>
       <c r="AP120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>341096.58101536665</v>
       </c>
       <c r="AQ120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>256737.112605042</v>
       </c>
       <c r="AR120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>220557.08220699872</v>
       </c>
       <c r="AS120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>169724.08981033842</v>
       </c>
       <c r="AT120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>174166.16184222695</v>
       </c>
       <c r="AU120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>179840.2008830022</v>
       </c>
       <c r="AV120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>211976.99813293503</v>
       </c>
       <c r="AW120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>203720.52251981141</v>
       </c>
       <c r="AX120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>231642.46442666667</v>
       </c>
       <c r="AY120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>268076.78203723987</v>
       </c>
       <c r="AZ120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>120580.58181818182</v>
       </c>
       <c r="BA120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>204090.07615855773</v>
       </c>
       <c r="BB120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>162001.28455478634</v>
       </c>
       <c r="BC120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>137327.0335202195</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>134114.61592027853</v>
       </c>
       <c r="BE120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>212403.69972083991</v>
       </c>
       <c r="BF120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>377052.05051894463</v>
       </c>
       <c r="BG120" s="4">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>436539.84856262838</v>
       </c>
     </row>
@@ -18390,95 +18452,95 @@
         <v>223</v>
       </c>
       <c r="AK121" s="24">
-        <f t="shared" ref="AK121:BG121" si="284">AK120/AK46</f>
+        <f t="shared" ref="AK121:BG121" si="285">AK120/AK46</f>
         <v>13.85173250753264</v>
       </c>
       <c r="AL121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>21.21069960618907</v>
       </c>
       <c r="AM121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>19.310819281160661</v>
       </c>
       <c r="AN121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>29.986652414322336</v>
       </c>
       <c r="AO121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>34.905365784585371</v>
       </c>
       <c r="AP121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>44.733977838080875</v>
       </c>
       <c r="AQ121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>27.710427696172907</v>
       </c>
       <c r="AR121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>27.989477437436385</v>
       </c>
       <c r="AS121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>21.427103877078451</v>
       </c>
       <c r="AT121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>17.311018968514755</v>
       </c>
       <c r="AU121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>21.950470021115855</v>
       </c>
       <c r="AV121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>17.298596224329607</v>
       </c>
       <c r="AW121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>16.16957873798011</v>
       </c>
       <c r="AX121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>16.469425128095747</v>
       </c>
       <c r="AY121" s="24">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>15.161856345073236</v>
       </c>
       <c r="AZ121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>8.0931996656273455</v>
       </c>
       <c r="BA121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>10.844894848746359</v>
       </c>
       <c r="BB121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>6.9978956611138807</v>
       </c>
       <c r="BC121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>5.9266770325069915</v>
       </c>
       <c r="BD121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>6.1343189827689946</v>
       </c>
       <c r="BE121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>9.5673032620530574</v>
       </c>
       <c r="BF121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>16.98126691222053</v>
       </c>
       <c r="BG121" s="25">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>24.376806374951329</v>
       </c>
     </row>
